--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="592" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="635" uniqueCount="635">
   <si>
     <t>key</t>
   </si>
@@ -821,9 +821,6 @@
   </si>
   <si>
     <t>Interface</t>
-  </si>
-  <si>
-    <t>trans0141</t>
   </si>
   <si>
     <t>操作</t>
@@ -1260,58 +1257,190 @@
     <t>trans0202</t>
   </si>
   <si>
-    <t>密码修改成功，将跳转到登录页面</t>
+    <t>密码修改成功，下一次登录请使用新密码</t>
   </si>
   <si>
     <t>trans0203</t>
   </si>
   <si>
+    <t>升级过程可能需要花费几分钟的时间，升级过程中请不要关闭电源。完成后，设备会自动重启。</t>
+  </si>
+  <si>
+    <t>the upgrade process may take a few minutes,please don't turn off the power during the upgrade. When finished, the device will restart automatically.</t>
+  </si>
+  <si>
     <t>trans0204</t>
   </si>
   <si>
+    <t>确定删除此条上行IP规律规则吗？</t>
+  </si>
+  <si>
     <t>trans0205</t>
   </si>
   <si>
+    <t>可拖动上传文件</t>
+  </si>
+  <si>
+    <t>Drag and drop files to upload</t>
+  </si>
+  <si>
     <t>trans0206</t>
   </si>
   <si>
+    <t>文件上传失败，重新上传文件</t>
+  </si>
+  <si>
+    <t>File upload failed. Please try again</t>
+  </si>
+  <si>
     <t>trans0207</t>
   </si>
   <si>
+    <t>松开以上传</t>
+  </si>
+  <si>
+    <t>Drop files here</t>
+  </si>
+  <si>
     <t>trans0208</t>
   </si>
   <si>
+    <t>文件格式只支持%s，请重试</t>
+  </si>
+  <si>
     <t>trans0209</t>
   </si>
   <si>
+    <t>导入%s格式文件</t>
+  </si>
+  <si>
     <t>trans0210</t>
   </si>
   <si>
+    <t>确定删除此条下行IP规律规则吗？</t>
+  </si>
+  <si>
     <t>trans0211</t>
   </si>
   <si>
+    <t>文件过大</t>
+  </si>
+  <si>
+    <t>Sorry, the file is too large</t>
+  </si>
+  <si>
     <t>trans0212</t>
   </si>
   <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
     <t>trans0213</t>
   </si>
   <si>
+    <t>固件</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
     <t>trans0214</t>
   </si>
   <si>
+    <t>文件类型</t>
+  </si>
+  <si>
     <t>trans0215</t>
   </si>
   <si>
+    <t>过滤规则名字</t>
+  </si>
+  <si>
+    <t>Filter Rule Name</t>
+  </si>
+  <si>
     <t>trans0216</t>
   </si>
   <si>
+    <t>MAC 地址访问控制</t>
+  </si>
+  <si>
+    <t>MAC Address Access Control</t>
+  </si>
+  <si>
     <t>trans0217</t>
   </si>
   <si>
+    <t>(Format: AA:BB:CC:DD:EE:FF)</t>
+  </si>
+  <si>
     <t>trans0218</t>
   </si>
   <si>
+    <t>是否启用MAC过滤？</t>
+  </si>
+  <si>
+    <t>Is MAC filtering enabled?</t>
+  </si>
+  <si>
     <t>trans0219</t>
+  </si>
+  <si>
+    <t>是否禁用MAC过滤？</t>
+  </si>
+  <si>
+    <t>Is MAC filtering disabled?</t>
+  </si>
+  <si>
+    <t>trans0220</t>
+  </si>
+  <si>
+    <t>更改过滤模式将切换所有筛选规则。是否确实要将过滤器模式更改为白名单？</t>
+  </si>
+  <si>
+    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the white list?</t>
+  </si>
+  <si>
+    <t>trans0221</t>
+  </si>
+  <si>
+    <t>更改筛选模式将切换所有筛选规则。是否确实要将筛选模式更改为黑名单？</t>
+  </si>
+  <si>
+    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the black list?</t>
+  </si>
+  <si>
+    <t>trans0222</t>
+  </si>
+  <si>
+    <t>必须选择文件</t>
+  </si>
+  <si>
+    <t>trans0223</t>
+  </si>
+  <si>
+    <t>trans0224</t>
+  </si>
+  <si>
+    <t>trans0225</t>
+  </si>
+  <si>
+    <t>trans0226</t>
+  </si>
+  <si>
+    <t>trans0227</t>
+  </si>
+  <si>
+    <t>trans0228</t>
+  </si>
+  <si>
+    <t>trans0229</t>
+  </si>
+  <si>
+    <t>trans0230</t>
   </si>
   <si>
     <t>trans0001</t>
@@ -2518,7 +2647,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2573,6 +2702,11 @@
       <name val="微软雅黑"/>
       <sz val="10.0"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="10.0"/>
+      <color rgb="CE9178"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2597,7 +2731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
@@ -2633,6 +2767,9 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2941,7 +3078,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2979,10 +3116,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -2998,7 +3135,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3017,13 +3154,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3134,10 +3271,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3321,10 +3458,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -3340,10 +3477,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -3357,10 +3494,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -3374,10 +3511,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -3391,10 +3528,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -3408,10 +3545,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -3425,7 +3562,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -3442,10 +3579,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -3459,10 +3596,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -3476,10 +3613,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -3493,10 +3630,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -3510,10 +3647,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -3527,10 +3664,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -3544,10 +3681,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -3561,10 +3698,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -3578,10 +3715,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -3595,10 +3732,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -3612,10 +3749,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -3629,10 +3766,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -3646,10 +3783,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -3663,10 +3800,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -3680,10 +3817,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -3697,10 +3834,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -3714,10 +3851,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -3731,10 +3868,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -3748,10 +3885,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -3765,10 +3902,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -3782,10 +3919,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -3799,13 +3936,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -3818,13 +3955,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -3837,7 +3974,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -3854,7 +3991,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -3871,7 +4008,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -3891,7 +4028,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -3986,10 +4123,10 @@
         <v>77</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5855,7 +5992,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="19.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="52.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="80.0" hidden="false" customWidth="true"/>
     <col min="3" max="3" width="60.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="11.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="11.0" hidden="false" customWidth="true"/>
@@ -5888,7 +6025,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5926,10 +6063,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5945,7 +6082,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5964,13 +6101,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6081,10 +6218,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6268,10 +6405,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -6287,10 +6424,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6304,10 +6441,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6321,10 +6458,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6338,10 +6475,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6355,10 +6492,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6372,10 +6509,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -6391,10 +6528,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6408,10 +6545,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -6427,10 +6564,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -6446,10 +6583,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -6465,10 +6602,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6482,10 +6619,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6499,10 +6636,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6516,10 +6653,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6533,10 +6670,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6550,10 +6687,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -6569,10 +6706,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6586,10 +6723,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6603,10 +6740,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6620,10 +6757,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6637,10 +6774,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6654,10 +6791,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6671,10 +6808,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6688,10 +6825,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6705,10 +6842,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6722,10 +6859,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6739,10 +6876,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6756,10 +6893,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -6773,10 +6910,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -6790,7 +6927,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6807,7 +6944,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6824,7 +6961,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -7104,10 +7241,10 @@
         <v>101</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7123,10 +7260,10 @@
         <v>102</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7142,10 +7279,10 @@
         <v>103</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7161,10 +7298,10 @@
         <v>104</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -7180,10 +7317,10 @@
         <v>105</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7199,10 +7336,10 @@
         <v>106</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7218,10 +7355,10 @@
         <v>107</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7237,10 +7374,10 @@
         <v>108</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7256,7 +7393,7 @@
         <v>109</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="2"/>
@@ -7983,7 +8120,7 @@
         <v>202</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>203</v>
@@ -8429,14 +8566,14 @@
       <c r="K141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8449,13 +8586,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8468,13 +8605,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="C144" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8487,13 +8624,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8506,13 +8643,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8525,13 +8662,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8544,7 +8681,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>241</v>
@@ -8561,13 +8698,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8580,13 +8717,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="C150" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8599,10 +8736,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>250</v>
@@ -8618,13 +8755,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="C152" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8637,13 +8774,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="C153" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8656,10 +8793,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>268</v>
@@ -8675,13 +8812,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="C155" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8694,13 +8831,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="C156" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8713,13 +8850,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="C157" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8732,13 +8869,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="C158" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -8751,13 +8888,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="C159" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -8770,13 +8907,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="C160" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -8789,13 +8926,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="C161" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -8808,13 +8945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="C162" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -8827,13 +8964,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>322</v>
-      </c>
       <c r="C163" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8846,13 +8983,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="C164" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -8865,10 +9002,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>178</v>
@@ -8884,13 +9021,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="C166" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -8903,13 +9040,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="C167" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -8922,10 +9059,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -8939,10 +9076,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -8956,10 +9093,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -8973,10 +9110,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -8990,13 +9127,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="C172" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -9009,10 +9146,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -9026,10 +9163,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -9043,10 +9180,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -9060,10 +9197,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9077,10 +9214,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -9094,10 +9231,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -9111,10 +9248,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -9128,10 +9265,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -9145,10 +9282,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -9162,10 +9299,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -9179,13 +9316,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="C183" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9198,13 +9335,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="C184" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9217,13 +9354,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="C185" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9236,13 +9373,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="C186" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9255,13 +9392,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="C187" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9274,13 +9411,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="C188" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9293,13 +9430,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="C189" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9312,10 +9449,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -9329,10 +9466,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -9346,10 +9483,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -9363,10 +9500,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -9380,13 +9517,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="C194" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9399,13 +9536,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="C195" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -9418,10 +9555,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -9435,10 +9572,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -9452,10 +9589,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -9469,10 +9606,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -9486,10 +9623,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -9503,10 +9640,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -9520,10 +9657,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -9537,10 +9674,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -9554,10 +9691,14 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="C204" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -9569,9 +9710,11 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B205" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9584,10 +9727,14 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>421</v>
+      </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -9599,10 +9746,14 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>424</v>
+      </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -9614,10 +9765,14 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -9629,9 +9784,11 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B209" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>429</v>
+      </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9644,9 +9801,11 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B210" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9659,9 +9818,11 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B211" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -9674,10 +9835,14 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>436</v>
+      </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -9689,10 +9854,14 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>439</v>
+      </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -9704,10 +9873,14 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -9719,9 +9892,11 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B215" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>444</v>
+      </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9734,10 +9909,14 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -9749,10 +9928,14 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -9764,10 +9947,14 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -9779,10 +9966,14 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -9794,10 +9985,14 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>458</v>
+      </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -9808,9 +10003,15 @@
       <c r="K220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="A221" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -9821,9 +10022,15 @@
       <c r="K221" s="2"/>
     </row>
     <row r="222">
-      <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+      <c r="A222" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -9834,8 +10041,12 @@
       <c r="K222" s="2"/>
     </row>
     <row r="223">
-      <c r="A223" s="1"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -9847,7 +10058,9 @@
       <c r="K223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -9860,7 +10073,9 @@
       <c r="K224" s="2"/>
     </row>
     <row r="225">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -9873,7 +10088,9 @@
       <c r="K225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -9886,7 +10103,9 @@
       <c r="K226" s="2"/>
     </row>
     <row r="227">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -9899,7 +10118,9 @@
       <c r="K227" s="2"/>
     </row>
     <row r="228">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -9912,7 +10133,9 @@
       <c r="K228" s="2"/>
     </row>
     <row r="229">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -9925,7 +10148,9 @@
       <c r="K229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -9938,7 +10163,9 @@
       <c r="K230" s="2"/>
     </row>
     <row r="231">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="635" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="692" uniqueCount="692">
   <si>
     <t>key</t>
   </si>
@@ -24,6 +24,9 @@
     <t>en-US</t>
   </si>
   <si>
+    <t>trans0001</t>
+  </si>
+  <si>
     <t>请选择</t>
   </si>
   <si>
@@ -39,15 +42,33 @@
     <t>Save</t>
   </si>
   <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
     <t>Password may only contain %d-%d digits, letters or special characters, or any combination of these.</t>
   </si>
   <si>
+    <t>trans0004</t>
+  </si>
+  <si>
     <t>必填</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
     <t>trans0006</t>
   </si>
   <si>
@@ -96,6 +117,12 @@
     <t>trans0011</t>
   </si>
   <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
     <t>trans0012</t>
   </si>
   <si>
@@ -177,96 +204,279 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
     <t>Are you sure to log out?</t>
   </si>
   <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
     <t>%sWi-Fi</t>
   </si>
   <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>%s不能为空</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>trans0054</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>trans0055</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>trans0056</t>
+  </si>
+  <si>
+    <t>IP 过滤</t>
+  </si>
+  <si>
+    <t>IP Filter</t>
+  </si>
+  <si>
+    <t>trans0057</t>
+  </si>
+  <si>
+    <t>Mac 过滤</t>
+  </si>
+  <si>
+    <t>Mac Filter</t>
+  </si>
+  <si>
+    <t>trans0058</t>
+  </si>
+  <si>
+    <t>URL 过滤</t>
+  </si>
+  <si>
+    <t>URL Filter</t>
+  </si>
+  <si>
+    <t>trans0059</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
+    <t>trans0060</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>trans0061</t>
+  </si>
+  <si>
     <t>Wi-Fi Name</t>
   </si>
   <si>
     <t>Wi-Fi Password</t>
   </si>
   <si>
-    <t>Safety</t>
-  </si>
-  <si>
     <t>Security Level</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>%s不能为空</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>trans0054</t>
-  </si>
-  <si>
     <t>关闭</t>
   </si>
   <si>
     <t>Disable</t>
   </si>
   <si>
-    <t>trans0055</t>
-  </si>
-  <si>
-    <t>Dos</t>
-  </si>
-  <si>
-    <t>trans0056</t>
-  </si>
-  <si>
-    <t>IP 过滤</t>
-  </si>
-  <si>
-    <t>IP Filter</t>
-  </si>
-  <si>
-    <t>trans0057</t>
-  </si>
-  <si>
-    <t>Mac 过滤</t>
-  </si>
-  <si>
-    <t>Mac Filter</t>
-  </si>
-  <si>
-    <t>trans0058</t>
-  </si>
-  <si>
-    <t>URL 过滤</t>
-  </si>
-  <si>
-    <t>URL Filter</t>
-  </si>
-  <si>
-    <t>trans0059</t>
-  </si>
-  <si>
     <t>Acl 过滤</t>
   </si>
   <si>
     <t>Acl Filter</t>
   </si>
   <si>
-    <t>trans0060</t>
-  </si>
-  <si>
-    <t>防火墙</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
-    <t>trans0061</t>
-  </si>
-  <si>
     <t>防火墙是因特网和家庭网络之间的安全屏障。启用防火墙后，因特网和家庭网络之间所有的通信数据都要经过防火墙扫描，可以有效保护您的网络安全。</t>
   </si>
   <si>
@@ -345,10 +555,13 @@
     <t>trans0076</t>
   </si>
   <si>
+    <t xml:space="preserve">  %d 分钟</t>
+  </si>
+  <si>
     <t>trans0077</t>
   </si>
   <si>
-    <t>%d 天 %d 小时 %d 分钟</t>
+    <t xml:space="preserve">  %d 小时</t>
   </si>
   <si>
     <t>trans0078</t>
@@ -1422,235 +1635,196 @@
     <t>trans0223</t>
   </si>
   <si>
+    <t>上传中，请稍等……</t>
+  </si>
+  <si>
     <t>trans0224</t>
   </si>
   <si>
+    <t>回复出厂默认配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reset to Defaults</t>
+  </si>
+  <si>
     <t>trans0225</t>
   </si>
   <si>
+    <t>确定回复出厂默认配置吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to reset to defaults?</t>
+  </si>
+  <si>
     <t>trans0226</t>
   </si>
   <si>
+    <t>配置备份</t>
+  </si>
+  <si>
+    <t>configuration  backup</t>
+  </si>
+  <si>
     <t>trans0227</t>
   </si>
   <si>
+    <t>设备管理</t>
+  </si>
+  <si>
     <t>trans0228</t>
   </si>
   <si>
+    <t>确定备份配置吗？</t>
+  </si>
+  <si>
     <t>trans0229</t>
   </si>
   <si>
+    <t>请等待，设备正在重新启动。。。。。。</t>
+  </si>
+  <si>
+    <t>Please wait,the device is rebooting...</t>
+  </si>
+  <si>
     <t>trans0230</t>
   </si>
   <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Acl</t>
+    <t>请等待，设备正在重新启动，回复默认配置。。。。。。</t>
+  </si>
+  <si>
+    <t>Please wait,the device is rebooting for restoring default configuration...</t>
+  </si>
+  <si>
+    <t>trans0231</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>trans0232</t>
+  </si>
+  <si>
+    <t>警报</t>
+  </si>
+  <si>
+    <t>trans0233</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>trans0234</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>trans0235</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>trans0236</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>trans0237</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>trans0238</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>trans0239</t>
+  </si>
+  <si>
+    <t>日志等级</t>
+  </si>
+  <si>
+    <t>trans0240</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>trans0241</t>
+  </si>
+  <si>
+    <t>下载日志</t>
+  </si>
+  <si>
+    <t>trans0242</t>
+  </si>
+  <si>
+    <t>确定设备重新启动吗？</t>
+  </si>
+  <si>
+    <t>trans0243</t>
+  </si>
+  <si>
+    <t>%d 天</t>
+  </si>
+  <si>
+    <t>trans0244</t>
+  </si>
+  <si>
+    <t>trans0245</t>
+  </si>
+  <si>
+    <t>trans0246</t>
+  </si>
+  <si>
+    <t>trans0247</t>
+  </si>
+  <si>
+    <t>trans0248</t>
+  </si>
+  <si>
+    <t>trans0249</t>
+  </si>
+  <si>
+    <t>trans0250</t>
+  </si>
+  <si>
+    <t>trans0251</t>
+  </si>
+  <si>
+    <t>trans0252</t>
+  </si>
+  <si>
+    <t>trans0253</t>
+  </si>
+  <si>
+    <t>trans0254</t>
+  </si>
+  <si>
+    <t>trans0255</t>
+  </si>
+  <si>
+    <t>trans0256</t>
+  </si>
+  <si>
+    <t>trans0257</t>
+  </si>
+  <si>
+    <t>trans0258</t>
+  </si>
+  <si>
+    <t>trans0259</t>
+  </si>
+  <si>
+    <t>trans0260</t>
+  </si>
+  <si>
+    <t>trans0261</t>
   </si>
   <si>
     <r>
@@ -2617,17 +2791,6 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Router restart</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">%d 天 %d 小时 %d 分钟</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3078,13 +3241,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>475</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3097,13 +3260,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3116,13 +3279,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>477</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3135,13 +3298,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3154,13 +3317,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3173,13 +3336,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3192,13 +3355,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3211,13 +3374,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3230,13 +3393,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3249,13 +3412,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3268,13 +3431,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>483</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3287,13 +3450,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3306,13 +3469,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3325,13 +3488,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3344,13 +3507,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3363,13 +3526,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3382,13 +3545,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3401,13 +3564,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3420,13 +3583,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3439,13 +3602,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3458,13 +3621,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>484</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>485</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3477,10 +3640,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>486</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>487</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -3494,10 +3657,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>489</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -3511,10 +3674,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>490</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>491</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -3528,10 +3691,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>492</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>493</v>
+        <v>73</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -3545,10 +3708,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>494</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>495</v>
+        <v>75</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -3562,10 +3725,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>496</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
@@ -3579,10 +3742,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -3596,10 +3759,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -3613,10 +3776,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -3630,10 +3793,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>503</v>
+        <v>84</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>504</v>
+        <v>85</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -3647,10 +3810,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>506</v>
+        <v>87</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -3664,10 +3827,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>507</v>
+        <v>88</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>508</v>
+        <v>89</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -3681,10 +3844,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>509</v>
+        <v>90</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>510</v>
+        <v>91</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -3698,10 +3861,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>511</v>
+        <v>92</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>512</v>
+        <v>93</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -3715,10 +3878,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>513</v>
+        <v>94</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>514</v>
+        <v>95</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -3732,10 +3895,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>515</v>
+        <v>96</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -3749,10 +3912,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>516</v>
+        <v>97</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>517</v>
+        <v>98</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -3766,10 +3929,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>518</v>
+        <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>519</v>
+        <v>100</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -3783,10 +3946,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>520</v>
+        <v>101</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>521</v>
+        <v>102</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -3800,10 +3963,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>522</v>
+        <v>103</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>523</v>
+        <v>104</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -3817,10 +3980,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>524</v>
+        <v>105</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>525</v>
+        <v>106</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -3834,10 +3997,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>526</v>
+        <v>107</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>527</v>
+        <v>108</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -3851,10 +4014,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>528</v>
+        <v>109</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>529</v>
+        <v>110</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -3868,10 +4031,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>530</v>
+        <v>111</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>531</v>
+        <v>112</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -3885,10 +4048,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>532</v>
+        <v>113</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>533</v>
+        <v>114</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -3902,10 +4065,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>534</v>
+        <v>115</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>535</v>
+        <v>116</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -3919,10 +4082,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>536</v>
+        <v>117</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>487</v>
+        <v>67</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -3936,13 +4099,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>537</v>
+        <v>118</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>538</v>
+        <v>119</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>538</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -3955,13 +4118,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>539</v>
+        <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>540</v>
+        <v>121</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>540</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -3974,10 +4137,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>541</v>
+        <v>122</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="2"/>
@@ -3991,10 +4154,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>542</v>
+        <v>124</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="2"/>
@@ -4008,10 +4171,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>543</v>
+        <v>126</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="2"/>
@@ -4025,13 +4188,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>504</v>
+        <v>85</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4044,13 +4207,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4063,13 +4226,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4082,13 +4245,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4101,13 +4264,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4120,13 +4283,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>544</v>
+        <v>142</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>544</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4139,13 +4302,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4158,7 +4321,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6025,13 +6188,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6044,13 +6207,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6063,13 +6226,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6082,13 +6245,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6101,13 +6264,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6120,13 +6283,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6139,13 +6302,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6158,13 +6321,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6177,13 +6340,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6196,13 +6359,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6215,13 +6378,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6234,13 +6397,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6253,13 +6416,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6272,13 +6435,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6291,13 +6454,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6310,13 +6473,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6329,13 +6492,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6348,13 +6511,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6367,13 +6530,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6386,13 +6549,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6405,13 +6568,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6424,10 +6587,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6441,10 +6604,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6458,10 +6621,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6475,10 +6638,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6492,10 +6655,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6509,13 +6672,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -6528,10 +6691,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6545,13 +6708,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -6564,13 +6727,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -6583,13 +6746,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -6602,10 +6765,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6619,10 +6782,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6636,10 +6799,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6653,10 +6816,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6670,10 +6833,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6687,13 +6850,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6706,10 +6869,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6723,10 +6886,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6740,10 +6903,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>593</v>
+        <v>651</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6757,10 +6920,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6774,10 +6937,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6791,10 +6954,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>598</v>
+        <v>656</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6808,10 +6971,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6825,10 +6988,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6842,10 +7005,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>605</v>
+        <v>663</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6859,10 +7022,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6876,10 +7039,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6893,10 +7056,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>610</v>
+        <v>668</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -6910,10 +7073,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -6927,10 +7090,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="2"/>
@@ -6944,10 +7107,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="2"/>
@@ -6961,10 +7124,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="2"/>
@@ -6978,13 +7141,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -6997,13 +7160,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7016,13 +7179,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -7035,13 +7198,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7054,13 +7217,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7073,13 +7236,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7092,13 +7255,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -7111,10 +7274,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -7128,13 +7291,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -7147,13 +7310,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -7166,13 +7329,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -7185,13 +7348,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -7204,10 +7367,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -7221,10 +7384,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -7238,13 +7401,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>617</v>
+        <v>675</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>618</v>
+        <v>676</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7257,13 +7420,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>619</v>
+        <v>677</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7276,13 +7439,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7295,13 +7458,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -7314,13 +7477,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7333,13 +7496,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7352,13 +7515,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7371,13 +7534,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7390,10 +7553,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>633</v>
+        <v>180</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="2"/>
@@ -7407,10 +7570,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="2"/>
@@ -7424,10 +7587,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -7441,10 +7604,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7458,10 +7621,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7475,10 +7638,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -7492,10 +7655,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7509,10 +7672,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7526,10 +7689,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -7543,10 +7706,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -7560,10 +7723,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -7577,10 +7740,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -7594,10 +7757,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -7611,10 +7774,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -7628,10 +7791,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -7645,10 +7808,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7662,10 +7825,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -7679,10 +7842,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -7696,10 +7859,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -7713,10 +7876,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -7730,10 +7893,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -7747,13 +7910,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -7766,10 +7929,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -7783,10 +7946,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -7800,10 +7963,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -7817,10 +7980,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -7834,11 +7997,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" s="1" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -7851,13 +8014,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7870,13 +8033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -7889,13 +8052,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -7908,13 +8071,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -7927,13 +8090,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -7946,13 +8109,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -7965,13 +8128,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -7984,13 +8147,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8003,13 +8166,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8022,13 +8185,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8041,13 +8204,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8060,13 +8223,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8079,13 +8242,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8098,13 +8261,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8117,13 +8280,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8136,13 +8299,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8155,13 +8318,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8174,13 +8337,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8193,13 +8356,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8212,13 +8375,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -8231,13 +8394,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8250,13 +8413,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8269,10 +8432,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -8286,13 +8449,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8305,10 +8468,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -8322,10 +8485,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -8339,13 +8502,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8358,13 +8521,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8377,13 +8540,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8396,13 +8559,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8415,13 +8578,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8434,13 +8597,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8453,13 +8616,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8472,13 +8635,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8491,13 +8654,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8510,13 +8673,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8529,13 +8692,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8548,13 +8711,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8567,13 +8730,13 @@
     </row>
     <row r="142">
       <c r="A142" s="13" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8586,13 +8749,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8605,13 +8768,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8624,13 +8787,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8643,13 +8806,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8662,13 +8825,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8681,10 +8844,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8698,13 +8861,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8717,13 +8880,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8736,13 +8899,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>293</v>
+        <v>364</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8755,13 +8918,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8774,13 +8937,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8793,13 +8956,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -8812,13 +8975,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8831,13 +8994,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8850,13 +9013,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8869,13 +9032,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -8888,13 +9051,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -8907,13 +9070,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -8926,13 +9089,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -8945,13 +9108,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -8964,13 +9127,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8983,13 +9146,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9002,13 +9165,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9021,13 +9184,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -9040,13 +9203,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9059,10 +9222,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -9076,10 +9239,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -9093,10 +9256,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>336</v>
+        <v>407</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -9110,10 +9273,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>339</v>
+        <v>410</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -9127,13 +9290,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -9146,10 +9309,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -9163,10 +9326,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -9180,10 +9343,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -9197,10 +9360,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9214,10 +9377,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -9231,10 +9394,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -9248,10 +9411,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -9265,10 +9428,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -9282,10 +9445,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -9299,10 +9462,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -9316,13 +9479,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>365</v>
+        <v>436</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9335,13 +9498,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9354,13 +9517,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9373,13 +9536,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9392,13 +9555,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9411,13 +9574,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>379</v>
+        <v>450</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9430,13 +9593,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9449,10 +9612,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -9466,10 +9629,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -9483,10 +9646,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -9500,10 +9663,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -9517,13 +9680,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9536,13 +9699,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -9555,10 +9718,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -9572,10 +9735,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -9589,10 +9752,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -9606,10 +9769,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>405</v>
+        <v>476</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -9623,10 +9786,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -9640,10 +9803,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -9657,10 +9820,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -9674,10 +9837,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -9691,13 +9854,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -9710,10 +9873,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -9727,13 +9890,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>419</v>
+        <v>490</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9746,13 +9909,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9765,13 +9928,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9784,10 +9947,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -9801,10 +9964,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -9818,10 +9981,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -9835,13 +9998,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -9854,13 +10017,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9873,13 +10036,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9892,10 +10055,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -9909,13 +10072,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -9928,13 +10091,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>448</v>
+        <v>519</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -9947,13 +10110,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -9966,13 +10129,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9985,13 +10148,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10004,13 +10167,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -10023,13 +10186,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10042,10 +10205,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -10059,9 +10222,11 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B224" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>539</v>
+      </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10074,10 +10239,14 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>542</v>
+      </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -10089,10 +10258,14 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>545</v>
+      </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -10104,10 +10277,14 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>548</v>
+      </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -10119,9 +10296,11 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B228" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>550</v>
+      </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10134,9 +10313,11 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B229" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>552</v>
+      </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10149,10 +10330,14 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>555</v>
+      </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -10164,10 +10349,14 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -10178,8 +10367,12 @@
       <c r="K231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10191,8 +10384,12 @@
       <c r="K232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>562</v>
+      </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10204,8 +10401,12 @@
       <c r="K233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -10217,8 +10418,12 @@
       <c r="K234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>566</v>
+      </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -10230,8 +10435,12 @@
       <c r="K235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>568</v>
+      </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -10243,8 +10452,12 @@
       <c r="K236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>570</v>
+      </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -10256,8 +10469,12 @@
       <c r="K237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="1"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10269,8 +10486,12 @@
       <c r="K238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="1"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>574</v>
+      </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -10282,8 +10503,12 @@
       <c r="K239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10295,8 +10520,12 @@
       <c r="K240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>578</v>
+      </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10308,8 +10537,12 @@
       <c r="K241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>580</v>
+      </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10321,8 +10554,12 @@
       <c r="K242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="1"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10334,8 +10571,12 @@
       <c r="K243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="1"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>584</v>
+      </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10347,7 +10588,9 @@
       <c r="K244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -10360,7 +10603,9 @@
       <c r="K245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -10373,7 +10618,9 @@
       <c r="K246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -10386,7 +10633,9 @@
       <c r="K247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -10399,7 +10648,9 @@
       <c r="K248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -10412,7 +10663,9 @@
       <c r="K249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -10425,7 +10678,9 @@
       <c r="K250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -10438,7 +10693,9 @@
       <c r="K251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -10451,7 +10708,9 @@
       <c r="K252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -10464,7 +10723,9 @@
       <c r="K253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -10477,7 +10738,9 @@
       <c r="K254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -10490,7 +10753,9 @@
       <c r="K255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -10503,7 +10768,9 @@
       <c r="K256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -10516,7 +10783,9 @@
       <c r="K257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -10529,7 +10798,9 @@
       <c r="K258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -10542,7 +10813,9 @@
       <c r="K259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -10555,7 +10828,9 @@
       <c r="K260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -10568,7 +10843,9 @@
       <c r="K261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1" t="s">
+        <v>602</v>
+      </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="692" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="721" uniqueCount="721">
   <si>
     <t>key</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Security Level</t>
+  </si>
+  <si>
+    <t>User Name</t>
   </si>
   <si>
     <t>关闭</t>
@@ -1146,673 +1149,757 @@
     <t>应用名称</t>
   </si>
   <si>
+    <t>Application Name</t>
+  </si>
+  <si>
+    <t>trans0155</t>
+  </si>
+  <si>
+    <t>Wan</t>
+  </si>
+  <si>
+    <t>trans0156</t>
+  </si>
+  <si>
+    <t>Lan</t>
+  </si>
+  <si>
+    <t>trans0157</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>trans0158</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>trans0159</t>
+  </si>
+  <si>
+    <t>PING</t>
+  </si>
+  <si>
+    <t>trans0160</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>trans0161</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>trans0162</t>
+  </si>
+  <si>
+    <t>TELNET</t>
+  </si>
+  <si>
+    <t>trans0163</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>trans0164</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>trans0165</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>trans0166</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>trans0167</t>
+  </si>
+  <si>
+    <t>非法的过滤名称</t>
+  </si>
+  <si>
+    <t>trans0168</t>
+  </si>
+  <si>
+    <t>开始IP地址非法</t>
+  </si>
+  <si>
+    <t>trans0169</t>
+  </si>
+  <si>
+    <t>结束IP地址非法</t>
+  </si>
+  <si>
+    <t>trans0170</t>
+  </si>
+  <si>
+    <t>开始IP地址不能大于结束IP地址</t>
+  </si>
+  <si>
+    <t>trans0171</t>
+  </si>
+  <si>
+    <t>请注意：0.0.0.0～0.0.0.0 表示所有的IP地址</t>
+  </si>
+  <si>
+    <t>Please Note: 0.0.0.0~0.0.0.0 means all IPs.</t>
+  </si>
+  <si>
+    <t>trans0172</t>
+  </si>
+  <si>
+    <t>有线连接设备</t>
+  </si>
+  <si>
+    <t>trans0173</t>
+  </si>
+  <si>
+    <t>5G 联网设备</t>
+  </si>
+  <si>
+    <t>trans0174</t>
+  </si>
+  <si>
+    <t>被禁止上网的无线终端</t>
+  </si>
+  <si>
+    <t>trans0175</t>
+  </si>
+  <si>
+    <t>离线设备</t>
+  </si>
+  <si>
+    <t>trans0176</t>
+  </si>
+  <si>
+    <t>允许上网</t>
+  </si>
+  <si>
+    <t>trans0177</t>
+  </si>
+  <si>
+    <t>网络限速</t>
+  </si>
+  <si>
+    <t>trans0178</t>
+  </si>
+  <si>
+    <t>限速值</t>
+  </si>
+  <si>
+    <t>trans0179</t>
+  </si>
+  <si>
+    <t>IP 地址</t>
+  </si>
+  <si>
+    <t>trans0180</t>
+  </si>
+  <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>trans0181</t>
+  </si>
+  <si>
+    <t>接入时间</t>
+  </si>
+  <si>
+    <t>trans0182</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>trans0183</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>trans0184</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>trans0185</t>
+  </si>
+  <si>
+    <t>新密码</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>trans0186</t>
+  </si>
+  <si>
+    <t>确认密码</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>trans0187</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>trans0188</t>
+  </si>
+  <si>
+    <t>日志管理</t>
+  </si>
+  <si>
+    <t>Log Management</t>
+  </si>
+  <si>
+    <t>trans0189</t>
+  </si>
+  <si>
+    <t>TCP/UDP</t>
+  </si>
+  <si>
+    <t>trans0190</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>trans0191</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>trans0192</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>trans0193</t>
+  </si>
+  <si>
+    <t>源子网掩码</t>
+  </si>
+  <si>
+    <t>Source Subnet Mask</t>
+  </si>
+  <si>
+    <t>trans0194</t>
+  </si>
+  <si>
+    <t>目的子网掩码</t>
+  </si>
+  <si>
+    <t>Destination Subnet Mask</t>
+  </si>
+  <si>
+    <t>trans0195</t>
+  </si>
+  <si>
+    <t>密码不统一</t>
+  </si>
+  <si>
+    <t>trans0196</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>trans0197</t>
+  </si>
+  <si>
+    <t>源IP地址非法</t>
+  </si>
+  <si>
+    <t>trans0198</t>
+  </si>
+  <si>
+    <t>源IP子网掩码非法</t>
+  </si>
+  <si>
+    <t>trans0199</t>
+  </si>
+  <si>
+    <t>目的IP地址非法</t>
+  </si>
+  <si>
+    <t>trans0200</t>
+  </si>
+  <si>
+    <t>目的IP子网掩码非法</t>
+  </si>
+  <si>
+    <t>trans0201</t>
+  </si>
+  <si>
+    <t>密码修改成功</t>
+  </si>
+  <si>
+    <t>trans0202</t>
+  </si>
+  <si>
+    <t>密码修改成功，下一次登录请使用新密码</t>
+  </si>
+  <si>
+    <t>trans0203</t>
+  </si>
+  <si>
+    <t>升级过程可能需要花费几分钟的时间，升级过程中请不要关闭电源。完成后，设备会自动重启。</t>
+  </si>
+  <si>
+    <t>the upgrade process may take a few minutes,please don't turn off the power during the upgrade. When finished, the device will restart automatically.</t>
+  </si>
+  <si>
+    <t>trans0204</t>
+  </si>
+  <si>
+    <t>确定删除此条上行IP规律规则吗？</t>
+  </si>
+  <si>
+    <t>trans0205</t>
+  </si>
+  <si>
+    <t>可拖动上传文件</t>
+  </si>
+  <si>
+    <t>Drag and drop files to upload</t>
+  </si>
+  <si>
+    <t>trans0206</t>
+  </si>
+  <si>
+    <t>文件上传失败，重新上传文件</t>
+  </si>
+  <si>
+    <t>File upload failed. Please try again</t>
+  </si>
+  <si>
+    <t>trans0207</t>
+  </si>
+  <si>
+    <t>松开以上传</t>
+  </si>
+  <si>
+    <t>Drop files here</t>
+  </si>
+  <si>
+    <t>trans0208</t>
+  </si>
+  <si>
+    <t>文件格式只支持%s，请重试</t>
+  </si>
+  <si>
+    <t>trans0209</t>
+  </si>
+  <si>
+    <t>导入%s格式文件</t>
+  </si>
+  <si>
+    <t>trans0210</t>
+  </si>
+  <si>
+    <t>确定删除此条下行IP规律规则吗？</t>
+  </si>
+  <si>
+    <t>trans0211</t>
+  </si>
+  <si>
+    <t>文件过大</t>
+  </si>
+  <si>
+    <t>Sorry, the file is too large</t>
+  </si>
+  <si>
+    <t>trans0212</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>trans0213</t>
+  </si>
+  <si>
+    <t>固件</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
+    <t>trans0214</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>trans0215</t>
+  </si>
+  <si>
+    <t>过滤规则名字</t>
+  </si>
+  <si>
+    <t>Filter Rule Name</t>
+  </si>
+  <si>
+    <t>trans0216</t>
+  </si>
+  <si>
+    <t>MAC 地址访问控制</t>
+  </si>
+  <si>
+    <t>MAC Address Access Control</t>
+  </si>
+  <si>
+    <t>trans0217</t>
+  </si>
+  <si>
+    <t>(Format: AA:BB:CC:DD:EE:FF)</t>
+  </si>
+  <si>
+    <t>trans0218</t>
+  </si>
+  <si>
+    <t>是否启用MAC过滤？</t>
+  </si>
+  <si>
+    <t>Is MAC filtering enabled?</t>
+  </si>
+  <si>
+    <t>trans0219</t>
+  </si>
+  <si>
+    <t>是否禁用MAC过滤？</t>
+  </si>
+  <si>
+    <t>Is MAC filtering disabled?</t>
+  </si>
+  <si>
+    <t>trans0220</t>
+  </si>
+  <si>
+    <t>更改过滤模式将切换所有筛选规则。是否确实要将过滤器模式更改为白名单？</t>
+  </si>
+  <si>
+    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the white list?</t>
+  </si>
+  <si>
+    <t>trans0221</t>
+  </si>
+  <si>
+    <t>更改筛选模式将切换所有筛选规则。是否确实要将筛选模式更改为黑名单？</t>
+  </si>
+  <si>
+    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the black list?</t>
+  </si>
+  <si>
+    <t>trans0222</t>
+  </si>
+  <si>
+    <t>必须选择文件</t>
+  </si>
+  <si>
+    <t>trans0223</t>
+  </si>
+  <si>
+    <t>上传中，请稍等……</t>
+  </si>
+  <si>
+    <t>trans0224</t>
+  </si>
+  <si>
+    <t>回复出厂默认配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reset to Defaults</t>
+  </si>
+  <si>
+    <t>trans0225</t>
+  </si>
+  <si>
+    <t>确定回复出厂默认配置吗？</t>
+  </si>
+  <si>
+    <t>Are you sure to reset to defaults?</t>
+  </si>
+  <si>
+    <t>trans0226</t>
+  </si>
+  <si>
+    <t>配置备份</t>
+  </si>
+  <si>
+    <t>configuration  backup</t>
+  </si>
+  <si>
+    <t>trans0227</t>
+  </si>
+  <si>
+    <t>设备管理</t>
+  </si>
+  <si>
+    <t>trans0228</t>
+  </si>
+  <si>
+    <t>确定备份配置吗？</t>
+  </si>
+  <si>
+    <t>trans0229</t>
+  </si>
+  <si>
+    <t>请等待，设备正在重新启动。。。。。。</t>
+  </si>
+  <si>
+    <t>Please wait,the device is rebooting...</t>
+  </si>
+  <si>
+    <t>trans0230</t>
+  </si>
+  <si>
+    <t>请等待，设备正在重新启动，回复默认配置。。。。。。</t>
+  </si>
+  <si>
+    <t>Please wait,the device is rebooting for restoring default configuration...</t>
+  </si>
+  <si>
+    <t>trans0231</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>trans0232</t>
+  </si>
+  <si>
+    <t>警报</t>
+  </si>
+  <si>
+    <t>trans0233</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>trans0234</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>trans0235</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>trans0236</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>trans0237</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>trans0238</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>trans0239</t>
+  </si>
+  <si>
+    <t>日志等级</t>
+  </si>
+  <si>
+    <t>trans0240</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>trans0241</t>
+  </si>
+  <si>
+    <t>下载日志</t>
+  </si>
+  <si>
+    <t>trans0242</t>
+  </si>
+  <si>
+    <t>确定设备重新启动吗？</t>
+  </si>
+  <si>
+    <t>trans0243</t>
+  </si>
+  <si>
+    <t>%d 天</t>
+  </si>
+  <si>
+    <t>trans0244</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
     <t>Application</t>
   </si>
   <si>
-    <t>trans0155</t>
-  </si>
-  <si>
-    <t>Wan</t>
-  </si>
-  <si>
-    <t>trans0156</t>
-  </si>
-  <si>
-    <t>Lan</t>
-  </si>
-  <si>
-    <t>trans0157</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>trans0158</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>trans0159</t>
-  </si>
-  <si>
-    <t>PING</t>
-  </si>
-  <si>
-    <t>trans0160</t>
-  </si>
-  <si>
-    <t>FTP</t>
-  </si>
-  <si>
-    <t>trans0161</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>trans0162</t>
-  </si>
-  <si>
-    <t>TELNET</t>
-  </si>
-  <si>
-    <t>trans0163</t>
-  </si>
-  <si>
-    <t>SNMP</t>
-  </si>
-  <si>
-    <t>trans0164</t>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>trans0165</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>trans0166</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>trans0167</t>
-  </si>
-  <si>
-    <t>非法的过滤名称</t>
-  </si>
-  <si>
-    <t>trans0168</t>
-  </si>
-  <si>
-    <t>开始IP地址非法</t>
-  </si>
-  <si>
-    <t>trans0169</t>
-  </si>
-  <si>
-    <t>结束IP地址非法</t>
-  </si>
-  <si>
-    <t>trans0170</t>
-  </si>
-  <si>
-    <t>开始IP地址不能大于结束IP地址</t>
-  </si>
-  <si>
-    <t>trans0171</t>
-  </si>
-  <si>
-    <t>请注意：0.0.0.0～0.0.0.0 表示所有的IP地址</t>
-  </si>
-  <si>
-    <t>Please Note: 0.0.0.0~0.0.0.0 means all IPs.</t>
-  </si>
-  <si>
-    <t>trans0172</t>
-  </si>
-  <si>
-    <t>有线连接设备</t>
-  </si>
-  <si>
-    <t>trans0173</t>
-  </si>
-  <si>
-    <t>5G 联网设备</t>
-  </si>
-  <si>
-    <t>trans0174</t>
-  </si>
-  <si>
-    <t>被禁止上网的无线终端</t>
-  </si>
-  <si>
-    <t>trans0175</t>
-  </si>
-  <si>
-    <t>离线设备</t>
-  </si>
-  <si>
-    <t>trans0176</t>
-  </si>
-  <si>
-    <t>允许上网</t>
-  </si>
-  <si>
-    <t>trans0177</t>
-  </si>
-  <si>
-    <t>网络限速</t>
-  </si>
-  <si>
-    <t>trans0178</t>
-  </si>
-  <si>
-    <t>限速值</t>
-  </si>
-  <si>
-    <t>trans0179</t>
-  </si>
-  <si>
-    <t>IP 地址</t>
-  </si>
-  <si>
-    <t>trans0180</t>
-  </si>
-  <si>
-    <t>在线</t>
-  </si>
-  <si>
-    <t>trans0181</t>
-  </si>
-  <si>
-    <t>接入时间</t>
-  </si>
-  <si>
-    <t>trans0182</t>
-  </si>
-  <si>
-    <t>：</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>trans0183</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>trans0184</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>User Management</t>
-  </si>
-  <si>
-    <t>trans0185</t>
-  </si>
-  <si>
-    <t>新密码</t>
-  </si>
-  <si>
-    <t>New Password</t>
-  </si>
-  <si>
-    <t>trans0186</t>
-  </si>
-  <si>
-    <t>确认密码</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>trans0187</t>
-  </si>
-  <si>
-    <t>升级</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>trans0188</t>
-  </si>
-  <si>
-    <t>日志管理</t>
-  </si>
-  <si>
-    <t>Log Management</t>
-  </si>
-  <si>
-    <t>trans0189</t>
-  </si>
-  <si>
-    <t>TCP/UDP</t>
-  </si>
-  <si>
-    <t>trans0190</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>trans0191</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>trans0192</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>trans0193</t>
-  </si>
-  <si>
-    <t>源子网掩码</t>
-  </si>
-  <si>
-    <t>Source Subnet Mask</t>
-  </si>
-  <si>
-    <t>trans0194</t>
-  </si>
-  <si>
-    <t>目的子网掩码</t>
-  </si>
-  <si>
-    <t>Destination Subnet Mask</t>
-  </si>
-  <si>
-    <t>trans0195</t>
-  </si>
-  <si>
-    <t>密码不统一</t>
-  </si>
-  <si>
-    <t>trans0196</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>trans0197</t>
-  </si>
-  <si>
-    <t>源IP地址非法</t>
-  </si>
-  <si>
-    <t>trans0198</t>
-  </si>
-  <si>
-    <t>源IP子网掩码非法</t>
-  </si>
-  <si>
-    <t>trans0199</t>
-  </si>
-  <si>
-    <t>目的IP地址非法</t>
-  </si>
-  <si>
-    <t>trans0200</t>
-  </si>
-  <si>
-    <t>目的IP子网掩码非法</t>
-  </si>
-  <si>
-    <t>trans0201</t>
-  </si>
-  <si>
-    <t>密码修改成功</t>
-  </si>
-  <si>
-    <t>trans0202</t>
-  </si>
-  <si>
-    <t>密码修改成功，下一次登录请使用新密码</t>
-  </si>
-  <si>
-    <t>trans0203</t>
-  </si>
-  <si>
-    <t>升级过程可能需要花费几分钟的时间，升级过程中请不要关闭电源。完成后，设备会自动重启。</t>
-  </si>
-  <si>
-    <t>the upgrade process may take a few minutes,please don't turn off the power during the upgrade. When finished, the device will restart automatically.</t>
-  </si>
-  <si>
-    <t>trans0204</t>
-  </si>
-  <si>
-    <t>确定删除此条上行IP规律规则吗？</t>
-  </si>
-  <si>
-    <t>trans0205</t>
-  </si>
-  <si>
-    <t>可拖动上传文件</t>
-  </si>
-  <si>
-    <t>Drag and drop files to upload</t>
-  </si>
-  <si>
-    <t>trans0206</t>
-  </si>
-  <si>
-    <t>文件上传失败，重新上传文件</t>
-  </si>
-  <si>
-    <t>File upload failed. Please try again</t>
-  </si>
-  <si>
-    <t>trans0207</t>
-  </si>
-  <si>
-    <t>松开以上传</t>
-  </si>
-  <si>
-    <t>Drop files here</t>
-  </si>
-  <si>
-    <t>trans0208</t>
-  </si>
-  <si>
-    <t>文件格式只支持%s，请重试</t>
-  </si>
-  <si>
-    <t>trans0209</t>
-  </si>
-  <si>
-    <t>导入%s格式文件</t>
-  </si>
-  <si>
-    <t>trans0210</t>
-  </si>
-  <si>
-    <t>确定删除此条下行IP规律规则吗？</t>
-  </si>
-  <si>
-    <t>trans0211</t>
-  </si>
-  <si>
-    <t>文件过大</t>
-  </si>
-  <si>
-    <t>Sorry, the file is too large</t>
-  </si>
-  <si>
-    <t>trans0212</t>
-  </si>
-  <si>
-    <t>配置</t>
-  </si>
-  <si>
-    <t>configuration</t>
-  </si>
-  <si>
-    <t>trans0213</t>
-  </si>
-  <si>
-    <t>固件</t>
-  </si>
-  <si>
-    <t>firmware</t>
-  </si>
-  <si>
-    <t>trans0214</t>
-  </si>
-  <si>
-    <t>文件类型</t>
-  </si>
-  <si>
-    <t>trans0215</t>
-  </si>
-  <si>
-    <t>过滤规则名字</t>
-  </si>
-  <si>
-    <t>Filter Rule Name</t>
-  </si>
-  <si>
-    <t>trans0216</t>
-  </si>
-  <si>
-    <t>MAC 地址访问控制</t>
-  </si>
-  <si>
-    <t>MAC Address Access Control</t>
-  </si>
-  <si>
-    <t>trans0217</t>
-  </si>
-  <si>
-    <t>(Format: AA:BB:CC:DD:EE:FF)</t>
-  </si>
-  <si>
-    <t>trans0218</t>
-  </si>
-  <si>
-    <t>是否启用MAC过滤？</t>
-  </si>
-  <si>
-    <t>Is MAC filtering enabled?</t>
-  </si>
-  <si>
-    <t>trans0219</t>
-  </si>
-  <si>
-    <t>是否禁用MAC过滤？</t>
-  </si>
-  <si>
-    <t>Is MAC filtering disabled?</t>
-  </si>
-  <si>
-    <t>trans0220</t>
-  </si>
-  <si>
-    <t>更改过滤模式将切换所有筛选规则。是否确实要将过滤器模式更改为白名单？</t>
-  </si>
-  <si>
-    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the white list?</t>
-  </si>
-  <si>
-    <t>trans0221</t>
-  </si>
-  <si>
-    <t>更改筛选模式将切换所有筛选规则。是否确实要将筛选模式更改为黑名单？</t>
-  </si>
-  <si>
-    <t>Changing the filter mode will switch all filtering rules. Do you really want to change the filter mode to the black list?</t>
-  </si>
-  <si>
-    <t>trans0222</t>
-  </si>
-  <si>
-    <t>必须选择文件</t>
-  </si>
-  <si>
-    <t>trans0223</t>
-  </si>
-  <si>
-    <t>上传中，请稍等……</t>
-  </si>
-  <si>
-    <t>trans0224</t>
-  </si>
-  <si>
-    <t>回复出厂默认配置</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reset to Defaults</t>
-  </si>
-  <si>
-    <t>trans0225</t>
-  </si>
-  <si>
-    <t>确定回复出厂默认配置吗？</t>
-  </si>
-  <si>
-    <t>Are you sure to reset to defaults?</t>
-  </si>
-  <si>
-    <t>trans0226</t>
-  </si>
-  <si>
-    <t>配置备份</t>
-  </si>
-  <si>
-    <t>configuration  backup</t>
-  </si>
-  <si>
-    <t>trans0227</t>
-  </si>
-  <si>
-    <t>设备管理</t>
-  </si>
-  <si>
-    <t>trans0228</t>
-  </si>
-  <si>
-    <t>确定备份配置吗？</t>
-  </si>
-  <si>
-    <t>trans0229</t>
-  </si>
-  <si>
-    <t>请等待，设备正在重新启动。。。。。。</t>
-  </si>
-  <si>
-    <t>Please wait,the device is rebooting...</t>
-  </si>
-  <si>
-    <t>trans0230</t>
-  </si>
-  <si>
-    <t>请等待，设备正在重新启动，回复默认配置。。。。。。</t>
-  </si>
-  <si>
-    <t>Please wait,the device is rebooting for restoring default configuration...</t>
-  </si>
-  <si>
-    <t>trans0231</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>trans0232</t>
-  </si>
-  <si>
-    <t>警报</t>
-  </si>
-  <si>
-    <t>trans0233</t>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>trans0234</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>trans0235</t>
-  </si>
-  <si>
-    <t>警告</t>
-  </si>
-  <si>
-    <t>trans0236</t>
-  </si>
-  <si>
-    <t>注意</t>
-  </si>
-  <si>
-    <t>trans0237</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>trans0238</t>
-  </si>
-  <si>
-    <t>调试</t>
-  </si>
-  <si>
-    <t>trans0239</t>
-  </si>
-  <si>
-    <t>日志等级</t>
-  </si>
-  <si>
-    <t>trans0240</t>
-  </si>
-  <si>
-    <t>刷新</t>
-  </si>
-  <si>
-    <t>trans0241</t>
-  </si>
-  <si>
-    <t>下载日志</t>
-  </si>
-  <si>
-    <t>trans0242</t>
-  </si>
-  <si>
-    <t>确定设备重新启动吗？</t>
-  </si>
-  <si>
-    <t>trans0243</t>
-  </si>
-  <si>
-    <t>%d 天</t>
-  </si>
-  <si>
-    <t>trans0244</t>
-  </si>
-  <si>
     <t>trans0245</t>
   </si>
   <si>
+    <t>DDNS 配置</t>
+  </si>
+  <si>
+    <t>DDNS</t>
+  </si>
+  <si>
     <t>trans0246</t>
   </si>
   <si>
+    <t>UPNP 配置</t>
+  </si>
+  <si>
+    <t>UPNP</t>
+  </si>
+  <si>
     <t>trans0247</t>
   </si>
   <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>trans0248</t>
   </si>
   <si>
+    <t>IGMP/MLD 设置</t>
+  </si>
+  <si>
+    <t>IGMP/MLD</t>
+  </si>
+  <si>
     <t>trans0249</t>
   </si>
   <si>
+    <t>远程管理</t>
+  </si>
+  <si>
+    <t>CWMP</t>
+  </si>
+  <si>
     <t>trans0250</t>
   </si>
   <si>
+    <t>DHCP 静态 IP 配置</t>
+  </si>
+  <si>
+    <t>DHCP Static IP</t>
+  </si>
+  <si>
     <t>trans0251</t>
   </si>
   <si>
+    <t>DHCPv6 静态 IP 配置</t>
+  </si>
+  <si>
+    <t>DHCPv6 Static IP</t>
+  </si>
+  <si>
     <t>trans0252</t>
   </si>
   <si>
+    <t>静态 DNS 配置</t>
+  </si>
+  <si>
+    <t>Static DNS</t>
+  </si>
+  <si>
     <t>trans0253</t>
   </si>
   <si>
+    <t>端口触发</t>
+  </si>
+  <si>
+    <t>Port Trigger</t>
+  </si>
+  <si>
     <t>trans0254</t>
   </si>
   <si>
+    <t>高级NAT配置</t>
+  </si>
+  <si>
+    <t>Advanced NAT</t>
+  </si>
+  <si>
     <t>trans0255</t>
   </si>
   <si>
+    <t>服务名称</t>
+  </si>
+  <si>
+    <t>Server Name</t>
+  </si>
+  <si>
     <t>trans0256</t>
   </si>
   <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
     <t>trans0257</t>
+  </si>
+  <si>
+    <t>服务商</t>
+  </si>
+  <si>
+    <t>Provider</t>
   </si>
   <si>
     <t>trans0258</t>
@@ -6188,7 +6275,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -6226,10 +6313,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -6245,7 +6332,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -6264,13 +6351,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6381,10 +6468,10 @@
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6568,10 +6655,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>65</v>
@@ -6587,10 +6674,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6604,10 +6691,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6621,10 +6708,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6638,10 +6725,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6655,10 +6742,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6672,10 +6759,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>77</v>
@@ -6691,10 +6778,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6708,10 +6795,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>147</v>
@@ -6727,10 +6814,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>148</v>
@@ -6746,10 +6833,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>129</v>
@@ -6765,10 +6852,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6782,10 +6869,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6799,10 +6886,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6816,10 +6903,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6833,10 +6920,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6850,10 +6937,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>149</v>
@@ -6869,10 +6956,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6886,10 +6973,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6903,10 +6990,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6920,10 +7007,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6937,10 +7024,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6954,10 +7041,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>656</v>
+        <v>685</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>657</v>
+        <v>686</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6971,10 +7058,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6988,10 +7075,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -7005,10 +7092,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -7022,10 +7109,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -7039,10 +7126,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -7056,10 +7143,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -7073,10 +7160,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -7090,7 +7177,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>123</v>
@@ -7107,7 +7194,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>125</v>
@@ -7124,12 +7211,14 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -7144,10 +7233,10 @@
         <v>128</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7239,10 +7328,10 @@
         <v>141</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7277,7 +7366,7 @@
         <v>146</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -7291,13 +7380,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -7310,13 +7399,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -7329,13 +7418,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -7348,13 +7437,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -7367,10 +7456,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -7384,10 +7473,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -7401,13 +7490,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7420,13 +7509,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7439,13 +7528,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7458,13 +7547,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -7477,13 +7566,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7496,13 +7585,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7515,13 +7604,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7534,13 +7623,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7553,10 +7642,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="2"/>
@@ -7570,10 +7659,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="2"/>
@@ -7587,10 +7676,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -7604,10 +7693,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7621,10 +7710,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7638,10 +7727,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -7655,10 +7744,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7672,10 +7761,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7689,10 +7778,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -7706,10 +7795,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -7723,10 +7812,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -7740,10 +7829,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -7757,10 +7846,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -7774,10 +7863,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -7791,10 +7880,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -7808,10 +7897,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7825,10 +7914,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -7842,10 +7931,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -7859,10 +7948,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -7876,10 +7965,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -7893,10 +7982,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -7910,13 +7999,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -7929,10 +8018,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -7946,10 +8035,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -7963,10 +8052,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -7980,10 +8069,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -7997,7 +8086,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
@@ -8014,13 +8103,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8033,13 +8122,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8052,13 +8141,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -8071,13 +8160,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8090,13 +8179,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8109,13 +8198,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8128,13 +8217,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8147,13 +8236,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8166,13 +8255,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8185,13 +8274,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8204,13 +8293,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8223,13 +8312,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8242,13 +8331,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8261,13 +8350,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8280,13 +8369,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8299,13 +8388,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8318,13 +8407,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8337,13 +8426,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8356,13 +8445,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8375,13 +8464,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -8394,13 +8483,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8413,13 +8502,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8432,10 +8521,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -8449,13 +8538,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8468,10 +8557,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -8485,10 +8574,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -8502,13 +8591,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8521,13 +8610,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8540,13 +8629,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8559,13 +8648,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8578,13 +8667,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8597,13 +8686,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8616,13 +8705,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8635,13 +8724,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8654,13 +8743,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8673,13 +8762,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8692,13 +8781,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8711,13 +8800,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8730,13 +8819,13 @@
     </row>
     <row r="142">
       <c r="A142" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8749,13 +8838,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8768,13 +8857,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8787,13 +8876,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8806,13 +8895,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8825,13 +8914,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8844,10 +8933,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8861,13 +8950,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8880,13 +8969,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8899,13 +8988,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8918,13 +9007,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8937,13 +9026,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8956,13 +9045,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -8975,13 +9064,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8994,13 +9083,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9013,13 +9102,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9032,13 +9121,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9051,13 +9140,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9070,13 +9159,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9089,13 +9178,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9108,13 +9197,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9127,13 +9216,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9146,13 +9235,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9165,13 +9254,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9184,13 +9273,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -9203,13 +9292,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9222,10 +9311,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -9239,10 +9328,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -9256,10 +9345,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -9273,10 +9362,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -9290,13 +9379,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -9309,10 +9398,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -9326,10 +9415,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -9343,10 +9432,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -9360,10 +9449,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9377,10 +9466,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -9394,10 +9483,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -9411,10 +9500,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -9428,10 +9517,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -9445,10 +9534,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -9462,10 +9551,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -9479,13 +9568,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9498,13 +9587,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9517,13 +9606,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9536,13 +9625,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9555,13 +9644,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9574,13 +9663,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9593,13 +9682,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9612,10 +9701,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -9629,10 +9718,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -9646,10 +9735,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -9663,10 +9752,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -9680,13 +9769,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9699,13 +9788,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -9718,10 +9807,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -9735,10 +9824,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -9752,10 +9841,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -9769,10 +9858,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -9786,10 +9875,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -9803,10 +9892,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -9820,10 +9909,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -9837,10 +9926,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -9854,13 +9943,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -9873,10 +9962,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -9890,13 +9979,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9909,13 +9998,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9928,13 +10017,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9947,10 +10036,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -9964,10 +10053,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -9981,10 +10070,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -9998,13 +10087,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -10017,13 +10106,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -10036,13 +10125,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -10055,10 +10144,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -10072,13 +10161,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -10091,13 +10180,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -10110,13 +10199,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -10129,13 +10218,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -10148,13 +10237,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10167,13 +10256,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -10186,13 +10275,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10205,10 +10294,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -10222,10 +10311,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -10239,13 +10328,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10258,13 +10347,13 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10277,13 +10366,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10296,10 +10385,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -10313,10 +10402,10 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -10330,13 +10419,13 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -10349,13 +10438,13 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -10368,10 +10457,10 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -10385,10 +10474,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -10402,10 +10491,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -10419,10 +10508,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -10436,10 +10525,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -10453,10 +10542,10 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -10470,10 +10559,10 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -10487,10 +10576,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -10504,10 +10593,10 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -10521,10 +10610,10 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -10538,10 +10627,10 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -10555,10 +10644,10 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -10572,10 +10661,10 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -10589,10 +10678,14 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -10604,10 +10697,14 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -10619,10 +10716,14 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>594</v>
+      </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -10634,10 +10735,14 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>597</v>
+      </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -10649,10 +10754,14 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -10664,10 +10773,14 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>603</v>
+      </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -10679,10 +10792,14 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>606</v>
+      </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
@@ -10694,10 +10811,14 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -10709,10 +10830,14 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>612</v>
+      </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -10724,10 +10849,14 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -10739,10 +10868,14 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>618</v>
+      </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -10754,10 +10887,14 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>621</v>
+      </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -10769,10 +10906,14 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>624</v>
+      </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -10784,10 +10925,14 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>627</v>
+      </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -10799,7 +10944,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -10814,7 +10959,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -10829,7 +10974,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -10844,7 +10989,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:sst xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1069" uniqueCount="1069">
+<ns2:sst xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1144" uniqueCount="1144">
   <ns2:si>
     <ns2:t>key</ns2:t>
   </ns2:si>
@@ -2951,13 +2951,238 @@
     <ns2:t>trans0375</ns2:t>
   </ns2:si>
   <ns2:si>
+    <ns2:t>IGMP</ns2:t>
+  </ns2:si>
+  <ns2:si>
     <ns2:t>trans0376</ns2:t>
   </ns2:si>
   <ns2:si>
+    <ns2:t>MLD</ns2:t>
+  </ns2:si>
+  <ns2:si>
     <ns2:t>trans0377</ns2:t>
   </ns2:si>
   <ns2:si>
     <ns2:t>trans0378</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>必须填写数字</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0379</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>版本</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Versoin</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0380</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>范围：%d - %d; 单位: %s; 默认值: %d</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Range：%d - %d; Unit: %s; default: %d</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0381</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>健壮性</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Robustness</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0382</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>一般查询间隔</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>General Query Interval</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0383</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>一般查询响应超时期限</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>General Query Response Timeout Period</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0384</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>最后成员查询间隔</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Last Member Query Interval</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0385</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>主动报告间隔</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Unsolicited Report Interval</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0386</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Proxy</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0387</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Snoop</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0388</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s 范围：%d - %d</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s value is out of range %d - %d</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0389</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0390</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0391</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0392</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0393</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0394</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0395</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0396</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0397</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0398</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0399</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0400</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0401</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0402</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0403</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0404</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0405</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0406</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0407</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0408</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0409</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0410</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0411</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0412</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0413</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0414</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0415</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0416</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0417</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0418</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0419</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0420</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0421</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0422</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0423</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0424</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0425</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0426</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0427</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0428</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0429</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0430</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0431</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0432</ns2:t>
   </ns2:si>
   <ns2:si>
     <ns2:r>
@@ -7329,7 +7554,7 @@
     </ns2:row>
     <ns2:row r="2">
       <ns2:c r="A2" s="1" t="s">
-        <ns2:v>980</ns2:v>
+        <ns2:v>1055</ns2:v>
       </ns2:c>
       <ns2:c r="B2" s="3" t="s">
         <ns2:v>3</ns2:v>
@@ -7367,10 +7592,10 @@
     </ns2:row>
     <ns2:row r="4">
       <ns2:c r="A4" s="1" t="s">
-        <ns2:v>981</ns2:v>
+        <ns2:v>1056</ns2:v>
       </ns2:c>
       <ns2:c r="B4" s="3" t="s">
-        <ns2:v>982</ns2:v>
+        <ns2:v>1057</ns2:v>
       </ns2:c>
       <ns2:c r="C4" s="3" t="s">
         <ns2:v>8</ns2:v>
@@ -7386,7 +7611,7 @@
     </ns2:row>
     <ns2:row r="5">
       <ns2:c r="A5" s="1" t="s">
-        <ns2:v>983</ns2:v>
+        <ns2:v>1058</ns2:v>
       </ns2:c>
       <ns2:c r="B5" s="3" t="s">
         <ns2:v>9</ns2:v>
@@ -7405,13 +7630,13 @@
     </ns2:row>
     <ns2:row r="6">
       <ns2:c r="A6" s="1" t="s">
-        <ns2:v>984</ns2:v>
+        <ns2:v>1059</ns2:v>
       </ns2:c>
       <ns2:c r="B6" s="3" t="s">
-        <ns2:v>985</ns2:v>
+        <ns2:v>1060</ns2:v>
       </ns2:c>
       <ns2:c r="C6" s="3" t="s">
-        <ns2:v>986</ns2:v>
+        <ns2:v>1061</ns2:v>
       </ns2:c>
       <ns2:c r="D6" s="2"/>
       <ns2:c r="E6" s="2"/>
@@ -7522,10 +7747,10 @@
         <ns2:v>26</ns2:v>
       </ns2:c>
       <ns2:c r="B12" s="3" t="s">
-        <ns2:v>987</ns2:v>
+        <ns2:v>1062</ns2:v>
       </ns2:c>
       <ns2:c r="C12" s="3" t="s">
-        <ns2:v>988</ns2:v>
+        <ns2:v>1063</ns2:v>
       </ns2:c>
       <ns2:c r="D12" s="2"/>
       <ns2:c r="E12" s="2"/>
@@ -7709,10 +7934,10 @@
     </ns2:row>
     <ns2:row r="22">
       <ns2:c r="A22" s="1" t="s">
-        <ns2:v>989</ns2:v>
+        <ns2:v>1064</ns2:v>
       </ns2:c>
       <ns2:c r="B22" s="3" t="s">
-        <ns2:v>990</ns2:v>
+        <ns2:v>1065</ns2:v>
       </ns2:c>
       <ns2:c r="C22" s="3" t="s">
         <ns2:v>54</ns2:v>
@@ -7728,10 +7953,10 @@
     </ns2:row>
     <ns2:row r="23">
       <ns2:c r="A23" s="1" t="s">
-        <ns2:v>991</ns2:v>
+        <ns2:v>1066</ns2:v>
       </ns2:c>
       <ns2:c r="B23" s="4" t="s">
-        <ns2:v>992</ns2:v>
+        <ns2:v>1067</ns2:v>
       </ns2:c>
       <ns2:c r="C23" s="5"/>
       <ns2:c r="D23" s="2"/>
@@ -7745,10 +7970,10 @@
     </ns2:row>
     <ns2:row r="24">
       <ns2:c r="A24" s="1" t="s">
-        <ns2:v>993</ns2:v>
+        <ns2:v>1068</ns2:v>
       </ns2:c>
       <ns2:c r="B24" s="4" t="s">
-        <ns2:v>994</ns2:v>
+        <ns2:v>1069</ns2:v>
       </ns2:c>
       <ns2:c r="C24" s="5"/>
       <ns2:c r="D24" s="2"/>
@@ -7762,10 +7987,10 @@
     </ns2:row>
     <ns2:row r="25">
       <ns2:c r="A25" s="1" t="s">
-        <ns2:v>995</ns2:v>
+        <ns2:v>1070</ns2:v>
       </ns2:c>
       <ns2:c r="B25" s="4" t="s">
-        <ns2:v>996</ns2:v>
+        <ns2:v>1071</ns2:v>
       </ns2:c>
       <ns2:c r="C25" s="5"/>
       <ns2:c r="D25" s="2"/>
@@ -7779,10 +8004,10 @@
     </ns2:row>
     <ns2:row r="26">
       <ns2:c r="A26" s="1" t="s">
-        <ns2:v>997</ns2:v>
+        <ns2:v>1072</ns2:v>
       </ns2:c>
       <ns2:c r="B26" s="6" t="s">
-        <ns2:v>998</ns2:v>
+        <ns2:v>1073</ns2:v>
       </ns2:c>
       <ns2:c r="C26" s="5"/>
       <ns2:c r="D26" s="2"/>
@@ -7796,10 +8021,10 @@
     </ns2:row>
     <ns2:row r="27">
       <ns2:c r="A27" s="1" t="s">
-        <ns2:v>999</ns2:v>
+        <ns2:v>1074</ns2:v>
       </ns2:c>
       <ns2:c r="B27" s="6" t="s">
-        <ns2:v>1000</ns2:v>
+        <ns2:v>1075</ns2:v>
       </ns2:c>
       <ns2:c r="C27" s="7"/>
       <ns2:c r="D27" s="2"/>
@@ -7813,10 +8038,10 @@
     </ns2:row>
     <ns2:row r="28">
       <ns2:c r="A28" s="1" t="s">
-        <ns2:v>1001</ns2:v>
+        <ns2:v>1076</ns2:v>
       </ns2:c>
       <ns2:c r="B28" s="6" t="s">
-        <ns2:v>1002</ns2:v>
+        <ns2:v>1077</ns2:v>
       </ns2:c>
       <ns2:c r="C28" s="6" t="s">
         <ns2:v>55</ns2:v>
@@ -7832,10 +8057,10 @@
     </ns2:row>
     <ns2:row r="29">
       <ns2:c r="A29" s="1" t="s">
-        <ns2:v>1003</ns2:v>
+        <ns2:v>1078</ns2:v>
       </ns2:c>
       <ns2:c r="B29" s="6" t="s">
-        <ns2:v>1004</ns2:v>
+        <ns2:v>1079</ns2:v>
       </ns2:c>
       <ns2:c r="C29" s="7"/>
       <ns2:c r="D29" s="2"/>
@@ -7849,10 +8074,10 @@
     </ns2:row>
     <ns2:row r="30">
       <ns2:c r="A30" s="1" t="s">
-        <ns2:v>1005</ns2:v>
+        <ns2:v>1080</ns2:v>
       </ns2:c>
       <ns2:c r="B30" s="6" t="s">
-        <ns2:v>1006</ns2:v>
+        <ns2:v>1081</ns2:v>
       </ns2:c>
       <ns2:c r="C30" s="6" t="s">
         <ns2:v>56</ns2:v>
@@ -7868,10 +8093,10 @@
     </ns2:row>
     <ns2:row r="31">
       <ns2:c r="A31" s="1" t="s">
-        <ns2:v>1007</ns2:v>
+        <ns2:v>1082</ns2:v>
       </ns2:c>
       <ns2:c r="B31" s="6" t="s">
-        <ns2:v>1008</ns2:v>
+        <ns2:v>1083</ns2:v>
       </ns2:c>
       <ns2:c r="C31" s="6" t="s">
         <ns2:v>57</ns2:v>
@@ -7887,10 +8112,10 @@
     </ns2:row>
     <ns2:row r="32">
       <ns2:c r="A32" s="1" t="s">
-        <ns2:v>1009</ns2:v>
+        <ns2:v>1084</ns2:v>
       </ns2:c>
       <ns2:c r="B32" s="6" t="s">
-        <ns2:v>1010</ns2:v>
+        <ns2:v>1085</ns2:v>
       </ns2:c>
       <ns2:c r="C32" s="6" t="s">
         <ns2:v>58</ns2:v>
@@ -7906,10 +8131,10 @@
     </ns2:row>
     <ns2:row r="33">
       <ns2:c r="A33" s="1" t="s">
-        <ns2:v>1011</ns2:v>
+        <ns2:v>1086</ns2:v>
       </ns2:c>
       <ns2:c r="B33" s="6" t="s">
-        <ns2:v>1012</ns2:v>
+        <ns2:v>1087</ns2:v>
       </ns2:c>
       <ns2:c r="C33" s="7"/>
       <ns2:c r="D33" s="2"/>
@@ -7923,10 +8148,10 @@
     </ns2:row>
     <ns2:row r="34">
       <ns2:c r="A34" s="1" t="s">
-        <ns2:v>1013</ns2:v>
+        <ns2:v>1088</ns2:v>
       </ns2:c>
       <ns2:c r="B34" s="6" t="s">
-        <ns2:v>1014</ns2:v>
+        <ns2:v>1089</ns2:v>
       </ns2:c>
       <ns2:c r="C34" s="7"/>
       <ns2:c r="D34" s="2"/>
@@ -7940,10 +8165,10 @@
     </ns2:row>
     <ns2:row r="35">
       <ns2:c r="A35" s="1" t="s">
-        <ns2:v>1015</ns2:v>
+        <ns2:v>1090</ns2:v>
       </ns2:c>
       <ns2:c r="B35" s="6" t="s">
-        <ns2:v>1016</ns2:v>
+        <ns2:v>1091</ns2:v>
       </ns2:c>
       <ns2:c r="C35" s="7"/>
       <ns2:c r="D35" s="2"/>
@@ -7957,10 +8182,10 @@
     </ns2:row>
     <ns2:row r="36">
       <ns2:c r="A36" s="1" t="s">
-        <ns2:v>1017</ns2:v>
+        <ns2:v>1092</ns2:v>
       </ns2:c>
       <ns2:c r="B36" s="6" t="s">
-        <ns2:v>1018</ns2:v>
+        <ns2:v>1093</ns2:v>
       </ns2:c>
       <ns2:c r="C36" s="7"/>
       <ns2:c r="D36" s="2"/>
@@ -7974,10 +8199,10 @@
     </ns2:row>
     <ns2:row r="37">
       <ns2:c r="A37" s="1" t="s">
-        <ns2:v>1019</ns2:v>
+        <ns2:v>1094</ns2:v>
       </ns2:c>
       <ns2:c r="B37" s="6" t="s">
-        <ns2:v>1020</ns2:v>
+        <ns2:v>1095</ns2:v>
       </ns2:c>
       <ns2:c r="C37" s="7"/>
       <ns2:c r="D37" s="2"/>
@@ -7991,10 +8216,10 @@
     </ns2:row>
     <ns2:row r="38">
       <ns2:c r="A38" s="1" t="s">
-        <ns2:v>1021</ns2:v>
+        <ns2:v>1096</ns2:v>
       </ns2:c>
       <ns2:c r="B38" s="6" t="s">
-        <ns2:v>1022</ns2:v>
+        <ns2:v>1097</ns2:v>
       </ns2:c>
       <ns2:c r="C38" s="6" t="s">
         <ns2:v>59</ns2:v>
@@ -8010,10 +8235,10 @@
     </ns2:row>
     <ns2:row r="39">
       <ns2:c r="A39" s="1" t="s">
-        <ns2:v>1023</ns2:v>
+        <ns2:v>1098</ns2:v>
       </ns2:c>
       <ns2:c r="B39" s="6" t="s">
-        <ns2:v>1024</ns2:v>
+        <ns2:v>1099</ns2:v>
       </ns2:c>
       <ns2:c r="C39" s="7"/>
       <ns2:c r="D39" s="2"/>
@@ -8027,10 +8252,10 @@
     </ns2:row>
     <ns2:row r="40">
       <ns2:c r="A40" s="1" t="s">
-        <ns2:v>1025</ns2:v>
+        <ns2:v>1100</ns2:v>
       </ns2:c>
       <ns2:c r="B40" s="6" t="s">
-        <ns2:v>1026</ns2:v>
+        <ns2:v>1101</ns2:v>
       </ns2:c>
       <ns2:c r="C40" s="7"/>
       <ns2:c r="D40" s="2"/>
@@ -8044,10 +8269,10 @@
     </ns2:row>
     <ns2:row r="41">
       <ns2:c r="A41" s="1" t="s">
-        <ns2:v>1027</ns2:v>
+        <ns2:v>1102</ns2:v>
       </ns2:c>
       <ns2:c r="B41" s="6" t="s">
-        <ns2:v>1028</ns2:v>
+        <ns2:v>1103</ns2:v>
       </ns2:c>
       <ns2:c r="C41" s="7"/>
       <ns2:c r="D41" s="2"/>
@@ -8061,10 +8286,10 @@
     </ns2:row>
     <ns2:row r="42">
       <ns2:c r="A42" s="1" t="s">
-        <ns2:v>1029</ns2:v>
+        <ns2:v>1104</ns2:v>
       </ns2:c>
       <ns2:c r="B42" s="6" t="s">
-        <ns2:v>1030</ns2:v>
+        <ns2:v>1105</ns2:v>
       </ns2:c>
       <ns2:c r="C42" s="7"/>
       <ns2:c r="D42" s="2"/>
@@ -8078,10 +8303,10 @@
     </ns2:row>
     <ns2:row r="43">
       <ns2:c r="A43" s="1" t="s">
-        <ns2:v>1031</ns2:v>
+        <ns2:v>1106</ns2:v>
       </ns2:c>
       <ns2:c r="B43" s="6" t="s">
-        <ns2:v>1032</ns2:v>
+        <ns2:v>1107</ns2:v>
       </ns2:c>
       <ns2:c r="C43" s="7"/>
       <ns2:c r="D43" s="2"/>
@@ -8095,10 +8320,10 @@
     </ns2:row>
     <ns2:row r="44">
       <ns2:c r="A44" s="1" t="s">
-        <ns2:v>1033</ns2:v>
+        <ns2:v>1108</ns2:v>
       </ns2:c>
       <ns2:c r="B44" s="6" t="s">
-        <ns2:v>1034</ns2:v>
+        <ns2:v>1109</ns2:v>
       </ns2:c>
       <ns2:c r="C44" s="7"/>
       <ns2:c r="D44" s="2"/>
@@ -8112,10 +8337,10 @@
     </ns2:row>
     <ns2:row r="45">
       <ns2:c r="A45" s="1" t="s">
-        <ns2:v>1035</ns2:v>
+        <ns2:v>1110</ns2:v>
       </ns2:c>
       <ns2:c r="B45" s="6" t="s">
-        <ns2:v>1036</ns2:v>
+        <ns2:v>1111</ns2:v>
       </ns2:c>
       <ns2:c r="C45" s="7"/>
       <ns2:c r="D45" s="2"/>
@@ -8129,10 +8354,10 @@
     </ns2:row>
     <ns2:row r="46">
       <ns2:c r="A46" s="1" t="s">
-        <ns2:v>1037</ns2:v>
+        <ns2:v>1112</ns2:v>
       </ns2:c>
       <ns2:c r="B46" s="6" t="s">
-        <ns2:v>1038</ns2:v>
+        <ns2:v>1113</ns2:v>
       </ns2:c>
       <ns2:c r="C46" s="7"/>
       <ns2:c r="D46" s="2"/>
@@ -8146,10 +8371,10 @@
     </ns2:row>
     <ns2:row r="47">
       <ns2:c r="A47" s="1" t="s">
-        <ns2:v>1039</ns2:v>
+        <ns2:v>1114</ns2:v>
       </ns2:c>
       <ns2:c r="B47" s="6" t="s">
-        <ns2:v>1040</ns2:v>
+        <ns2:v>1115</ns2:v>
       </ns2:c>
       <ns2:c r="C47" s="7"/>
       <ns2:c r="D47" s="2"/>
@@ -8163,10 +8388,10 @@
     </ns2:row>
     <ns2:row r="48">
       <ns2:c r="A48" s="1" t="s">
-        <ns2:v>1041</ns2:v>
+        <ns2:v>1116</ns2:v>
       </ns2:c>
       <ns2:c r="B48" s="6" t="s">
-        <ns2:v>1042</ns2:v>
+        <ns2:v>1117</ns2:v>
       </ns2:c>
       <ns2:c r="C48" s="7"/>
       <ns2:c r="D48" s="2"/>
@@ -8180,10 +8405,10 @@
     </ns2:row>
     <ns2:row r="49">
       <ns2:c r="A49" s="1" t="s">
-        <ns2:v>1043</ns2:v>
+        <ns2:v>1118</ns2:v>
       </ns2:c>
       <ns2:c r="B49" s="6" t="s">
-        <ns2:v>1044</ns2:v>
+        <ns2:v>1119</ns2:v>
       </ns2:c>
       <ns2:c r="C49" s="7"/>
       <ns2:c r="D49" s="2"/>
@@ -8197,10 +8422,10 @@
     </ns2:row>
     <ns2:row r="50">
       <ns2:c r="A50" s="1" t="s">
-        <ns2:v>1045</ns2:v>
+        <ns2:v>1120</ns2:v>
       </ns2:c>
       <ns2:c r="B50" s="6" t="s">
-        <ns2:v>1046</ns2:v>
+        <ns2:v>1121</ns2:v>
       </ns2:c>
       <ns2:c r="C50" s="7"/>
       <ns2:c r="D50" s="2"/>
@@ -8214,10 +8439,10 @@
     </ns2:row>
     <ns2:row r="51">
       <ns2:c r="A51" s="1" t="s">
-        <ns2:v>1047</ns2:v>
+        <ns2:v>1122</ns2:v>
       </ns2:c>
       <ns2:c r="B51" s="6" t="s">
-        <ns2:v>1048</ns2:v>
+        <ns2:v>1123</ns2:v>
       </ns2:c>
       <ns2:c r="C51" s="7"/>
       <ns2:c r="D51" s="2"/>
@@ -8231,7 +8456,7 @@
     </ns2:row>
     <ns2:row r="52">
       <ns2:c r="A52" s="1" t="s">
-        <ns2:v>1049</ns2:v>
+        <ns2:v>1124</ns2:v>
       </ns2:c>
       <ns2:c r="B52" s="6" t="s">
         <ns2:v>60</ns2:v>
@@ -8248,7 +8473,7 @@
     </ns2:row>
     <ns2:row r="53">
       <ns2:c r="A53" s="1" t="s">
-        <ns2:v>1050</ns2:v>
+        <ns2:v>1125</ns2:v>
       </ns2:c>
       <ns2:c r="B53" s="6" t="s">
         <ns2:v>61</ns2:v>
@@ -8265,7 +8490,7 @@
     </ns2:row>
     <ns2:row r="54">
       <ns2:c r="A54" s="1" t="s">
-        <ns2:v>1051</ns2:v>
+        <ns2:v>1126</ns2:v>
       </ns2:c>
       <ns2:c r="B54" s="6" t="s">
         <ns2:v>62</ns2:v>
@@ -8547,10 +8772,10 @@
         <ns2:v>102</ns2:v>
       </ns2:c>
       <ns2:c r="B69" s="9" t="s">
-        <ns2:v>1052</ns2:v>
+        <ns2:v>1127</ns2:v>
       </ns2:c>
       <ns2:c r="C69" s="9" t="s">
-        <ns2:v>1053</ns2:v>
+        <ns2:v>1128</ns2:v>
       </ns2:c>
       <ns2:c r="D69" s="2"/>
       <ns2:c r="E69" s="2"/>
@@ -8566,10 +8791,10 @@
         <ns2:v>103</ns2:v>
       </ns2:c>
       <ns2:c r="B70" s="9" t="s">
-        <ns2:v>1054</ns2:v>
+        <ns2:v>1129</ns2:v>
       </ns2:c>
       <ns2:c r="C70" s="9" t="s">
-        <ns2:v>1055</ns2:v>
+        <ns2:v>1130</ns2:v>
       </ns2:c>
       <ns2:c r="D70" s="2"/>
       <ns2:c r="E70" s="2"/>
@@ -8585,10 +8810,10 @@
         <ns2:v>104</ns2:v>
       </ns2:c>
       <ns2:c r="B71" s="9" t="s">
-        <ns2:v>1056</ns2:v>
+        <ns2:v>1131</ns2:v>
       </ns2:c>
       <ns2:c r="C71" s="9" t="s">
-        <ns2:v>1057</ns2:v>
+        <ns2:v>1132</ns2:v>
       </ns2:c>
       <ns2:c r="D71" s="2"/>
       <ns2:c r="E71" s="2"/>
@@ -8604,10 +8829,10 @@
         <ns2:v>105</ns2:v>
       </ns2:c>
       <ns2:c r="B72" s="9" t="s">
-        <ns2:v>1058</ns2:v>
+        <ns2:v>1133</ns2:v>
       </ns2:c>
       <ns2:c r="C72" s="9" t="s">
-        <ns2:v>1059</ns2:v>
+        <ns2:v>1134</ns2:v>
       </ns2:c>
       <ns2:c r="D72" s="2"/>
       <ns2:c r="E72" s="2"/>
@@ -8623,10 +8848,10 @@
         <ns2:v>106</ns2:v>
       </ns2:c>
       <ns2:c r="B73" s="9" t="s">
-        <ns2:v>1060</ns2:v>
+        <ns2:v>1135</ns2:v>
       </ns2:c>
       <ns2:c r="C73" s="9" t="s">
-        <ns2:v>1061</ns2:v>
+        <ns2:v>1136</ns2:v>
       </ns2:c>
       <ns2:c r="D73" s="2"/>
       <ns2:c r="E73" s="2"/>
@@ -8642,10 +8867,10 @@
         <ns2:v>107</ns2:v>
       </ns2:c>
       <ns2:c r="B74" s="9" t="s">
-        <ns2:v>1062</ns2:v>
+        <ns2:v>1137</ns2:v>
       </ns2:c>
       <ns2:c r="C74" s="9" t="s">
-        <ns2:v>1063</ns2:v>
+        <ns2:v>1138</ns2:v>
       </ns2:c>
       <ns2:c r="D74" s="2"/>
       <ns2:c r="E74" s="2"/>
@@ -8661,10 +8886,10 @@
         <ns2:v>108</ns2:v>
       </ns2:c>
       <ns2:c r="B75" s="9" t="s">
-        <ns2:v>1064</ns2:v>
+        <ns2:v>1139</ns2:v>
       </ns2:c>
       <ns2:c r="C75" s="9" t="s">
-        <ns2:v>1065</ns2:v>
+        <ns2:v>1140</ns2:v>
       </ns2:c>
       <ns2:c r="D75" s="2"/>
       <ns2:c r="E75" s="2"/>
@@ -8680,10 +8905,10 @@
         <ns2:v>109</ns2:v>
       </ns2:c>
       <ns2:c r="B76" s="9" t="s">
-        <ns2:v>1066</ns2:v>
+        <ns2:v>1141</ns2:v>
       </ns2:c>
       <ns2:c r="C76" s="9" t="s">
-        <ns2:v>1067</ns2:v>
+        <ns2:v>1142</ns2:v>
       </ns2:c>
       <ns2:c r="D76" s="2"/>
       <ns2:c r="E76" s="2"/>
@@ -9426,7 +9651,7 @@
         <ns2:v>204</ns2:v>
       </ns2:c>
       <ns2:c r="B118" s="12" t="s">
-        <ns2:v>1068</ns2:v>
+        <ns2:v>1143</ns2:v>
       </ns2:c>
       <ns2:c r="C118" s="8" t="s">
         <ns2:v>205</ns2:v>
@@ -14221,8 +14446,12 @@
       <ns2:c r="A376" s="1" t="s">
         <ns2:v>976</ns2:v>
       </ns2:c>
-      <ns2:c r="B376" s="2"/>
-      <ns2:c r="C376" s="2"/>
+      <ns2:c r="B376" s="8" t="s">
+        <ns2:v>977</ns2:v>
+      </ns2:c>
+      <ns2:c r="C376" s="8" t="s">
+        <ns2:v>977</ns2:v>
+      </ns2:c>
       <ns2:c r="D376" s="2"/>
       <ns2:c r="E376" s="2"/>
       <ns2:c r="F376" s="2"/>
@@ -14234,10 +14463,14 @@
     </ns2:row>
     <ns2:row r="377">
       <ns2:c r="A377" s="1" t="s">
-        <ns2:v>977</ns2:v>
-      </ns2:c>
-      <ns2:c r="B377" s="2"/>
-      <ns2:c r="C377" s="2"/>
+        <ns2:v>978</ns2:v>
+      </ns2:c>
+      <ns2:c r="B377" s="8" t="s">
+        <ns2:v>979</ns2:v>
+      </ns2:c>
+      <ns2:c r="C377" s="8" t="s">
+        <ns2:v>979</ns2:v>
+      </ns2:c>
       <ns2:c r="D377" s="2"/>
       <ns2:c r="E377" s="2"/>
       <ns2:c r="F377" s="2"/>
@@ -14249,10 +14482,14 @@
     </ns2:row>
     <ns2:row r="378">
       <ns2:c r="A378" s="1" t="s">
-        <ns2:v>978</ns2:v>
-      </ns2:c>
-      <ns2:c r="B378" s="2"/>
-      <ns2:c r="C378" s="2"/>
+        <ns2:v>980</ns2:v>
+      </ns2:c>
+      <ns2:c r="B378" s="8" t="s">
+        <ns2:v>533</ns2:v>
+      </ns2:c>
+      <ns2:c r="C378" s="8" t="s">
+        <ns2:v>533</ns2:v>
+      </ns2:c>
       <ns2:c r="D378" s="2"/>
       <ns2:c r="E378" s="2"/>
       <ns2:c r="F378" s="2"/>
@@ -14264,9 +14501,11 @@
     </ns2:row>
     <ns2:row r="379">
       <ns2:c r="A379" s="1" t="s">
-        <ns2:v>979</ns2:v>
-      </ns2:c>
-      <ns2:c r="B379" s="2"/>
+        <ns2:v>981</ns2:v>
+      </ns2:c>
+      <ns2:c r="B379" s="8" t="s">
+        <ns2:v>982</ns2:v>
+      </ns2:c>
       <ns2:c r="C379" s="2"/>
       <ns2:c r="D379" s="2"/>
       <ns2:c r="E379" s="2"/>
@@ -14278,9 +14517,15 @@
       <ns2:c r="K379" s="2"/>
     </ns2:row>
     <ns2:row r="380">
-      <ns2:c r="A380" s="1"/>
-      <ns2:c r="B380" s="2"/>
-      <ns2:c r="C380" s="2"/>
+      <ns2:c r="A380" s="1" t="s">
+        <ns2:v>983</ns2:v>
+      </ns2:c>
+      <ns2:c r="B380" s="8" t="s">
+        <ns2:v>984</ns2:v>
+      </ns2:c>
+      <ns2:c r="C380" s="8" t="s">
+        <ns2:v>985</ns2:v>
+      </ns2:c>
       <ns2:c r="D380" s="2"/>
       <ns2:c r="E380" s="2"/>
       <ns2:c r="F380" s="2"/>
@@ -14291,9 +14536,15 @@
       <ns2:c r="K380" s="2"/>
     </ns2:row>
     <ns2:row r="381">
-      <ns2:c r="A381" s="1"/>
-      <ns2:c r="B381" s="2"/>
-      <ns2:c r="C381" s="2"/>
+      <ns2:c r="A381" s="1" t="s">
+        <ns2:v>986</ns2:v>
+      </ns2:c>
+      <ns2:c r="B381" s="8" t="s">
+        <ns2:v>987</ns2:v>
+      </ns2:c>
+      <ns2:c r="C381" s="8" t="s">
+        <ns2:v>988</ns2:v>
+      </ns2:c>
       <ns2:c r="D381" s="2"/>
       <ns2:c r="E381" s="2"/>
       <ns2:c r="F381" s="2"/>
@@ -14304,9 +14555,15 @@
       <ns2:c r="K381" s="2"/>
     </ns2:row>
     <ns2:row r="382">
-      <ns2:c r="A382" s="1"/>
-      <ns2:c r="B382" s="2"/>
-      <ns2:c r="C382" s="2"/>
+      <ns2:c r="A382" s="1" t="s">
+        <ns2:v>989</ns2:v>
+      </ns2:c>
+      <ns2:c r="B382" s="8" t="s">
+        <ns2:v>990</ns2:v>
+      </ns2:c>
+      <ns2:c r="C382" s="8" t="s">
+        <ns2:v>991</ns2:v>
+      </ns2:c>
       <ns2:c r="D382" s="2"/>
       <ns2:c r="E382" s="2"/>
       <ns2:c r="F382" s="2"/>
@@ -14317,9 +14574,15 @@
       <ns2:c r="K382" s="2"/>
     </ns2:row>
     <ns2:row r="383">
-      <ns2:c r="A383" s="1"/>
-      <ns2:c r="B383" s="2"/>
-      <ns2:c r="C383" s="2"/>
+      <ns2:c r="A383" s="1" t="s">
+        <ns2:v>992</ns2:v>
+      </ns2:c>
+      <ns2:c r="B383" s="8" t="s">
+        <ns2:v>993</ns2:v>
+      </ns2:c>
+      <ns2:c r="C383" s="8" t="s">
+        <ns2:v>994</ns2:v>
+      </ns2:c>
       <ns2:c r="D383" s="2"/>
       <ns2:c r="E383" s="2"/>
       <ns2:c r="F383" s="2"/>
@@ -14330,9 +14593,15 @@
       <ns2:c r="K383" s="2"/>
     </ns2:row>
     <ns2:row r="384">
-      <ns2:c r="A384" s="1"/>
-      <ns2:c r="B384" s="2"/>
-      <ns2:c r="C384" s="2"/>
+      <ns2:c r="A384" s="1" t="s">
+        <ns2:v>995</ns2:v>
+      </ns2:c>
+      <ns2:c r="B384" s="8" t="s">
+        <ns2:v>996</ns2:v>
+      </ns2:c>
+      <ns2:c r="C384" s="8" t="s">
+        <ns2:v>997</ns2:v>
+      </ns2:c>
       <ns2:c r="D384" s="2"/>
       <ns2:c r="E384" s="2"/>
       <ns2:c r="F384" s="2"/>
@@ -14343,9 +14612,15 @@
       <ns2:c r="K384" s="2"/>
     </ns2:row>
     <ns2:row r="385">
-      <ns2:c r="A385" s="1"/>
-      <ns2:c r="B385" s="2"/>
-      <ns2:c r="C385" s="2"/>
+      <ns2:c r="A385" s="1" t="s">
+        <ns2:v>998</ns2:v>
+      </ns2:c>
+      <ns2:c r="B385" s="8" t="s">
+        <ns2:v>999</ns2:v>
+      </ns2:c>
+      <ns2:c r="C385" s="8" t="s">
+        <ns2:v>1000</ns2:v>
+      </ns2:c>
       <ns2:c r="D385" s="2"/>
       <ns2:c r="E385" s="2"/>
       <ns2:c r="F385" s="2"/>
@@ -14356,9 +14631,15 @@
       <ns2:c r="K385" s="2"/>
     </ns2:row>
     <ns2:row r="386">
-      <ns2:c r="A386" s="1"/>
-      <ns2:c r="B386" s="2"/>
-      <ns2:c r="C386" s="2"/>
+      <ns2:c r="A386" s="1" t="s">
+        <ns2:v>1001</ns2:v>
+      </ns2:c>
+      <ns2:c r="B386" s="8" t="s">
+        <ns2:v>1002</ns2:v>
+      </ns2:c>
+      <ns2:c r="C386" s="8" t="s">
+        <ns2:v>1003</ns2:v>
+      </ns2:c>
       <ns2:c r="D386" s="2"/>
       <ns2:c r="E386" s="2"/>
       <ns2:c r="F386" s="2"/>
@@ -14369,9 +14650,15 @@
       <ns2:c r="K386" s="2"/>
     </ns2:row>
     <ns2:row r="387">
-      <ns2:c r="A387" s="1"/>
-      <ns2:c r="B387" s="2"/>
-      <ns2:c r="C387" s="2"/>
+      <ns2:c r="A387" s="1" t="s">
+        <ns2:v>1004</ns2:v>
+      </ns2:c>
+      <ns2:c r="B387" s="8" t="s">
+        <ns2:v>1005</ns2:v>
+      </ns2:c>
+      <ns2:c r="C387" s="8" t="s">
+        <ns2:v>1005</ns2:v>
+      </ns2:c>
       <ns2:c r="D387" s="2"/>
       <ns2:c r="E387" s="2"/>
       <ns2:c r="F387" s="2"/>
@@ -14382,9 +14669,15 @@
       <ns2:c r="K387" s="2"/>
     </ns2:row>
     <ns2:row r="388">
-      <ns2:c r="A388" s="1"/>
-      <ns2:c r="B388" s="2"/>
-      <ns2:c r="C388" s="2"/>
+      <ns2:c r="A388" s="1" t="s">
+        <ns2:v>1006</ns2:v>
+      </ns2:c>
+      <ns2:c r="B388" s="8" t="s">
+        <ns2:v>1007</ns2:v>
+      </ns2:c>
+      <ns2:c r="C388" s="8" t="s">
+        <ns2:v>1007</ns2:v>
+      </ns2:c>
       <ns2:c r="D388" s="2"/>
       <ns2:c r="E388" s="2"/>
       <ns2:c r="F388" s="2"/>
@@ -14395,9 +14688,15 @@
       <ns2:c r="K388" s="2"/>
     </ns2:row>
     <ns2:row r="389">
-      <ns2:c r="A389" s="1"/>
-      <ns2:c r="B389" s="2"/>
-      <ns2:c r="C389" s="2"/>
+      <ns2:c r="A389" s="1" t="s">
+        <ns2:v>1008</ns2:v>
+      </ns2:c>
+      <ns2:c r="B389" s="8" t="s">
+        <ns2:v>1009</ns2:v>
+      </ns2:c>
+      <ns2:c r="C389" s="8" t="s">
+        <ns2:v>1010</ns2:v>
+      </ns2:c>
       <ns2:c r="D389" s="2"/>
       <ns2:c r="E389" s="2"/>
       <ns2:c r="F389" s="2"/>
@@ -14408,7 +14707,9 @@
       <ns2:c r="K389" s="2"/>
     </ns2:row>
     <ns2:row r="390">
-      <ns2:c r="A390" s="1"/>
+      <ns2:c r="A390" s="1" t="s">
+        <ns2:v>1011</ns2:v>
+      </ns2:c>
       <ns2:c r="B390" s="2"/>
       <ns2:c r="C390" s="2"/>
       <ns2:c r="D390" s="2"/>
@@ -14421,7 +14722,9 @@
       <ns2:c r="K390" s="2"/>
     </ns2:row>
     <ns2:row r="391">
-      <ns2:c r="A391" s="1"/>
+      <ns2:c r="A391" s="1" t="s">
+        <ns2:v>1012</ns2:v>
+      </ns2:c>
       <ns2:c r="B391" s="2"/>
       <ns2:c r="C391" s="2"/>
       <ns2:c r="D391" s="2"/>
@@ -14434,7 +14737,9 @@
       <ns2:c r="K391" s="2"/>
     </ns2:row>
     <ns2:row r="392">
-      <ns2:c r="A392" s="1"/>
+      <ns2:c r="A392" s="1" t="s">
+        <ns2:v>1013</ns2:v>
+      </ns2:c>
       <ns2:c r="B392" s="2"/>
       <ns2:c r="C392" s="2"/>
       <ns2:c r="D392" s="2"/>
@@ -14447,7 +14752,9 @@
       <ns2:c r="K392" s="2"/>
     </ns2:row>
     <ns2:row r="393">
-      <ns2:c r="A393" s="1"/>
+      <ns2:c r="A393" s="1" t="s">
+        <ns2:v>1014</ns2:v>
+      </ns2:c>
       <ns2:c r="B393" s="2"/>
       <ns2:c r="C393" s="2"/>
       <ns2:c r="D393" s="2"/>
@@ -14460,7 +14767,9 @@
       <ns2:c r="K393" s="2"/>
     </ns2:row>
     <ns2:row r="394">
-      <ns2:c r="A394" s="1"/>
+      <ns2:c r="A394" s="1" t="s">
+        <ns2:v>1015</ns2:v>
+      </ns2:c>
       <ns2:c r="B394" s="2"/>
       <ns2:c r="C394" s="2"/>
       <ns2:c r="D394" s="2"/>
@@ -14473,7 +14782,9 @@
       <ns2:c r="K394" s="2"/>
     </ns2:row>
     <ns2:row r="395">
-      <ns2:c r="A395" s="1"/>
+      <ns2:c r="A395" s="1" t="s">
+        <ns2:v>1016</ns2:v>
+      </ns2:c>
       <ns2:c r="B395" s="2"/>
       <ns2:c r="C395" s="2"/>
       <ns2:c r="D395" s="2"/>
@@ -14486,7 +14797,9 @@
       <ns2:c r="K395" s="2"/>
     </ns2:row>
     <ns2:row r="396">
-      <ns2:c r="A396" s="1"/>
+      <ns2:c r="A396" s="1" t="s">
+        <ns2:v>1017</ns2:v>
+      </ns2:c>
       <ns2:c r="B396" s="2"/>
       <ns2:c r="C396" s="2"/>
       <ns2:c r="D396" s="2"/>
@@ -14499,7 +14812,9 @@
       <ns2:c r="K396" s="2"/>
     </ns2:row>
     <ns2:row r="397">
-      <ns2:c r="A397" s="1"/>
+      <ns2:c r="A397" s="1" t="s">
+        <ns2:v>1018</ns2:v>
+      </ns2:c>
       <ns2:c r="B397" s="2"/>
       <ns2:c r="C397" s="2"/>
       <ns2:c r="D397" s="2"/>
@@ -14512,7 +14827,9 @@
       <ns2:c r="K397" s="2"/>
     </ns2:row>
     <ns2:row r="398">
-      <ns2:c r="A398" s="1"/>
+      <ns2:c r="A398" s="1" t="s">
+        <ns2:v>1019</ns2:v>
+      </ns2:c>
       <ns2:c r="B398" s="2"/>
       <ns2:c r="C398" s="2"/>
       <ns2:c r="D398" s="2"/>
@@ -14525,7 +14842,9 @@
       <ns2:c r="K398" s="2"/>
     </ns2:row>
     <ns2:row r="399">
-      <ns2:c r="A399" s="1"/>
+      <ns2:c r="A399" s="1" t="s">
+        <ns2:v>1020</ns2:v>
+      </ns2:c>
       <ns2:c r="B399" s="2"/>
       <ns2:c r="C399" s="2"/>
       <ns2:c r="D399" s="2"/>
@@ -14538,7 +14857,9 @@
       <ns2:c r="K399" s="2"/>
     </ns2:row>
     <ns2:row r="400">
-      <ns2:c r="A400" s="1"/>
+      <ns2:c r="A400" s="1" t="s">
+        <ns2:v>1021</ns2:v>
+      </ns2:c>
       <ns2:c r="B400" s="2"/>
       <ns2:c r="C400" s="2"/>
       <ns2:c r="D400" s="2"/>
@@ -14551,7 +14872,9 @@
       <ns2:c r="K400" s="2"/>
     </ns2:row>
     <ns2:row r="401">
-      <ns2:c r="A401" s="1"/>
+      <ns2:c r="A401" s="1" t="s">
+        <ns2:v>1022</ns2:v>
+      </ns2:c>
       <ns2:c r="B401" s="2"/>
       <ns2:c r="C401" s="2"/>
       <ns2:c r="D401" s="2"/>
@@ -14564,7 +14887,9 @@
       <ns2:c r="K401" s="2"/>
     </ns2:row>
     <ns2:row r="402">
-      <ns2:c r="A402" s="1"/>
+      <ns2:c r="A402" s="1" t="s">
+        <ns2:v>1023</ns2:v>
+      </ns2:c>
       <ns2:c r="B402" s="2"/>
       <ns2:c r="C402" s="2"/>
       <ns2:c r="D402" s="2"/>
@@ -14577,7 +14902,9 @@
       <ns2:c r="K402" s="2"/>
     </ns2:row>
     <ns2:row r="403">
-      <ns2:c r="A403" s="1"/>
+      <ns2:c r="A403" s="1" t="s">
+        <ns2:v>1024</ns2:v>
+      </ns2:c>
       <ns2:c r="B403" s="2"/>
       <ns2:c r="C403" s="2"/>
       <ns2:c r="D403" s="2"/>
@@ -14590,7 +14917,9 @@
       <ns2:c r="K403" s="2"/>
     </ns2:row>
     <ns2:row r="404">
-      <ns2:c r="A404" s="1"/>
+      <ns2:c r="A404" s="1" t="s">
+        <ns2:v>1025</ns2:v>
+      </ns2:c>
       <ns2:c r="B404" s="2"/>
       <ns2:c r="C404" s="2"/>
       <ns2:c r="D404" s="2"/>
@@ -14603,7 +14932,9 @@
       <ns2:c r="K404" s="2"/>
     </ns2:row>
     <ns2:row r="405">
-      <ns2:c r="A405" s="1"/>
+      <ns2:c r="A405" s="1" t="s">
+        <ns2:v>1026</ns2:v>
+      </ns2:c>
       <ns2:c r="B405" s="2"/>
       <ns2:c r="C405" s="2"/>
       <ns2:c r="D405" s="2"/>
@@ -14616,7 +14947,9 @@
       <ns2:c r="K405" s="2"/>
     </ns2:row>
     <ns2:row r="406">
-      <ns2:c r="A406" s="1"/>
+      <ns2:c r="A406" s="1" t="s">
+        <ns2:v>1027</ns2:v>
+      </ns2:c>
       <ns2:c r="B406" s="2"/>
       <ns2:c r="C406" s="2"/>
       <ns2:c r="D406" s="2"/>
@@ -14629,7 +14962,9 @@
       <ns2:c r="K406" s="2"/>
     </ns2:row>
     <ns2:row r="407">
-      <ns2:c r="A407" s="1"/>
+      <ns2:c r="A407" s="1" t="s">
+        <ns2:v>1028</ns2:v>
+      </ns2:c>
       <ns2:c r="B407" s="2"/>
       <ns2:c r="C407" s="2"/>
       <ns2:c r="D407" s="2"/>
@@ -14642,7 +14977,9 @@
       <ns2:c r="K407" s="2"/>
     </ns2:row>
     <ns2:row r="408">
-      <ns2:c r="A408" s="1"/>
+      <ns2:c r="A408" s="1" t="s">
+        <ns2:v>1029</ns2:v>
+      </ns2:c>
       <ns2:c r="B408" s="2"/>
       <ns2:c r="C408" s="2"/>
       <ns2:c r="D408" s="2"/>
@@ -14655,7 +14992,9 @@
       <ns2:c r="K408" s="2"/>
     </ns2:row>
     <ns2:row r="409">
-      <ns2:c r="A409" s="1"/>
+      <ns2:c r="A409" s="1" t="s">
+        <ns2:v>1030</ns2:v>
+      </ns2:c>
       <ns2:c r="B409" s="2"/>
       <ns2:c r="C409" s="2"/>
       <ns2:c r="D409" s="2"/>
@@ -14668,7 +15007,9 @@
       <ns2:c r="K409" s="2"/>
     </ns2:row>
     <ns2:row r="410">
-      <ns2:c r="A410" s="1"/>
+      <ns2:c r="A410" s="1" t="s">
+        <ns2:v>1031</ns2:v>
+      </ns2:c>
       <ns2:c r="B410" s="2"/>
       <ns2:c r="C410" s="2"/>
       <ns2:c r="D410" s="2"/>
@@ -14681,7 +15022,9 @@
       <ns2:c r="K410" s="2"/>
     </ns2:row>
     <ns2:row r="411">
-      <ns2:c r="A411" s="1"/>
+      <ns2:c r="A411" s="1" t="s">
+        <ns2:v>1032</ns2:v>
+      </ns2:c>
       <ns2:c r="B411" s="2"/>
       <ns2:c r="C411" s="2"/>
       <ns2:c r="D411" s="2"/>
@@ -14694,7 +15037,9 @@
       <ns2:c r="K411" s="2"/>
     </ns2:row>
     <ns2:row r="412">
-      <ns2:c r="A412" s="1"/>
+      <ns2:c r="A412" s="1" t="s">
+        <ns2:v>1033</ns2:v>
+      </ns2:c>
       <ns2:c r="B412" s="2"/>
       <ns2:c r="C412" s="2"/>
       <ns2:c r="D412" s="2"/>
@@ -14707,7 +15052,9 @@
       <ns2:c r="K412" s="2"/>
     </ns2:row>
     <ns2:row r="413">
-      <ns2:c r="A413" s="1"/>
+      <ns2:c r="A413" s="1" t="s">
+        <ns2:v>1034</ns2:v>
+      </ns2:c>
       <ns2:c r="B413" s="2"/>
       <ns2:c r="C413" s="2"/>
       <ns2:c r="D413" s="2"/>
@@ -14720,7 +15067,9 @@
       <ns2:c r="K413" s="2"/>
     </ns2:row>
     <ns2:row r="414">
-      <ns2:c r="A414" s="1"/>
+      <ns2:c r="A414" s="1" t="s">
+        <ns2:v>1035</ns2:v>
+      </ns2:c>
       <ns2:c r="B414" s="2"/>
       <ns2:c r="C414" s="2"/>
       <ns2:c r="D414" s="2"/>
@@ -14733,7 +15082,9 @@
       <ns2:c r="K414" s="2"/>
     </ns2:row>
     <ns2:row r="415">
-      <ns2:c r="A415" s="1"/>
+      <ns2:c r="A415" s="1" t="s">
+        <ns2:v>1036</ns2:v>
+      </ns2:c>
       <ns2:c r="B415" s="2"/>
       <ns2:c r="C415" s="2"/>
       <ns2:c r="D415" s="2"/>
@@ -14746,7 +15097,9 @@
       <ns2:c r="K415" s="2"/>
     </ns2:row>
     <ns2:row r="416">
-      <ns2:c r="A416" s="1"/>
+      <ns2:c r="A416" s="1" t="s">
+        <ns2:v>1037</ns2:v>
+      </ns2:c>
       <ns2:c r="B416" s="2"/>
       <ns2:c r="C416" s="2"/>
       <ns2:c r="D416" s="2"/>
@@ -14759,7 +15112,9 @@
       <ns2:c r="K416" s="2"/>
     </ns2:row>
     <ns2:row r="417">
-      <ns2:c r="A417" s="1"/>
+      <ns2:c r="A417" s="1" t="s">
+        <ns2:v>1038</ns2:v>
+      </ns2:c>
       <ns2:c r="B417" s="2"/>
       <ns2:c r="C417" s="2"/>
       <ns2:c r="D417" s="2"/>
@@ -14772,7 +15127,9 @@
       <ns2:c r="K417" s="2"/>
     </ns2:row>
     <ns2:row r="418">
-      <ns2:c r="A418" s="1"/>
+      <ns2:c r="A418" s="1" t="s">
+        <ns2:v>1039</ns2:v>
+      </ns2:c>
       <ns2:c r="B418" s="2"/>
       <ns2:c r="C418" s="2"/>
       <ns2:c r="D418" s="2"/>
@@ -14785,7 +15142,9 @@
       <ns2:c r="K418" s="2"/>
     </ns2:row>
     <ns2:row r="419">
-      <ns2:c r="A419" s="1"/>
+      <ns2:c r="A419" s="1" t="s">
+        <ns2:v>1040</ns2:v>
+      </ns2:c>
       <ns2:c r="B419" s="2"/>
       <ns2:c r="C419" s="2"/>
       <ns2:c r="D419" s="2"/>
@@ -14798,7 +15157,9 @@
       <ns2:c r="K419" s="2"/>
     </ns2:row>
     <ns2:row r="420">
-      <ns2:c r="A420" s="1"/>
+      <ns2:c r="A420" s="1" t="s">
+        <ns2:v>1041</ns2:v>
+      </ns2:c>
       <ns2:c r="B420" s="2"/>
       <ns2:c r="C420" s="2"/>
       <ns2:c r="D420" s="2"/>
@@ -14811,7 +15172,9 @@
       <ns2:c r="K420" s="2"/>
     </ns2:row>
     <ns2:row r="421">
-      <ns2:c r="A421" s="1"/>
+      <ns2:c r="A421" s="1" t="s">
+        <ns2:v>1042</ns2:v>
+      </ns2:c>
       <ns2:c r="B421" s="2"/>
       <ns2:c r="C421" s="2"/>
       <ns2:c r="D421" s="2"/>
@@ -14824,7 +15187,9 @@
       <ns2:c r="K421" s="2"/>
     </ns2:row>
     <ns2:row r="422">
-      <ns2:c r="A422" s="1"/>
+      <ns2:c r="A422" s="1" t="s">
+        <ns2:v>1043</ns2:v>
+      </ns2:c>
       <ns2:c r="B422" s="2"/>
       <ns2:c r="C422" s="2"/>
       <ns2:c r="D422" s="2"/>
@@ -14837,7 +15202,9 @@
       <ns2:c r="K422" s="2"/>
     </ns2:row>
     <ns2:row r="423">
-      <ns2:c r="A423" s="1"/>
+      <ns2:c r="A423" s="1" t="s">
+        <ns2:v>1044</ns2:v>
+      </ns2:c>
       <ns2:c r="B423" s="2"/>
       <ns2:c r="C423" s="2"/>
       <ns2:c r="D423" s="2"/>
@@ -14850,7 +15217,9 @@
       <ns2:c r="K423" s="2"/>
     </ns2:row>
     <ns2:row r="424">
-      <ns2:c r="A424" s="1"/>
+      <ns2:c r="A424" s="1" t="s">
+        <ns2:v>1045</ns2:v>
+      </ns2:c>
       <ns2:c r="B424" s="2"/>
       <ns2:c r="C424" s="2"/>
       <ns2:c r="D424" s="2"/>
@@ -14863,7 +15232,9 @@
       <ns2:c r="K424" s="2"/>
     </ns2:row>
     <ns2:row r="425">
-      <ns2:c r="A425" s="1"/>
+      <ns2:c r="A425" s="1" t="s">
+        <ns2:v>1046</ns2:v>
+      </ns2:c>
       <ns2:c r="B425" s="2"/>
       <ns2:c r="C425" s="2"/>
       <ns2:c r="D425" s="2"/>
@@ -14876,7 +15247,9 @@
       <ns2:c r="K425" s="2"/>
     </ns2:row>
     <ns2:row r="426">
-      <ns2:c r="A426" s="1"/>
+      <ns2:c r="A426" s="1" t="s">
+        <ns2:v>1047</ns2:v>
+      </ns2:c>
       <ns2:c r="B426" s="2"/>
       <ns2:c r="C426" s="2"/>
       <ns2:c r="D426" s="2"/>
@@ -14889,7 +15262,9 @@
       <ns2:c r="K426" s="2"/>
     </ns2:row>
     <ns2:row r="427">
-      <ns2:c r="A427" s="1"/>
+      <ns2:c r="A427" s="1" t="s">
+        <ns2:v>1048</ns2:v>
+      </ns2:c>
       <ns2:c r="B427" s="2"/>
       <ns2:c r="C427" s="2"/>
       <ns2:c r="D427" s="2"/>
@@ -14902,7 +15277,9 @@
       <ns2:c r="K427" s="2"/>
     </ns2:row>
     <ns2:row r="428">
-      <ns2:c r="A428" s="1"/>
+      <ns2:c r="A428" s="1" t="s">
+        <ns2:v>1049</ns2:v>
+      </ns2:c>
       <ns2:c r="B428" s="2"/>
       <ns2:c r="C428" s="2"/>
       <ns2:c r="D428" s="2"/>
@@ -14915,7 +15292,9 @@
       <ns2:c r="K428" s="2"/>
     </ns2:row>
     <ns2:row r="429">
-      <ns2:c r="A429" s="1"/>
+      <ns2:c r="A429" s="1" t="s">
+        <ns2:v>1050</ns2:v>
+      </ns2:c>
       <ns2:c r="B429" s="2"/>
       <ns2:c r="C429" s="2"/>
       <ns2:c r="D429" s="2"/>
@@ -14928,7 +15307,9 @@
       <ns2:c r="K429" s="2"/>
     </ns2:row>
     <ns2:row r="430">
-      <ns2:c r="A430" s="1"/>
+      <ns2:c r="A430" s="1" t="s">
+        <ns2:v>1051</ns2:v>
+      </ns2:c>
       <ns2:c r="B430" s="2"/>
       <ns2:c r="C430" s="2"/>
       <ns2:c r="D430" s="2"/>
@@ -14941,7 +15322,9 @@
       <ns2:c r="K430" s="2"/>
     </ns2:row>
     <ns2:row r="431">
-      <ns2:c r="A431" s="1"/>
+      <ns2:c r="A431" s="1" t="s">
+        <ns2:v>1052</ns2:v>
+      </ns2:c>
       <ns2:c r="B431" s="2"/>
       <ns2:c r="C431" s="2"/>
       <ns2:c r="D431" s="2"/>
@@ -14954,7 +15337,9 @@
       <ns2:c r="K431" s="2"/>
     </ns2:row>
     <ns2:row r="432">
-      <ns2:c r="A432" s="1"/>
+      <ns2:c r="A432" s="1" t="s">
+        <ns2:v>1053</ns2:v>
+      </ns2:c>
       <ns2:c r="B432" s="2"/>
       <ns2:c r="C432" s="2"/>
       <ns2:c r="D432" s="2"/>
@@ -14967,7 +15352,9 @@
       <ns2:c r="K432" s="2"/>
     </ns2:row>
     <ns2:row r="433">
-      <ns2:c r="A433" s="1"/>
+      <ns2:c r="A433" s="1" t="s">
+        <ns2:v>1054</ns2:v>
+      </ns2:c>
       <ns2:c r="B433" s="2"/>
       <ns2:c r="C433" s="2"/>
       <ns2:c r="D433" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1165" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1168" uniqueCount="1168">
   <si>
     <t>key</t>
   </si>
@@ -2894,10 +2894,10 @@
     <t>trans0397</t>
   </si>
   <si>
-    <t>IP地址无效。</t>
-  </si>
-  <si>
-    <t>IP address %s is invalid.</t>
+    <t>IP地址无效</t>
+  </si>
+  <si>
+    <t>IP address is invalid</t>
   </si>
   <si>
     <t>trans0398</t>
@@ -2906,7 +2906,7 @@
     <t>IP地址不在有效的IP地址范围内。</t>
   </si>
   <si>
-    <t>IP Address %s is not in the valid IP address range.</t>
+    <t>IP Address is not in the valid IP address range.</t>
   </si>
   <si>
     <t>trans0399</t>
@@ -2954,16 +2954,25 @@
     <t>trans0404</t>
   </si>
   <si>
+    <t>已经到最大%d条%s与%s绑定条</t>
+  </si>
+  <si>
     <t>trans0405</t>
   </si>
   <si>
-    <t>trans0406</t>
+    <t>已存在相同的域名</t>
   </si>
   <si>
     <t>trans0407</t>
   </si>
   <si>
+    <t>DHCPv4</t>
+  </si>
+  <si>
     <t>trans0408</t>
+  </si>
+  <si>
+    <t>DHCPv6</t>
   </si>
   <si>
     <t>trans0409</t>
@@ -4369,7 +4378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4670,7 +4679,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -4708,10 +4717,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -4727,7 +4736,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -4746,13 +4755,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4863,10 +4872,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5050,10 +5059,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5069,10 +5078,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5086,10 +5095,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5103,10 +5112,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5120,10 +5129,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5137,10 +5146,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5154,7 +5163,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5171,10 +5180,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5188,10 +5197,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5205,10 +5214,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5222,10 +5231,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5239,10 +5248,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5256,10 +5265,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5273,10 +5282,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5290,10 +5299,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5307,10 +5316,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5324,10 +5333,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -5341,10 +5350,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -5358,10 +5367,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -5375,10 +5384,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -5392,10 +5401,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -5409,10 +5418,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -5426,10 +5435,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -5443,10 +5452,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -5460,10 +5469,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -5477,10 +5486,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -5494,10 +5503,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -5511,10 +5520,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -5528,13 +5537,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5547,13 +5556,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5566,7 +5575,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -5583,7 +5592,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -5600,7 +5609,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -5620,7 +5629,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -5715,10 +5724,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7617,7 +7626,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -7655,10 +7664,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -7674,7 +7683,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -7693,13 +7702,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7810,10 +7819,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7997,10 +8006,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8016,10 +8025,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8033,10 +8042,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8050,10 +8059,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8067,10 +8076,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8084,10 +8093,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8101,10 +8110,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8120,10 +8129,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8137,10 +8146,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8156,10 +8165,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8175,10 +8184,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8194,10 +8203,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8211,10 +8220,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8228,10 +8237,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8245,10 +8254,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8262,10 +8271,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8279,10 +8288,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8298,10 +8307,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8315,10 +8324,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -8332,10 +8341,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -8349,10 +8358,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -8366,10 +8375,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -8383,10 +8392,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -8400,10 +8409,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -8417,10 +8426,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -8434,10 +8443,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -8451,10 +8460,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -8468,10 +8477,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -8485,10 +8494,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -8502,10 +8511,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -8519,7 +8528,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -8536,7 +8545,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -8553,7 +8562,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -8835,10 +8844,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -8854,10 +8863,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -8873,10 +8882,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -8892,10 +8901,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -8911,10 +8920,10 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -8930,10 +8939,10 @@
         <v>107</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -8949,10 +8958,10 @@
         <v>108</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -8968,10 +8977,10 @@
         <v>109</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9714,7 +9723,7 @@
         <v>204</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>205</v>
@@ -15039,7 +15048,9 @@
       <c r="A404" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B404" s="2"/>
+      <c r="B404" s="8" t="s">
+        <v>978</v>
+      </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -15052,9 +15063,11 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B405" s="2"/>
+        <v>979</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>980</v>
+      </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -15066,10 +15079,8 @@
       <c r="K405" s="2"/>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B406" s="2"/>
+      <c r="A406" s="1"/>
+      <c r="B406" s="8"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -15082,9 +15093,11 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B407" s="2"/>
+        <v>981</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>982</v>
+      </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -15097,9 +15110,11 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B408" s="2"/>
+        <v>983</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>984</v>
+      </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -15112,7 +15127,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -15127,7 +15142,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -15142,7 +15157,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -15157,7 +15172,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -15172,7 +15187,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -15187,7 +15202,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -15202,7 +15217,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -15217,7 +15232,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -15232,7 +15247,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -15247,7 +15262,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -15262,7 +15277,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -15277,7 +15292,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -15292,7 +15307,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -15307,7 +15322,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -15322,7 +15337,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -15337,7 +15352,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -15352,7 +15367,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -15367,7 +15382,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -15382,7 +15397,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -15397,7 +15412,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -15412,7 +15427,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -15427,7 +15442,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -15442,7 +15457,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -15457,7 +15472,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1168" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1173" uniqueCount="1173">
   <si>
     <t>key</t>
   </si>
@@ -1668,10 +1668,7 @@
     <t>trans0254</t>
   </si>
   <si>
-    <t>高级NAT配置</t>
-  </si>
-  <si>
-    <t>Advanced NAT</t>
+    <t>DMZ</t>
   </si>
   <si>
     <t>trans0255</t>
@@ -2963,6 +2960,12 @@
     <t>已存在相同的域名</t>
   </si>
   <si>
+    <t>trans0406</t>
+  </si>
+  <si>
+    <t>Port Mapping</t>
+  </si>
+  <si>
     <t>trans0407</t>
   </si>
   <si>
@@ -2978,10 +2981,22 @@
     <t>trans0409</t>
   </si>
   <si>
+    <t>确定删除吗？</t>
+  </si>
+  <si>
     <t>trans0410</t>
   </si>
   <si>
+    <t>Lan IP 地址</t>
+  </si>
+  <si>
+    <t>Lan IP Address</t>
+  </si>
+  <si>
     <t>trans0411</t>
+  </si>
+  <si>
+    <t>只允许选择一条记录删除。</t>
   </si>
   <si>
     <t>trans0412</t>
@@ -4679,7 +4694,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -4717,10 +4732,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -4736,7 +4751,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -4755,13 +4770,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4872,10 +4887,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5059,10 +5074,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5078,10 +5093,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5095,10 +5110,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5112,10 +5127,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5129,10 +5144,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5146,10 +5161,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5163,7 +5178,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5180,10 +5195,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5197,10 +5212,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5214,10 +5229,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5231,10 +5246,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5248,10 +5263,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5265,10 +5280,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5282,10 +5297,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5299,10 +5314,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5316,10 +5331,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5333,10 +5348,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -5350,10 +5365,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -5367,10 +5382,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -5384,10 +5399,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -5401,10 +5416,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -5418,10 +5433,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -5435,10 +5450,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -5452,10 +5467,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -5469,10 +5484,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -5486,10 +5501,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -5503,10 +5518,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -5520,10 +5535,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -5537,13 +5552,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5556,13 +5571,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5575,7 +5590,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -5592,7 +5607,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -5609,7 +5624,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -5629,7 +5644,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -5724,10 +5739,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7626,7 +7641,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -7664,10 +7679,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -7683,7 +7698,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -7702,13 +7717,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7819,10 +7834,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8006,10 +8021,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8025,10 +8040,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8042,10 +8057,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8059,10 +8074,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8076,10 +8091,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8093,10 +8108,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8110,10 +8125,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8129,10 +8144,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8146,10 +8161,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8165,10 +8180,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8184,10 +8199,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8203,10 +8218,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8220,10 +8235,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8237,10 +8252,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8254,10 +8269,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8271,10 +8286,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8288,10 +8303,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8307,10 +8322,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8324,10 +8339,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -8341,10 +8356,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -8358,10 +8373,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -8375,10 +8390,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -8392,10 +8407,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -8409,10 +8424,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -8426,10 +8441,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -8443,10 +8458,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -8460,10 +8475,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -8477,10 +8492,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -8494,10 +8509,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -8511,10 +8526,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -8528,7 +8543,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -8545,7 +8560,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -8562,7 +8577,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -8844,10 +8859,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -8863,10 +8878,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -8882,10 +8897,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -8901,10 +8916,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -8920,10 +8935,10 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -8939,10 +8954,10 @@
         <v>107</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -8958,10 +8973,10 @@
         <v>108</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -8977,10 +8992,10 @@
         <v>109</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9723,7 +9738,7 @@
         <v>204</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>205</v>
@@ -12229,7 +12244,7 @@
         <v>550</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -12242,13 +12257,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B256" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="C256" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -12261,13 +12276,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B257" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="C257" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -12280,13 +12295,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B258" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="C258" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -12299,13 +12314,13 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B259" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="C259" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -12318,13 +12333,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B260" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="C260" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>566</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -12337,13 +12352,13 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="C261" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>569</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -12356,13 +12371,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B262" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="C262" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -12375,13 +12390,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="C263" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>575</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -12394,13 +12409,13 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B264" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="C264" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -12413,13 +12428,13 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B265" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="C265" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -12432,13 +12447,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B266" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="C266" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -12451,13 +12466,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B267" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="C267" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>587</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -12470,13 +12485,13 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B268" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="C268" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>590</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -12489,13 +12504,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B269" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="C269" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -12508,13 +12523,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B270" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="C270" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>596</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -12527,13 +12542,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B271" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="B271" s="14" t="s">
-        <v>598</v>
-      </c>
       <c r="C271" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -12546,13 +12561,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B272" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="C272" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>601</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -12565,13 +12580,13 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B273" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="C273" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>604</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -12584,13 +12599,13 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="C274" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -12603,13 +12618,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="C275" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>610</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -12622,13 +12637,13 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="C276" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C276" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -12641,13 +12656,13 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B277" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="C277" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>616</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -12660,13 +12675,13 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B278" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="C278" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -12679,13 +12694,13 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B279" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="C279" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -12698,13 +12713,13 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B280" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="C280" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>625</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -12717,13 +12732,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B281" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="B281" s="12" t="s">
+      <c r="C281" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
@@ -12736,13 +12751,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B282" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="B282" s="12" t="s">
+      <c r="C282" s="12" t="s">
         <v>630</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>631</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -12755,13 +12770,13 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B283" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="C283" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>634</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -12774,13 +12789,13 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B284" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="B284" s="12" t="s">
+      <c r="C284" s="12" t="s">
         <v>636</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>637</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -12793,13 +12808,13 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B285" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="B285" s="12" t="s">
+      <c r="C285" s="12" t="s">
         <v>639</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>640</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -12812,13 +12827,13 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B286" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="B286" s="12" t="s">
+      <c r="C286" s="12" t="s">
         <v>642</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>643</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -12831,13 +12846,13 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B287" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="B287" s="12" t="s">
+      <c r="C287" s="12" t="s">
         <v>645</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>646</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -12850,13 +12865,13 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="C288" s="12" t="s">
         <v>648</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>649</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -12869,13 +12884,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B289" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="B289" s="12" t="s">
+      <c r="C289" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="C289" s="12" t="s">
-        <v>652</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -12888,13 +12903,13 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="B290" s="12" t="s">
+      <c r="C290" s="12" t="s">
         <v>654</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>655</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -12907,13 +12922,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B291" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B291" s="12" t="s">
+      <c r="C291" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="C291" s="12" t="s">
-        <v>658</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -12926,13 +12941,13 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B292" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="B292" s="12" t="s">
+      <c r="C292" s="12" t="s">
         <v>660</v>
-      </c>
-      <c r="C292" s="12" t="s">
-        <v>661</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -12945,13 +12960,13 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B293" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="B293" s="12" t="s">
+      <c r="C293" s="12" t="s">
         <v>663</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>664</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -12964,13 +12979,13 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B294" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="B294" s="12" t="s">
+      <c r="C294" s="12" t="s">
         <v>666</v>
-      </c>
-      <c r="C294" s="12" t="s">
-        <v>667</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -12983,13 +12998,13 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B295" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="B295" s="12" t="s">
+      <c r="C295" s="12" t="s">
         <v>669</v>
-      </c>
-      <c r="C295" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -13002,13 +13017,13 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B296" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="C296" s="12" t="s">
         <v>672</v>
-      </c>
-      <c r="C296" s="12" t="s">
-        <v>673</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -13021,13 +13036,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B297" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="C297" s="12" t="s">
         <v>675</v>
-      </c>
-      <c r="C297" s="12" t="s">
-        <v>676</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -13040,13 +13055,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B298" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="B298" s="12" t="s">
+      <c r="C298" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="C298" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -13059,13 +13074,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B299" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="B299" s="12" t="s">
+      <c r="C299" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="C299" s="12" t="s">
-        <v>682</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -13078,13 +13093,13 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B300" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="B300" s="12" t="s">
+      <c r="C300" s="12" t="s">
         <v>684</v>
-      </c>
-      <c r="C300" s="12" t="s">
-        <v>685</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -13097,13 +13112,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B301" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="C301" s="12" t="s">
         <v>687</v>
-      </c>
-      <c r="C301" s="12" t="s">
-        <v>688</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -13116,13 +13131,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B302" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="B302" s="12" t="s">
+      <c r="C302" s="12" t="s">
         <v>690</v>
-      </c>
-      <c r="C302" s="12" t="s">
-        <v>691</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -13135,13 +13150,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B303" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B303" s="12" t="s">
+      <c r="C303" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="C303" s="12" t="s">
-        <v>694</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -13154,13 +13169,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B304" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="B304" s="12" t="s">
+      <c r="C304" s="12" t="s">
         <v>696</v>
-      </c>
-      <c r="C304" s="12" t="s">
-        <v>697</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -13173,13 +13188,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B305" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="B305" s="12" t="s">
+      <c r="C305" s="12" t="s">
         <v>699</v>
-      </c>
-      <c r="C305" s="12" t="s">
-        <v>700</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -13192,13 +13207,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B306" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="B306" s="12" t="s">
+      <c r="C306" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>703</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -13211,13 +13226,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B307" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="B307" s="12" t="s">
+      <c r="C307" s="12" t="s">
         <v>705</v>
-      </c>
-      <c r="C307" s="12" t="s">
-        <v>706</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -13230,13 +13245,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B308" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="C308" s="12" t="s">
         <v>708</v>
-      </c>
-      <c r="C308" s="12" t="s">
-        <v>709</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -13249,13 +13264,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B309" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="C309" s="12" t="s">
         <v>711</v>
-      </c>
-      <c r="C309" s="12" t="s">
-        <v>712</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -13268,13 +13283,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B310" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="C310" s="12" t="s">
         <v>714</v>
-      </c>
-      <c r="C310" s="12" t="s">
-        <v>715</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -13287,13 +13302,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B311" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="C311" s="12" t="s">
         <v>717</v>
-      </c>
-      <c r="C311" s="12" t="s">
-        <v>718</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -13306,13 +13321,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B312" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="B312" s="12" t="s">
+      <c r="C312" s="12" t="s">
         <v>720</v>
-      </c>
-      <c r="C312" s="12" t="s">
-        <v>721</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -13325,13 +13340,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B313" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="B313" s="12" t="s">
+      <c r="C313" s="12" t="s">
         <v>723</v>
-      </c>
-      <c r="C313" s="12" t="s">
-        <v>724</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -13344,13 +13359,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B314" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="B314" s="12" t="s">
+      <c r="C314" s="12" t="s">
         <v>726</v>
-      </c>
-      <c r="C314" s="12" t="s">
-        <v>727</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -13363,13 +13378,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B315" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="B315" s="12" t="s">
+      <c r="C315" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="C315" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -13382,13 +13397,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B316" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="B316" s="12" t="s">
+      <c r="C316" s="12" t="s">
         <v>732</v>
-      </c>
-      <c r="C316" s="12" t="s">
-        <v>733</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -13401,13 +13416,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B317" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B317" s="12" t="s">
+      <c r="C317" s="12" t="s">
         <v>735</v>
-      </c>
-      <c r="C317" s="12" t="s">
-        <v>736</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -13420,13 +13435,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B318" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="B318" s="12" t="s">
+      <c r="C318" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="C318" s="12" t="s">
-        <v>739</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -13439,13 +13454,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B319" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="B319" s="12" t="s">
+      <c r="C319" s="12" t="s">
         <v>741</v>
-      </c>
-      <c r="C319" s="12" t="s">
-        <v>742</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -13458,13 +13473,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B320" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="B320" s="12" t="s">
+      <c r="C320" s="12" t="s">
         <v>744</v>
-      </c>
-      <c r="C320" s="12" t="s">
-        <v>745</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -13477,13 +13492,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B321" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="B321" s="12" t="s">
+      <c r="C321" s="12" t="s">
         <v>747</v>
-      </c>
-      <c r="C321" s="12" t="s">
-        <v>748</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -13496,13 +13511,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B322" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="C322" s="12" t="s">
         <v>750</v>
-      </c>
-      <c r="C322" s="12" t="s">
-        <v>751</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -13515,13 +13530,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B323" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="B323" s="12" t="s">
+      <c r="C323" s="12" t="s">
         <v>753</v>
-      </c>
-      <c r="C323" s="12" t="s">
-        <v>754</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -13534,13 +13549,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B324" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="B324" s="12" t="s">
+      <c r="C324" s="12" t="s">
         <v>756</v>
-      </c>
-      <c r="C324" s="12" t="s">
-        <v>757</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -13553,13 +13568,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B325" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="B325" s="12" t="s">
+      <c r="C325" s="12" t="s">
         <v>759</v>
-      </c>
-      <c r="C325" s="12" t="s">
-        <v>760</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -13572,13 +13587,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B326" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="B326" s="12" t="s">
+      <c r="C326" s="12" t="s">
         <v>762</v>
-      </c>
-      <c r="C326" s="12" t="s">
-        <v>763</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -13591,13 +13606,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B327" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="B327" s="12" t="s">
+      <c r="C327" s="12" t="s">
         <v>765</v>
-      </c>
-      <c r="C327" s="12" t="s">
-        <v>766</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -13610,13 +13625,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B328" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="B328" s="12" t="s">
+      <c r="C328" s="12" t="s">
         <v>768</v>
-      </c>
-      <c r="C328" s="12" t="s">
-        <v>769</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -13629,13 +13644,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B329" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="B329" s="12" t="s">
+      <c r="C329" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="C329" s="12" t="s">
-        <v>772</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -13648,13 +13663,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B330" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="B330" s="12" t="s">
+      <c r="C330" s="12" t="s">
         <v>774</v>
-      </c>
-      <c r="C330" s="12" t="s">
-        <v>775</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -13667,13 +13682,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B331" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="B331" s="12" t="s">
+      <c r="C331" s="12" t="s">
         <v>777</v>
-      </c>
-      <c r="C331" s="12" t="s">
-        <v>778</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -13686,13 +13701,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B332" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="B332" s="12" t="s">
+      <c r="C332" s="12" t="s">
         <v>780</v>
-      </c>
-      <c r="C332" s="12" t="s">
-        <v>781</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -13705,13 +13720,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B333" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="B333" s="12" t="s">
+      <c r="C333" s="12" t="s">
         <v>783</v>
-      </c>
-      <c r="C333" s="12" t="s">
-        <v>784</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -13724,13 +13739,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B334" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="C334" s="12" t="s">
         <v>786</v>
-      </c>
-      <c r="C334" s="12" t="s">
-        <v>787</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -13743,13 +13758,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B335" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="C335" s="12" t="s">
         <v>789</v>
-      </c>
-      <c r="C335" s="12" t="s">
-        <v>790</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -13762,13 +13777,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B336" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="B336" s="12" t="s">
+      <c r="C336" s="12" t="s">
         <v>792</v>
-      </c>
-      <c r="C336" s="12" t="s">
-        <v>793</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -13781,13 +13796,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B337" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="B337" s="12" t="s">
+      <c r="C337" s="12" t="s">
         <v>795</v>
-      </c>
-      <c r="C337" s="12" t="s">
-        <v>796</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -13800,13 +13815,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B338" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="B338" s="12" t="s">
+      <c r="C338" s="12" t="s">
         <v>798</v>
-      </c>
-      <c r="C338" s="12" t="s">
-        <v>799</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13819,13 +13834,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B339" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="B339" s="12" t="s">
+      <c r="C339" s="12" t="s">
         <v>801</v>
-      </c>
-      <c r="C339" s="12" t="s">
-        <v>802</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -13838,13 +13853,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B340" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="B340" s="12" t="s">
+      <c r="C340" s="12" t="s">
         <v>804</v>
-      </c>
-      <c r="C340" s="12" t="s">
-        <v>805</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13857,13 +13872,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B341" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="B341" s="12" t="s">
+      <c r="C341" s="12" t="s">
         <v>807</v>
-      </c>
-      <c r="C341" s="12" t="s">
-        <v>808</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -13876,13 +13891,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B342" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="B342" s="12" t="s">
+      <c r="C342" s="12" t="s">
         <v>810</v>
-      </c>
-      <c r="C342" s="12" t="s">
-        <v>811</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -13895,13 +13910,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B343" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="B343" s="12" t="s">
+      <c r="C343" s="12" t="s">
         <v>813</v>
-      </c>
-      <c r="C343" s="12" t="s">
-        <v>814</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -13914,13 +13929,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B344" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="C344" s="12" t="s">
         <v>816</v>
-      </c>
-      <c r="C344" s="12" t="s">
-        <v>817</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -13933,13 +13948,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B345" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="C345" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="C345" s="12" t="s">
-        <v>820</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -13952,13 +13967,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B346" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="C346" s="12" t="s">
         <v>822</v>
-      </c>
-      <c r="C346" s="12" t="s">
-        <v>823</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13971,13 +13986,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B347" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="C347" s="12" t="s">
         <v>825</v>
-      </c>
-      <c r="C347" s="12" t="s">
-        <v>826</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -13990,13 +14005,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B348" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="B348" s="12" t="s">
+      <c r="C348" s="12" t="s">
         <v>828</v>
-      </c>
-      <c r="C348" s="12" t="s">
-        <v>829</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14009,13 +14024,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B349" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="B349" s="12" t="s">
+      <c r="C349" s="12" t="s">
         <v>831</v>
-      </c>
-      <c r="C349" s="12" t="s">
-        <v>832</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -14028,13 +14043,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B350" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="B350" s="12" t="s">
+      <c r="C350" s="12" t="s">
         <v>834</v>
-      </c>
-      <c r="C350" s="12" t="s">
-        <v>835</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -14047,13 +14062,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B351" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="C351" s="12" t="s">
         <v>837</v>
-      </c>
-      <c r="C351" s="12" t="s">
-        <v>838</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -14066,13 +14081,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B352" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="B352" s="12" t="s">
+      <c r="C352" s="12" t="s">
         <v>840</v>
-      </c>
-      <c r="C352" s="12" t="s">
-        <v>841</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14085,13 +14100,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B353" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="B353" s="12" t="s">
+      <c r="C353" s="12" t="s">
         <v>843</v>
-      </c>
-      <c r="C353" s="12" t="s">
-        <v>844</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14104,13 +14119,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B354" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="B354" s="12" t="s">
+      <c r="C354" s="12" t="s">
         <v>846</v>
-      </c>
-      <c r="C354" s="12" t="s">
-        <v>847</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14123,13 +14138,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B355" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="C355" s="12" t="s">
         <v>849</v>
-      </c>
-      <c r="C355" s="12" t="s">
-        <v>850</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14142,13 +14157,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B356" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="C356" s="8" t="s">
         <v>852</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>853</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14161,10 +14176,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B357" s="8" t="s">
         <v>854</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>855</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -14178,13 +14193,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B358" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="B358" s="8" t="s">
+      <c r="C358" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14197,13 +14212,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B359" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="C359" s="8" t="s">
         <v>860</v>
-      </c>
-      <c r="C359" s="8" t="s">
-        <v>861</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14216,13 +14231,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B360" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="B360" s="8" t="s">
+      <c r="C360" s="8" t="s">
         <v>863</v>
-      </c>
-      <c r="C360" s="8" t="s">
-        <v>864</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14235,13 +14250,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B361" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="C361" s="8" t="s">
         <v>866</v>
-      </c>
-      <c r="C361" s="8" t="s">
-        <v>867</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14254,13 +14269,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B362" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="B362" s="8" t="s">
+      <c r="C362" s="8" t="s">
         <v>869</v>
-      </c>
-      <c r="C362" s="8" t="s">
-        <v>870</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14273,13 +14288,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B363" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="B363" s="8" t="s">
+      <c r="C363" s="8" t="s">
         <v>872</v>
-      </c>
-      <c r="C363" s="8" t="s">
-        <v>873</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14292,13 +14307,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B364" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="C364" s="8" t="s">
         <v>875</v>
-      </c>
-      <c r="C364" s="8" t="s">
-        <v>876</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14311,13 +14326,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B365" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="B365" s="8" t="s">
+      <c r="C365" s="8" t="s">
         <v>878</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>879</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14330,13 +14345,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B366" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="C366" s="8" t="s">
         <v>881</v>
-      </c>
-      <c r="C366" s="8" t="s">
-        <v>882</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14349,13 +14364,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B367" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="C367" s="8" t="s">
         <v>884</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>885</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14368,13 +14383,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B368" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="B368" s="8" t="s">
+      <c r="C368" s="8" t="s">
         <v>887</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>888</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -14387,13 +14402,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B369" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="C369" s="8" t="s">
         <v>890</v>
-      </c>
-      <c r="C369" s="8" t="s">
-        <v>891</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -14406,13 +14421,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B370" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="B370" s="8" t="s">
+      <c r="C370" s="8" t="s">
         <v>893</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>894</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -14425,13 +14440,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B371" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="C371" s="8" t="s">
         <v>896</v>
-      </c>
-      <c r="C371" s="8" t="s">
-        <v>897</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -14444,13 +14459,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B372" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="B372" s="14" t="s">
-        <v>899</v>
-      </c>
       <c r="C372" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -14463,13 +14478,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B373" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="B373" s="14" t="s">
-        <v>901</v>
-      </c>
       <c r="C373" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -14482,10 +14497,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B374" s="8" t="s">
         <v>902</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>903</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -14499,10 +14514,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B375" s="8" t="s">
         <v>904</v>
-      </c>
-      <c r="B375" s="8" t="s">
-        <v>905</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -14516,13 +14531,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B376" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B376" s="8" t="s">
-        <v>907</v>
-      </c>
       <c r="C376" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -14535,13 +14550,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B377" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="B377" s="8" t="s">
-        <v>909</v>
-      </c>
       <c r="C377" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -14554,7 +14569,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>533</v>
@@ -14573,10 +14588,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B379" s="8" t="s">
         <v>911</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>912</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -14590,13 +14605,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B380" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="B380" s="8" t="s">
+      <c r="C380" s="8" t="s">
         <v>914</v>
-      </c>
-      <c r="C380" s="8" t="s">
-        <v>915</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14609,13 +14624,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B381" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="B381" s="8" t="s">
+      <c r="C381" s="8" t="s">
         <v>917</v>
-      </c>
-      <c r="C381" s="8" t="s">
-        <v>918</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14628,13 +14643,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B382" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="B382" s="8" t="s">
+      <c r="C382" s="8" t="s">
         <v>920</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>921</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -14647,13 +14662,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B383" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="C383" s="8" t="s">
         <v>923</v>
-      </c>
-      <c r="C383" s="8" t="s">
-        <v>924</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14666,13 +14681,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B384" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="B384" s="8" t="s">
+      <c r="C384" s="8" t="s">
         <v>926</v>
-      </c>
-      <c r="C384" s="8" t="s">
-        <v>927</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14685,13 +14700,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B385" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="C385" s="8" t="s">
         <v>929</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>930</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -14704,13 +14719,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B386" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="B386" s="8" t="s">
+      <c r="C386" s="8" t="s">
         <v>932</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>933</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14723,13 +14738,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B387" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="B387" s="8" t="s">
-        <v>935</v>
-      </c>
       <c r="C387" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14742,13 +14757,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B388" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="B388" s="8" t="s">
-        <v>937</v>
-      </c>
       <c r="C388" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -14761,13 +14776,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B389" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="C389" s="8" t="s">
         <v>939</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>940</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -14780,13 +14795,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B390" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="B390" s="8" t="s">
+      <c r="C390" s="8" t="s">
         <v>942</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>943</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -14799,13 +14814,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B391" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="C391" s="8" t="s">
         <v>945</v>
-      </c>
-      <c r="C391" s="8" t="s">
-        <v>946</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -14818,7 +14833,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>153</v>
@@ -14837,13 +14852,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B393" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="B393" s="8" t="s">
-        <v>949</v>
-      </c>
       <c r="C393" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14856,13 +14871,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B394" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="B394" s="8" t="s">
-        <v>951</v>
-      </c>
       <c r="C394" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -14875,13 +14890,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B395" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="C395" s="8" t="s">
         <v>953</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>954</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14894,13 +14909,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B396" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="B396" s="8" t="s">
-        <v>956</v>
-      </c>
       <c r="C396" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14913,13 +14928,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B397" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="C397" s="8" t="s">
         <v>958</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>959</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14932,13 +14947,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B398" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="C398" s="8" t="s">
         <v>961</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>962</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -14951,13 +14966,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B399" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="C399" s="8" t="s">
         <v>964</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>965</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -14970,13 +14985,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B400" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="C400" s="8" t="s">
         <v>967</v>
-      </c>
-      <c r="C400" s="8" t="s">
-        <v>968</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -14989,13 +15004,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -15008,13 +15023,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B402" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="C402" s="8" t="s">
         <v>972</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>973</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -15027,13 +15042,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B403" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="C403" s="8" t="s">
         <v>975</v>
-      </c>
-      <c r="C403" s="8" t="s">
-        <v>976</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -15046,10 +15061,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B404" s="8" t="s">
         <v>977</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>978</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -15063,10 +15078,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B405" s="8" t="s">
         <v>979</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>980</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -15079,9 +15094,15 @@
       <c r="K405" s="2"/>
     </row>
     <row r="406">
-      <c r="A406" s="1"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="2"/>
+      <c r="A406" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>981</v>
+      </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
@@ -15093,10 +15114,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -15110,10 +15131,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -15127,9 +15148,11 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B409" s="2"/>
+        <v>986</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>987</v>
+      </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -15142,10 +15165,14 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
+        <v>988</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>990</v>
+      </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
@@ -15157,9 +15184,11 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B411" s="2"/>
+        <v>991</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>992</v>
+      </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -15172,7 +15201,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -15187,7 +15216,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -15202,7 +15231,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -15217,7 +15246,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -15232,7 +15261,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -15247,7 +15276,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -15262,7 +15291,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -15277,7 +15306,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -15292,7 +15321,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -15307,7 +15336,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -15322,7 +15351,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -15337,7 +15366,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -15352,7 +15381,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -15367,7 +15396,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -15382,7 +15411,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -15397,7 +15426,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -15412,7 +15441,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -15427,7 +15456,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -15442,7 +15471,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -15457,7 +15486,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -15472,7 +15501,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1173" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1365" uniqueCount="1365">
   <si>
     <t>key</t>
   </si>
@@ -2075,6 +2075,216 @@
     <t>Brasilia</t>
   </si>
   <si>
+    <t>trans0001</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -3002,274 +3212,646 @@
     <t>trans0412</t>
   </si>
   <si>
+    <t>接口ID</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
     <t>trans0413</t>
   </si>
   <si>
+    <t>(XXXX:XXXX:XXXX:XXXX)</t>
+  </si>
+  <si>
     <t>trans0414</t>
   </si>
   <si>
+    <t>DHCPv6静态IP配置</t>
+  </si>
+  <si>
+    <t>DHCPv6 Static IP Configuration</t>
+  </si>
+  <si>
     <t>trans0415</t>
   </si>
   <si>
+    <t>在此页面上，您可以使用接口ID和IPv6 GUA地址将IP地址分配给MAC地址。
+IPv6 GUA地址是在LAN侧配置的接口ID和前缀的组合。</t>
+  </si>
+  <si>
+    <t>On this page, you can assign an IP address to a MAC address using the interface ID and IPv6 GUA address.
+The IPv6 GUA address is a combination of the interface ID and prefix configured on the LAN side.</t>
+  </si>
+  <si>
     <t>trans0416</t>
   </si>
   <si>
+    <t>接口ID %s 不正确，正确的格式为（XXXX:XXXX:XXXX:XXXX）。</t>
+  </si>
+  <si>
+    <t>Interface ID %s Incorrect,the correct format is (XXXX:XXXX:XXXX:XXXX).</t>
+  </si>
+  <si>
     <t>trans0417</t>
   </si>
   <si>
+    <t>接口 ID 不能为空。</t>
+  </si>
+  <si>
+    <t>Interface ID cannot be empty.</t>
+  </si>
+  <si>
     <t>trans0418</t>
   </si>
   <si>
+    <t>MAC 地址不能为空。</t>
+  </si>
+  <si>
+    <t>MAC Address cannot be empty.</t>
+  </si>
+  <si>
     <t>trans0419</t>
   </si>
   <si>
+    <t>MAC 地址 %s 不正确，正确的格式是（AA:BB:CC:DD:EE:FF）</t>
+  </si>
+  <si>
+    <t>MAC address  %s  Incorrect,the correct format is (AA:BB:CC:DD:EE:FF)</t>
+  </si>
+  <si>
     <t>trans0420</t>
   </si>
   <si>
+    <t>接口ID值是一个十六进制数字，不能超过64个字符</t>
+  </si>
+  <si>
+    <t>Interface ID value is a hexadecimal number and cannot exceed 64 characters</t>
+  </si>
+  <si>
     <t>trans0421</t>
   </si>
   <si>
+    <t>接口ID已经存在。</t>
+  </si>
+  <si>
     <t>trans0422</t>
   </si>
   <si>
+    <t>端口映射</t>
+  </si>
+  <si>
     <t>trans0423</t>
   </si>
   <si>
+    <t>Customize</t>
+  </si>
+  <si>
     <t>trans0424</t>
   </si>
   <si>
+    <t>选择模板</t>
+  </si>
+  <si>
+    <t>Select Template</t>
+  </si>
+  <si>
     <t>trans0425</t>
   </si>
   <si>
+    <t>映射名称</t>
+  </si>
+  <si>
+    <t>Mapping Name</t>
+  </si>
+  <si>
     <t>trans0426</t>
   </si>
   <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
     <t>trans0427</t>
   </si>
   <si>
+    <t>Port Trigger 配置</t>
+  </si>
+  <si>
+    <t>Port Trigger Configuration</t>
+  </si>
+  <si>
     <t>trans0428</t>
   </si>
   <si>
+    <t>在本界面中，您可以配置lan端应用程序访问Internet时使用的端口范围。
+您也可以自动启用端口。
+备注:语音业务的知名端口不能在开放端口范围内。</t>
+  </si>
+  <si>
+    <t>On this page, you can configure the range of the ports that are used by LAN-side applications to access the Internet.
+You can also enable the port automatically.
+Note: The well-known ports for voice services cannot be in the range of open ports.</t>
+  </si>
+  <si>
     <t>trans0429</t>
   </si>
   <si>
+    <t>Port Trigger 开关</t>
+  </si>
+  <si>
+    <t>Enable Port Trigger</t>
+  </si>
+  <si>
     <t>trans0430</t>
   </si>
   <si>
+    <t>Trigger 协议</t>
+  </si>
+  <si>
+    <t>Trigger Protocol</t>
+  </si>
+  <si>
     <t>trans0431</t>
   </si>
   <si>
+    <t>打开协议</t>
+  </si>
+  <si>
+    <t>Open Protocol</t>
+  </si>
+  <si>
     <t>trans0432</t>
   </si>
   <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Acl</t>
+    <t>启动Trigger端口</t>
+  </si>
+  <si>
+    <t>Start Trigger Port</t>
+  </si>
+  <si>
+    <t>trans0433</t>
+  </si>
+  <si>
+    <t>关闭Trigger端口</t>
+  </si>
+  <si>
+    <t>End Trigger Port</t>
+  </si>
+  <si>
+    <t>trans0434</t>
+  </si>
+  <si>
+    <t>开启端口</t>
+  </si>
+  <si>
+    <t>Start Open Port</t>
+  </si>
+  <si>
+    <t>trans0435</t>
+  </si>
+  <si>
+    <t>关闭端口</t>
+  </si>
+  <si>
+    <t>End Open Port</t>
+  </si>
+  <si>
+    <t>trans0436</t>
+  </si>
+  <si>
+    <t>启动触发端口不能为空。</t>
+  </si>
+  <si>
+    <t>Start Trigger Port can not empty.</t>
+  </si>
+  <si>
+    <t>trans0437</t>
+  </si>
+  <si>
+    <t>起始触发端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>Start Trigger Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0438</t>
+  </si>
+  <si>
+    <t>起始触发端口必须小于结束触发端口。</t>
+  </si>
+  <si>
+    <t>The start trigger port must be smaller than the end trigger port.</t>
+  </si>
+  <si>
+    <t>trans0439</t>
+  </si>
+  <si>
+    <t>触发端口已经存在。</t>
+  </si>
+  <si>
+    <t>The trigger port already exists.</t>
+  </si>
+  <si>
+    <t>trans0440</t>
+  </si>
+  <si>
+    <t>结束触发端口不能为空。</t>
+  </si>
+  <si>
+    <t>End Trigger Port can not empty.</t>
+  </si>
+  <si>
+    <t>trans0441</t>
+  </si>
+  <si>
+    <t>结束触发端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>End Trigger Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0442</t>
+  </si>
+  <si>
+    <t>开启端口不能为空。</t>
+  </si>
+  <si>
+    <t>Start Open Port can not empty.</t>
+  </si>
+  <si>
+    <t>trans0443</t>
+  </si>
+  <si>
+    <t>Start Open Port必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>Start Open Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0444</t>
+  </si>
+  <si>
+    <t>起始开放端口必须小于结束开放端口。</t>
+  </si>
+  <si>
+    <t>The start open port must be smaller than the end open port.</t>
+  </si>
+  <si>
+    <t>trans0445</t>
+  </si>
+  <si>
+    <t>开放端口已经存在。</t>
+  </si>
+  <si>
+    <t>The Open Port already exists.</t>
+  </si>
+  <si>
+    <t>trans0446</t>
+  </si>
+  <si>
+    <t>触发协议不能为空。</t>
+  </si>
+  <si>
+    <t>Trigger Protocol can not empty.</t>
+  </si>
+  <si>
+    <t>trans0447</t>
+  </si>
+  <si>
+    <t>打开协议不能空。</t>
+  </si>
+  <si>
+    <t>Open Protocol can not empty.</t>
+  </si>
+  <si>
+    <t>trans0448</t>
+  </si>
+  <si>
+    <t>事件解释Port触发器数量已达到上限。Port触发器的最大个数为16。</t>
+  </si>
+  <si>
+    <t>The number of Port trigger reached the upper limit. The maximum number of Port trigger was 16.</t>
+  </si>
+  <si>
+    <t>trans0449</t>
+  </si>
+  <si>
+    <t>内部主机</t>
+  </si>
+  <si>
+    <t>Internal Host</t>
+  </si>
+  <si>
+    <t>trans0450</t>
+  </si>
+  <si>
+    <t>结束开放端口不能为空。</t>
+  </si>
+  <si>
+    <t>End Open Port can not empty.</t>
+  </si>
+  <si>
+    <t>trans0451</t>
+  </si>
+  <si>
+    <t>开放端口必须为1 ~ 65535之间的整数</t>
+  </si>
+  <si>
+    <t>End Open Port is must be an integer ranging from 1 to 65535</t>
+  </si>
+  <si>
+    <t>trans0452</t>
+  </si>
+  <si>
+    <t>端口无效</t>
+  </si>
+  <si>
+    <t>Port is invalid</t>
+  </si>
+  <si>
+    <t>trans0453</t>
+  </si>
+  <si>
+    <t>长度无效</t>
+  </si>
+  <si>
+    <t>String length is invalid</t>
+  </si>
+  <si>
+    <t>trans0454</t>
+  </si>
+  <si>
+    <t>trans0455</t>
+  </si>
+  <si>
+    <t>trans0456</t>
+  </si>
+  <si>
+    <t>trans0457</t>
+  </si>
+  <si>
+    <t>trans0458</t>
+  </si>
+  <si>
+    <t>trans0459</t>
+  </si>
+  <si>
+    <t>trans0460</t>
+  </si>
+  <si>
+    <t>trans0461</t>
+  </si>
+  <si>
+    <t>trans0462</t>
+  </si>
+  <si>
+    <t>trans0463</t>
+  </si>
+  <si>
+    <t>trans0464</t>
+  </si>
+  <si>
+    <t>trans0465</t>
+  </si>
+  <si>
+    <t>trans0466</t>
+  </si>
+  <si>
+    <t>trans0467</t>
+  </si>
+  <si>
+    <t>trans0468</t>
+  </si>
+  <si>
+    <t>trans0469</t>
+  </si>
+  <si>
+    <t>trans0470</t>
+  </si>
+  <si>
+    <t>trans0471</t>
+  </si>
+  <si>
+    <t>trans0472</t>
+  </si>
+  <si>
+    <t>trans0473</t>
+  </si>
+  <si>
+    <t>trans0474</t>
+  </si>
+  <si>
+    <t>trans0475</t>
+  </si>
+  <si>
+    <t>trans0476</t>
+  </si>
+  <si>
+    <t>trans0477</t>
+  </si>
+  <si>
+    <t>trans0478</t>
+  </si>
+  <si>
+    <t>trans0479</t>
+  </si>
+  <si>
+    <t>trans0480</t>
+  </si>
+  <si>
+    <t>trans0481</t>
+  </si>
+  <si>
+    <t>trans0482</t>
+  </si>
+  <si>
+    <t>trans0483</t>
+  </si>
+  <si>
+    <t>trans0484</t>
+  </si>
+  <si>
+    <t>trans0485</t>
+  </si>
+  <si>
+    <t>trans0486</t>
+  </si>
+  <si>
+    <t>trans0487</t>
+  </si>
+  <si>
+    <t>trans0488</t>
+  </si>
+  <si>
+    <t>trans0489</t>
+  </si>
+  <si>
+    <t>trans0490</t>
+  </si>
+  <si>
+    <t>trans0491</t>
+  </si>
+  <si>
+    <t>trans0492</t>
+  </si>
+  <si>
+    <t>trans0493</t>
+  </si>
+  <si>
+    <t>trans0494</t>
+  </si>
+  <si>
+    <t>trans0495</t>
+  </si>
+  <si>
+    <t>trans0496</t>
+  </si>
+  <si>
+    <t>trans0497</t>
+  </si>
+  <si>
+    <t>trans0498</t>
+  </si>
+  <si>
+    <t>trans0499</t>
+  </si>
+  <si>
+    <t>trans0500</t>
+  </si>
+  <si>
+    <t>trans0501</t>
+  </si>
+  <si>
+    <t>trans0502</t>
+  </si>
+  <si>
+    <t>trans0503</t>
+  </si>
+  <si>
+    <t>trans0504</t>
+  </si>
+  <si>
+    <t>trans0505</t>
+  </si>
+  <si>
+    <t>trans0506</t>
+  </si>
+  <si>
+    <t>trans0507</t>
+  </si>
+  <si>
+    <t>trans0508</t>
+  </si>
+  <si>
+    <t>trans0509</t>
+  </si>
+  <si>
+    <t>trans0510</t>
+  </si>
+  <si>
+    <t>trans0511</t>
+  </si>
+  <si>
+    <t>trans0512</t>
+  </si>
+  <si>
+    <t>trans0513</t>
+  </si>
+  <si>
+    <t>trans0514</t>
+  </si>
+  <si>
+    <t>trans0515</t>
+  </si>
+  <si>
+    <t>trans0516</t>
+  </si>
+  <si>
+    <t>trans0517</t>
+  </si>
+  <si>
+    <t>trans0518</t>
+  </si>
+  <si>
+    <t>trans0519</t>
+  </si>
+  <si>
+    <t>trans0520</t>
+  </si>
+  <si>
+    <t>trans0521</t>
+  </si>
+  <si>
+    <t>trans0522</t>
+  </si>
+  <si>
+    <t>trans0523</t>
+  </si>
+  <si>
+    <t>trans0524</t>
+  </si>
+  <si>
+    <t>trans0525</t>
+  </si>
+  <si>
+    <t>trans0526</t>
+  </si>
+  <si>
+    <t>trans0527</t>
+  </si>
+  <si>
+    <t>trans0528</t>
+  </si>
+  <si>
+    <t>trans0529</t>
+  </si>
+  <si>
+    <t>trans0530</t>
+  </si>
+  <si>
+    <t>trans0531</t>
+  </si>
+  <si>
+    <t>trans0532</t>
+  </si>
+  <si>
+    <t>trans0533</t>
+  </si>
+  <si>
+    <t>trans0534</t>
+  </si>
+  <si>
+    <t>trans0535</t>
+  </si>
+  <si>
+    <t>trans0536</t>
+  </si>
+  <si>
+    <t>trans0537</t>
+  </si>
+  <si>
+    <t>trans0538</t>
+  </si>
+  <si>
+    <t>trans0539</t>
+  </si>
+  <si>
+    <t>trans0540</t>
+  </si>
+  <si>
+    <t>trans0541</t>
+  </si>
+  <si>
+    <t>trans0542</t>
+  </si>
+  <si>
+    <t>trans0543</t>
+  </si>
+  <si>
+    <t>trans0544</t>
   </si>
   <si>
     <r>
@@ -4694,7 +5276,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1014</v>
+        <v>685</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -4732,10 +5314,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1015</v>
+        <v>686</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1016</v>
+        <v>687</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -4751,7 +5333,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1017</v>
+        <v>688</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -4770,13 +5352,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1018</v>
+        <v>689</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1019</v>
+        <v>690</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1020</v>
+        <v>691</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4887,10 +5469,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1021</v>
+        <v>692</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1022</v>
+        <v>693</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5074,10 +5656,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1023</v>
+        <v>694</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1024</v>
+        <v>695</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5093,10 +5675,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1025</v>
+        <v>696</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1026</v>
+        <v>697</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5110,10 +5692,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1027</v>
+        <v>698</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1028</v>
+        <v>699</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5127,10 +5709,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1029</v>
+        <v>700</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1030</v>
+        <v>701</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5144,10 +5726,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1031</v>
+        <v>702</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1032</v>
+        <v>703</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5161,10 +5743,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1033</v>
+        <v>704</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1034</v>
+        <v>705</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5178,7 +5760,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1035</v>
+        <v>706</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5195,10 +5777,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1036</v>
+        <v>707</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1037</v>
+        <v>708</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5212,10 +5794,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1038</v>
+        <v>709</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1039</v>
+        <v>710</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5229,10 +5811,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1040</v>
+        <v>711</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1041</v>
+        <v>712</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5246,10 +5828,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1042</v>
+        <v>713</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1043</v>
+        <v>714</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5263,10 +5845,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1044</v>
+        <v>715</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1045</v>
+        <v>716</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5280,10 +5862,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1046</v>
+        <v>717</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1047</v>
+        <v>718</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5297,10 +5879,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1048</v>
+        <v>719</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1049</v>
+        <v>720</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5314,10 +5896,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1050</v>
+        <v>721</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1051</v>
+        <v>722</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5331,10 +5913,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1052</v>
+        <v>723</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1053</v>
+        <v>724</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5348,10 +5930,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1054</v>
+        <v>725</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1041</v>
+        <v>712</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -5365,10 +5947,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1055</v>
+        <v>726</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1056</v>
+        <v>727</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -5382,10 +5964,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1057</v>
+        <v>728</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1058</v>
+        <v>729</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -5399,10 +5981,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1059</v>
+        <v>730</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1060</v>
+        <v>731</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -5416,10 +5998,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1061</v>
+        <v>732</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1062</v>
+        <v>733</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -5433,10 +6015,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1063</v>
+        <v>734</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1064</v>
+        <v>735</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -5450,10 +6032,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1065</v>
+        <v>736</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1066</v>
+        <v>737</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -5467,10 +6049,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1067</v>
+        <v>738</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1068</v>
+        <v>739</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -5484,10 +6066,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1069</v>
+        <v>740</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1070</v>
+        <v>741</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -5501,10 +6083,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1071</v>
+        <v>742</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1072</v>
+        <v>743</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -5518,10 +6100,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1073</v>
+        <v>744</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1074</v>
+        <v>745</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -5535,10 +6117,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1075</v>
+        <v>746</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1026</v>
+        <v>697</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -5552,13 +6134,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1076</v>
+        <v>747</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1077</v>
+        <v>748</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1077</v>
+        <v>748</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5571,13 +6153,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1078</v>
+        <v>749</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1079</v>
+        <v>750</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1079</v>
+        <v>750</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5590,7 +6172,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1080</v>
+        <v>751</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -5607,7 +6189,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1081</v>
+        <v>752</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -5624,7 +6206,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1082</v>
+        <v>753</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -5644,7 +6226,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1043</v>
+        <v>714</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -5739,10 +6321,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1083</v>
+        <v>754</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1083</v>
+        <v>754</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7608,7 +8190,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="19.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="80.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="62.0" hidden="false" customWidth="true"/>
     <col min="3" max="3" width="60.0" hidden="false" customWidth="true"/>
     <col min="4" max="4" width="11.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="11.0" hidden="false" customWidth="true"/>
@@ -7641,7 +8223,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1084</v>
+        <v>1276</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -7679,10 +8261,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1085</v>
+        <v>1277</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1086</v>
+        <v>1278</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -7698,7 +8280,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1087</v>
+        <v>1279</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -7717,13 +8299,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1088</v>
+        <v>1280</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1089</v>
+        <v>1281</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1090</v>
+        <v>1282</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7834,10 +8416,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1091</v>
+        <v>1283</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1092</v>
+        <v>1284</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8021,10 +8603,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1093</v>
+        <v>1285</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1094</v>
+        <v>1286</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8040,10 +8622,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1095</v>
+        <v>1287</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1096</v>
+        <v>1288</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8057,10 +8639,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1097</v>
+        <v>1289</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1098</v>
+        <v>1290</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8074,10 +8656,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1099</v>
+        <v>1291</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1100</v>
+        <v>1292</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8091,10 +8673,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1101</v>
+        <v>1293</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1102</v>
+        <v>1294</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8108,10 +8690,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1103</v>
+        <v>1295</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1104</v>
+        <v>1296</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8125,10 +8707,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1105</v>
+        <v>1297</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1106</v>
+        <v>1298</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8144,10 +8726,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1107</v>
+        <v>1299</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1108</v>
+        <v>1300</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8161,10 +8743,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1109</v>
+        <v>1301</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1110</v>
+        <v>1302</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8180,10 +8762,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1111</v>
+        <v>1303</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1112</v>
+        <v>1304</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8199,10 +8781,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1113</v>
+        <v>1305</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1114</v>
+        <v>1306</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8218,10 +8800,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1115</v>
+        <v>1307</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1116</v>
+        <v>1308</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8235,10 +8817,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1117</v>
+        <v>1309</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1118</v>
+        <v>1310</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8252,10 +8834,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1119</v>
+        <v>1311</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1120</v>
+        <v>1312</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8269,10 +8851,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1121</v>
+        <v>1313</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1122</v>
+        <v>1314</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8286,10 +8868,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1123</v>
+        <v>1315</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1124</v>
+        <v>1316</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8303,10 +8885,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1125</v>
+        <v>1317</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1126</v>
+        <v>1318</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8322,10 +8904,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1127</v>
+        <v>1319</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1128</v>
+        <v>1320</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8339,10 +8921,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1129</v>
+        <v>1321</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1130</v>
+        <v>1322</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -8356,10 +8938,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1131</v>
+        <v>1323</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1132</v>
+        <v>1324</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -8373,10 +8955,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1133</v>
+        <v>1325</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1134</v>
+        <v>1326</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -8390,10 +8972,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1135</v>
+        <v>1327</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1136</v>
+        <v>1328</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -8407,10 +8989,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1137</v>
+        <v>1329</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1138</v>
+        <v>1330</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -8424,10 +9006,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1139</v>
+        <v>1331</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1140</v>
+        <v>1332</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -8441,10 +9023,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1141</v>
+        <v>1333</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1142</v>
+        <v>1334</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -8458,10 +9040,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1143</v>
+        <v>1335</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1144</v>
+        <v>1336</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -8475,10 +9057,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1145</v>
+        <v>1337</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1146</v>
+        <v>1338</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -8492,10 +9074,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1147</v>
+        <v>1339</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1148</v>
+        <v>1340</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -8509,10 +9091,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1149</v>
+        <v>1341</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1150</v>
+        <v>1342</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -8526,10 +9108,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1151</v>
+        <v>1343</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1152</v>
+        <v>1344</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -8543,7 +9125,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1153</v>
+        <v>1345</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -8560,7 +9142,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1154</v>
+        <v>1346</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -8577,7 +9159,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1155</v>
+        <v>1347</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -8859,10 +9441,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1156</v>
+        <v>1348</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1157</v>
+        <v>1349</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -8878,10 +9460,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1158</v>
+        <v>1350</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1159</v>
+        <v>1351</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -8897,10 +9479,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1160</v>
+        <v>1352</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1161</v>
+        <v>1353</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -8916,10 +9498,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1162</v>
+        <v>1354</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1163</v>
+        <v>1355</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -8935,10 +9517,10 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1164</v>
+        <v>1356</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1165</v>
+        <v>1357</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -8954,10 +9536,10 @@
         <v>107</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1166</v>
+        <v>1358</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1167</v>
+        <v>1359</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -8973,10 +9555,10 @@
         <v>108</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1168</v>
+        <v>1360</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1169</v>
+        <v>1361</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -8992,10 +9574,10 @@
         <v>109</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1171</v>
+        <v>1363</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9738,7 +10320,7 @@
         <v>204</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1172</v>
+        <v>1364</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>205</v>
@@ -13112,13 +13694,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -13131,13 +13713,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -13150,13 +13732,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -13169,13 +13751,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -13188,13 +13770,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -13207,13 +13789,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -13226,13 +13808,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -13245,13 +13827,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -13264,13 +13846,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -13283,13 +13865,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -13302,13 +13884,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -13321,13 +13903,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -13340,13 +13922,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>723</v>
+        <v>793</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -13359,13 +13941,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>724</v>
+        <v>794</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>726</v>
+        <v>796</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -13378,13 +13960,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>729</v>
+        <v>799</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -13397,13 +13979,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -13416,13 +13998,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>734</v>
+        <v>804</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -13435,13 +14017,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>736</v>
+        <v>806</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>737</v>
+        <v>807</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -13454,13 +14036,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>739</v>
+        <v>809</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>741</v>
+        <v>811</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -13473,13 +14055,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>743</v>
+        <v>813</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>744</v>
+        <v>814</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -13492,13 +14074,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>745</v>
+        <v>815</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>747</v>
+        <v>817</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -13511,13 +14093,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -13530,13 +14112,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>752</v>
+        <v>822</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>753</v>
+        <v>823</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -13549,13 +14131,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>754</v>
+        <v>824</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>755</v>
+        <v>825</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>756</v>
+        <v>826</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -13568,13 +14150,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>757</v>
+        <v>827</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>758</v>
+        <v>828</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>759</v>
+        <v>829</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -13587,13 +14169,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>761</v>
+        <v>831</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>762</v>
+        <v>832</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -13606,13 +14188,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>763</v>
+        <v>833</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>764</v>
+        <v>834</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>765</v>
+        <v>835</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -13625,13 +14207,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>766</v>
+        <v>836</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>767</v>
+        <v>837</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -13644,13 +14226,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>769</v>
+        <v>839</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>770</v>
+        <v>840</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>771</v>
+        <v>841</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -13663,13 +14245,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>772</v>
+        <v>842</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>773</v>
+        <v>843</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>774</v>
+        <v>844</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -13682,13 +14264,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>775</v>
+        <v>845</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>776</v>
+        <v>846</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>777</v>
+        <v>847</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -13701,13 +14283,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>778</v>
+        <v>848</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>779</v>
+        <v>849</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -13720,13 +14302,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>781</v>
+        <v>851</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>782</v>
+        <v>852</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>783</v>
+        <v>853</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -13739,13 +14321,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>784</v>
+        <v>854</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>786</v>
+        <v>856</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -13758,13 +14340,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>787</v>
+        <v>857</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>788</v>
+        <v>858</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>789</v>
+        <v>859</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -13777,13 +14359,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>791</v>
+        <v>861</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>792</v>
+        <v>862</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -13796,13 +14378,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>793</v>
+        <v>863</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>794</v>
+        <v>864</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>795</v>
+        <v>865</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -13815,13 +14397,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>796</v>
+        <v>866</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>798</v>
+        <v>868</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -13834,13 +14416,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>799</v>
+        <v>869</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>801</v>
+        <v>871</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -13853,13 +14435,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>802</v>
+        <v>872</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>803</v>
+        <v>873</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -13872,13 +14454,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>805</v>
+        <v>875</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>806</v>
+        <v>876</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>807</v>
+        <v>877</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -13891,13 +14473,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>808</v>
+        <v>878</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -13910,13 +14492,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>812</v>
+        <v>882</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>813</v>
+        <v>883</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -13929,13 +14511,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>814</v>
+        <v>884</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>815</v>
+        <v>885</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>816</v>
+        <v>886</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -13948,13 +14530,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>817</v>
+        <v>887</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>818</v>
+        <v>888</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>819</v>
+        <v>889</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -13967,13 +14549,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>822</v>
+        <v>892</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -13986,13 +14568,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>823</v>
+        <v>893</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>824</v>
+        <v>894</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>825</v>
+        <v>895</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14005,13 +14587,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>826</v>
+        <v>896</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>827</v>
+        <v>897</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>828</v>
+        <v>898</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14024,13 +14606,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>829</v>
+        <v>899</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>830</v>
+        <v>900</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>831</v>
+        <v>901</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -14043,13 +14625,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>832</v>
+        <v>902</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>833</v>
+        <v>903</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>834</v>
+        <v>904</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -14062,13 +14644,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>835</v>
+        <v>905</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>836</v>
+        <v>906</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -14081,13 +14663,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>838</v>
+        <v>908</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>839</v>
+        <v>909</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>840</v>
+        <v>910</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14100,13 +14682,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>841</v>
+        <v>911</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>842</v>
+        <v>912</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14119,13 +14701,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>844</v>
+        <v>914</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>846</v>
+        <v>916</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14138,13 +14720,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>847</v>
+        <v>917</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>848</v>
+        <v>918</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>849</v>
+        <v>919</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14157,13 +14739,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>851</v>
+        <v>921</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>852</v>
+        <v>922</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14176,10 +14758,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>853</v>
+        <v>923</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>854</v>
+        <v>924</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -14193,13 +14775,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>855</v>
+        <v>925</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>856</v>
+        <v>926</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>857</v>
+        <v>927</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14212,13 +14794,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>858</v>
+        <v>928</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>859</v>
+        <v>929</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14231,13 +14813,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>861</v>
+        <v>931</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>862</v>
+        <v>932</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>863</v>
+        <v>933</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14250,13 +14832,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>864</v>
+        <v>934</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>865</v>
+        <v>935</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>866</v>
+        <v>936</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14269,13 +14851,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>867</v>
+        <v>937</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>868</v>
+        <v>938</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>869</v>
+        <v>939</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14288,13 +14870,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>870</v>
+        <v>940</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>871</v>
+        <v>941</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>872</v>
+        <v>942</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14307,13 +14889,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>873</v>
+        <v>943</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>874</v>
+        <v>944</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>875</v>
+        <v>945</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14326,13 +14908,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>877</v>
+        <v>947</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>878</v>
+        <v>948</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14345,13 +14927,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>879</v>
+        <v>949</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>880</v>
+        <v>950</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14364,13 +14946,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>882</v>
+        <v>952</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>883</v>
+        <v>953</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>884</v>
+        <v>954</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14383,13 +14965,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>885</v>
+        <v>955</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>886</v>
+        <v>956</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>887</v>
+        <v>957</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -14402,13 +14984,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>888</v>
+        <v>958</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>889</v>
+        <v>959</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>890</v>
+        <v>960</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -14421,13 +15003,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>892</v>
+        <v>962</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>893</v>
+        <v>963</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -14440,13 +15022,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>894</v>
+        <v>964</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>895</v>
+        <v>965</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>896</v>
+        <v>966</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -14459,13 +15041,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>897</v>
+        <v>967</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>898</v>
+        <v>968</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>898</v>
+        <v>968</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -14478,13 +15060,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>899</v>
+        <v>969</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -14497,10 +15079,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>901</v>
+        <v>971</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>902</v>
+        <v>972</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -14514,10 +15096,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>903</v>
+        <v>973</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>904</v>
+        <v>974</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -14531,13 +15113,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>905</v>
+        <v>975</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>906</v>
+        <v>976</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>906</v>
+        <v>976</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -14550,13 +15132,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>907</v>
+        <v>977</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>908</v>
+        <v>978</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>908</v>
+        <v>978</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -14569,7 +15151,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>909</v>
+        <v>979</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>533</v>
@@ -14588,10 +15170,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>910</v>
+        <v>980</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>911</v>
+        <v>981</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -14605,13 +15187,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>912</v>
+        <v>982</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>913</v>
+        <v>983</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>914</v>
+        <v>984</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -14624,13 +15206,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>915</v>
+        <v>985</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>916</v>
+        <v>986</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>917</v>
+        <v>987</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -14643,13 +15225,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>918</v>
+        <v>988</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>919</v>
+        <v>989</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -14662,13 +15244,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>921</v>
+        <v>991</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>922</v>
+        <v>992</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>923</v>
+        <v>993</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -14681,13 +15263,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>924</v>
+        <v>994</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>925</v>
+        <v>995</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>926</v>
+        <v>996</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -14700,13 +15282,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>927</v>
+        <v>997</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>928</v>
+        <v>998</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>929</v>
+        <v>999</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -14719,13 +15301,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>931</v>
+        <v>1001</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>932</v>
+        <v>1002</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -14738,13 +15320,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>933</v>
+        <v>1003</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>934</v>
+        <v>1004</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>934</v>
+        <v>1004</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -14757,13 +15339,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>935</v>
+        <v>1005</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>936</v>
+        <v>1006</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>936</v>
+        <v>1006</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -14776,13 +15358,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>937</v>
+        <v>1007</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>938</v>
+        <v>1008</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>939</v>
+        <v>1009</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -14795,13 +15377,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>940</v>
+        <v>1010</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>941</v>
+        <v>1011</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>942</v>
+        <v>1012</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -14814,13 +15396,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>943</v>
+        <v>1013</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>944</v>
+        <v>1014</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>945</v>
+        <v>1015</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -14833,7 +15415,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>946</v>
+        <v>1016</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>153</v>
@@ -14852,13 +15434,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>947</v>
+        <v>1017</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>948</v>
+        <v>1018</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>948</v>
+        <v>1018</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -14871,13 +15453,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>949</v>
+        <v>1019</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>950</v>
+        <v>1020</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>950</v>
+        <v>1020</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -14890,13 +15472,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>951</v>
+        <v>1021</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>952</v>
+        <v>1022</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>953</v>
+        <v>1023</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -14909,13 +15491,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -14928,13 +15510,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>956</v>
+        <v>1026</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>957</v>
+        <v>1027</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>958</v>
+        <v>1028</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -14947,13 +15529,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>959</v>
+        <v>1029</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>960</v>
+        <v>1030</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>961</v>
+        <v>1031</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -14966,13 +15548,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>962</v>
+        <v>1032</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>963</v>
+        <v>1033</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -14985,13 +15567,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>965</v>
+        <v>1035</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>966</v>
+        <v>1036</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>967</v>
+        <v>1037</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -15004,13 +15586,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>968</v>
+        <v>1038</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>969</v>
+        <v>1039</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -15023,13 +15605,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>970</v>
+        <v>1040</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>971</v>
+        <v>1041</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>972</v>
+        <v>1042</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -15042,13 +15624,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>973</v>
+        <v>1043</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>974</v>
+        <v>1044</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>975</v>
+        <v>1045</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -15061,10 +15643,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>976</v>
+        <v>1046</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>977</v>
+        <v>1047</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -15078,10 +15660,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>978</v>
+        <v>1048</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>979</v>
+        <v>1049</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -15095,13 +15677,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>980</v>
+        <v>1050</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>981</v>
+        <v>1051</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>981</v>
+        <v>1051</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -15114,10 +15696,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>982</v>
+        <v>1052</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>983</v>
+        <v>1053</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -15131,10 +15713,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>984</v>
+        <v>1054</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>985</v>
+        <v>1055</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -15148,10 +15730,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>986</v>
+        <v>1056</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>987</v>
+        <v>1057</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -15165,13 +15747,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>988</v>
+        <v>1058</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>989</v>
+        <v>1059</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>990</v>
+        <v>1060</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -15184,10 +15766,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>991</v>
+        <v>1061</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>992</v>
+        <v>1062</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -15201,10 +15783,14 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
+        <v>1063</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>1065</v>
+      </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
@@ -15216,9 +15802,11 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B413" s="2"/>
+        <v>1066</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -15231,10 +15819,14 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
+        <v>1068</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
@@ -15246,10 +15838,14 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
+        <v>1071</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>1073</v>
+      </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
@@ -15261,10 +15857,14 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
+        <v>1074</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>1076</v>
+      </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
@@ -15276,10 +15876,14 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
+        <v>1077</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>1079</v>
+      </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
@@ -15291,10 +15895,14 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
+        <v>1080</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>1082</v>
+      </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
@@ -15306,10 +15914,14 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
+        <v>1083</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>1085</v>
+      </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
@@ -15321,10 +15933,14 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
+        <v>1086</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>1088</v>
+      </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
@@ -15336,9 +15952,11 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B421" s="2"/>
+        <v>1089</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>1090</v>
+      </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -15351,10 +15969,14 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
+        <v>1091</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>1051</v>
+      </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
@@ -15366,10 +15988,14 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
+        <v>1093</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>1094</v>
+      </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
@@ -15381,10 +16007,14 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
+        <v>1095</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>1097</v>
+      </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
@@ -15396,10 +16026,14 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
+        <v>1098</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>1100</v>
+      </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
@@ -15411,10 +16045,14 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
+        <v>1101</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>1103</v>
+      </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
@@ -15426,10 +16064,14 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
+        <v>1104</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>1106</v>
+      </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
@@ -15441,10 +16083,14 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
+        <v>1107</v>
+      </c>
+      <c r="B428" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>1109</v>
+      </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
@@ -15456,10 +16102,14 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
+        <v>1110</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>1112</v>
+      </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
@@ -15471,10 +16121,14 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
+        <v>1113</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>1115</v>
+      </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
@@ -15486,10 +16140,14 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
+        <v>1116</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>1118</v>
+      </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
@@ -15501,10 +16159,14 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
+        <v>1119</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>1121</v>
+      </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
@@ -15515,9 +16177,15 @@
       <c r="K432" s="2"/>
     </row>
     <row r="433">
-      <c r="A433" s="1"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
+      <c r="A433" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>1124</v>
+      </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
@@ -15528,9 +16196,15 @@
       <c r="K433" s="2"/>
     </row>
     <row r="434">
-      <c r="A434" s="1"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
+      <c r="A434" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>1127</v>
+      </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
@@ -15541,9 +16215,15 @@
       <c r="K434" s="2"/>
     </row>
     <row r="435">
-      <c r="A435" s="1"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
+      <c r="A435" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>1130</v>
+      </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
@@ -15554,9 +16234,15 @@
       <c r="K435" s="2"/>
     </row>
     <row r="436">
-      <c r="A436" s="1"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
+      <c r="A436" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
@@ -15567,9 +16253,15 @@
       <c r="K436" s="2"/>
     </row>
     <row r="437">
-      <c r="A437" s="1"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
+      <c r="A437" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>1136</v>
+      </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
@@ -15580,9 +16272,15 @@
       <c r="K437" s="2"/>
     </row>
     <row r="438">
-      <c r="A438" s="1"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
+      <c r="A438" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>1139</v>
+      </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
@@ -15593,9 +16291,15 @@
       <c r="K438" s="2"/>
     </row>
     <row r="439">
-      <c r="A439" s="1"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
+      <c r="A439" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>1142</v>
+      </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
@@ -15606,9 +16310,15 @@
       <c r="K439" s="2"/>
     </row>
     <row r="440">
-      <c r="A440" s="1"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
+      <c r="A440" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>1145</v>
+      </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
@@ -15619,9 +16329,15 @@
       <c r="K440" s="2"/>
     </row>
     <row r="441">
-      <c r="A441" s="1"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
+      <c r="A441" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>1148</v>
+      </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
@@ -15632,9 +16348,15 @@
       <c r="K441" s="2"/>
     </row>
     <row r="442">
-      <c r="A442" s="1"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
+      <c r="A442" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C442" s="8" t="s">
+        <v>1151</v>
+      </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -15645,9 +16367,15 @@
       <c r="K442" s="2"/>
     </row>
     <row r="443">
-      <c r="A443" s="1"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
+      <c r="A443" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>1154</v>
+      </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
@@ -15658,9 +16386,15 @@
       <c r="K443" s="2"/>
     </row>
     <row r="444">
-      <c r="A444" s="1"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
+      <c r="A444" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>1157</v>
+      </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
@@ -15671,9 +16405,15 @@
       <c r="K444" s="2"/>
     </row>
     <row r="445">
-      <c r="A445" s="1"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
+      <c r="A445" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>1160</v>
+      </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
@@ -15684,9 +16424,15 @@
       <c r="K445" s="2"/>
     </row>
     <row r="446">
-      <c r="A446" s="1"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
+      <c r="A446" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C446" s="8" t="s">
+        <v>1163</v>
+      </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
@@ -15697,9 +16443,15 @@
       <c r="K446" s="2"/>
     </row>
     <row r="447">
-      <c r="A447" s="1"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
+      <c r="A447" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>1166</v>
+      </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
@@ -15710,9 +16462,15 @@
       <c r="K447" s="2"/>
     </row>
     <row r="448">
-      <c r="A448" s="1"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
+      <c r="A448" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>1169</v>
+      </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
@@ -15723,9 +16481,15 @@
       <c r="K448" s="2"/>
     </row>
     <row r="449">
-      <c r="A449" s="1"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
+      <c r="A449" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>1172</v>
+      </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
@@ -15736,9 +16500,15 @@
       <c r="K449" s="2"/>
     </row>
     <row r="450">
-      <c r="A450" s="1"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
+      <c r="A450" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C450" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
@@ -15749,9 +16519,15 @@
       <c r="K450" s="2"/>
     </row>
     <row r="451">
-      <c r="A451" s="1"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
+      <c r="A451" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>1178</v>
+      </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
@@ -15762,9 +16538,15 @@
       <c r="K451" s="2"/>
     </row>
     <row r="452">
-      <c r="A452" s="1"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
+      <c r="A452" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>1181</v>
+      </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
@@ -15775,9 +16557,15 @@
       <c r="K452" s="2"/>
     </row>
     <row r="453">
-      <c r="A453" s="1"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
+      <c r="A453" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>1184</v>
+      </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
@@ -15788,7 +16576,9 @@
       <c r="K453" s="2"/>
     </row>
     <row r="454">
-      <c r="A454" s="1"/>
+      <c r="A454" s="1" t="s">
+        <v>1185</v>
+      </c>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -15801,7 +16591,9 @@
       <c r="K454" s="2"/>
     </row>
     <row r="455">
-      <c r="A455" s="1"/>
+      <c r="A455" s="1" t="s">
+        <v>1186</v>
+      </c>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -15814,7 +16606,9 @@
       <c r="K455" s="2"/>
     </row>
     <row r="456">
-      <c r="A456" s="1"/>
+      <c r="A456" s="1" t="s">
+        <v>1187</v>
+      </c>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -15827,7 +16621,9 @@
       <c r="K456" s="2"/>
     </row>
     <row r="457">
-      <c r="A457" s="1"/>
+      <c r="A457" s="1" t="s">
+        <v>1188</v>
+      </c>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -15840,7 +16636,9 @@
       <c r="K457" s="2"/>
     </row>
     <row r="458">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1" t="s">
+        <v>1189</v>
+      </c>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -15853,7 +16651,9 @@
       <c r="K458" s="2"/>
     </row>
     <row r="459">
-      <c r="A459" s="1"/>
+      <c r="A459" s="1" t="s">
+        <v>1190</v>
+      </c>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -15866,7 +16666,9 @@
       <c r="K459" s="2"/>
     </row>
     <row r="460">
-      <c r="A460" s="1"/>
+      <c r="A460" s="1" t="s">
+        <v>1191</v>
+      </c>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -15879,7 +16681,9 @@
       <c r="K460" s="2"/>
     </row>
     <row r="461">
-      <c r="A461" s="1"/>
+      <c r="A461" s="1" t="s">
+        <v>1192</v>
+      </c>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -15892,7 +16696,9 @@
       <c r="K461" s="2"/>
     </row>
     <row r="462">
-      <c r="A462" s="1"/>
+      <c r="A462" s="1" t="s">
+        <v>1193</v>
+      </c>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -15905,7 +16711,9 @@
       <c r="K462" s="2"/>
     </row>
     <row r="463">
-      <c r="A463" s="1"/>
+      <c r="A463" s="1" t="s">
+        <v>1194</v>
+      </c>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -15918,7 +16726,9 @@
       <c r="K463" s="2"/>
     </row>
     <row r="464">
-      <c r="A464" s="1"/>
+      <c r="A464" s="1" t="s">
+        <v>1195</v>
+      </c>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -15931,7 +16741,9 @@
       <c r="K464" s="2"/>
     </row>
     <row r="465">
-      <c r="A465" s="1"/>
+      <c r="A465" s="1" t="s">
+        <v>1196</v>
+      </c>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -15944,7 +16756,9 @@
       <c r="K465" s="2"/>
     </row>
     <row r="466">
-      <c r="A466" s="1"/>
+      <c r="A466" s="1" t="s">
+        <v>1197</v>
+      </c>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -15957,7 +16771,9 @@
       <c r="K466" s="2"/>
     </row>
     <row r="467">
-      <c r="A467" s="1"/>
+      <c r="A467" s="1" t="s">
+        <v>1198</v>
+      </c>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -15970,7 +16786,9 @@
       <c r="K467" s="2"/>
     </row>
     <row r="468">
-      <c r="A468" s="1"/>
+      <c r="A468" s="1" t="s">
+        <v>1199</v>
+      </c>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -15983,7 +16801,9 @@
       <c r="K468" s="2"/>
     </row>
     <row r="469">
-      <c r="A469" s="1"/>
+      <c r="A469" s="1" t="s">
+        <v>1200</v>
+      </c>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -15996,7 +16816,9 @@
       <c r="K469" s="2"/>
     </row>
     <row r="470">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1" t="s">
+        <v>1201</v>
+      </c>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -16009,7 +16831,9 @@
       <c r="K470" s="2"/>
     </row>
     <row r="471">
-      <c r="A471" s="1"/>
+      <c r="A471" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -16022,7 +16846,9 @@
       <c r="K471" s="2"/>
     </row>
     <row r="472">
-      <c r="A472" s="1"/>
+      <c r="A472" s="1" t="s">
+        <v>1203</v>
+      </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -16035,7 +16861,9 @@
       <c r="K472" s="2"/>
     </row>
     <row r="473">
-      <c r="A473" s="1"/>
+      <c r="A473" s="1" t="s">
+        <v>1204</v>
+      </c>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -16048,7 +16876,9 @@
       <c r="K473" s="2"/>
     </row>
     <row r="474">
-      <c r="A474" s="1"/>
+      <c r="A474" s="1" t="s">
+        <v>1205</v>
+      </c>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -16061,7 +16891,9 @@
       <c r="K474" s="2"/>
     </row>
     <row r="475">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1" t="s">
+        <v>1206</v>
+      </c>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -16074,7 +16906,9 @@
       <c r="K475" s="2"/>
     </row>
     <row r="476">
-      <c r="A476" s="1"/>
+      <c r="A476" s="1" t="s">
+        <v>1207</v>
+      </c>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -16087,7 +16921,9 @@
       <c r="K476" s="2"/>
     </row>
     <row r="477">
-      <c r="A477" s="1"/>
+      <c r="A477" s="1" t="s">
+        <v>1208</v>
+      </c>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -16100,7 +16936,9 @@
       <c r="K477" s="2"/>
     </row>
     <row r="478">
-      <c r="A478" s="1"/>
+      <c r="A478" s="1" t="s">
+        <v>1209</v>
+      </c>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -16113,7 +16951,9 @@
       <c r="K478" s="2"/>
     </row>
     <row r="479">
-      <c r="A479" s="1"/>
+      <c r="A479" s="1" t="s">
+        <v>1210</v>
+      </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -16126,7 +16966,9 @@
       <c r="K479" s="2"/>
     </row>
     <row r="480">
-      <c r="A480" s="1"/>
+      <c r="A480" s="1" t="s">
+        <v>1211</v>
+      </c>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -16139,7 +16981,9 @@
       <c r="K480" s="2"/>
     </row>
     <row r="481">
-      <c r="A481" s="1"/>
+      <c r="A481" s="1" t="s">
+        <v>1212</v>
+      </c>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -16152,7 +16996,9 @@
       <c r="K481" s="2"/>
     </row>
     <row r="482">
-      <c r="A482" s="1"/>
+      <c r="A482" s="1" t="s">
+        <v>1213</v>
+      </c>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -16165,7 +17011,9 @@
       <c r="K482" s="2"/>
     </row>
     <row r="483">
-      <c r="A483" s="1"/>
+      <c r="A483" s="1" t="s">
+        <v>1214</v>
+      </c>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -16178,7 +17026,9 @@
       <c r="K483" s="2"/>
     </row>
     <row r="484">
-      <c r="A484" s="1"/>
+      <c r="A484" s="1" t="s">
+        <v>1215</v>
+      </c>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -16191,7 +17041,9 @@
       <c r="K484" s="2"/>
     </row>
     <row r="485">
-      <c r="A485" s="1"/>
+      <c r="A485" s="1" t="s">
+        <v>1216</v>
+      </c>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -16204,7 +17056,9 @@
       <c r="K485" s="2"/>
     </row>
     <row r="486">
-      <c r="A486" s="1"/>
+      <c r="A486" s="1" t="s">
+        <v>1217</v>
+      </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -16217,7 +17071,9 @@
       <c r="K486" s="2"/>
     </row>
     <row r="487">
-      <c r="A487" s="1"/>
+      <c r="A487" s="1" t="s">
+        <v>1218</v>
+      </c>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -16230,7 +17086,9 @@
       <c r="K487" s="2"/>
     </row>
     <row r="488">
-      <c r="A488" s="1"/>
+      <c r="A488" s="1" t="s">
+        <v>1219</v>
+      </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -16243,7 +17101,9 @@
       <c r="K488" s="2"/>
     </row>
     <row r="489">
-      <c r="A489" s="1"/>
+      <c r="A489" s="1" t="s">
+        <v>1220</v>
+      </c>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -16256,7 +17116,9 @@
       <c r="K489" s="2"/>
     </row>
     <row r="490">
-      <c r="A490" s="1"/>
+      <c r="A490" s="1" t="s">
+        <v>1221</v>
+      </c>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -16269,7 +17131,9 @@
       <c r="K490" s="2"/>
     </row>
     <row r="491">
-      <c r="A491" s="1"/>
+      <c r="A491" s="1" t="s">
+        <v>1222</v>
+      </c>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -16282,7 +17146,9 @@
       <c r="K491" s="2"/>
     </row>
     <row r="492">
-      <c r="A492" s="1"/>
+      <c r="A492" s="1" t="s">
+        <v>1223</v>
+      </c>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -16295,7 +17161,9 @@
       <c r="K492" s="2"/>
     </row>
     <row r="493">
-      <c r="A493" s="1"/>
+      <c r="A493" s="1" t="s">
+        <v>1224</v>
+      </c>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -16308,7 +17176,9 @@
       <c r="K493" s="2"/>
     </row>
     <row r="494">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1" t="s">
+        <v>1225</v>
+      </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -16321,7 +17191,9 @@
       <c r="K494" s="2"/>
     </row>
     <row r="495">
-      <c r="A495" s="1"/>
+      <c r="A495" s="1" t="s">
+        <v>1226</v>
+      </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -16334,7 +17206,9 @@
       <c r="K495" s="2"/>
     </row>
     <row r="496">
-      <c r="A496" s="1"/>
+      <c r="A496" s="1" t="s">
+        <v>1227</v>
+      </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -16347,7 +17221,9 @@
       <c r="K496" s="2"/>
     </row>
     <row r="497">
-      <c r="A497" s="1"/>
+      <c r="A497" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -16360,7 +17236,9 @@
       <c r="K497" s="2"/>
     </row>
     <row r="498">
-      <c r="A498" s="1"/>
+      <c r="A498" s="1" t="s">
+        <v>1229</v>
+      </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -16373,7 +17251,9 @@
       <c r="K498" s="2"/>
     </row>
     <row r="499">
-      <c r="A499" s="1"/>
+      <c r="A499" s="1" t="s">
+        <v>1230</v>
+      </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -16386,7 +17266,9 @@
       <c r="K499" s="2"/>
     </row>
     <row r="500">
-      <c r="A500" s="1"/>
+      <c r="A500" s="1" t="s">
+        <v>1231</v>
+      </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -16399,7 +17281,9 @@
       <c r="K500" s="2"/>
     </row>
     <row r="501">
-      <c r="A501" s="1"/>
+      <c r="A501" s="1" t="s">
+        <v>1232</v>
+      </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -16412,7 +17296,9 @@
       <c r="K501" s="2"/>
     </row>
     <row r="502">
-      <c r="A502" s="1"/>
+      <c r="A502" s="1" t="s">
+        <v>1233</v>
+      </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -16425,7 +17311,9 @@
       <c r="K502" s="2"/>
     </row>
     <row r="503">
-      <c r="A503" s="1"/>
+      <c r="A503" s="1" t="s">
+        <v>1234</v>
+      </c>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -16438,7 +17326,9 @@
       <c r="K503" s="2"/>
     </row>
     <row r="504">
-      <c r="A504" s="1"/>
+      <c r="A504" s="1" t="s">
+        <v>1235</v>
+      </c>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -16451,7 +17341,9 @@
       <c r="K504" s="2"/>
     </row>
     <row r="505">
-      <c r="A505" s="1"/>
+      <c r="A505" s="1" t="s">
+        <v>1236</v>
+      </c>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -16464,7 +17356,9 @@
       <c r="K505" s="2"/>
     </row>
     <row r="506">
-      <c r="A506" s="1"/>
+      <c r="A506" s="1" t="s">
+        <v>1237</v>
+      </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -16477,7 +17371,9 @@
       <c r="K506" s="2"/>
     </row>
     <row r="507">
-      <c r="A507" s="1"/>
+      <c r="A507" s="1" t="s">
+        <v>1238</v>
+      </c>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -16490,7 +17386,9 @@
       <c r="K507" s="2"/>
     </row>
     <row r="508">
-      <c r="A508" s="1"/>
+      <c r="A508" s="1" t="s">
+        <v>1239</v>
+      </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -16503,7 +17401,9 @@
       <c r="K508" s="2"/>
     </row>
     <row r="509">
-      <c r="A509" s="1"/>
+      <c r="A509" s="1" t="s">
+        <v>1240</v>
+      </c>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -16516,7 +17416,9 @@
       <c r="K509" s="2"/>
     </row>
     <row r="510">
-      <c r="A510" s="1"/>
+      <c r="A510" s="1" t="s">
+        <v>1241</v>
+      </c>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -16529,7 +17431,9 @@
       <c r="K510" s="2"/>
     </row>
     <row r="511">
-      <c r="A511" s="1"/>
+      <c r="A511" s="1" t="s">
+        <v>1242</v>
+      </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -16542,7 +17446,9 @@
       <c r="K511" s="2"/>
     </row>
     <row r="512">
-      <c r="A512" s="1"/>
+      <c r="A512" s="1" t="s">
+        <v>1243</v>
+      </c>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -16555,7 +17461,9 @@
       <c r="K512" s="2"/>
     </row>
     <row r="513">
-      <c r="A513" s="1"/>
+      <c r="A513" s="1" t="s">
+        <v>1244</v>
+      </c>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -16568,7 +17476,9 @@
       <c r="K513" s="2"/>
     </row>
     <row r="514">
-      <c r="A514" s="1"/>
+      <c r="A514" s="1" t="s">
+        <v>1245</v>
+      </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -16581,7 +17491,9 @@
       <c r="K514" s="2"/>
     </row>
     <row r="515">
-      <c r="A515" s="1"/>
+      <c r="A515" s="1" t="s">
+        <v>1246</v>
+      </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -16594,7 +17506,9 @@
       <c r="K515" s="2"/>
     </row>
     <row r="516">
-      <c r="A516" s="1"/>
+      <c r="A516" s="1" t="s">
+        <v>1247</v>
+      </c>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -16607,7 +17521,9 @@
       <c r="K516" s="2"/>
     </row>
     <row r="517">
-      <c r="A517" s="1"/>
+      <c r="A517" s="1" t="s">
+        <v>1248</v>
+      </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -16620,7 +17536,9 @@
       <c r="K517" s="2"/>
     </row>
     <row r="518">
-      <c r="A518" s="1"/>
+      <c r="A518" s="1" t="s">
+        <v>1249</v>
+      </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -16633,7 +17551,9 @@
       <c r="K518" s="2"/>
     </row>
     <row r="519">
-      <c r="A519" s="1"/>
+      <c r="A519" s="1" t="s">
+        <v>1250</v>
+      </c>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -16646,7 +17566,9 @@
       <c r="K519" s="2"/>
     </row>
     <row r="520">
-      <c r="A520" s="1"/>
+      <c r="A520" s="1" t="s">
+        <v>1251</v>
+      </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -16659,7 +17581,9 @@
       <c r="K520" s="2"/>
     </row>
     <row r="521">
-      <c r="A521" s="1"/>
+      <c r="A521" s="1" t="s">
+        <v>1252</v>
+      </c>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -16672,7 +17596,9 @@
       <c r="K521" s="2"/>
     </row>
     <row r="522">
-      <c r="A522" s="1"/>
+      <c r="A522" s="1" t="s">
+        <v>1253</v>
+      </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -16685,7 +17611,9 @@
       <c r="K522" s="2"/>
     </row>
     <row r="523">
-      <c r="A523" s="1"/>
+      <c r="A523" s="1" t="s">
+        <v>1254</v>
+      </c>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -16698,7 +17626,9 @@
       <c r="K523" s="2"/>
     </row>
     <row r="524">
-      <c r="A524" s="1"/>
+      <c r="A524" s="1" t="s">
+        <v>1255</v>
+      </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -16711,7 +17641,9 @@
       <c r="K524" s="2"/>
     </row>
     <row r="525">
-      <c r="A525" s="1"/>
+      <c r="A525" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -16724,7 +17656,9 @@
       <c r="K525" s="2"/>
     </row>
     <row r="526">
-      <c r="A526" s="1"/>
+      <c r="A526" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -16737,7 +17671,9 @@
       <c r="K526" s="2"/>
     </row>
     <row r="527">
-      <c r="A527" s="1"/>
+      <c r="A527" s="1" t="s">
+        <v>1258</v>
+      </c>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -16750,7 +17686,9 @@
       <c r="K527" s="2"/>
     </row>
     <row r="528">
-      <c r="A528" s="1"/>
+      <c r="A528" s="1" t="s">
+        <v>1259</v>
+      </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -16763,7 +17701,9 @@
       <c r="K528" s="2"/>
     </row>
     <row r="529">
-      <c r="A529" s="1"/>
+      <c r="A529" s="1" t="s">
+        <v>1260</v>
+      </c>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -16776,7 +17716,9 @@
       <c r="K529" s="2"/>
     </row>
     <row r="530">
-      <c r="A530" s="1"/>
+      <c r="A530" s="1" t="s">
+        <v>1261</v>
+      </c>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -16789,7 +17731,9 @@
       <c r="K530" s="2"/>
     </row>
     <row r="531">
-      <c r="A531" s="1"/>
+      <c r="A531" s="1" t="s">
+        <v>1262</v>
+      </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -16802,7 +17746,9 @@
       <c r="K531" s="2"/>
     </row>
     <row r="532">
-      <c r="A532" s="1"/>
+      <c r="A532" s="1" t="s">
+        <v>1263</v>
+      </c>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -16815,7 +17761,9 @@
       <c r="K532" s="2"/>
     </row>
     <row r="533">
-      <c r="A533" s="1"/>
+      <c r="A533" s="1" t="s">
+        <v>1264</v>
+      </c>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -16828,7 +17776,9 @@
       <c r="K533" s="2"/>
     </row>
     <row r="534">
-      <c r="A534" s="1"/>
+      <c r="A534" s="1" t="s">
+        <v>1265</v>
+      </c>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -16841,7 +17791,9 @@
       <c r="K534" s="2"/>
     </row>
     <row r="535">
-      <c r="A535" s="1"/>
+      <c r="A535" s="1" t="s">
+        <v>1266</v>
+      </c>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -16854,7 +17806,9 @@
       <c r="K535" s="2"/>
     </row>
     <row r="536">
-      <c r="A536" s="1"/>
+      <c r="A536" s="1" t="s">
+        <v>1267</v>
+      </c>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -16867,7 +17821,9 @@
       <c r="K536" s="2"/>
     </row>
     <row r="537">
-      <c r="A537" s="1"/>
+      <c r="A537" s="1" t="s">
+        <v>1268</v>
+      </c>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -16880,7 +17836,9 @@
       <c r="K537" s="2"/>
     </row>
     <row r="538">
-      <c r="A538" s="1"/>
+      <c r="A538" s="1" t="s">
+        <v>1269</v>
+      </c>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -16893,7 +17851,9 @@
       <c r="K538" s="2"/>
     </row>
     <row r="539">
-      <c r="A539" s="1"/>
+      <c r="A539" s="1" t="s">
+        <v>1270</v>
+      </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -16906,7 +17866,9 @@
       <c r="K539" s="2"/>
     </row>
     <row r="540">
-      <c r="A540" s="1"/>
+      <c r="A540" s="1" t="s">
+        <v>1271</v>
+      </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -16919,7 +17881,9 @@
       <c r="K540" s="2"/>
     </row>
     <row r="541">
-      <c r="A541" s="1"/>
+      <c r="A541" s="1" t="s">
+        <v>1272</v>
+      </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -16932,7 +17896,9 @@
       <c r="K541" s="2"/>
     </row>
     <row r="542">
-      <c r="A542" s="1"/>
+      <c r="A542" s="1" t="s">
+        <v>1273</v>
+      </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -16945,7 +17911,9 @@
       <c r="K542" s="2"/>
     </row>
     <row r="543">
-      <c r="A543" s="1"/>
+      <c r="A543" s="1" t="s">
+        <v>1274</v>
+      </c>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -16958,7 +17926,9 @@
       <c r="K543" s="2"/>
     </row>
     <row r="544">
-      <c r="A544" s="1"/>
+      <c r="A544" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1365" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1366" uniqueCount="1366">
   <si>
     <t>key</t>
   </si>
@@ -2075,216 +2075,6 @@
     <t>Brasilia</t>
   </si>
   <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Acl</t>
-  </si>
-  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -3440,10 +3230,10 @@
     <t>trans0438</t>
   </si>
   <si>
-    <t>起始触发端口必须小于结束触发端口。</t>
-  </si>
-  <si>
-    <t>The start trigger port must be smaller than the end trigger port.</t>
+    <t>结束起始触发端口必须大于起始触发端口。</t>
+  </si>
+  <si>
+    <t>The end trigger port must be greater than the start trigger port .</t>
   </si>
   <si>
     <t>trans0439</t>
@@ -3494,10 +3284,10 @@
     <t>trans0444</t>
   </si>
   <si>
-    <t>起始开放端口必须小于结束开放端口。</t>
-  </si>
-  <si>
-    <t>The start open port must be smaller than the end open port.</t>
+    <t>结束开放端口必须大于起始开放端口。</t>
+  </si>
+  <si>
+    <t>The end open port must be smaller than  the start open port .</t>
   </si>
   <si>
     <t>trans0445</t>
@@ -3584,6 +3374,9 @@
     <t>trans0454</t>
   </si>
   <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
     <t>trans0455</t>
   </si>
   <si>
@@ -3852,6 +3645,216 @@
   </si>
   <si>
     <t>trans0544</t>
+  </si>
+  <si>
+    <t>trans0001</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>Acl</t>
   </si>
   <si>
     <r>
@@ -5276,7 +5279,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>685</v>
+        <v>1207</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5314,10 +5317,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>686</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>687</v>
+        <v>1209</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5333,7 +5336,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>688</v>
+        <v>1210</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5352,13 +5355,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>689</v>
+        <v>1211</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>690</v>
+        <v>1212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>691</v>
+        <v>1213</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5469,10 +5472,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>692</v>
+        <v>1214</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>693</v>
+        <v>1215</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5656,10 +5659,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>694</v>
+        <v>1216</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>695</v>
+        <v>1217</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5675,10 +5678,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>696</v>
+        <v>1218</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>697</v>
+        <v>1219</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5692,10 +5695,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>698</v>
+        <v>1220</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>699</v>
+        <v>1221</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5709,10 +5712,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>700</v>
+        <v>1222</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>701</v>
+        <v>1223</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>702</v>
+        <v>1224</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>703</v>
+        <v>1225</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>704</v>
+        <v>1226</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>705</v>
+        <v>1227</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5760,7 +5763,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>706</v>
+        <v>1228</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5777,10 +5780,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>707</v>
+        <v>1229</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>708</v>
+        <v>1230</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5794,10 +5797,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>709</v>
+        <v>1231</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>710</v>
+        <v>1232</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5811,10 +5814,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>711</v>
+        <v>1233</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>712</v>
+        <v>1234</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5828,10 +5831,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>713</v>
+        <v>1235</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>714</v>
+        <v>1236</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5845,10 +5848,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>715</v>
+        <v>1237</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>716</v>
+        <v>1238</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5862,10 +5865,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>717</v>
+        <v>1239</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>718</v>
+        <v>1240</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5879,10 +5882,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>719</v>
+        <v>1241</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>720</v>
+        <v>1242</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5896,10 +5899,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>721</v>
+        <v>1243</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>722</v>
+        <v>1244</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5913,10 +5916,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>723</v>
+        <v>1245</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>724</v>
+        <v>1246</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5930,10 +5933,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>725</v>
+        <v>1247</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>712</v>
+        <v>1234</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -5947,10 +5950,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>726</v>
+        <v>1248</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>727</v>
+        <v>1249</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -5964,10 +5967,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>728</v>
+        <v>1250</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>729</v>
+        <v>1251</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -5981,10 +5984,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>730</v>
+        <v>1252</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>731</v>
+        <v>1253</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -5998,10 +6001,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>732</v>
+        <v>1254</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>733</v>
+        <v>1255</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6015,10 +6018,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>734</v>
+        <v>1256</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>735</v>
+        <v>1257</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6032,10 +6035,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>736</v>
+        <v>1258</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>737</v>
+        <v>1259</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6049,10 +6052,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>738</v>
+        <v>1260</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>739</v>
+        <v>1261</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6066,10 +6069,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>740</v>
+        <v>1262</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>741</v>
+        <v>1263</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6083,10 +6086,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>742</v>
+        <v>1264</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>743</v>
+        <v>1265</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6100,10 +6103,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>744</v>
+        <v>1266</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>745</v>
+        <v>1267</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6117,10 +6120,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>746</v>
+        <v>1268</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>697</v>
+        <v>1219</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6134,13 +6137,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>747</v>
+        <v>1269</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>748</v>
+        <v>1270</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>748</v>
+        <v>1270</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6153,13 +6156,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>749</v>
+        <v>1271</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>750</v>
+        <v>1272</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>750</v>
+        <v>1272</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6172,7 +6175,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>751</v>
+        <v>1273</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6189,7 +6192,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>752</v>
+        <v>1274</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6206,7 +6209,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>753</v>
+        <v>1275</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6226,7 +6229,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>714</v>
+        <v>1236</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6321,10 +6324,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>754</v>
+        <v>1276</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>754</v>
+        <v>1276</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8223,7 +8226,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8261,10 +8264,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8280,7 +8283,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8299,13 +8302,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8416,10 +8419,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8603,10 +8606,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8622,10 +8625,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8639,10 +8642,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8656,10 +8659,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8673,10 +8676,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8690,10 +8693,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8707,10 +8710,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8726,10 +8729,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8743,10 +8746,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8762,10 +8765,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8781,10 +8784,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8800,10 +8803,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8817,10 +8820,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8834,10 +8837,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8851,10 +8854,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8868,10 +8871,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8885,10 +8888,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8904,10 +8907,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8921,10 +8924,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -8938,10 +8941,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -8955,10 +8958,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -8972,10 +8975,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -8989,10 +8992,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9006,10 +9009,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9023,10 +9026,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9040,10 +9043,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9057,10 +9060,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9074,10 +9077,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9091,10 +9094,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9108,10 +9111,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9125,7 +9128,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9159,7 +9162,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -9441,10 +9444,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -9460,10 +9463,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9479,10 +9482,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9498,10 +9501,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9517,10 +9520,10 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9536,10 +9539,10 @@
         <v>107</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9555,10 +9558,10 @@
         <v>108</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9574,10 +9577,10 @@
         <v>109</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10320,7 +10323,7 @@
         <v>204</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>205</v>
@@ -13694,13 +13697,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -13713,13 +13716,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>758</v>
+        <v>688</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>759</v>
+        <v>689</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -13732,13 +13735,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>762</v>
+        <v>692</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -13751,13 +13754,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>765</v>
+        <v>695</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>766</v>
+        <v>696</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -13770,13 +13773,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>768</v>
+        <v>698</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>769</v>
+        <v>699</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -13789,13 +13792,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -13808,13 +13811,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>774</v>
+        <v>704</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>775</v>
+        <v>705</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -13827,13 +13830,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -13846,13 +13849,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>780</v>
+        <v>710</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -13865,13 +13868,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>782</v>
+        <v>712</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -13884,13 +13887,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>786</v>
+        <v>716</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -13903,13 +13906,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>788</v>
+        <v>718</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>789</v>
+        <v>719</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>790</v>
+        <v>720</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -13922,13 +13925,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>791</v>
+        <v>721</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>793</v>
+        <v>723</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -13941,13 +13944,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>795</v>
+        <v>725</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>796</v>
+        <v>726</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -13960,13 +13963,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>798</v>
+        <v>728</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>799</v>
+        <v>729</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -13979,13 +13982,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>801</v>
+        <v>731</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>802</v>
+        <v>732</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -13998,13 +14001,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -14017,13 +14020,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>806</v>
+        <v>736</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>808</v>
+        <v>738</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -14036,13 +14039,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>809</v>
+        <v>739</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>810</v>
+        <v>740</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>811</v>
+        <v>741</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -14055,13 +14058,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>812</v>
+        <v>742</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>813</v>
+        <v>743</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>814</v>
+        <v>744</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -14074,13 +14077,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>815</v>
+        <v>745</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>816</v>
+        <v>746</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>817</v>
+        <v>747</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -14093,13 +14096,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -14112,13 +14115,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>821</v>
+        <v>751</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>823</v>
+        <v>753</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -14131,13 +14134,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>824</v>
+        <v>754</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>825</v>
+        <v>755</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>826</v>
+        <v>756</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -14150,13 +14153,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>827</v>
+        <v>757</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>828</v>
+        <v>758</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -14169,13 +14172,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>830</v>
+        <v>760</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>832</v>
+        <v>762</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -14188,13 +14191,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>833</v>
+        <v>763</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>835</v>
+        <v>765</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -14207,13 +14210,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>836</v>
+        <v>766</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>837</v>
+        <v>767</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>838</v>
+        <v>768</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -14226,13 +14229,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>839</v>
+        <v>769</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>840</v>
+        <v>770</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>841</v>
+        <v>771</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -14245,13 +14248,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>842</v>
+        <v>772</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>843</v>
+        <v>773</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>844</v>
+        <v>774</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -14264,13 +14267,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>845</v>
+        <v>775</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>846</v>
+        <v>776</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>847</v>
+        <v>777</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -14283,13 +14286,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>848</v>
+        <v>778</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>849</v>
+        <v>779</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>850</v>
+        <v>780</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -14302,13 +14305,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>852</v>
+        <v>782</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>853</v>
+        <v>783</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -14321,13 +14324,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>854</v>
+        <v>784</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>856</v>
+        <v>786</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -14340,13 +14343,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>857</v>
+        <v>787</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>858</v>
+        <v>788</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>859</v>
+        <v>789</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -14359,13 +14362,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>860</v>
+        <v>790</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>861</v>
+        <v>791</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -14378,13 +14381,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>863</v>
+        <v>793</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>864</v>
+        <v>794</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>865</v>
+        <v>795</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -14397,13 +14400,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>866</v>
+        <v>796</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>867</v>
+        <v>797</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>868</v>
+        <v>798</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14416,13 +14419,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>869</v>
+        <v>799</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>871</v>
+        <v>801</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14435,13 +14438,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>872</v>
+        <v>802</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>873</v>
+        <v>803</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>874</v>
+        <v>804</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14454,13 +14457,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>875</v>
+        <v>805</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>876</v>
+        <v>806</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>877</v>
+        <v>807</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -14473,13 +14476,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>878</v>
+        <v>808</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>879</v>
+        <v>809</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>880</v>
+        <v>810</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -14492,13 +14495,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>881</v>
+        <v>811</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>882</v>
+        <v>812</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>883</v>
+        <v>813</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -14511,13 +14514,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>884</v>
+        <v>814</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>885</v>
+        <v>815</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>886</v>
+        <v>816</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -14530,13 +14533,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>887</v>
+        <v>817</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>888</v>
+        <v>818</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>889</v>
+        <v>819</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14549,13 +14552,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>891</v>
+        <v>821</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>892</v>
+        <v>822</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14568,13 +14571,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>893</v>
+        <v>823</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>894</v>
+        <v>824</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>895</v>
+        <v>825</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14587,13 +14590,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>896</v>
+        <v>826</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>897</v>
+        <v>827</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>898</v>
+        <v>828</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14606,13 +14609,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>899</v>
+        <v>829</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>901</v>
+        <v>831</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -14625,13 +14628,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>902</v>
+        <v>832</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>903</v>
+        <v>833</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>904</v>
+        <v>834</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -14644,13 +14647,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>905</v>
+        <v>835</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>906</v>
+        <v>836</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>907</v>
+        <v>837</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -14663,13 +14666,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>908</v>
+        <v>838</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>909</v>
+        <v>839</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>910</v>
+        <v>840</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14682,13 +14685,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>911</v>
+        <v>841</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>912</v>
+        <v>842</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>913</v>
+        <v>843</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14701,13 +14704,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>914</v>
+        <v>844</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>915</v>
+        <v>845</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>916</v>
+        <v>846</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14720,13 +14723,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>917</v>
+        <v>847</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>918</v>
+        <v>848</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>919</v>
+        <v>849</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14739,13 +14742,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>920</v>
+        <v>850</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>921</v>
+        <v>851</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>922</v>
+        <v>852</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14758,10 +14761,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>923</v>
+        <v>853</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>924</v>
+        <v>854</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -14775,13 +14778,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>925</v>
+        <v>855</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>926</v>
+        <v>856</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>927</v>
+        <v>857</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14794,13 +14797,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>928</v>
+        <v>858</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>929</v>
+        <v>859</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>930</v>
+        <v>860</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14813,13 +14816,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>931</v>
+        <v>861</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>932</v>
+        <v>862</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>933</v>
+        <v>863</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14832,13 +14835,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>934</v>
+        <v>864</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>935</v>
+        <v>865</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>936</v>
+        <v>866</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14851,13 +14854,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>937</v>
+        <v>867</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>938</v>
+        <v>868</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>939</v>
+        <v>869</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14870,13 +14873,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>940</v>
+        <v>870</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>941</v>
+        <v>871</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>942</v>
+        <v>872</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14889,13 +14892,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>943</v>
+        <v>873</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>944</v>
+        <v>874</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>945</v>
+        <v>875</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14908,13 +14911,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>946</v>
+        <v>876</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>947</v>
+        <v>877</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>948</v>
+        <v>878</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14927,13 +14930,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>951</v>
+        <v>881</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14946,13 +14949,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>952</v>
+        <v>882</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>953</v>
+        <v>883</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>954</v>
+        <v>884</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14965,13 +14968,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>955</v>
+        <v>885</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>956</v>
+        <v>886</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>957</v>
+        <v>887</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -14984,13 +14987,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>958</v>
+        <v>888</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>959</v>
+        <v>889</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>960</v>
+        <v>890</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15003,13 +15006,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>962</v>
+        <v>892</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>963</v>
+        <v>893</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -15022,13 +15025,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>964</v>
+        <v>894</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>965</v>
+        <v>895</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>966</v>
+        <v>896</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -15041,13 +15044,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>967</v>
+        <v>897</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>968</v>
+        <v>898</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>968</v>
+        <v>898</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -15060,13 +15063,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>969</v>
+        <v>899</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -15079,10 +15082,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>971</v>
+        <v>901</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -15096,10 +15099,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>973</v>
+        <v>903</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>974</v>
+        <v>904</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -15113,13 +15116,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>975</v>
+        <v>905</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>976</v>
+        <v>906</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>976</v>
+        <v>906</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -15132,13 +15135,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>977</v>
+        <v>907</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>978</v>
+        <v>908</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>978</v>
+        <v>908</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -15151,7 +15154,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>979</v>
+        <v>909</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>533</v>
@@ -15170,10 +15173,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>980</v>
+        <v>910</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>981</v>
+        <v>911</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -15187,13 +15190,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>982</v>
+        <v>912</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>983</v>
+        <v>913</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>984</v>
+        <v>914</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -15206,13 +15209,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>985</v>
+        <v>915</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>986</v>
+        <v>916</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>987</v>
+        <v>917</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -15225,13 +15228,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>988</v>
+        <v>918</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>989</v>
+        <v>919</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>990</v>
+        <v>920</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -15244,13 +15247,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>991</v>
+        <v>921</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>992</v>
+        <v>922</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -15263,13 +15266,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>994</v>
+        <v>924</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>995</v>
+        <v>925</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>996</v>
+        <v>926</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -15282,13 +15285,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>997</v>
+        <v>927</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>998</v>
+        <v>928</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>999</v>
+        <v>929</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -15301,13 +15304,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>1001</v>
+        <v>931</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>1002</v>
+        <v>932</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -15320,13 +15323,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>1003</v>
+        <v>933</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>1004</v>
+        <v>934</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>1004</v>
+        <v>934</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -15339,13 +15342,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>1005</v>
+        <v>935</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>1006</v>
+        <v>936</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>1006</v>
+        <v>936</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -15358,13 +15361,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>1007</v>
+        <v>937</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>1008</v>
+        <v>938</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>1009</v>
+        <v>939</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -15377,13 +15380,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>1010</v>
+        <v>940</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>1011</v>
+        <v>941</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>1012</v>
+        <v>942</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -15396,13 +15399,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>1013</v>
+        <v>943</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>1014</v>
+        <v>944</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -15415,7 +15418,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>1016</v>
+        <v>946</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>153</v>
@@ -15434,13 +15437,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>1017</v>
+        <v>947</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>1018</v>
+        <v>948</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>1018</v>
+        <v>948</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -15453,13 +15456,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>1019</v>
+        <v>949</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>1020</v>
+        <v>950</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>1020</v>
+        <v>950</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -15472,13 +15475,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>1021</v>
+        <v>951</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>1022</v>
+        <v>952</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>1023</v>
+        <v>953</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -15491,13 +15494,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>1024</v>
+        <v>954</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>1025</v>
+        <v>955</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>1025</v>
+        <v>955</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -15510,13 +15513,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>1026</v>
+        <v>956</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>1028</v>
+        <v>958</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -15529,13 +15532,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>1029</v>
+        <v>959</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>1030</v>
+        <v>960</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>1031</v>
+        <v>961</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -15548,13 +15551,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>1032</v>
+        <v>962</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>1033</v>
+        <v>963</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>1034</v>
+        <v>964</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -15567,13 +15570,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>1035</v>
+        <v>965</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>1036</v>
+        <v>966</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>1037</v>
+        <v>967</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -15586,13 +15589,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>1038</v>
+        <v>968</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>1039</v>
+        <v>969</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -15605,13 +15608,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>1040</v>
+        <v>970</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>1041</v>
+        <v>971</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>1042</v>
+        <v>972</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -15624,13 +15627,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>1045</v>
+        <v>975</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -15643,10 +15646,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>1046</v>
+        <v>976</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>1047</v>
+        <v>977</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -15660,10 +15663,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>1048</v>
+        <v>978</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>1049</v>
+        <v>979</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -15677,13 +15680,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>1050</v>
+        <v>980</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>1051</v>
+        <v>981</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>1051</v>
+        <v>981</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -15696,10 +15699,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>1052</v>
+        <v>982</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>1053</v>
+        <v>983</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -15713,10 +15716,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>1055</v>
+        <v>985</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -15730,10 +15733,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>1056</v>
+        <v>986</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>1057</v>
+        <v>987</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -15747,13 +15750,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>1058</v>
+        <v>988</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>1059</v>
+        <v>989</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>1060</v>
+        <v>990</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -15766,10 +15769,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>1061</v>
+        <v>991</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>1062</v>
+        <v>992</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -15783,13 +15786,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>1063</v>
+        <v>993</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>1064</v>
+        <v>994</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>1065</v>
+        <v>995</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -15802,10 +15805,10 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>1066</v>
+        <v>996</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>1067</v>
+        <v>997</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -15819,13 +15822,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>1068</v>
+        <v>998</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1069</v>
+        <v>999</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1070</v>
+        <v>1000</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -15838,13 +15841,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>1071</v>
+        <v>1001</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>1072</v>
+        <v>1002</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1073</v>
+        <v>1003</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -15857,13 +15860,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>1074</v>
+        <v>1004</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1075</v>
+        <v>1005</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1076</v>
+        <v>1006</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -15876,13 +15879,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>1077</v>
+        <v>1007</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1078</v>
+        <v>1008</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>1079</v>
+        <v>1009</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -15895,13 +15898,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>1080</v>
+        <v>1010</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1081</v>
+        <v>1011</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1082</v>
+        <v>1012</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -15914,13 +15917,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1083</v>
+        <v>1013</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1084</v>
+        <v>1014</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>1085</v>
+        <v>1015</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -15933,13 +15936,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1086</v>
+        <v>1016</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1087</v>
+        <v>1017</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>1088</v>
+        <v>1018</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -15952,10 +15955,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1090</v>
+        <v>1020</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -15969,13 +15972,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1091</v>
+        <v>1021</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1092</v>
+        <v>1022</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>1051</v>
+        <v>981</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -15988,13 +15991,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1093</v>
+        <v>1023</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>1094</v>
+        <v>1024</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -16007,13 +16010,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1095</v>
+        <v>1025</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1096</v>
+        <v>1026</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>1097</v>
+        <v>1027</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -16026,13 +16029,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1098</v>
+        <v>1028</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1099</v>
+        <v>1029</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>1100</v>
+        <v>1030</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -16045,13 +16048,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1101</v>
+        <v>1031</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1102</v>
+        <v>1032</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>1103</v>
+        <v>1033</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -16064,13 +16067,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1104</v>
+        <v>1034</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1105</v>
+        <v>1035</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>1106</v>
+        <v>1036</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -16083,13 +16086,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1107</v>
+        <v>1037</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1109</v>
+        <v>1039</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -16102,13 +16105,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1110</v>
+        <v>1040</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1111</v>
+        <v>1041</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>1112</v>
+        <v>1042</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -16121,13 +16124,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1113</v>
+        <v>1043</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1114</v>
+        <v>1044</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>1115</v>
+        <v>1045</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -16140,13 +16143,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1116</v>
+        <v>1046</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1117</v>
+        <v>1047</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1118</v>
+        <v>1048</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -16159,13 +16162,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1119</v>
+        <v>1049</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1120</v>
+        <v>1050</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>1121</v>
+        <v>1051</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -16178,13 +16181,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1122</v>
+        <v>1052</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1123</v>
+        <v>1053</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>1124</v>
+        <v>1054</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -16197,13 +16200,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1125</v>
+        <v>1055</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1126</v>
+        <v>1056</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>1127</v>
+        <v>1057</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -16216,13 +16219,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1128</v>
+        <v>1058</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1129</v>
+        <v>1059</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -16235,13 +16238,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1131</v>
+        <v>1061</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1132</v>
+        <v>1062</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1133</v>
+        <v>1063</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -16254,13 +16257,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1134</v>
+        <v>1064</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1135</v>
+        <v>1065</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>1136</v>
+        <v>1066</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -16273,13 +16276,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1137</v>
+        <v>1067</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1138</v>
+        <v>1068</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>1139</v>
+        <v>1069</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -16292,13 +16295,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1140</v>
+        <v>1070</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1141</v>
+        <v>1071</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1142</v>
+        <v>1072</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -16311,13 +16314,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1143</v>
+        <v>1073</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1144</v>
+        <v>1074</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>1145</v>
+        <v>1075</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -16330,13 +16333,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1146</v>
+        <v>1076</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1147</v>
+        <v>1077</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>1148</v>
+        <v>1078</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -16349,13 +16352,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1149</v>
+        <v>1079</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1150</v>
+        <v>1080</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>1151</v>
+        <v>1081</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -16368,13 +16371,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1152</v>
+        <v>1082</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1153</v>
+        <v>1083</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>1154</v>
+        <v>1084</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -16387,13 +16390,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1155</v>
+        <v>1085</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1156</v>
+        <v>1086</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>1157</v>
+        <v>1087</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -16406,13 +16409,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1158</v>
+        <v>1088</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1159</v>
+        <v>1089</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>1160</v>
+        <v>1090</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -16425,13 +16428,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1161</v>
+        <v>1091</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1162</v>
+        <v>1092</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1163</v>
+        <v>1093</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -16444,13 +16447,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1164</v>
+        <v>1094</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1165</v>
+        <v>1095</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>1166</v>
+        <v>1096</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -16463,13 +16466,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1167</v>
+        <v>1097</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1168</v>
+        <v>1098</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>1169</v>
+        <v>1099</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -16482,13 +16485,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1170</v>
+        <v>1100</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1171</v>
+        <v>1101</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>1172</v>
+        <v>1102</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -16501,13 +16504,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1173</v>
+        <v>1103</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1174</v>
+        <v>1104</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>1175</v>
+        <v>1105</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -16520,13 +16523,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1176</v>
+        <v>1106</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>1178</v>
+        <v>1108</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -16539,13 +16542,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1180</v>
+        <v>1110</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -16558,13 +16561,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1182</v>
+        <v>1112</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -16577,10 +16580,14 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
+        <v>1115</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C454" s="8" t="s">
+        <v>1116</v>
+      </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
@@ -16592,7 +16599,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1186</v>
+        <v>1117</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -16607,7 +16614,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1187</v>
+        <v>1118</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -16622,7 +16629,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1188</v>
+        <v>1119</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -16637,7 +16644,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1189</v>
+        <v>1120</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -16652,7 +16659,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1190</v>
+        <v>1121</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -16667,7 +16674,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1191</v>
+        <v>1122</v>
       </c>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -16682,7 +16689,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1192</v>
+        <v>1123</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -16697,7 +16704,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1193</v>
+        <v>1124</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -16712,7 +16719,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -16727,7 +16734,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1195</v>
+        <v>1126</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -16742,7 +16749,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1196</v>
+        <v>1127</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -16757,7 +16764,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1197</v>
+        <v>1128</v>
       </c>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -16772,7 +16779,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1198</v>
+        <v>1129</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -16787,7 +16794,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1199</v>
+        <v>1130</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -16802,7 +16809,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1200</v>
+        <v>1131</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -16817,7 +16824,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1201</v>
+        <v>1132</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -16832,7 +16839,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1202</v>
+        <v>1133</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -16847,7 +16854,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1203</v>
+        <v>1134</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -16862,7 +16869,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1204</v>
+        <v>1135</v>
       </c>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -16877,7 +16884,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1205</v>
+        <v>1136</v>
       </c>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -16892,7 +16899,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1206</v>
+        <v>1137</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -16907,7 +16914,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1207</v>
+        <v>1138</v>
       </c>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -16922,7 +16929,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1208</v>
+        <v>1139</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -16937,7 +16944,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1209</v>
+        <v>1140</v>
       </c>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -16952,7 +16959,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1210</v>
+        <v>1141</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -16967,7 +16974,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1211</v>
+        <v>1142</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -16982,7 +16989,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1212</v>
+        <v>1143</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -16997,7 +17004,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1213</v>
+        <v>1144</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -17012,7 +17019,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1214</v>
+        <v>1145</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -17027,7 +17034,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1215</v>
+        <v>1146</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -17042,7 +17049,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1216</v>
+        <v>1147</v>
       </c>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -17057,7 +17064,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1217</v>
+        <v>1148</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -17072,7 +17079,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1218</v>
+        <v>1149</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -17087,7 +17094,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1219</v>
+        <v>1150</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -17102,7 +17109,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1220</v>
+        <v>1151</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -17117,7 +17124,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1221</v>
+        <v>1152</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -17132,7 +17139,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1222</v>
+        <v>1153</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -17147,7 +17154,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1223</v>
+        <v>1154</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -17162,7 +17169,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1224</v>
+        <v>1155</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -17177,7 +17184,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1225</v>
+        <v>1156</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17192,7 +17199,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1226</v>
+        <v>1157</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17207,7 +17214,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1227</v>
+        <v>1158</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17222,7 +17229,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1228</v>
+        <v>1159</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -17237,7 +17244,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1229</v>
+        <v>1160</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -17252,7 +17259,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1230</v>
+        <v>1161</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -17267,7 +17274,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1231</v>
+        <v>1162</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -17282,7 +17289,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1232</v>
+        <v>1163</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -17297,7 +17304,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1233</v>
+        <v>1164</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -17312,7 +17319,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1234</v>
+        <v>1165</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -17327,7 +17334,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1235</v>
+        <v>1166</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -17342,7 +17349,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1236</v>
+        <v>1167</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -17357,7 +17364,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1237</v>
+        <v>1168</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -17372,7 +17379,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1238</v>
+        <v>1169</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -17387,7 +17394,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1239</v>
+        <v>1170</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17402,7 +17409,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1240</v>
+        <v>1171</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17417,7 +17424,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1241</v>
+        <v>1172</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17432,7 +17439,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1242</v>
+        <v>1173</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17447,7 +17454,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1243</v>
+        <v>1174</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -17462,7 +17469,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1244</v>
+        <v>1175</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17477,7 +17484,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1245</v>
+        <v>1176</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17492,7 +17499,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1246</v>
+        <v>1177</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17507,7 +17514,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1247</v>
+        <v>1178</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17522,7 +17529,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1248</v>
+        <v>1179</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17537,7 +17544,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1249</v>
+        <v>1180</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17552,7 +17559,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1250</v>
+        <v>1181</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17567,7 +17574,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1251</v>
+        <v>1182</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17582,7 +17589,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1252</v>
+        <v>1183</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17597,7 +17604,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1253</v>
+        <v>1184</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17612,7 +17619,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1254</v>
+        <v>1185</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17627,7 +17634,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1255</v>
+        <v>1186</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17642,7 +17649,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1256</v>
+        <v>1187</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17657,7 +17664,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1257</v>
+        <v>1188</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17672,7 +17679,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1258</v>
+        <v>1189</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17687,7 +17694,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1259</v>
+        <v>1190</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17702,7 +17709,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1260</v>
+        <v>1191</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17717,7 +17724,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1261</v>
+        <v>1192</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17732,7 +17739,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1262</v>
+        <v>1193</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17747,7 +17754,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1263</v>
+        <v>1194</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17762,7 +17769,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1264</v>
+        <v>1195</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17777,7 +17784,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1265</v>
+        <v>1196</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17792,7 +17799,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1266</v>
+        <v>1197</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17807,7 +17814,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1267</v>
+        <v>1198</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17822,7 +17829,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1268</v>
+        <v>1199</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17837,7 +17844,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1269</v>
+        <v>1200</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17852,7 +17859,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1270</v>
+        <v>1201</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17867,7 +17874,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1271</v>
+        <v>1202</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17882,7 +17889,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1272</v>
+        <v>1203</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17897,7 +17904,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1273</v>
+        <v>1204</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17912,7 +17919,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1274</v>
+        <v>1205</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17927,7 +17934,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1275</v>
+        <v>1206</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1366" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1389" uniqueCount="1389">
   <si>
     <t>key</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>trans0068</t>
+  </si>
+  <si>
+    <t>我的网络</t>
+  </si>
+  <si>
+    <t>Network</t>
   </si>
   <si>
     <t>trans0069</t>
@@ -2075,6 +2081,216 @@
     <t>Brasilia</t>
   </si>
   <si>
+    <t>trans0001</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -2891,10 +3107,10 @@
     <t>trans0397</t>
   </si>
   <si>
-    <t>IP地址无效</t>
-  </si>
-  <si>
-    <t>IP address is invalid</t>
+    <t>%s地址无效</t>
+  </si>
+  <si>
+    <t>%s address is invalid</t>
   </si>
   <si>
     <t>trans0398</t>
@@ -3380,42 +3596,111 @@
     <t>trans0455</t>
   </si>
   <si>
+    <t>网络</t>
+  </si>
+  <si>
     <t>trans0456</t>
   </si>
   <si>
+    <t>IPv4</t>
+  </si>
+  <si>
     <t>trans0457</t>
   </si>
   <si>
+    <t>IPv6</t>
+  </si>
+  <si>
     <t>trans0458</t>
   </si>
   <si>
+    <t>用户侧的DHCP打开和关闭、租约时间（%s、%s、%s）</t>
+  </si>
+  <si>
+    <t>DHCP open, close and lease time(%s,%s,%s) in the side of user.</t>
+  </si>
+  <si>
     <t>trans0459</t>
   </si>
   <si>
+    <t>子网掩码</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
     <t>trans0460</t>
   </si>
   <si>
+    <t>DHCP Server 状态</t>
+  </si>
+  <si>
+    <t>DHCP Server Status</t>
+  </si>
+  <si>
     <t>trans0461</t>
   </si>
   <si>
+    <t>租期</t>
+  </si>
+  <si>
+    <t>Lease Time</t>
+  </si>
+  <si>
     <t>trans0462</t>
   </si>
   <si>
+    <t>1 小时</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
     <t>trans0463</t>
   </si>
   <si>
+    <t>1 天</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
     <t>trans0464</t>
   </si>
   <si>
+    <t>1 周</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
     <t>trans0465</t>
   </si>
   <si>
+    <t>WAN和LAN IP地址不能在同一网段</t>
+  </si>
+  <si>
+    <t>The WAN and LAN IP addresses cannot be on the same network segment</t>
+  </si>
+  <si>
     <t>trans0466</t>
   </si>
   <si>
+    <t>地址无效</t>
+  </si>
+  <si>
+    <t>invalid address</t>
+  </si>
+  <si>
     <t>trans0467</t>
   </si>
   <si>
+    <t>结束IP必须大于开始IP</t>
+  </si>
+  <si>
+    <t>End IP must be greater than start IP</t>
+  </si>
+  <si>
     <t>trans0468</t>
   </si>
   <si>
@@ -3645,216 +3930,6 @@
   </si>
   <si>
     <t>trans0544</t>
-  </si>
-  <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Acl</t>
   </si>
   <si>
     <r>
@@ -4645,28 +4720,6 @@
         <color theme="1" tint="0.0"/>
       </rPr>
       <t xml:space="preserve">trans0053</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">我的网络</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">Network</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4955,7 +5008,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
@@ -5279,7 +5332,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1207</v>
+        <v>687</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5317,10 +5370,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1208</v>
+        <v>688</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1209</v>
+        <v>689</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5336,7 +5389,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1210</v>
+        <v>690</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5355,13 +5408,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1211</v>
+        <v>691</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1212</v>
+        <v>692</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1213</v>
+        <v>693</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5472,10 +5525,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1214</v>
+        <v>694</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1215</v>
+        <v>695</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5659,10 +5712,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1216</v>
+        <v>696</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1217</v>
+        <v>697</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5678,10 +5731,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1218</v>
+        <v>698</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1219</v>
+        <v>699</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5695,10 +5748,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1220</v>
+        <v>700</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1221</v>
+        <v>701</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5712,10 +5765,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1222</v>
+        <v>702</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1223</v>
+        <v>703</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5729,10 +5782,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1224</v>
+        <v>704</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1225</v>
+        <v>705</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5746,10 +5799,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1226</v>
+        <v>706</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1227</v>
+        <v>707</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5763,7 +5816,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1228</v>
+        <v>708</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5780,10 +5833,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1229</v>
+        <v>709</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1230</v>
+        <v>710</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5797,10 +5850,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1231</v>
+        <v>711</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1232</v>
+        <v>712</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5814,10 +5867,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1233</v>
+        <v>713</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1234</v>
+        <v>714</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5831,10 +5884,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1235</v>
+        <v>715</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1236</v>
+        <v>716</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5848,10 +5901,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1237</v>
+        <v>717</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1238</v>
+        <v>718</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5865,10 +5918,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1239</v>
+        <v>719</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1240</v>
+        <v>720</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5882,10 +5935,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1241</v>
+        <v>721</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1242</v>
+        <v>722</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5899,10 +5952,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1243</v>
+        <v>723</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1244</v>
+        <v>724</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5916,10 +5969,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1245</v>
+        <v>725</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1246</v>
+        <v>726</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5933,10 +5986,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1247</v>
+        <v>727</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1234</v>
+        <v>714</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -5950,10 +6003,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1248</v>
+        <v>728</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1249</v>
+        <v>729</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -5967,10 +6020,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1250</v>
+        <v>730</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1251</v>
+        <v>731</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -5984,10 +6037,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1252</v>
+        <v>732</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1253</v>
+        <v>733</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6001,10 +6054,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1254</v>
+        <v>734</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1255</v>
+        <v>735</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6018,10 +6071,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1256</v>
+        <v>736</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1257</v>
+        <v>737</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6035,10 +6088,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1258</v>
+        <v>738</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1259</v>
+        <v>739</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6052,10 +6105,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1260</v>
+        <v>740</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1261</v>
+        <v>741</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6069,10 +6122,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1262</v>
+        <v>742</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1263</v>
+        <v>743</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6086,10 +6139,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1264</v>
+        <v>744</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1265</v>
+        <v>745</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6103,10 +6156,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1266</v>
+        <v>746</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1267</v>
+        <v>747</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6120,10 +6173,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1268</v>
+        <v>748</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1219</v>
+        <v>699</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6137,13 +6190,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1269</v>
+        <v>749</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1270</v>
+        <v>750</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1270</v>
+        <v>750</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6156,13 +6209,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1271</v>
+        <v>751</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1272</v>
+        <v>752</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1272</v>
+        <v>752</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6175,7 +6228,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1273</v>
+        <v>753</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6192,7 +6245,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1274</v>
+        <v>754</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6209,7 +6262,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1275</v>
+        <v>755</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6229,7 +6282,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1236</v>
+        <v>716</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6324,10 +6377,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1276</v>
+        <v>756</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1276</v>
+        <v>756</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8226,7 +8279,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1277</v>
+        <v>1302</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8264,10 +8317,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1278</v>
+        <v>1303</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1279</v>
+        <v>1304</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8283,7 +8336,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1280</v>
+        <v>1305</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8302,13 +8355,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1281</v>
+        <v>1306</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1282</v>
+        <v>1307</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1283</v>
+        <v>1308</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8419,10 +8472,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1284</v>
+        <v>1309</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1285</v>
+        <v>1310</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8606,10 +8659,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1286</v>
+        <v>1311</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1287</v>
+        <v>1312</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8625,10 +8678,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1288</v>
+        <v>1313</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1289</v>
+        <v>1314</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8642,10 +8695,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1290</v>
+        <v>1315</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1291</v>
+        <v>1316</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8659,10 +8712,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1292</v>
+        <v>1317</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1293</v>
+        <v>1318</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8676,10 +8729,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1294</v>
+        <v>1319</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1295</v>
+        <v>1320</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8693,10 +8746,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1296</v>
+        <v>1321</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1297</v>
+        <v>1322</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8710,10 +8763,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1298</v>
+        <v>1323</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1299</v>
+        <v>1324</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8729,10 +8782,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1300</v>
+        <v>1325</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1301</v>
+        <v>1326</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8746,10 +8799,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1302</v>
+        <v>1327</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1303</v>
+        <v>1328</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8765,10 +8818,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1304</v>
+        <v>1329</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1305</v>
+        <v>1330</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8784,10 +8837,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1306</v>
+        <v>1331</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1307</v>
+        <v>1332</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8803,10 +8856,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1308</v>
+        <v>1333</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1309</v>
+        <v>1334</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8820,10 +8873,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1310</v>
+        <v>1335</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1311</v>
+        <v>1336</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8837,10 +8890,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1312</v>
+        <v>1337</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1313</v>
+        <v>1338</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8854,10 +8907,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1314</v>
+        <v>1339</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1315</v>
+        <v>1340</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8871,10 +8924,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1316</v>
+        <v>1341</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1317</v>
+        <v>1342</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8888,10 +8941,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1318</v>
+        <v>1343</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1319</v>
+        <v>1344</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8907,10 +8960,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1320</v>
+        <v>1345</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1321</v>
+        <v>1346</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8924,10 +8977,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1322</v>
+        <v>1347</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1323</v>
+        <v>1348</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -8941,10 +8994,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1324</v>
+        <v>1349</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -8958,10 +9011,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1326</v>
+        <v>1351</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1327</v>
+        <v>1352</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -8975,10 +9028,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1328</v>
+        <v>1353</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1329</v>
+        <v>1354</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -8992,10 +9045,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1330</v>
+        <v>1355</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1331</v>
+        <v>1356</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9009,10 +9062,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1332</v>
+        <v>1357</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1333</v>
+        <v>1358</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9026,10 +9079,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1334</v>
+        <v>1359</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1335</v>
+        <v>1360</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9043,10 +9096,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1336</v>
+        <v>1361</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1337</v>
+        <v>1362</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9060,10 +9113,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1338</v>
+        <v>1363</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1339</v>
+        <v>1364</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9077,10 +9130,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1340</v>
+        <v>1365</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1341</v>
+        <v>1366</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9094,10 +9147,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1343</v>
+        <v>1368</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9111,10 +9164,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1344</v>
+        <v>1369</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1345</v>
+        <v>1370</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9128,7 +9181,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1346</v>
+        <v>1371</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9145,7 +9198,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1347</v>
+        <v>1372</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9162,7 +9215,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1348</v>
+        <v>1373</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -9444,10 +9497,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1349</v>
+        <v>103</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1350</v>
+        <v>104</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -9460,13 +9513,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1351</v>
+        <v>1374</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1352</v>
+        <v>1375</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9479,13 +9532,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1354</v>
+        <v>1377</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9498,13 +9551,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1355</v>
+        <v>1378</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1356</v>
+        <v>1379</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9517,13 +9570,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1357</v>
+        <v>1380</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9536,13 +9589,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1359</v>
+        <v>1382</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1360</v>
+        <v>1383</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9555,13 +9608,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1362</v>
+        <v>1385</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9574,13 +9627,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1363</v>
+        <v>1386</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1364</v>
+        <v>1387</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9593,10 +9646,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="2"/>
@@ -9610,10 +9663,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="2"/>
@@ -9627,10 +9680,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -9644,10 +9697,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -9661,10 +9714,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -9678,10 +9731,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -9695,10 +9748,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -9712,10 +9765,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -9729,10 +9782,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -9746,10 +9799,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -9763,10 +9816,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -9780,10 +9833,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -9797,10 +9850,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -9814,10 +9867,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -9831,10 +9884,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -9848,10 +9901,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -9865,10 +9918,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -9882,10 +9935,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -9899,10 +9952,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -9916,10 +9969,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -9933,10 +9986,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -9950,13 +10003,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -9969,10 +10022,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -9986,10 +10039,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -10003,10 +10056,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -10020,10 +10073,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -10037,7 +10090,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
@@ -10054,13 +10107,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -10073,13 +10126,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -10092,13 +10145,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -10111,13 +10164,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -10130,13 +10183,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -10149,13 +10202,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -10168,13 +10221,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -10187,13 +10240,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -10206,13 +10259,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -10225,13 +10278,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -10244,13 +10297,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -10263,13 +10316,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -10282,13 +10335,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -10301,13 +10354,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -10320,13 +10373,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1365</v>
+        <v>1388</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -10339,13 +10392,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -10358,13 +10411,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -10377,13 +10430,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -10396,13 +10449,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -10415,13 +10468,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -10434,13 +10487,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -10453,13 +10506,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -10472,10 +10525,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -10489,13 +10542,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -10508,10 +10561,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -10525,10 +10578,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -10542,13 +10595,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -10561,13 +10614,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -10580,13 +10633,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -10599,13 +10652,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -10618,13 +10671,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -10637,13 +10690,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -10656,13 +10709,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -10675,13 +10728,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -10694,13 +10747,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -10713,13 +10766,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -10732,13 +10785,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -10751,13 +10804,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -10770,13 +10823,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -10789,13 +10842,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -10808,13 +10861,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -10827,13 +10880,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -10846,13 +10899,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -10865,13 +10918,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -10884,10 +10937,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -10901,13 +10954,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -10920,13 +10973,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -10939,13 +10992,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -10958,13 +11011,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -10977,13 +11030,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -10996,13 +11049,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -11015,13 +11068,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -11034,13 +11087,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -11053,13 +11106,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -11072,13 +11125,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -11091,13 +11144,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -11110,13 +11163,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -11129,13 +11182,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -11148,13 +11201,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -11167,13 +11220,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -11186,13 +11239,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -11205,13 +11258,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -11224,13 +11277,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -11243,13 +11296,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -11262,10 +11315,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -11279,10 +11332,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -11296,10 +11349,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -11313,10 +11366,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -11330,13 +11383,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -11349,10 +11402,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -11366,10 +11419,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -11383,10 +11436,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -11400,10 +11453,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -11417,10 +11470,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -11434,10 +11487,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -11451,10 +11504,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -11468,13 +11521,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -11487,10 +11540,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -11504,10 +11557,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -11521,13 +11574,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -11540,13 +11593,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -11559,13 +11612,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -11578,13 +11631,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -11597,13 +11650,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -11616,13 +11669,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -11635,13 +11688,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -11654,10 +11707,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -11671,10 +11724,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -11688,10 +11741,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -11705,10 +11758,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -11722,13 +11775,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -11741,13 +11794,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -11760,10 +11813,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -11777,13 +11830,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -11796,10 +11849,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -11813,10 +11866,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -11830,10 +11883,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -11847,10 +11900,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -11864,10 +11917,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -11881,10 +11934,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -11898,13 +11951,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -11917,10 +11970,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -11934,13 +11987,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -11953,13 +12006,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -11972,13 +12025,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -11991,10 +12044,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -12008,10 +12061,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -12025,10 +12078,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -12042,13 +12095,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -12061,13 +12114,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -12080,13 +12133,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -12099,10 +12152,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -12116,13 +12169,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -12135,13 +12188,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -12154,13 +12207,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -12173,13 +12226,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -12192,13 +12245,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -12211,13 +12264,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -12230,13 +12283,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -12249,10 +12302,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -12266,10 +12319,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -12283,13 +12336,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -12302,13 +12355,13 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -12321,13 +12374,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -12340,10 +12393,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -12357,10 +12410,10 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -12374,13 +12427,13 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -12393,13 +12446,13 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -12412,10 +12465,10 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -12429,10 +12482,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -12446,10 +12499,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -12463,10 +12516,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -12480,10 +12533,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -12497,10 +12550,10 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -12514,10 +12567,10 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -12531,10 +12584,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -12548,10 +12601,10 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -12565,10 +12618,10 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -12582,10 +12635,10 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -12599,10 +12652,10 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -12616,10 +12669,10 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -12633,13 +12686,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -12652,13 +12705,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -12671,13 +12724,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -12690,13 +12743,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -12709,13 +12762,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -12728,13 +12781,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -12747,13 +12800,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -12766,13 +12819,13 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -12785,13 +12838,13 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -12804,13 +12857,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -12823,13 +12876,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -12842,13 +12895,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -12861,13 +12914,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -12880,13 +12933,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -12899,13 +12952,13 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -12918,13 +12971,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -12937,13 +12990,13 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -12956,13 +13009,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -12975,13 +13028,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -12994,13 +13047,13 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -13013,13 +13066,13 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -13032,13 +13085,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -13051,13 +13104,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -13070,13 +13123,13 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -13089,13 +13142,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -13108,13 +13161,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -13127,13 +13180,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -13146,13 +13199,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -13165,13 +13218,13 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -13184,13 +13237,13 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -13203,13 +13256,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -13222,13 +13275,13 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -13241,13 +13294,13 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -13260,13 +13313,13 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -13279,13 +13332,13 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -13298,13 +13351,13 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -13317,13 +13370,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
@@ -13336,13 +13389,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -13355,13 +13408,13 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -13374,13 +13427,13 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -13393,13 +13446,13 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -13412,13 +13465,13 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -13431,13 +13484,13 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -13450,13 +13503,13 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -13469,13 +13522,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -13488,13 +13541,13 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -13507,13 +13560,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -13526,13 +13579,13 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -13545,13 +13598,13 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -13564,13 +13617,13 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -13583,13 +13636,13 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -13602,13 +13655,13 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -13621,13 +13674,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -13640,13 +13693,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -13659,13 +13712,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -13678,13 +13731,13 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -13697,13 +13750,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>685</v>
+        <v>757</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>686</v>
+        <v>758</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>687</v>
+        <v>759</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -13716,13 +13769,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>688</v>
+        <v>760</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>689</v>
+        <v>761</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>690</v>
+        <v>762</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -13735,13 +13788,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>691</v>
+        <v>763</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>693</v>
+        <v>765</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -13754,13 +13807,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>694</v>
+        <v>766</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>695</v>
+        <v>767</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>696</v>
+        <v>768</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -13773,13 +13826,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>697</v>
+        <v>769</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>698</v>
+        <v>770</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>699</v>
+        <v>771</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -13792,13 +13845,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>700</v>
+        <v>772</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>701</v>
+        <v>773</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -13811,13 +13864,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>704</v>
+        <v>776</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>705</v>
+        <v>777</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -13830,13 +13883,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>706</v>
+        <v>778</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>707</v>
+        <v>779</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -13849,13 +13902,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>709</v>
+        <v>781</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>710</v>
+        <v>782</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -13868,13 +13921,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>713</v>
+        <v>785</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -13887,13 +13940,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>715</v>
+        <v>787</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>716</v>
+        <v>788</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -13906,13 +13959,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>718</v>
+        <v>790</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>719</v>
+        <v>791</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>720</v>
+        <v>792</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -13925,13 +13978,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>721</v>
+        <v>793</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>722</v>
+        <v>794</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>723</v>
+        <v>795</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -13944,13 +13997,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>725</v>
+        <v>797</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>726</v>
+        <v>798</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -13963,13 +14016,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>727</v>
+        <v>799</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>728</v>
+        <v>800</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>729</v>
+        <v>801</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -13982,13 +14035,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>730</v>
+        <v>802</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>731</v>
+        <v>803</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>732</v>
+        <v>804</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -14001,13 +14054,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>733</v>
+        <v>805</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>734</v>
+        <v>806</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>735</v>
+        <v>807</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -14020,13 +14073,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>736</v>
+        <v>808</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>738</v>
+        <v>810</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -14039,13 +14092,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>739</v>
+        <v>811</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>741</v>
+        <v>813</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -14058,13 +14111,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>742</v>
+        <v>814</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>744</v>
+        <v>816</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -14077,13 +14130,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>745</v>
+        <v>817</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>746</v>
+        <v>818</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -14096,13 +14149,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>750</v>
+        <v>822</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -14115,13 +14168,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>751</v>
+        <v>823</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>752</v>
+        <v>824</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>753</v>
+        <v>825</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -14134,13 +14187,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>754</v>
+        <v>826</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>755</v>
+        <v>827</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>756</v>
+        <v>828</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -14153,13 +14206,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>757</v>
+        <v>829</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>758</v>
+        <v>830</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>759</v>
+        <v>831</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -14172,13 +14225,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>760</v>
+        <v>832</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>761</v>
+        <v>833</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>762</v>
+        <v>834</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -14191,13 +14244,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>763</v>
+        <v>835</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>764</v>
+        <v>836</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>765</v>
+        <v>837</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -14210,13 +14263,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>766</v>
+        <v>838</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>767</v>
+        <v>839</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -14229,13 +14282,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>769</v>
+        <v>841</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>770</v>
+        <v>842</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>771</v>
+        <v>843</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -14248,13 +14301,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>772</v>
+        <v>844</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>773</v>
+        <v>845</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>774</v>
+        <v>846</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -14267,13 +14320,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>775</v>
+        <v>847</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>776</v>
+        <v>848</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>777</v>
+        <v>849</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -14286,13 +14339,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>778</v>
+        <v>850</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>779</v>
+        <v>851</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>780</v>
+        <v>852</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -14305,13 +14358,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>781</v>
+        <v>853</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>783</v>
+        <v>855</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -14324,13 +14377,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>785</v>
+        <v>857</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>786</v>
+        <v>858</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -14343,13 +14396,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>787</v>
+        <v>859</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>788</v>
+        <v>860</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>789</v>
+        <v>861</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -14362,13 +14415,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>790</v>
+        <v>862</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>791</v>
+        <v>863</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>792</v>
+        <v>864</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -14381,13 +14434,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>793</v>
+        <v>865</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>794</v>
+        <v>866</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>795</v>
+        <v>867</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -14400,13 +14453,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>796</v>
+        <v>868</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>797</v>
+        <v>869</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>798</v>
+        <v>870</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14419,13 +14472,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>799</v>
+        <v>871</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>800</v>
+        <v>872</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>801</v>
+        <v>873</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14438,13 +14491,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>802</v>
+        <v>874</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>803</v>
+        <v>875</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>804</v>
+        <v>876</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14457,13 +14510,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>805</v>
+        <v>877</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>806</v>
+        <v>878</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>807</v>
+        <v>879</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -14476,13 +14529,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>808</v>
+        <v>880</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>809</v>
+        <v>881</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>810</v>
+        <v>882</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -14495,13 +14548,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>811</v>
+        <v>883</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>812</v>
+        <v>884</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>813</v>
+        <v>885</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -14514,13 +14567,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>814</v>
+        <v>886</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>815</v>
+        <v>887</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>816</v>
+        <v>888</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -14533,13 +14586,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>817</v>
+        <v>889</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>818</v>
+        <v>890</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>819</v>
+        <v>891</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14552,13 +14605,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>820</v>
+        <v>892</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>821</v>
+        <v>893</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>822</v>
+        <v>894</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14571,13 +14624,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>823</v>
+        <v>895</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>824</v>
+        <v>896</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>825</v>
+        <v>897</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14590,13 +14643,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>826</v>
+        <v>898</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>827</v>
+        <v>899</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>828</v>
+        <v>900</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14609,13 +14662,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>829</v>
+        <v>901</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>830</v>
+        <v>902</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>831</v>
+        <v>903</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -14628,13 +14681,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>833</v>
+        <v>905</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>834</v>
+        <v>906</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -14647,13 +14700,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>835</v>
+        <v>907</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>836</v>
+        <v>908</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>837</v>
+        <v>909</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -14666,13 +14719,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>838</v>
+        <v>910</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>839</v>
+        <v>911</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>840</v>
+        <v>912</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14685,13 +14738,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>841</v>
+        <v>913</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>842</v>
+        <v>914</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>843</v>
+        <v>915</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14704,13 +14757,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>844</v>
+        <v>916</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>845</v>
+        <v>917</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>846</v>
+        <v>918</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14723,13 +14776,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>847</v>
+        <v>919</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>848</v>
+        <v>920</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>849</v>
+        <v>921</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14742,13 +14795,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>850</v>
+        <v>922</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>851</v>
+        <v>923</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>852</v>
+        <v>924</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14761,10 +14814,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>854</v>
+        <v>926</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -14778,13 +14831,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>855</v>
+        <v>927</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>856</v>
+        <v>928</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>857</v>
+        <v>929</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14797,13 +14850,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>858</v>
+        <v>930</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>859</v>
+        <v>931</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>860</v>
+        <v>932</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14816,13 +14869,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>861</v>
+        <v>933</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>863</v>
+        <v>935</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14835,13 +14888,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>864</v>
+        <v>936</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>865</v>
+        <v>937</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>866</v>
+        <v>938</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14854,13 +14907,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>867</v>
+        <v>939</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>868</v>
+        <v>940</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>869</v>
+        <v>941</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14873,13 +14926,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>870</v>
+        <v>942</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>871</v>
+        <v>943</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>872</v>
+        <v>944</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14892,13 +14945,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>873</v>
+        <v>945</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>874</v>
+        <v>946</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>875</v>
+        <v>947</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14911,13 +14964,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>876</v>
+        <v>948</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>877</v>
+        <v>949</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>878</v>
+        <v>950</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14930,13 +14983,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>879</v>
+        <v>951</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>880</v>
+        <v>952</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>881</v>
+        <v>953</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14949,13 +15002,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>882</v>
+        <v>954</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>883</v>
+        <v>955</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>884</v>
+        <v>956</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14968,13 +15021,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>885</v>
+        <v>957</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>886</v>
+        <v>958</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>887</v>
+        <v>959</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -14987,13 +15040,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>888</v>
+        <v>960</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>889</v>
+        <v>961</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>890</v>
+        <v>962</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15006,13 +15059,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>891</v>
+        <v>963</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>892</v>
+        <v>964</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>893</v>
+        <v>965</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -15025,13 +15078,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>894</v>
+        <v>966</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>895</v>
+        <v>967</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>896</v>
+        <v>968</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -15044,13 +15097,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>897</v>
+        <v>969</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>898</v>
+        <v>970</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>898</v>
+        <v>970</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -15063,13 +15116,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>899</v>
+        <v>971</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>900</v>
+        <v>972</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>900</v>
+        <v>972</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -15082,10 +15135,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>901</v>
+        <v>973</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>902</v>
+        <v>974</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -15099,10 +15152,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>903</v>
+        <v>975</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>904</v>
+        <v>976</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -15116,13 +15169,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>905</v>
+        <v>977</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>906</v>
+        <v>978</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>906</v>
+        <v>978</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -15135,13 +15188,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>907</v>
+        <v>979</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>908</v>
+        <v>980</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>908</v>
+        <v>980</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -15154,13 +15207,13 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>909</v>
+        <v>981</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -15173,10 +15226,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>910</v>
+        <v>982</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>911</v>
+        <v>983</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -15190,13 +15243,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>912</v>
+        <v>984</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>913</v>
+        <v>985</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>914</v>
+        <v>986</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -15209,13 +15262,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>915</v>
+        <v>987</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>916</v>
+        <v>988</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>917</v>
+        <v>989</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -15228,13 +15281,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>918</v>
+        <v>990</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>919</v>
+        <v>991</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>920</v>
+        <v>992</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -15247,13 +15300,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>921</v>
+        <v>993</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>922</v>
+        <v>994</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>923</v>
+        <v>995</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -15266,13 +15319,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>924</v>
+        <v>996</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>925</v>
+        <v>997</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>926</v>
+        <v>998</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -15285,13 +15338,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>927</v>
+        <v>999</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>929</v>
+        <v>1001</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -15304,13 +15357,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>931</v>
+        <v>1003</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>932</v>
+        <v>1004</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -15323,13 +15376,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>933</v>
+        <v>1005</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>934</v>
+        <v>1006</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>934</v>
+        <v>1006</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -15342,13 +15395,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>935</v>
+        <v>1007</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>936</v>
+        <v>1008</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>936</v>
+        <v>1008</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -15361,13 +15414,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>937</v>
+        <v>1009</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>938</v>
+        <v>1010</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>939</v>
+        <v>1011</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -15380,13 +15433,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>940</v>
+        <v>1012</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>941</v>
+        <v>1013</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>942</v>
+        <v>1014</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -15399,13 +15452,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>943</v>
+        <v>1015</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>944</v>
+        <v>1016</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>945</v>
+        <v>1017</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -15418,13 +15471,13 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>946</v>
+        <v>1018</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -15437,13 +15490,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>947</v>
+        <v>1019</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>948</v>
+        <v>1020</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>948</v>
+        <v>1020</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -15456,13 +15509,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>949</v>
+        <v>1021</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>950</v>
+        <v>1022</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>950</v>
+        <v>1022</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -15475,13 +15528,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>951</v>
+        <v>1023</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>952</v>
+        <v>1024</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>953</v>
+        <v>1025</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -15494,13 +15547,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>954</v>
+        <v>1026</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>955</v>
+        <v>1027</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>955</v>
+        <v>1027</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -15513,13 +15566,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>956</v>
+        <v>1028</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>957</v>
+        <v>1029</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>958</v>
+        <v>1030</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -15532,13 +15585,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>959</v>
+        <v>1031</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>960</v>
+        <v>1032</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>961</v>
+        <v>1033</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -15551,13 +15604,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>963</v>
+        <v>1035</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>964</v>
+        <v>1036</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -15570,13 +15623,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>965</v>
+        <v>1037</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>966</v>
+        <v>1038</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>967</v>
+        <v>1039</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -15589,13 +15642,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>968</v>
+        <v>1040</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -15608,13 +15661,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>970</v>
+        <v>1042</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>971</v>
+        <v>1043</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -15627,13 +15680,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>973</v>
+        <v>1045</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>974</v>
+        <v>1046</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>975</v>
+        <v>1047</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -15646,10 +15699,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>976</v>
+        <v>1048</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>977</v>
+        <v>1049</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -15663,10 +15716,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>978</v>
+        <v>1050</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>979</v>
+        <v>1051</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -15680,13 +15733,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>980</v>
+        <v>1052</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>981</v>
+        <v>1053</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>981</v>
+        <v>1053</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -15699,10 +15752,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>982</v>
+        <v>1054</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>983</v>
+        <v>1055</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -15716,10 +15769,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>984</v>
+        <v>1056</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>985</v>
+        <v>1057</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -15733,10 +15786,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>986</v>
+        <v>1058</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>987</v>
+        <v>1059</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -15750,13 +15803,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>988</v>
+        <v>1060</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>989</v>
+        <v>1061</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -15769,10 +15822,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>991</v>
+        <v>1063</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>992</v>
+        <v>1064</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -15786,13 +15839,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>993</v>
+        <v>1065</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>994</v>
+        <v>1066</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>995</v>
+        <v>1067</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -15805,10 +15858,10 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>996</v>
+        <v>1068</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>997</v>
+        <v>1069</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -15822,13 +15875,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>998</v>
+        <v>1070</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>999</v>
+        <v>1071</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1000</v>
+        <v>1072</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -15841,13 +15894,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>1001</v>
+        <v>1073</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>1002</v>
+        <v>1074</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1003</v>
+        <v>1075</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -15860,13 +15913,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>1004</v>
+        <v>1076</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1005</v>
+        <v>1077</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1006</v>
+        <v>1078</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -15879,13 +15932,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>1007</v>
+        <v>1079</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1008</v>
+        <v>1080</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>1009</v>
+        <v>1081</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -15898,13 +15951,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>1010</v>
+        <v>1082</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1011</v>
+        <v>1083</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1012</v>
+        <v>1084</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -15917,13 +15970,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1013</v>
+        <v>1085</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1014</v>
+        <v>1086</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>1015</v>
+        <v>1087</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -15936,13 +15989,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1016</v>
+        <v>1088</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1017</v>
+        <v>1089</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>1018</v>
+        <v>1090</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -15955,10 +16008,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1019</v>
+        <v>1091</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -15972,13 +16025,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1021</v>
+        <v>1093</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1022</v>
+        <v>1094</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>981</v>
+        <v>1053</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -15991,13 +16044,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1023</v>
+        <v>1095</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>1024</v>
+        <v>1096</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -16010,13 +16063,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1025</v>
+        <v>1097</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1026</v>
+        <v>1098</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>1027</v>
+        <v>1099</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -16029,13 +16082,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1028</v>
+        <v>1100</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1029</v>
+        <v>1101</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>1030</v>
+        <v>1102</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -16048,13 +16101,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1031</v>
+        <v>1103</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>1033</v>
+        <v>1105</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -16067,13 +16120,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1034</v>
+        <v>1106</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1035</v>
+        <v>1107</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>1036</v>
+        <v>1108</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -16086,13 +16139,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1037</v>
+        <v>1109</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>1038</v>
+        <v>1110</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1039</v>
+        <v>1111</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -16105,13 +16158,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1040</v>
+        <v>1112</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1041</v>
+        <v>1113</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>1042</v>
+        <v>1114</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -16124,13 +16177,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1043</v>
+        <v>1115</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1044</v>
+        <v>1116</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>1045</v>
+        <v>1117</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -16143,13 +16196,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1046</v>
+        <v>1118</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1047</v>
+        <v>1119</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1048</v>
+        <v>1120</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -16162,13 +16215,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1049</v>
+        <v>1121</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1050</v>
+        <v>1122</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>1051</v>
+        <v>1123</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -16181,13 +16234,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1052</v>
+        <v>1124</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1053</v>
+        <v>1125</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>1054</v>
+        <v>1126</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -16200,13 +16253,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1055</v>
+        <v>1127</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1056</v>
+        <v>1128</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>1057</v>
+        <v>1129</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -16219,13 +16272,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1058</v>
+        <v>1130</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1059</v>
+        <v>1131</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1060</v>
+        <v>1132</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -16238,13 +16291,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1061</v>
+        <v>1133</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1062</v>
+        <v>1134</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1063</v>
+        <v>1135</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -16257,13 +16310,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1064</v>
+        <v>1136</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1065</v>
+        <v>1137</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>1066</v>
+        <v>1138</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -16276,13 +16329,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1067</v>
+        <v>1139</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1068</v>
+        <v>1140</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>1069</v>
+        <v>1141</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -16295,13 +16348,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1070</v>
+        <v>1142</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1072</v>
+        <v>1144</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -16314,13 +16367,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1073</v>
+        <v>1145</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1074</v>
+        <v>1146</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>1075</v>
+        <v>1147</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -16333,13 +16386,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1076</v>
+        <v>1148</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1077</v>
+        <v>1149</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>1078</v>
+        <v>1150</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -16352,13 +16405,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1079</v>
+        <v>1151</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1080</v>
+        <v>1152</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>1081</v>
+        <v>1153</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -16371,13 +16424,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1082</v>
+        <v>1154</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1083</v>
+        <v>1155</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>1084</v>
+        <v>1156</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -16390,13 +16443,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1085</v>
+        <v>1157</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1086</v>
+        <v>1158</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -16409,13 +16462,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1088</v>
+        <v>1160</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1089</v>
+        <v>1161</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>1090</v>
+        <v>1162</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -16428,13 +16481,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1091</v>
+        <v>1163</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1092</v>
+        <v>1164</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1093</v>
+        <v>1165</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -16447,13 +16500,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1094</v>
+        <v>1166</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1095</v>
+        <v>1167</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>1096</v>
+        <v>1168</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -16466,13 +16519,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1097</v>
+        <v>1169</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1098</v>
+        <v>1170</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>1099</v>
+        <v>1171</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -16485,13 +16538,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1100</v>
+        <v>1172</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1101</v>
+        <v>1173</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>1102</v>
+        <v>1174</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -16504,13 +16557,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1103</v>
+        <v>1175</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1104</v>
+        <v>1176</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>1105</v>
+        <v>1177</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -16523,13 +16576,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1106</v>
+        <v>1178</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1107</v>
+        <v>1179</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>1108</v>
+        <v>1180</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -16542,13 +16595,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1109</v>
+        <v>1181</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1110</v>
+        <v>1182</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>1111</v>
+        <v>1183</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -16561,13 +16614,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1112</v>
+        <v>1184</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1113</v>
+        <v>1185</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>1114</v>
+        <v>1186</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -16580,13 +16633,13 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1115</v>
+        <v>1187</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>1116</v>
+        <v>1188</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -16599,10 +16652,14 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
+        <v>1189</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
@@ -16614,10 +16671,14 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
+        <v>1191</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>1192</v>
+      </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
@@ -16629,10 +16690,14 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
+        <v>1193</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C457" s="8" t="s">
+        <v>1194</v>
+      </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
@@ -16644,10 +16709,14 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
+        <v>1195</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>1197</v>
+      </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
@@ -16659,10 +16728,14 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
+        <v>1198</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>1200</v>
+      </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
@@ -16674,10 +16747,14 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
+        <v>1201</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>1203</v>
+      </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
@@ -16689,10 +16766,14 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
+        <v>1204</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1206</v>
+      </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
@@ -16704,10 +16785,14 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>1209</v>
+      </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
@@ -16719,10 +16804,14 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
+        <v>1210</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1212</v>
+      </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
@@ -16734,10 +16823,14 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
+        <v>1213</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C464" s="8" t="s">
+        <v>1215</v>
+      </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
@@ -16749,10 +16842,14 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
+        <v>1216</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>1218</v>
+      </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
@@ -16764,10 +16861,14 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
+        <v>1219</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>1221</v>
+      </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
@@ -16779,10 +16880,14 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
+        <v>1222</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>1224</v>
+      </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
@@ -16794,7 +16899,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1130</v>
+        <v>1225</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -16809,7 +16914,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1131</v>
+        <v>1226</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -16824,7 +16929,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1132</v>
+        <v>1227</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -16839,7 +16944,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1133</v>
+        <v>1228</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -16854,7 +16959,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1134</v>
+        <v>1229</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -16869,7 +16974,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1135</v>
+        <v>1230</v>
       </c>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -16884,7 +16989,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1136</v>
+        <v>1231</v>
       </c>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -16899,7 +17004,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1137</v>
+        <v>1232</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -16914,7 +17019,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1138</v>
+        <v>1233</v>
       </c>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -16929,7 +17034,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1139</v>
+        <v>1234</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -16944,7 +17049,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1140</v>
+        <v>1235</v>
       </c>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -16959,7 +17064,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1141</v>
+        <v>1236</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -16974,7 +17079,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1142</v>
+        <v>1237</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -16989,7 +17094,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1143</v>
+        <v>1238</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -17004,7 +17109,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1144</v>
+        <v>1239</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -17019,7 +17124,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1145</v>
+        <v>1240</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -17034,7 +17139,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1146</v>
+        <v>1241</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -17049,7 +17154,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1147</v>
+        <v>1242</v>
       </c>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -17064,7 +17169,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1148</v>
+        <v>1243</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -17079,7 +17184,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1149</v>
+        <v>1244</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -17094,7 +17199,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1150</v>
+        <v>1245</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -17109,7 +17214,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1151</v>
+        <v>1246</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -17124,7 +17229,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1152</v>
+        <v>1247</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -17139,7 +17244,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1153</v>
+        <v>1248</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -17154,7 +17259,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1154</v>
+        <v>1249</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -17169,7 +17274,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1155</v>
+        <v>1250</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -17184,7 +17289,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1156</v>
+        <v>1251</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17199,7 +17304,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1157</v>
+        <v>1252</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17214,7 +17319,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1158</v>
+        <v>1253</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17229,7 +17334,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1159</v>
+        <v>1254</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -17244,7 +17349,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1160</v>
+        <v>1255</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -17259,7 +17364,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1161</v>
+        <v>1256</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -17274,7 +17379,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1162</v>
+        <v>1257</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -17289,7 +17394,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1163</v>
+        <v>1258</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -17304,7 +17409,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1164</v>
+        <v>1259</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -17319,7 +17424,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1165</v>
+        <v>1260</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -17334,7 +17439,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1166</v>
+        <v>1261</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -17349,7 +17454,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1167</v>
+        <v>1262</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -17364,7 +17469,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1168</v>
+        <v>1263</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -17379,7 +17484,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1169</v>
+        <v>1264</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -17394,7 +17499,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1170</v>
+        <v>1265</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17409,7 +17514,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1171</v>
+        <v>1266</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17424,7 +17529,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1172</v>
+        <v>1267</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17439,7 +17544,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1173</v>
+        <v>1268</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17454,7 +17559,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1174</v>
+        <v>1269</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -17469,7 +17574,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1175</v>
+        <v>1270</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17484,7 +17589,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1176</v>
+        <v>1271</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17499,7 +17604,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1177</v>
+        <v>1272</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17514,7 +17619,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1178</v>
+        <v>1273</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17529,7 +17634,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1179</v>
+        <v>1274</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17544,7 +17649,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1180</v>
+        <v>1275</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17559,7 +17664,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1181</v>
+        <v>1276</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17574,7 +17679,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1182</v>
+        <v>1277</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17589,7 +17694,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1183</v>
+        <v>1278</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17604,7 +17709,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1184</v>
+        <v>1279</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17619,7 +17724,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1185</v>
+        <v>1280</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17634,7 +17739,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1186</v>
+        <v>1281</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17649,7 +17754,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1187</v>
+        <v>1282</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17664,7 +17769,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1188</v>
+        <v>1283</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17679,7 +17784,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1189</v>
+        <v>1284</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17694,7 +17799,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1190</v>
+        <v>1285</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17709,7 +17814,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1191</v>
+        <v>1286</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17724,7 +17829,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1192</v>
+        <v>1287</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17739,7 +17844,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1193</v>
+        <v>1288</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17754,7 +17859,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1194</v>
+        <v>1289</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17769,7 +17874,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1195</v>
+        <v>1290</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17784,7 +17889,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1196</v>
+        <v>1291</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17799,7 +17904,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1197</v>
+        <v>1292</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17814,7 +17919,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1198</v>
+        <v>1293</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17829,7 +17934,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1199</v>
+        <v>1294</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17844,7 +17949,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1200</v>
+        <v>1295</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17859,7 +17964,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1201</v>
+        <v>1296</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17874,7 +17979,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1202</v>
+        <v>1297</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17889,7 +17994,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1203</v>
+        <v>1298</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17904,7 +18009,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1204</v>
+        <v>1299</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17919,7 +18024,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1205</v>
+        <v>1300</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17934,7 +18039,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1206</v>
+        <v>1301</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1389" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1391" uniqueCount="1391">
   <si>
     <t>key</t>
   </si>
@@ -2081,216 +2081,6 @@
     <t>Brasilia</t>
   </si>
   <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Acl</t>
-  </si>
-  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -3704,6 +3494,12 @@
     <t>trans0468</t>
   </si>
   <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>Tip</t>
+  </si>
+  <si>
     <t>trans0469</t>
   </si>
   <si>
@@ -3930,6 +3726,216 @@
   </si>
   <si>
     <t>trans0544</t>
+  </si>
+  <si>
+    <t>trans0001</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>Acl</t>
   </si>
   <si>
     <r>
@@ -5332,7 +5338,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>687</v>
+        <v>1234</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5370,10 +5376,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>688</v>
+        <v>1235</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>689</v>
+        <v>1236</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5389,7 +5395,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>690</v>
+        <v>1237</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5408,13 +5414,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>691</v>
+        <v>1238</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>692</v>
+        <v>1239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>693</v>
+        <v>1240</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5525,10 +5531,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>694</v>
+        <v>1241</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>695</v>
+        <v>1242</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5712,10 +5718,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>696</v>
+        <v>1243</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>697</v>
+        <v>1244</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5731,10 +5737,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>698</v>
+        <v>1245</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>699</v>
+        <v>1246</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5748,10 +5754,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>700</v>
+        <v>1247</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>701</v>
+        <v>1248</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5765,10 +5771,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>702</v>
+        <v>1249</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>703</v>
+        <v>1250</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5782,10 +5788,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>704</v>
+        <v>1251</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>705</v>
+        <v>1252</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5799,10 +5805,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>706</v>
+        <v>1253</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>707</v>
+        <v>1254</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5816,7 +5822,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>708</v>
+        <v>1255</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5833,10 +5839,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>709</v>
+        <v>1256</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>710</v>
+        <v>1257</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5850,10 +5856,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>711</v>
+        <v>1258</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>712</v>
+        <v>1259</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5867,10 +5873,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>713</v>
+        <v>1260</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>714</v>
+        <v>1261</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5884,10 +5890,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>715</v>
+        <v>1262</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>716</v>
+        <v>1263</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5901,10 +5907,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>717</v>
+        <v>1264</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>718</v>
+        <v>1265</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5918,10 +5924,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>719</v>
+        <v>1266</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>720</v>
+        <v>1267</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5935,10 +5941,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>721</v>
+        <v>1268</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>722</v>
+        <v>1269</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5952,10 +5958,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>723</v>
+        <v>1270</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>724</v>
+        <v>1271</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5969,10 +5975,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>725</v>
+        <v>1272</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>726</v>
+        <v>1273</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5986,10 +5992,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>727</v>
+        <v>1274</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>714</v>
+        <v>1261</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -6003,10 +6009,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>728</v>
+        <v>1275</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>729</v>
+        <v>1276</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6020,10 +6026,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>730</v>
+        <v>1277</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>731</v>
+        <v>1278</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6037,10 +6043,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>732</v>
+        <v>1279</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>733</v>
+        <v>1280</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6054,10 +6060,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>734</v>
+        <v>1281</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>735</v>
+        <v>1282</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6071,10 +6077,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>736</v>
+        <v>1283</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>737</v>
+        <v>1284</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6088,10 +6094,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>738</v>
+        <v>1285</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>739</v>
+        <v>1286</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6105,10 +6111,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>740</v>
+        <v>1287</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>741</v>
+        <v>1288</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6122,10 +6128,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>742</v>
+        <v>1289</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>743</v>
+        <v>1290</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6139,10 +6145,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>744</v>
+        <v>1291</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>745</v>
+        <v>1292</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6156,10 +6162,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>746</v>
+        <v>1293</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>747</v>
+        <v>1294</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6173,10 +6179,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>748</v>
+        <v>1295</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>699</v>
+        <v>1246</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6190,13 +6196,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>749</v>
+        <v>1296</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>750</v>
+        <v>1297</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>750</v>
+        <v>1297</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6209,13 +6215,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>751</v>
+        <v>1298</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>752</v>
+        <v>1299</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>752</v>
+        <v>1299</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6228,7 +6234,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>753</v>
+        <v>1300</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6245,7 +6251,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>754</v>
+        <v>1301</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6262,7 +6268,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>755</v>
+        <v>1302</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6282,7 +6288,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>716</v>
+        <v>1263</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6377,10 +6383,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>756</v>
+        <v>1303</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>756</v>
+        <v>1303</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8279,7 +8285,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8317,10 +8323,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8336,7 +8342,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8355,13 +8361,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8472,10 +8478,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8659,10 +8665,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8678,10 +8684,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8695,10 +8701,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8712,10 +8718,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8729,10 +8735,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8746,10 +8752,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8763,10 +8769,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8782,10 +8788,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8799,10 +8805,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8818,10 +8824,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8837,10 +8843,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8856,10 +8862,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8873,10 +8879,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8890,10 +8896,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8907,10 +8913,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8924,10 +8930,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8941,10 +8947,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8960,10 +8966,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8977,10 +8983,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -8994,10 +9000,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9011,10 +9017,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9028,10 +9034,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9045,10 +9051,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9062,10 +9068,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9079,10 +9085,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9096,10 +9102,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9113,10 +9119,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9130,10 +9136,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9147,10 +9153,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9164,10 +9170,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9181,7 +9187,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9198,7 +9204,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9215,7 +9221,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -9516,10 +9522,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9535,10 +9541,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9554,10 +9560,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9573,10 +9579,10 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9592,10 +9598,10 @@
         <v>109</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9611,10 +9617,10 @@
         <v>110</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9630,10 +9636,10 @@
         <v>111</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10376,7 +10382,7 @@
         <v>206</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>207</v>
@@ -13750,13 +13756,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>758</v>
+        <v>688</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>759</v>
+        <v>689</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -13769,13 +13775,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>762</v>
+        <v>692</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -13788,13 +13794,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>765</v>
+        <v>695</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -13807,13 +13813,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>766</v>
+        <v>696</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>768</v>
+        <v>698</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -13826,13 +13832,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>769</v>
+        <v>699</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -13845,13 +13851,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>774</v>
+        <v>704</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -13864,13 +13870,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>775</v>
+        <v>705</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -13883,13 +13889,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>780</v>
+        <v>710</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -13902,13 +13908,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>782</v>
+        <v>712</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -13921,13 +13927,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>786</v>
+        <v>716</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -13940,13 +13946,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>788</v>
+        <v>718</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>789</v>
+        <v>719</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -13959,13 +13965,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>790</v>
+        <v>720</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>791</v>
+        <v>721</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -13978,13 +13984,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>793</v>
+        <v>723</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>795</v>
+        <v>725</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -13997,13 +14003,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>796</v>
+        <v>726</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>798</v>
+        <v>728</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -14016,13 +14022,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>799</v>
+        <v>729</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>801</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -14035,13 +14041,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>802</v>
+        <v>732</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -14054,13 +14060,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>806</v>
+        <v>736</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -14073,13 +14079,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>808</v>
+        <v>738</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>809</v>
+        <v>739</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>810</v>
+        <v>740</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -14092,13 +14098,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>811</v>
+        <v>741</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>812</v>
+        <v>742</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>813</v>
+        <v>743</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -14111,13 +14117,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>814</v>
+        <v>744</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>815</v>
+        <v>745</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>816</v>
+        <v>746</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -14130,13 +14136,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>817</v>
+        <v>747</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -14149,13 +14155,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>821</v>
+        <v>751</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -14168,13 +14174,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>823</v>
+        <v>753</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>824</v>
+        <v>754</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>825</v>
+        <v>755</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -14187,13 +14193,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>826</v>
+        <v>756</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>827</v>
+        <v>757</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>828</v>
+        <v>758</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -14206,13 +14212,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>830</v>
+        <v>760</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -14225,13 +14231,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>832</v>
+        <v>762</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>833</v>
+        <v>763</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -14244,13 +14250,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>835</v>
+        <v>765</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>836</v>
+        <v>766</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>837</v>
+        <v>767</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -14263,13 +14269,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>838</v>
+        <v>768</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>839</v>
+        <v>769</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>840</v>
+        <v>770</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -14282,13 +14288,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>841</v>
+        <v>771</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>842</v>
+        <v>772</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>843</v>
+        <v>773</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -14301,13 +14307,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>844</v>
+        <v>774</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>845</v>
+        <v>775</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>846</v>
+        <v>776</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -14320,13 +14326,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>847</v>
+        <v>777</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>848</v>
+        <v>778</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>849</v>
+        <v>779</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -14339,13 +14345,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>850</v>
+        <v>780</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>852</v>
+        <v>782</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -14358,13 +14364,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>853</v>
+        <v>783</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>854</v>
+        <v>784</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -14377,13 +14383,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>856</v>
+        <v>786</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>857</v>
+        <v>787</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>858</v>
+        <v>788</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -14396,13 +14402,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>859</v>
+        <v>789</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>860</v>
+        <v>790</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>861</v>
+        <v>791</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -14415,13 +14421,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>863</v>
+        <v>793</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>864</v>
+        <v>794</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -14434,13 +14440,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>865</v>
+        <v>795</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>866</v>
+        <v>796</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>867</v>
+        <v>797</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -14453,13 +14459,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>868</v>
+        <v>798</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>869</v>
+        <v>799</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14472,13 +14478,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>871</v>
+        <v>801</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>872</v>
+        <v>802</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>873</v>
+        <v>803</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14491,13 +14497,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>874</v>
+        <v>804</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>875</v>
+        <v>805</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>876</v>
+        <v>806</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14510,13 +14516,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>877</v>
+        <v>807</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>878</v>
+        <v>808</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>879</v>
+        <v>809</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -14529,13 +14535,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>880</v>
+        <v>810</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>881</v>
+        <v>811</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>882</v>
+        <v>812</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -14548,13 +14554,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>883</v>
+        <v>813</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>884</v>
+        <v>814</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>885</v>
+        <v>815</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -14567,13 +14573,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>886</v>
+        <v>816</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>887</v>
+        <v>817</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>888</v>
+        <v>818</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -14586,13 +14592,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>889</v>
+        <v>819</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>891</v>
+        <v>821</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14605,13 +14611,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>892</v>
+        <v>822</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>893</v>
+        <v>823</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>894</v>
+        <v>824</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14624,13 +14630,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>895</v>
+        <v>825</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>896</v>
+        <v>826</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>897</v>
+        <v>827</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14643,13 +14649,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>898</v>
+        <v>828</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>899</v>
+        <v>829</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14662,13 +14668,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>901</v>
+        <v>831</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>902</v>
+        <v>832</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>903</v>
+        <v>833</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -14681,13 +14687,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>904</v>
+        <v>834</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>905</v>
+        <v>835</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>906</v>
+        <v>836</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -14700,13 +14706,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>907</v>
+        <v>837</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>908</v>
+        <v>838</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>909</v>
+        <v>839</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -14719,13 +14725,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>910</v>
+        <v>840</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>911</v>
+        <v>841</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>912</v>
+        <v>842</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14738,13 +14744,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>913</v>
+        <v>843</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>914</v>
+        <v>844</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>915</v>
+        <v>845</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14757,13 +14763,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>916</v>
+        <v>846</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>917</v>
+        <v>847</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>918</v>
+        <v>848</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14776,13 +14782,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>919</v>
+        <v>849</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>920</v>
+        <v>850</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>921</v>
+        <v>851</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14795,13 +14801,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>922</v>
+        <v>852</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>923</v>
+        <v>853</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>924</v>
+        <v>854</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14814,10 +14820,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>925</v>
+        <v>855</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>926</v>
+        <v>856</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -14831,13 +14837,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>927</v>
+        <v>857</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>928</v>
+        <v>858</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>929</v>
+        <v>859</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14850,13 +14856,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>930</v>
+        <v>860</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>931</v>
+        <v>861</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>932</v>
+        <v>862</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14869,13 +14875,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>933</v>
+        <v>863</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>934</v>
+        <v>864</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>935</v>
+        <v>865</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14888,13 +14894,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>936</v>
+        <v>866</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>937</v>
+        <v>867</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>938</v>
+        <v>868</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14907,13 +14913,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>939</v>
+        <v>869</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>940</v>
+        <v>870</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>941</v>
+        <v>871</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14926,13 +14932,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>942</v>
+        <v>872</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>943</v>
+        <v>873</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>944</v>
+        <v>874</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14945,13 +14951,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>945</v>
+        <v>875</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>946</v>
+        <v>876</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>947</v>
+        <v>877</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14964,13 +14970,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>948</v>
+        <v>878</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14983,13 +14989,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>951</v>
+        <v>881</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>952</v>
+        <v>882</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>953</v>
+        <v>883</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -15002,13 +15008,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>954</v>
+        <v>884</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>955</v>
+        <v>885</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>956</v>
+        <v>886</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -15021,13 +15027,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>957</v>
+        <v>887</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>958</v>
+        <v>888</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>959</v>
+        <v>889</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -15040,13 +15046,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>960</v>
+        <v>890</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>962</v>
+        <v>892</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15059,13 +15065,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>963</v>
+        <v>893</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>964</v>
+        <v>894</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>965</v>
+        <v>895</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -15078,13 +15084,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>966</v>
+        <v>896</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>967</v>
+        <v>897</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>968</v>
+        <v>898</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -15097,13 +15103,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>969</v>
+        <v>899</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -15116,13 +15122,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>971</v>
+        <v>901</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -15135,10 +15141,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>973</v>
+        <v>903</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>974</v>
+        <v>904</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -15152,10 +15158,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>975</v>
+        <v>905</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>976</v>
+        <v>906</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -15169,13 +15175,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>977</v>
+        <v>907</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>978</v>
+        <v>908</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>978</v>
+        <v>908</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -15188,13 +15194,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>979</v>
+        <v>909</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>980</v>
+        <v>910</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>980</v>
+        <v>910</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -15207,7 +15213,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>981</v>
+        <v>911</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>535</v>
@@ -15226,10 +15232,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>982</v>
+        <v>912</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>983</v>
+        <v>913</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -15243,13 +15249,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>984</v>
+        <v>914</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>985</v>
+        <v>915</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>986</v>
+        <v>916</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -15262,13 +15268,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>987</v>
+        <v>917</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>988</v>
+        <v>918</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>989</v>
+        <v>919</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -15281,13 +15287,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>990</v>
+        <v>920</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>991</v>
+        <v>921</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>992</v>
+        <v>922</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -15300,13 +15306,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>994</v>
+        <v>924</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>995</v>
+        <v>925</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -15319,13 +15325,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>996</v>
+        <v>926</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>997</v>
+        <v>927</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>998</v>
+        <v>928</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -15338,13 +15344,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>999</v>
+        <v>929</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>1001</v>
+        <v>931</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -15357,13 +15363,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>1002</v>
+        <v>932</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>1003</v>
+        <v>933</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>1004</v>
+        <v>934</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -15376,13 +15382,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>1005</v>
+        <v>935</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>1006</v>
+        <v>936</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>1006</v>
+        <v>936</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -15395,13 +15401,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>1007</v>
+        <v>937</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>1008</v>
+        <v>938</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>1008</v>
+        <v>938</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -15414,13 +15420,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>1009</v>
+        <v>939</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>1010</v>
+        <v>940</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>1011</v>
+        <v>941</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -15433,13 +15439,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>1012</v>
+        <v>942</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>1013</v>
+        <v>943</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>1014</v>
+        <v>944</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -15452,13 +15458,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>1016</v>
+        <v>946</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>1017</v>
+        <v>947</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -15471,7 +15477,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>1018</v>
+        <v>948</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>155</v>
@@ -15490,13 +15496,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>1019</v>
+        <v>949</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>1020</v>
+        <v>950</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>1020</v>
+        <v>950</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -15509,13 +15515,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>1021</v>
+        <v>951</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>1022</v>
+        <v>952</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>1022</v>
+        <v>952</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -15528,13 +15534,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>1023</v>
+        <v>953</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>1024</v>
+        <v>954</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>1025</v>
+        <v>955</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -15547,13 +15553,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>1026</v>
+        <v>956</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>1027</v>
+        <v>957</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -15566,13 +15572,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>1028</v>
+        <v>958</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>1029</v>
+        <v>959</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>1030</v>
+        <v>960</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -15585,13 +15591,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>1031</v>
+        <v>961</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>1032</v>
+        <v>962</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>1033</v>
+        <v>963</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -15604,13 +15610,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>1034</v>
+        <v>964</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>1035</v>
+        <v>965</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>1036</v>
+        <v>966</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -15623,13 +15629,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>1037</v>
+        <v>967</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>1038</v>
+        <v>968</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>1039</v>
+        <v>969</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -15642,13 +15648,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>1040</v>
+        <v>970</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>1041</v>
+        <v>971</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -15661,13 +15667,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>1042</v>
+        <v>972</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>1044</v>
+        <v>974</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -15680,13 +15686,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>1045</v>
+        <v>975</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>1046</v>
+        <v>976</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>1047</v>
+        <v>977</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -15699,10 +15705,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>1048</v>
+        <v>978</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>1049</v>
+        <v>979</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -15716,10 +15722,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>1050</v>
+        <v>980</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>1051</v>
+        <v>981</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -15733,13 +15739,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>1052</v>
+        <v>982</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>1053</v>
+        <v>983</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>1053</v>
+        <v>983</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -15752,10 +15758,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>1055</v>
+        <v>985</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -15769,10 +15775,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>1056</v>
+        <v>986</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>1057</v>
+        <v>987</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -15786,10 +15792,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>1058</v>
+        <v>988</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>1059</v>
+        <v>989</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -15803,13 +15809,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>1060</v>
+        <v>990</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>1061</v>
+        <v>991</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>1062</v>
+        <v>992</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -15822,10 +15828,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>1063</v>
+        <v>993</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>1064</v>
+        <v>994</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -15839,13 +15845,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>1065</v>
+        <v>995</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>1066</v>
+        <v>996</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>1067</v>
+        <v>997</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -15858,10 +15864,10 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>1068</v>
+        <v>998</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>1069</v>
+        <v>999</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -15875,13 +15881,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>1070</v>
+        <v>1000</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1071</v>
+        <v>1001</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1072</v>
+        <v>1002</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -15894,13 +15900,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>1073</v>
+        <v>1003</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>1074</v>
+        <v>1004</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1075</v>
+        <v>1005</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -15913,13 +15919,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>1076</v>
+        <v>1006</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1077</v>
+        <v>1007</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1078</v>
+        <v>1008</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -15932,13 +15938,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>1079</v>
+        <v>1009</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1080</v>
+        <v>1010</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>1081</v>
+        <v>1011</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -15951,13 +15957,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>1082</v>
+        <v>1012</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1083</v>
+        <v>1013</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1084</v>
+        <v>1014</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -15970,13 +15976,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1085</v>
+        <v>1015</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1086</v>
+        <v>1016</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>1087</v>
+        <v>1017</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -15989,13 +15995,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1088</v>
+        <v>1018</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>1090</v>
+        <v>1020</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -16008,10 +16014,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1091</v>
+        <v>1021</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1092</v>
+        <v>1022</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -16025,13 +16031,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1093</v>
+        <v>1023</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1094</v>
+        <v>1024</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>1053</v>
+        <v>983</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -16044,13 +16050,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1095</v>
+        <v>1025</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>1096</v>
+        <v>1026</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -16063,13 +16069,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1097</v>
+        <v>1027</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1098</v>
+        <v>1028</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>1099</v>
+        <v>1029</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -16082,13 +16088,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1100</v>
+        <v>1030</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1101</v>
+        <v>1031</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>1102</v>
+        <v>1032</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -16101,13 +16107,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1103</v>
+        <v>1033</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1104</v>
+        <v>1034</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>1105</v>
+        <v>1035</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -16120,13 +16126,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1106</v>
+        <v>1036</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1107</v>
+        <v>1037</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -16139,13 +16145,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1109</v>
+        <v>1039</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>1110</v>
+        <v>1040</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1111</v>
+        <v>1041</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -16158,13 +16164,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1112</v>
+        <v>1042</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1113</v>
+        <v>1043</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>1114</v>
+        <v>1044</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -16177,13 +16183,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1115</v>
+        <v>1045</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1116</v>
+        <v>1046</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>1117</v>
+        <v>1047</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -16196,13 +16202,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1118</v>
+        <v>1048</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1119</v>
+        <v>1049</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1120</v>
+        <v>1050</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -16215,13 +16221,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1121</v>
+        <v>1051</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1122</v>
+        <v>1052</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>1123</v>
+        <v>1053</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -16234,13 +16240,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1124</v>
+        <v>1054</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1125</v>
+        <v>1055</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>1126</v>
+        <v>1056</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -16253,13 +16259,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1127</v>
+        <v>1057</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1128</v>
+        <v>1058</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>1129</v>
+        <v>1059</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -16272,13 +16278,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1131</v>
+        <v>1061</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1132</v>
+        <v>1062</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -16291,13 +16297,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1133</v>
+        <v>1063</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1134</v>
+        <v>1064</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1135</v>
+        <v>1065</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -16310,13 +16316,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1136</v>
+        <v>1066</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1137</v>
+        <v>1067</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>1138</v>
+        <v>1068</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -16329,13 +16335,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1139</v>
+        <v>1069</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1140</v>
+        <v>1070</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>1141</v>
+        <v>1071</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -16348,13 +16354,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1142</v>
+        <v>1072</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1143</v>
+        <v>1073</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1144</v>
+        <v>1074</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -16367,13 +16373,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1145</v>
+        <v>1075</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1146</v>
+        <v>1076</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>1147</v>
+        <v>1077</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -16386,13 +16392,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1148</v>
+        <v>1078</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1149</v>
+        <v>1079</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>1150</v>
+        <v>1080</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -16405,13 +16411,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1151</v>
+        <v>1081</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1152</v>
+        <v>1082</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>1153</v>
+        <v>1083</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -16424,13 +16430,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1154</v>
+        <v>1084</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1155</v>
+        <v>1085</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>1156</v>
+        <v>1086</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -16443,13 +16449,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1157</v>
+        <v>1087</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1158</v>
+        <v>1088</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>1159</v>
+        <v>1089</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -16462,13 +16468,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1160</v>
+        <v>1090</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1161</v>
+        <v>1091</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>1162</v>
+        <v>1092</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -16481,13 +16487,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1163</v>
+        <v>1093</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1164</v>
+        <v>1094</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1165</v>
+        <v>1095</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -16500,13 +16506,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1166</v>
+        <v>1096</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1167</v>
+        <v>1097</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>1168</v>
+        <v>1098</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -16519,13 +16525,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1169</v>
+        <v>1099</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1170</v>
+        <v>1100</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>1171</v>
+        <v>1101</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -16538,13 +16544,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1172</v>
+        <v>1102</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1173</v>
+        <v>1103</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>1174</v>
+        <v>1104</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -16557,13 +16563,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1175</v>
+        <v>1105</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1176</v>
+        <v>1106</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -16576,13 +16582,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1178</v>
+        <v>1108</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>1180</v>
+        <v>1110</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -16595,13 +16601,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1182</v>
+        <v>1112</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -16614,13 +16620,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>1186</v>
+        <v>1116</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -16633,13 +16639,13 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="B454" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>1188</v>
+        <v>1118</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -16652,10 +16658,10 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>1190</v>
+        <v>1120</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>104</v>
@@ -16671,13 +16677,13 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1192</v>
+        <v>1122</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>1192</v>
+        <v>1122</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -16690,13 +16696,13 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1193</v>
+        <v>1123</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>1194</v>
+        <v>1124</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>1194</v>
+        <v>1124</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -16709,13 +16715,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>1197</v>
+        <v>1127</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -16728,13 +16734,13 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1198</v>
+        <v>1128</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -16747,13 +16753,13 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1201</v>
+        <v>1131</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>1203</v>
+        <v>1133</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -16766,13 +16772,13 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1204</v>
+        <v>1134</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>1206</v>
+        <v>1136</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -16785,13 +16791,13 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1207</v>
+        <v>1137</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1208</v>
+        <v>1138</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>1209</v>
+        <v>1139</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -16804,13 +16810,13 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1210</v>
+        <v>1140</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>1211</v>
+        <v>1141</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -16823,13 +16829,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1213</v>
+        <v>1143</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1215</v>
+        <v>1145</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -16842,13 +16848,13 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1216</v>
+        <v>1146</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>1217</v>
+        <v>1147</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -16861,13 +16867,13 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1219</v>
+        <v>1149</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1220</v>
+        <v>1150</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1221</v>
+        <v>1151</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -16880,13 +16886,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1223</v>
+        <v>1153</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1224</v>
+        <v>1154</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -16899,10 +16905,14 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
+        <v>1155</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>1157</v>
+      </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
@@ -16914,7 +16924,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1226</v>
+        <v>1158</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -16929,7 +16939,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1227</v>
+        <v>1159</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -16944,7 +16954,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1228</v>
+        <v>1160</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -16959,7 +16969,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1229</v>
+        <v>1161</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -16974,7 +16984,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1230</v>
+        <v>1162</v>
       </c>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -16989,7 +16999,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1231</v>
+        <v>1163</v>
       </c>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -17004,7 +17014,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1232</v>
+        <v>1164</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -17019,7 +17029,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1233</v>
+        <v>1165</v>
       </c>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -17034,7 +17044,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -17049,7 +17059,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1235</v>
+        <v>1167</v>
       </c>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -17064,7 +17074,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1236</v>
+        <v>1168</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -17079,7 +17089,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1237</v>
+        <v>1169</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -17094,7 +17104,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1238</v>
+        <v>1170</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -17109,7 +17119,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1239</v>
+        <v>1171</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -17124,7 +17134,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1240</v>
+        <v>1172</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -17139,7 +17149,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1241</v>
+        <v>1173</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -17154,7 +17164,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1242</v>
+        <v>1174</v>
       </c>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -17169,7 +17179,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1243</v>
+        <v>1175</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -17184,7 +17194,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1244</v>
+        <v>1176</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -17199,7 +17209,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1245</v>
+        <v>1177</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -17214,7 +17224,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1246</v>
+        <v>1178</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -17229,7 +17239,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1247</v>
+        <v>1179</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -17244,7 +17254,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1248</v>
+        <v>1180</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -17259,7 +17269,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1249</v>
+        <v>1181</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -17274,7 +17284,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1250</v>
+        <v>1182</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -17289,7 +17299,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1251</v>
+        <v>1183</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17304,7 +17314,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1252</v>
+        <v>1184</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17319,7 +17329,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1253</v>
+        <v>1185</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17334,7 +17344,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1254</v>
+        <v>1186</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -17349,7 +17359,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1255</v>
+        <v>1187</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -17364,7 +17374,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1256</v>
+        <v>1188</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -17379,7 +17389,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1257</v>
+        <v>1189</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -17394,7 +17404,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1258</v>
+        <v>1190</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -17409,7 +17419,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1259</v>
+        <v>1191</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -17424,7 +17434,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1260</v>
+        <v>1192</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -17439,7 +17449,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1261</v>
+        <v>1193</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -17454,7 +17464,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1262</v>
+        <v>1194</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -17469,7 +17479,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1263</v>
+        <v>1195</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -17484,7 +17494,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1264</v>
+        <v>1196</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -17499,7 +17509,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1265</v>
+        <v>1197</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17514,7 +17524,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1266</v>
+        <v>1198</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17529,7 +17539,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1267</v>
+        <v>1199</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17544,7 +17554,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1268</v>
+        <v>1200</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17559,7 +17569,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1269</v>
+        <v>1201</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -17574,7 +17584,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1270</v>
+        <v>1202</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17589,7 +17599,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1271</v>
+        <v>1203</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17604,7 +17614,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1272</v>
+        <v>1204</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17619,7 +17629,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1273</v>
+        <v>1205</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17634,7 +17644,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1274</v>
+        <v>1206</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17649,7 +17659,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1275</v>
+        <v>1207</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17664,7 +17674,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1276</v>
+        <v>1208</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17679,7 +17689,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1277</v>
+        <v>1209</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17694,7 +17704,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1278</v>
+        <v>1210</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17709,7 +17719,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1279</v>
+        <v>1211</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17724,7 +17734,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1280</v>
+        <v>1212</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17739,7 +17749,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1281</v>
+        <v>1213</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17754,7 +17764,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1282</v>
+        <v>1214</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17769,7 +17779,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1283</v>
+        <v>1215</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17784,7 +17794,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1284</v>
+        <v>1216</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17799,7 +17809,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1285</v>
+        <v>1217</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17814,7 +17824,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1286</v>
+        <v>1218</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17829,7 +17839,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1287</v>
+        <v>1219</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17844,7 +17854,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1288</v>
+        <v>1220</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17859,7 +17869,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1289</v>
+        <v>1221</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17874,7 +17884,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1290</v>
+        <v>1222</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17889,7 +17899,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1291</v>
+        <v>1223</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17904,7 +17914,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1292</v>
+        <v>1224</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17919,7 +17929,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1293</v>
+        <v>1225</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17934,7 +17944,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1294</v>
+        <v>1226</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17949,7 +17959,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1295</v>
+        <v>1227</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17964,7 +17974,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1296</v>
+        <v>1228</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17979,7 +17989,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1297</v>
+        <v>1229</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17994,7 +18004,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1298</v>
+        <v>1230</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -18009,7 +18019,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -18024,7 +18034,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1300</v>
+        <v>1232</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -18039,7 +18049,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1301</v>
+        <v>1233</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1391" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1427" uniqueCount="1427">
   <si>
     <t>key</t>
   </si>
@@ -3503,61 +3503,169 @@
     <t>trans0469</t>
   </si>
   <si>
+    <t>IPv6 %s 配置</t>
+  </si>
+  <si>
+    <t>IPv6 %s Configuration</t>
+  </si>
+  <si>
     <t>trans0470</t>
   </si>
   <si>
+    <t>如果一个IPv6地址的首选寿命到期了，一般都禁止使用这个地址来启动新的连接</t>
+  </si>
+  <si>
+    <t>If the primary time of IPv6 address expire, it will be prohibited to start the new connection</t>
+  </si>
+  <si>
     <t>trans0471</t>
   </si>
   <si>
+    <t>SLAAC</t>
+  </si>
+  <si>
     <t>trans0472</t>
   </si>
   <si>
+    <t>DHCP</t>
+  </si>
+  <si>
     <t>trans0473</t>
   </si>
   <si>
+    <t>DNS</t>
+  </si>
+  <si>
     <t>trans0474</t>
   </si>
   <si>
+    <t>%s 状态</t>
+  </si>
+  <si>
+    <t>%s Status</t>
+  </si>
+  <si>
     <t>trans0475</t>
   </si>
   <si>
+    <t>RA 模式</t>
+  </si>
+  <si>
+    <t>RA Mode</t>
+  </si>
+  <si>
     <t>trans0476</t>
   </si>
   <si>
+    <t>前缀</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
     <t>trans0477</t>
   </si>
   <si>
+    <t>前缀长度</t>
+  </si>
+  <si>
+    <t>Prefix Length</t>
+  </si>
+  <si>
     <t>trans0478</t>
   </si>
   <si>
+    <t>首选寿命</t>
+  </si>
+  <si>
+    <t>Preferred Lifetime</t>
+  </si>
+  <si>
     <t>trans0479</t>
   </si>
   <si>
+    <t xml:space="preserve">有效寿命	</t>
+  </si>
+  <si>
+    <t>Valid Lifetime</t>
+  </si>
+  <si>
     <t>trans0480</t>
   </si>
   <si>
+    <t>RA 消息最小间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA minimum interval   </t>
+  </si>
+  <si>
     <t>trans0481</t>
   </si>
   <si>
+    <t>RA 消息最大间隔</t>
+  </si>
+  <si>
+    <t>RA maximal interval</t>
+  </si>
+  <si>
     <t>trans0482</t>
   </si>
   <si>
+    <t>MTU</t>
+  </si>
+  <si>
     <t>trans0483</t>
   </si>
   <si>
+    <t xml:space="preserve">Managed 标志  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed Flag  </t>
+  </si>
+  <si>
     <t>trans0484</t>
   </si>
   <si>
+    <t xml:space="preserve">Other 标志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Flag </t>
+  </si>
+  <si>
     <t>trans0485</t>
   </si>
   <si>
+    <t>前缀来源</t>
+  </si>
+  <si>
+    <t>Prefix Source</t>
+  </si>
+  <si>
     <t>trans0486</t>
   </si>
   <si>
+    <t>手动配置</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
     <t>trans0487</t>
   </si>
   <si>
+    <t>自动配置</t>
+  </si>
+  <si>
+    <t>Automatically</t>
+  </si>
+  <si>
     <t>trans0488</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>second(s)</t>
   </si>
   <si>
     <t>trans0489</t>
@@ -5338,7 +5446,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1234</v>
+        <v>1270</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5376,10 +5484,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1235</v>
+        <v>1271</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1236</v>
+        <v>1272</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5395,7 +5503,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1237</v>
+        <v>1273</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5414,13 +5522,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1238</v>
+        <v>1274</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1239</v>
+        <v>1275</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1240</v>
+        <v>1276</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5531,10 +5639,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1241</v>
+        <v>1277</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1242</v>
+        <v>1278</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5718,10 +5826,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1243</v>
+        <v>1279</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1244</v>
+        <v>1280</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5737,10 +5845,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1245</v>
+        <v>1281</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1246</v>
+        <v>1282</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5754,10 +5862,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1247</v>
+        <v>1283</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1248</v>
+        <v>1284</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5771,10 +5879,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1249</v>
+        <v>1285</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5788,10 +5896,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1251</v>
+        <v>1287</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1252</v>
+        <v>1288</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5805,10 +5913,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1253</v>
+        <v>1289</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1254</v>
+        <v>1290</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5822,7 +5930,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1255</v>
+        <v>1291</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5839,10 +5947,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1256</v>
+        <v>1292</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1257</v>
+        <v>1293</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5856,10 +5964,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1258</v>
+        <v>1294</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1259</v>
+        <v>1295</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5873,10 +5981,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1260</v>
+        <v>1296</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1261</v>
+        <v>1297</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5890,10 +5998,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1262</v>
+        <v>1298</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1263</v>
+        <v>1299</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -5907,10 +6015,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1264</v>
+        <v>1300</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1265</v>
+        <v>1301</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -5924,10 +6032,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1266</v>
+        <v>1302</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1267</v>
+        <v>1303</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -5941,10 +6049,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1268</v>
+        <v>1304</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1269</v>
+        <v>1305</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -5958,10 +6066,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1271</v>
+        <v>1307</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -5975,10 +6083,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1272</v>
+        <v>1308</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1273</v>
+        <v>1309</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -5992,10 +6100,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1274</v>
+        <v>1310</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1261</v>
+        <v>1297</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -6009,10 +6117,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1275</v>
+        <v>1311</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1276</v>
+        <v>1312</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6026,10 +6134,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1277</v>
+        <v>1313</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1278</v>
+        <v>1314</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6043,10 +6151,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1279</v>
+        <v>1315</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1280</v>
+        <v>1316</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6060,10 +6168,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1281</v>
+        <v>1317</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1282</v>
+        <v>1318</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6077,10 +6185,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1283</v>
+        <v>1319</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1284</v>
+        <v>1320</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6094,10 +6202,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1285</v>
+        <v>1321</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1286</v>
+        <v>1322</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6111,10 +6219,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1287</v>
+        <v>1323</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1288</v>
+        <v>1324</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6128,10 +6236,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1289</v>
+        <v>1325</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1290</v>
+        <v>1326</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6145,10 +6253,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1291</v>
+        <v>1327</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1292</v>
+        <v>1328</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6162,10 +6270,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1293</v>
+        <v>1329</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1294</v>
+        <v>1330</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6179,10 +6287,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1295</v>
+        <v>1331</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1246</v>
+        <v>1282</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6196,13 +6304,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1296</v>
+        <v>1332</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1297</v>
+        <v>1333</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1297</v>
+        <v>1333</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6215,13 +6323,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1298</v>
+        <v>1334</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1299</v>
+        <v>1335</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1299</v>
+        <v>1335</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6234,7 +6342,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1300</v>
+        <v>1336</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6251,7 +6359,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1301</v>
+        <v>1337</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6268,7 +6376,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1302</v>
+        <v>1338</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6288,7 +6396,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1263</v>
+        <v>1299</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6383,10 +6491,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1303</v>
+        <v>1339</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1303</v>
+        <v>1339</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8285,7 +8393,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1304</v>
+        <v>1340</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8323,10 +8431,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1305</v>
+        <v>1341</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1306</v>
+        <v>1342</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8342,7 +8450,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1307</v>
+        <v>1343</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8361,13 +8469,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1308</v>
+        <v>1344</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1309</v>
+        <v>1345</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1310</v>
+        <v>1346</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8478,10 +8586,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1311</v>
+        <v>1347</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1312</v>
+        <v>1348</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8665,10 +8773,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1313</v>
+        <v>1349</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1314</v>
+        <v>1350</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8684,10 +8792,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1315</v>
+        <v>1351</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1316</v>
+        <v>1352</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8701,10 +8809,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1317</v>
+        <v>1353</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1318</v>
+        <v>1354</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8718,10 +8826,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1319</v>
+        <v>1355</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1320</v>
+        <v>1356</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8735,10 +8843,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1321</v>
+        <v>1357</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1322</v>
+        <v>1358</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8752,10 +8860,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1323</v>
+        <v>1359</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1324</v>
+        <v>1360</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8769,10 +8877,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1325</v>
+        <v>1361</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1326</v>
+        <v>1362</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8788,10 +8896,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1327</v>
+        <v>1363</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1328</v>
+        <v>1364</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8805,10 +8913,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1329</v>
+        <v>1365</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1330</v>
+        <v>1366</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8824,10 +8932,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1331</v>
+        <v>1367</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1332</v>
+        <v>1368</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8843,10 +8951,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1333</v>
+        <v>1369</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1334</v>
+        <v>1370</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8862,10 +8970,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1335</v>
+        <v>1371</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1336</v>
+        <v>1372</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8879,10 +8987,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1337</v>
+        <v>1373</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1338</v>
+        <v>1374</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -8896,10 +9004,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1339</v>
+        <v>1375</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1340</v>
+        <v>1376</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -8913,10 +9021,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1341</v>
+        <v>1377</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1342</v>
+        <v>1378</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -8930,10 +9038,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1343</v>
+        <v>1379</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1344</v>
+        <v>1380</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -8947,10 +9055,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1345</v>
+        <v>1381</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1346</v>
+        <v>1382</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -8966,10 +9074,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1347</v>
+        <v>1383</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1348</v>
+        <v>1384</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -8983,10 +9091,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1349</v>
+        <v>1385</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1350</v>
+        <v>1386</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9000,10 +9108,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1351</v>
+        <v>1387</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1352</v>
+        <v>1388</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9017,10 +9125,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1353</v>
+        <v>1389</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1354</v>
+        <v>1390</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9034,10 +9142,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1355</v>
+        <v>1391</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1356</v>
+        <v>1392</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9051,10 +9159,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1357</v>
+        <v>1393</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1358</v>
+        <v>1394</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9068,10 +9176,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1359</v>
+        <v>1395</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1360</v>
+        <v>1396</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9085,10 +9193,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1361</v>
+        <v>1397</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1362</v>
+        <v>1398</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9102,10 +9210,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1363</v>
+        <v>1399</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1364</v>
+        <v>1400</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9119,10 +9227,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1365</v>
+        <v>1401</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1366</v>
+        <v>1402</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9136,10 +9244,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1367</v>
+        <v>1403</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1368</v>
+        <v>1404</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9153,10 +9261,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1369</v>
+        <v>1405</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1370</v>
+        <v>1406</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9170,10 +9278,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1371</v>
+        <v>1407</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1372</v>
+        <v>1408</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9187,7 +9295,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1373</v>
+        <v>1409</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9204,7 +9312,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1374</v>
+        <v>1410</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9221,7 +9329,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1375</v>
+        <v>1411</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -9522,10 +9630,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1376</v>
+        <v>1412</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1377</v>
+        <v>1413</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9541,10 +9649,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1378</v>
+        <v>1414</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1379</v>
+        <v>1415</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9560,10 +9668,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1380</v>
+        <v>1416</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1381</v>
+        <v>1417</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9579,10 +9687,10 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1382</v>
+        <v>1418</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1383</v>
+        <v>1419</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9598,10 +9706,10 @@
         <v>109</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1384</v>
+        <v>1420</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1385</v>
+        <v>1421</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9617,10 +9725,10 @@
         <v>110</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1386</v>
+        <v>1422</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1387</v>
+        <v>1423</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9636,10 +9744,10 @@
         <v>111</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1388</v>
+        <v>1424</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1389</v>
+        <v>1425</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10382,7 +10490,7 @@
         <v>206</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1390</v>
+        <v>1426</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>207</v>
@@ -16926,8 +17034,12 @@
       <c r="A469" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
+      <c r="B469" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1160</v>
+      </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
@@ -16939,10 +17051,14 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
+        <v>1161</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C470" s="8" t="s">
+        <v>1163</v>
+      </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
@@ -16954,10 +17070,14 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
+        <v>1164</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>1165</v>
+      </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
@@ -16969,10 +17089,14 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
+        <v>1166</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C472" s="8" t="s">
+        <v>1167</v>
+      </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
@@ -16984,10 +17108,14 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
+        <v>1168</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>1169</v>
+      </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
@@ -16999,10 +17127,14 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
+        <v>1170</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>1172</v>
+      </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
@@ -17014,10 +17146,14 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
+        <v>1173</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1175</v>
+      </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
@@ -17029,10 +17165,14 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
+        <v>1176</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C476" s="8" t="s">
+        <v>1178</v>
+      </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
@@ -17044,10 +17184,14 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
+        <v>1179</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>1181</v>
+      </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
@@ -17059,10 +17203,14 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
+        <v>1182</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C478" s="8" t="s">
+        <v>1184</v>
+      </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
@@ -17074,10 +17222,14 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
+        <v>1185</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>1187</v>
+      </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
@@ -17089,10 +17241,14 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
+        <v>1188</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C480" s="8" t="s">
+        <v>1190</v>
+      </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -17104,10 +17260,14 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
+        <v>1191</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>1193</v>
+      </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -17119,10 +17279,14 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
+        <v>1194</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C482" s="8" t="s">
+        <v>1195</v>
+      </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
@@ -17134,10 +17298,14 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
+        <v>1196</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>1198</v>
+      </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
@@ -17149,10 +17317,14 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
+        <v>1199</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C484" s="8" t="s">
+        <v>1201</v>
+      </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
@@ -17164,10 +17336,14 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
+        <v>1202</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>1204</v>
+      </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
@@ -17179,10 +17355,14 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C486" s="8" t="s">
+        <v>1207</v>
+      </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
@@ -17194,10 +17374,14 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
+        <v>1208</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>1210</v>
+      </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
@@ -17209,10 +17393,14 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
+        <v>1211</v>
+      </c>
+      <c r="B488" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C488" s="8" t="s">
+        <v>1213</v>
+      </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
@@ -17224,7 +17412,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1178</v>
+        <v>1214</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -17239,7 +17427,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1179</v>
+        <v>1215</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -17254,7 +17442,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1180</v>
+        <v>1216</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -17269,7 +17457,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1181</v>
+        <v>1217</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -17284,7 +17472,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1182</v>
+        <v>1218</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -17299,7 +17487,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1183</v>
+        <v>1219</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17314,7 +17502,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1184</v>
+        <v>1220</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17329,7 +17517,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1185</v>
+        <v>1221</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17344,7 +17532,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1186</v>
+        <v>1222</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -17359,7 +17547,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1187</v>
+        <v>1223</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -17374,7 +17562,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1188</v>
+        <v>1224</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -17389,7 +17577,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1189</v>
+        <v>1225</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -17404,7 +17592,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1190</v>
+        <v>1226</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -17419,7 +17607,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1191</v>
+        <v>1227</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -17434,7 +17622,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1192</v>
+        <v>1228</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -17449,7 +17637,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1193</v>
+        <v>1229</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -17464,7 +17652,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1194</v>
+        <v>1230</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -17479,7 +17667,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1195</v>
+        <v>1231</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -17494,7 +17682,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1196</v>
+        <v>1232</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -17509,7 +17697,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1197</v>
+        <v>1233</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17524,7 +17712,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1198</v>
+        <v>1234</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17539,7 +17727,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1199</v>
+        <v>1235</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17554,7 +17742,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1200</v>
+        <v>1236</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17569,7 +17757,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1201</v>
+        <v>1237</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -17584,7 +17772,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1202</v>
+        <v>1238</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17599,7 +17787,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1203</v>
+        <v>1239</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17614,7 +17802,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1204</v>
+        <v>1240</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17629,7 +17817,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1205</v>
+        <v>1241</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17644,7 +17832,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1206</v>
+        <v>1242</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17659,7 +17847,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1207</v>
+        <v>1243</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17674,7 +17862,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1208</v>
+        <v>1244</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17689,7 +17877,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1209</v>
+        <v>1245</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17704,7 +17892,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1210</v>
+        <v>1246</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17719,7 +17907,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1211</v>
+        <v>1247</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17734,7 +17922,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1212</v>
+        <v>1248</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17749,7 +17937,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1213</v>
+        <v>1249</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17764,7 +17952,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1214</v>
+        <v>1250</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17779,7 +17967,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1215</v>
+        <v>1251</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17794,7 +17982,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1216</v>
+        <v>1252</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17809,7 +17997,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1217</v>
+        <v>1253</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17824,7 +18012,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1218</v>
+        <v>1254</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17839,7 +18027,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1219</v>
+        <v>1255</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17854,7 +18042,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1220</v>
+        <v>1256</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17869,7 +18057,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1221</v>
+        <v>1257</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17884,7 +18072,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1222</v>
+        <v>1258</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17899,7 +18087,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1223</v>
+        <v>1259</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17914,7 +18102,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1224</v>
+        <v>1260</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17929,7 +18117,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1225</v>
+        <v>1261</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17944,7 +18132,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1226</v>
+        <v>1262</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17959,7 +18147,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1227</v>
+        <v>1263</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17974,7 +18162,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1228</v>
+        <v>1264</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17989,7 +18177,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -18004,7 +18192,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1230</v>
+        <v>1266</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -18019,7 +18207,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1231</v>
+        <v>1267</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -18034,7 +18222,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1232</v>
+        <v>1268</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -18049,7 +18237,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1233</v>
+        <v>1269</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1427" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1476" uniqueCount="1476">
   <si>
     <t>key</t>
   </si>
@@ -3584,7 +3584,7 @@
     <t>trans0479</t>
   </si>
   <si>
-    <t xml:space="preserve">有效寿命	</t>
+    <t>有效寿命</t>
   </si>
   <si>
     <t>Valid Lifetime</t>
@@ -3671,121 +3671,268 @@
     <t>trans0489</t>
   </si>
   <si>
+    <t>分配地址格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allocation Address Format </t>
+  </si>
+  <si>
     <t>trans0490</t>
   </si>
   <si>
+    <t>EUI64地址格式</t>
+  </si>
+  <si>
+    <t>EUI64 Address Format</t>
+  </si>
+  <si>
     <t>trans0491</t>
   </si>
   <si>
+    <t>地址池格式</t>
+  </si>
+  <si>
+    <t>Address Pool Format</t>
+  </si>
+  <si>
     <t>trans0492</t>
   </si>
   <si>
+    <t>配置模式</t>
+  </si>
+  <si>
+    <t>Configuration Mode</t>
+  </si>
+  <si>
     <t>trans0493</t>
   </si>
   <si>
+    <t>域名服务器来源</t>
+  </si>
+  <si>
+    <t>DNS Server Source</t>
+  </si>
+  <si>
     <t>trans0494</t>
   </si>
   <si>
+    <t>HGWProxy</t>
+  </si>
+  <si>
     <t>trans0495</t>
   </si>
   <si>
+    <t>静态</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
     <t>trans0496</t>
   </si>
   <si>
+    <t>IPv6首选DNS</t>
+  </si>
+  <si>
+    <t>IPv6 Primary DNS</t>
+  </si>
+  <si>
     <t>trans0497</t>
   </si>
   <si>
+    <t>IPv6备用DNS</t>
+  </si>
+  <si>
+    <t>IPv6 Secondary DNS</t>
+  </si>
+  <si>
     <t>trans0498</t>
   </si>
   <si>
+    <t>Wi-Fi 高级</t>
+  </si>
+  <si>
     <t>trans0499</t>
   </si>
   <si>
+    <t>您可以对无线网络做更多个性化的设置，适应各种无线网络环境。</t>
+  </si>
+  <si>
     <t>trans0500</t>
   </si>
   <si>
+    <t>页面帮助</t>
+  </si>
+  <si>
     <t>trans0501</t>
   </si>
   <si>
+    <t>Wi-Fi 信道：以无线信号作为传输媒体的数据信号传送通道，若选“自适应”，则路由器会根据周围的环境选择一个最好的信道。</t>
+  </si>
+  <si>
     <t>trans0502</t>
   </si>
   <si>
+    <t>模式：设置路由器的无线工作模式。2.4G Wi-Fi 推荐使用 802.11b/g/n/ax 模式。5G Wi-Fi 推荐使用 802.11a/n/ac/ax 模式。</t>
+  </si>
+  <si>
     <t>trans0503</t>
   </si>
   <si>
+    <t>Wi-Fi 频宽设置：设置无线数据传输时所占用的信道宽度，可选项有20 MHz、40 MHz、20/40 MHz、80 MHz、20/40/80 MHz和20/40/80/160 MHz。</t>
+  </si>
+  <si>
     <t>trans0504</t>
   </si>
   <si>
+    <t>前导间隔设置：设置路由器发送的数据块间的保护间隔，可选项有短间隔、中间隔、长间隔。选择短间隔时，可提高路由器传输速率。</t>
+  </si>
+  <si>
     <t>trans0505</t>
   </si>
   <si>
+    <t>Wi-Fi 隐身：隐藏 SSID 的名称。启用此功能，无线客户端将无法搜索到此无线网络。要加入此无线网络，须手动输入 SSID 的名称，以进一步增强无线网络的安全性。</t>
+  </si>
+  <si>
     <t>trans0506</t>
   </si>
   <si>
+    <t>WMM：开启 WMM 后，路由器将具有无线服务质量功能，可提高无线客户端的视频和音频应用程序质量。</t>
+  </si>
+  <si>
     <t>trans0507</t>
   </si>
   <si>
+    <t>2.4G Wi-Fi 信道</t>
+  </si>
+  <si>
     <t>trans0508</t>
   </si>
   <si>
+    <t>模式</t>
+  </si>
+  <si>
     <t>trans0509</t>
   </si>
   <si>
+    <t xml:space="preserve">Wi-Fi 频宽设置	</t>
+  </si>
+  <si>
     <t>trans0510</t>
   </si>
   <si>
+    <t>自适应(1)</t>
+  </si>
+  <si>
     <t>trans0511</t>
   </si>
   <si>
+    <t>802.11b/g/n mix</t>
+  </si>
+  <si>
     <t>trans0512</t>
   </si>
   <si>
+    <t>802.11b/g mix</t>
+  </si>
+  <si>
     <t>trans0513</t>
   </si>
   <si>
+    <t>802.11n</t>
+  </si>
+  <si>
     <t>trans0514</t>
   </si>
   <si>
+    <t xml:space="preserve">802.11g </t>
+  </si>
+  <si>
     <t>trans0515</t>
   </si>
   <si>
+    <t>802.11b</t>
+  </si>
+  <si>
     <t>trans0516</t>
   </si>
   <si>
+    <t>20MHZ</t>
+  </si>
+  <si>
     <t>trans0517</t>
   </si>
   <si>
+    <t>40MHZ</t>
+  </si>
+  <si>
     <t>trans0518</t>
   </si>
   <si>
+    <t>20MHZ/40MHZ</t>
+  </si>
+  <si>
     <t>trans0519</t>
   </si>
   <si>
+    <t>5G Wi-Fi</t>
+  </si>
+  <si>
     <t>trans0520</t>
   </si>
   <si>
+    <t xml:space="preserve">5G Wi-Fi 信道	</t>
+  </si>
+  <si>
     <t>trans0521</t>
   </si>
   <si>
+    <t>自适应(149)</t>
+  </si>
+  <si>
     <t>trans0522</t>
   </si>
   <si>
+    <t>80MHz</t>
+  </si>
+  <si>
     <t>trans0523</t>
   </si>
   <si>
+    <t>20/40/80MHz</t>
+  </si>
+  <si>
     <t>trans0524</t>
   </si>
   <si>
+    <t>11a only</t>
+  </si>
+  <si>
     <t>trans0525</t>
   </si>
   <si>
+    <t>11a/n mixed mode</t>
+  </si>
+  <si>
     <t>trans0526</t>
   </si>
   <si>
+    <t>11ac/n/a</t>
+  </si>
+  <si>
     <t>trans0527</t>
   </si>
   <si>
+    <t>11ac/n</t>
+  </si>
+  <si>
     <t>trans0528</t>
+  </si>
+  <si>
+    <t>有效寿命应大于首选寿命</t>
+  </si>
+  <si>
+    <t>Valid Lifetime should be greater than Preferred Lifetime</t>
   </si>
   <si>
     <t>trans0529</t>
@@ -4294,7 +4441,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">%sWi-Fi</t>
+      <t xml:space="preserve">%s Wi-Fi</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5446,7 +5593,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1270</v>
+        <v>1319</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5484,10 +5631,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1271</v>
+        <v>1320</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1272</v>
+        <v>1321</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5503,7 +5650,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1273</v>
+        <v>1322</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5522,13 +5669,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1274</v>
+        <v>1323</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1275</v>
+        <v>1324</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1276</v>
+        <v>1325</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5639,10 +5786,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1277</v>
+        <v>1326</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1278</v>
+        <v>1327</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5826,10 +5973,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1279</v>
+        <v>1328</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1280</v>
+        <v>1329</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5845,10 +5992,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1281</v>
+        <v>1330</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1282</v>
+        <v>1331</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -5862,10 +6009,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1284</v>
+        <v>1333</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -5879,10 +6026,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1285</v>
+        <v>1334</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1286</v>
+        <v>1335</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -5896,10 +6043,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1287</v>
+        <v>1336</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1288</v>
+        <v>1337</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -5913,10 +6060,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1289</v>
+        <v>1338</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1290</v>
+        <v>1339</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -5930,7 +6077,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1291</v>
+        <v>1340</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -5947,10 +6094,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1292</v>
+        <v>1341</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1293</v>
+        <v>1342</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -5964,10 +6111,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1294</v>
+        <v>1343</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1295</v>
+        <v>1344</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -5981,10 +6128,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1296</v>
+        <v>1345</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1297</v>
+        <v>1346</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -5998,10 +6145,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1298</v>
+        <v>1347</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1299</v>
+        <v>1348</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -6015,10 +6162,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1300</v>
+        <v>1349</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1301</v>
+        <v>1350</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6032,10 +6179,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1302</v>
+        <v>1351</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1303</v>
+        <v>1352</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6049,10 +6196,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1304</v>
+        <v>1353</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1305</v>
+        <v>1354</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6066,10 +6213,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1306</v>
+        <v>1355</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1307</v>
+        <v>1356</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6083,10 +6230,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1308</v>
+        <v>1357</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1309</v>
+        <v>1358</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6100,10 +6247,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1310</v>
+        <v>1359</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1297</v>
+        <v>1346</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -6117,10 +6264,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1311</v>
+        <v>1360</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1312</v>
+        <v>1361</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6134,10 +6281,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1313</v>
+        <v>1362</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1314</v>
+        <v>1363</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6151,10 +6298,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1315</v>
+        <v>1364</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1316</v>
+        <v>1365</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6168,10 +6315,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1317</v>
+        <v>1366</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1318</v>
+        <v>1367</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6185,10 +6332,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1319</v>
+        <v>1368</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1320</v>
+        <v>1369</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6202,10 +6349,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1321</v>
+        <v>1370</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1322</v>
+        <v>1371</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6219,10 +6366,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1323</v>
+        <v>1372</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1324</v>
+        <v>1373</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6236,10 +6383,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1325</v>
+        <v>1374</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1326</v>
+        <v>1375</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6253,10 +6400,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1327</v>
+        <v>1376</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1328</v>
+        <v>1377</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6270,10 +6417,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1329</v>
+        <v>1378</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1330</v>
+        <v>1379</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6287,10 +6434,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>1331</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>1282</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6304,13 +6451,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1332</v>
+        <v>1381</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1333</v>
+        <v>1382</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1333</v>
+        <v>1382</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6323,13 +6470,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1334</v>
+        <v>1383</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1335</v>
+        <v>1384</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1335</v>
+        <v>1384</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6342,7 +6489,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1336</v>
+        <v>1385</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6359,7 +6506,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1337</v>
+        <v>1386</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6376,7 +6523,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1338</v>
+        <v>1387</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6396,7 +6543,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1299</v>
+        <v>1348</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6491,10 +6638,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1339</v>
+        <v>1388</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1339</v>
+        <v>1388</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8393,7 +8540,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1340</v>
+        <v>1389</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8431,10 +8578,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1341</v>
+        <v>1390</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1342</v>
+        <v>1391</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8450,7 +8597,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8469,13 +8616,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1344</v>
+        <v>1393</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1345</v>
+        <v>1394</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1346</v>
+        <v>1395</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8586,10 +8733,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1347</v>
+        <v>1396</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1348</v>
+        <v>1397</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8773,10 +8920,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1349</v>
+        <v>1398</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1350</v>
+        <v>1399</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8792,10 +8939,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1351</v>
+        <v>1400</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1352</v>
+        <v>1401</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8809,10 +8956,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1353</v>
+        <v>1402</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1354</v>
+        <v>1403</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8826,10 +8973,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1355</v>
+        <v>1404</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1356</v>
+        <v>1405</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8843,10 +8990,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1357</v>
+        <v>1406</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1358</v>
+        <v>1407</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -8860,10 +9007,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1359</v>
+        <v>1408</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1360</v>
+        <v>1409</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -8877,10 +9024,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1361</v>
+        <v>1410</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1362</v>
+        <v>1411</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -8896,10 +9043,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1363</v>
+        <v>1412</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1364</v>
+        <v>1413</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -8913,10 +9060,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1365</v>
+        <v>1414</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1366</v>
+        <v>1415</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -8932,10 +9079,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1367</v>
+        <v>1416</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1368</v>
+        <v>1417</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -8951,10 +9098,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1369</v>
+        <v>1418</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1370</v>
+        <v>1419</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -8970,10 +9117,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1371</v>
+        <v>1420</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1372</v>
+        <v>1421</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -8987,10 +9134,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1373</v>
+        <v>1422</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1374</v>
+        <v>1423</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9004,10 +9151,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1375</v>
+        <v>1424</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1376</v>
+        <v>1425</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9021,10 +9168,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1377</v>
+        <v>1426</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1378</v>
+        <v>1427</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9038,10 +9185,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1379</v>
+        <v>1428</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1380</v>
+        <v>1429</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9055,10 +9202,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1381</v>
+        <v>1430</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1382</v>
+        <v>1431</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -9074,10 +9221,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1383</v>
+        <v>1432</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1384</v>
+        <v>1433</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9091,10 +9238,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1385</v>
+        <v>1434</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1386</v>
+        <v>1435</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9108,10 +9255,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1387</v>
+        <v>1436</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1388</v>
+        <v>1437</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9125,10 +9272,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1389</v>
+        <v>1438</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1390</v>
+        <v>1439</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9142,10 +9289,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1391</v>
+        <v>1440</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1392</v>
+        <v>1441</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9159,10 +9306,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1393</v>
+        <v>1442</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1394</v>
+        <v>1443</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9176,10 +9323,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1395</v>
+        <v>1444</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1396</v>
+        <v>1445</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9193,10 +9340,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1397</v>
+        <v>1446</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1398</v>
+        <v>1447</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9210,10 +9357,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1399</v>
+        <v>1448</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1400</v>
+        <v>1449</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9227,10 +9374,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1401</v>
+        <v>1450</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1402</v>
+        <v>1451</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9244,10 +9391,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1403</v>
+        <v>1452</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1404</v>
+        <v>1453</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9261,10 +9408,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1405</v>
+        <v>1454</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1406</v>
+        <v>1455</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9278,10 +9425,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1407</v>
+        <v>1456</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1408</v>
+        <v>1457</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9295,7 +9442,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1409</v>
+        <v>1458</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9312,7 +9459,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1410</v>
+        <v>1459</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9329,7 +9476,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1411</v>
+        <v>1460</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -9630,10 +9777,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1412</v>
+        <v>1461</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1413</v>
+        <v>1462</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9649,10 +9796,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1414</v>
+        <v>1463</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1415</v>
+        <v>1464</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9668,10 +9815,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1416</v>
+        <v>1465</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1417</v>
+        <v>1466</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9687,10 +9834,10 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1418</v>
+        <v>1467</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1419</v>
+        <v>1468</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9706,10 +9853,10 @@
         <v>109</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1420</v>
+        <v>1469</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1421</v>
+        <v>1470</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9725,10 +9872,10 @@
         <v>110</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1422</v>
+        <v>1471</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1423</v>
+        <v>1472</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9744,10 +9891,10 @@
         <v>111</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1424</v>
+        <v>1473</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1425</v>
+        <v>1474</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10490,7 +10637,7 @@
         <v>206</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1426</v>
+        <v>1475</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>207</v>
@@ -17414,8 +17561,12 @@
       <c r="A489" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
+      <c r="B489" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>1216</v>
+      </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
@@ -17427,10 +17578,14 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
+        <v>1217</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C490" s="8" t="s">
+        <v>1219</v>
+      </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
@@ -17442,10 +17597,14 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
+        <v>1220</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>1222</v>
+      </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
@@ -17457,10 +17616,14 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
+        <v>1223</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C492" s="8" t="s">
+        <v>1225</v>
+      </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
@@ -17472,10 +17635,14 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
+        <v>1226</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>1228</v>
+      </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
@@ -17487,10 +17654,14 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>1230</v>
+      </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
@@ -17502,10 +17673,14 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
+        <v>1231</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>1233</v>
+      </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
@@ -17517,10 +17692,14 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
+        <v>1234</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C496" s="8" t="s">
+        <v>1236</v>
+      </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
@@ -17532,10 +17711,14 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
+        <v>1237</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>1239</v>
+      </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
@@ -17547,9 +17730,11 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B498" s="2"/>
+        <v>1240</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>1241</v>
+      </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -17562,9 +17747,11 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B499" s="2"/>
+        <v>1242</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>1243</v>
+      </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -17577,9 +17764,11 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B500" s="2"/>
+        <v>1244</v>
+      </c>
+      <c r="B500" s="8" t="s">
+        <v>1245</v>
+      </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -17592,9 +17781,11 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B501" s="2"/>
+        <v>1246</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>1247</v>
+      </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -17607,9 +17798,11 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B502" s="2"/>
+        <v>1248</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>1249</v>
+      </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -17622,9 +17815,11 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B503" s="2"/>
+        <v>1250</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1251</v>
+      </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -17637,9 +17832,11 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B504" s="2"/>
+        <v>1252</v>
+      </c>
+      <c r="B504" s="8" t="s">
+        <v>1253</v>
+      </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -17652,9 +17849,11 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B505" s="2"/>
+        <v>1254</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>1255</v>
+      </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -17667,9 +17866,11 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B506" s="2"/>
+        <v>1256</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>1257</v>
+      </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -17682,9 +17883,11 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B507" s="2"/>
+        <v>1258</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>1259</v>
+      </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -17697,9 +17900,11 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B508" s="2"/>
+        <v>1260</v>
+      </c>
+      <c r="B508" s="8" t="s">
+        <v>1261</v>
+      </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -17712,9 +17917,11 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B509" s="2"/>
+        <v>1262</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>1263</v>
+      </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -17727,9 +17934,11 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B510" s="2"/>
+        <v>1264</v>
+      </c>
+      <c r="B510" s="8" t="s">
+        <v>1265</v>
+      </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -17742,9 +17951,11 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B511" s="2"/>
+        <v>1266</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>1267</v>
+      </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -17757,9 +17968,11 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B512" s="2"/>
+        <v>1268</v>
+      </c>
+      <c r="B512" s="8" t="s">
+        <v>1269</v>
+      </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -17772,9 +17985,11 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B513" s="2"/>
+        <v>1270</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>1271</v>
+      </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -17787,9 +18002,11 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B514" s="2"/>
+        <v>1272</v>
+      </c>
+      <c r="B514" s="8" t="s">
+        <v>1273</v>
+      </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -17802,9 +18019,11 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B515" s="2"/>
+        <v>1274</v>
+      </c>
+      <c r="B515" s="8" t="s">
+        <v>1275</v>
+      </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -17817,9 +18036,11 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B516" s="2"/>
+        <v>1276</v>
+      </c>
+      <c r="B516" s="8" t="s">
+        <v>1277</v>
+      </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -17832,9 +18053,11 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B517" s="2"/>
+        <v>1278</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>1279</v>
+      </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -17847,9 +18070,11 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B518" s="2"/>
+        <v>1280</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>1281</v>
+      </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -17862,9 +18087,11 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B519" s="2"/>
+        <v>1282</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>1283</v>
+      </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -17877,9 +18104,11 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B520" s="2"/>
+        <v>1284</v>
+      </c>
+      <c r="B520" s="8" t="s">
+        <v>1285</v>
+      </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -17892,9 +18121,11 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B521" s="2"/>
+        <v>1286</v>
+      </c>
+      <c r="B521" s="8" t="s">
+        <v>1287</v>
+      </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -17907,9 +18138,11 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B522" s="2"/>
+        <v>1288</v>
+      </c>
+      <c r="B522" s="8" t="s">
+        <v>1289</v>
+      </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -17922,9 +18155,11 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B523" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>1291</v>
+      </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -17937,9 +18172,11 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B524" s="2"/>
+        <v>1292</v>
+      </c>
+      <c r="B524" s="8" t="s">
+        <v>1293</v>
+      </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -17952,9 +18189,11 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B525" s="2"/>
+        <v>1294</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>1295</v>
+      </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -17967,9 +18206,11 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B526" s="2"/>
+        <v>1296</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>1297</v>
+      </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -17982,9 +18223,11 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B527" s="2"/>
+        <v>1298</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>1299</v>
+      </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -17997,10 +18240,14 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B528" s="2"/>
-      <c r="C528" s="2"/>
+        <v>1300</v>
+      </c>
+      <c r="B528" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C528" s="8" t="s">
+        <v>1302</v>
+      </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
@@ -18012,7 +18259,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1254</v>
+        <v>1303</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -18027,7 +18274,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1255</v>
+        <v>1304</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -18042,7 +18289,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1256</v>
+        <v>1305</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -18057,7 +18304,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1257</v>
+        <v>1306</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -18072,7 +18319,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1258</v>
+        <v>1307</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -18087,7 +18334,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1259</v>
+        <v>1308</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -18102,7 +18349,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1260</v>
+        <v>1309</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -18117,7 +18364,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1261</v>
+        <v>1310</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -18132,7 +18379,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1262</v>
+        <v>1311</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -18147,7 +18394,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1263</v>
+        <v>1312</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -18162,7 +18409,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1264</v>
+        <v>1313</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -18177,7 +18424,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1265</v>
+        <v>1314</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -18192,7 +18439,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1266</v>
+        <v>1315</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -18207,7 +18454,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1267</v>
+        <v>1316</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -18222,7 +18469,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1268</v>
+        <v>1317</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -18237,7 +18484,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1269</v>
+        <v>1318</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1476" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1564" uniqueCount="1564">
   <si>
     <t>key</t>
   </si>
@@ -342,10 +342,19 @@
     <t>trans0072</t>
   </si>
   <si>
+    <t>Online time</t>
+  </si>
+  <si>
     <t>trans0073</t>
   </si>
   <si>
+    <t>System running time</t>
+  </si>
+  <si>
     <t>trans0074</t>
+  </si>
+  <si>
+    <t>WAN IP Address</t>
   </si>
   <si>
     <t>trans0075</t>
@@ -3938,49 +3947,313 @@
     <t>trans0529</t>
   </si>
   <si>
+    <t>WIFI 高级设置</t>
+  </si>
+  <si>
     <t>trans0530</t>
   </si>
   <si>
+    <t>客人 Wi-Fi</t>
+  </si>
+  <si>
     <t>trans0531</t>
   </si>
   <si>
+    <t>当您家里来客人时，可以开启客人 Wi-Fi 功能。这样，您家将同时拥有主 Wi-Fi 和客人 Wi-Fi 这两个独立的 Wi-Fi 网络。客人虽然可以通过专属 Wi-Fi 上网，但不能管理您的路由器，也不能访问您家庭网络中的设备。客人 Wi-Fi 有效保证了您的网络隐私安全。</t>
+  </si>
+  <si>
     <t>trans0532</t>
   </si>
   <si>
+    <t>开启时长：客人 Wi-Fi 开放使用的时长。超过设置时间，客人 Wi-Fi 将自动关闭。</t>
+  </si>
+  <si>
     <t>trans0533</t>
   </si>
   <si>
+    <t>安全：选择是否为客人 Wi-Fi 网络设置密码。若选择“不加密”，则任何人都可以连接到该网络。</t>
+  </si>
+  <si>
     <t>trans0534</t>
   </si>
   <si>
+    <t>客人 Wi-Fi 密码：设置加密模式下，连接客人 Wi-Fi 网络的密码。</t>
+  </si>
+  <si>
     <t>trans0535</t>
   </si>
   <si>
+    <t>客人 Wi-Fi 名称</t>
+  </si>
+  <si>
     <t>trans0536</t>
   </si>
   <si>
+    <t>加密</t>
+  </si>
+  <si>
     <t>trans0537</t>
   </si>
   <si>
+    <t>路由器信息</t>
+  </si>
+  <si>
+    <t>Router Information</t>
+  </si>
+  <si>
     <t>trans0538</t>
   </si>
   <si>
+    <t>您可以查看路由器的相关信息</t>
+  </si>
+  <si>
+    <t>You can view information about the router</t>
+  </si>
+  <si>
     <t>trans0539</t>
   </si>
   <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
     <t>trans0540</t>
   </si>
   <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
     <t>trans0541</t>
   </si>
   <si>
     <t>trans0542</t>
   </si>
   <si>
+    <t>硬件版本</t>
+  </si>
+  <si>
+    <t>Hardware Version</t>
+  </si>
+  <si>
     <t>trans0543</t>
   </si>
   <si>
+    <t>软件版本</t>
+  </si>
+  <si>
+    <t>Software Version</t>
+  </si>
+  <si>
     <t>trans0544</t>
+  </si>
+  <si>
+    <t>次 DNS 服务器</t>
+  </si>
+  <si>
+    <t>Secondary DNS Server</t>
+  </si>
+  <si>
+    <t>trans0545</t>
+  </si>
+  <si>
+    <t>WAN MAC 地址</t>
+  </si>
+  <si>
+    <t>WAN MAC Address</t>
+  </si>
+  <si>
+    <t>trans0546</t>
+  </si>
+  <si>
+    <t>LAN MAC 地址</t>
+  </si>
+  <si>
+    <t>LAN MAC Address</t>
+  </si>
+  <si>
+    <t>trans0547</t>
+  </si>
+  <si>
+    <t>主 DNS 服务器</t>
+  </si>
+  <si>
+    <t>Primary DNS Server</t>
+  </si>
+  <si>
+    <t>trans0548</t>
+  </si>
+  <si>
+    <t>默认网关</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>trans0549</t>
+  </si>
+  <si>
+    <t>LAN 侧前缀</t>
+  </si>
+  <si>
+    <t>LAN Prefix</t>
+  </si>
+  <si>
+    <t>trans0550</t>
+  </si>
+  <si>
+    <t>LAN Link-Local 地址</t>
+  </si>
+  <si>
+    <t>LAN Link-Local Address</t>
+  </si>
+  <si>
+    <t>trans0551</t>
+  </si>
+  <si>
+    <t>WAN Link-Local 地址</t>
+  </si>
+  <si>
+    <t>WAN Link-Local Address</t>
+  </si>
+  <si>
+    <t>trans0552</t>
+  </si>
+  <si>
+    <t>IPv6 已关闭</t>
+  </si>
+  <si>
+    <t>IPv6 is turned off</t>
+  </si>
+  <si>
+    <t>trans0553</t>
+  </si>
+  <si>
+    <t>trans0554</t>
+  </si>
+  <si>
+    <t>trans0555</t>
+  </si>
+  <si>
+    <t>trans0556</t>
+  </si>
+  <si>
+    <t>trans0557</t>
+  </si>
+  <si>
+    <t>trans0558</t>
+  </si>
+  <si>
+    <t>trans0559</t>
+  </si>
+  <si>
+    <t>trans0560</t>
+  </si>
+  <si>
+    <t>trans0561</t>
+  </si>
+  <si>
+    <t>trans0562</t>
+  </si>
+  <si>
+    <t>trans0563</t>
+  </si>
+  <si>
+    <t>trans0564</t>
+  </si>
+  <si>
+    <t>trans0565</t>
+  </si>
+  <si>
+    <t>trans0566</t>
+  </si>
+  <si>
+    <t>trans0567</t>
+  </si>
+  <si>
+    <t>trans0568</t>
+  </si>
+  <si>
+    <t>trans0569</t>
+  </si>
+  <si>
+    <t>trans0570</t>
+  </si>
+  <si>
+    <t>trans0571</t>
+  </si>
+  <si>
+    <t>trans0572</t>
+  </si>
+  <si>
+    <t>trans0573</t>
+  </si>
+  <si>
+    <t>trans0574</t>
+  </si>
+  <si>
+    <t>trans0575</t>
+  </si>
+  <si>
+    <t>trans0576</t>
+  </si>
+  <si>
+    <t>trans0577</t>
+  </si>
+  <si>
+    <t>trans0578</t>
+  </si>
+  <si>
+    <t>trans0579</t>
+  </si>
+  <si>
+    <t>trans0580</t>
+  </si>
+  <si>
+    <t>trans0581</t>
+  </si>
+  <si>
+    <t>trans0582</t>
+  </si>
+  <si>
+    <t>trans0583</t>
+  </si>
+  <si>
+    <t>trans0584</t>
+  </si>
+  <si>
+    <t>trans0585</t>
+  </si>
+  <si>
+    <t>trans0586</t>
+  </si>
+  <si>
+    <t>trans0587</t>
+  </si>
+  <si>
+    <t>trans0588</t>
+  </si>
+  <si>
+    <t>trans0589</t>
+  </si>
+  <si>
+    <t>trans0590</t>
+  </si>
+  <si>
+    <t>trans0591</t>
+  </si>
+  <si>
+    <t>trans0592</t>
+  </si>
+  <si>
+    <t>trans0593</t>
+  </si>
+  <si>
+    <t>trans0594</t>
   </si>
   <si>
     <t>trans0001</t>
@@ -5068,29 +5341,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">Online time</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
       <t xml:space="preserve">系统运行时长</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">System running time</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5102,17 +5353,6 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">WAN IP 地址</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">WAN IP Address</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5593,7 +5833,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1319</v>
+        <v>1410</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5631,10 +5871,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1320</v>
+        <v>1411</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1321</v>
+        <v>1412</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5650,7 +5890,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1322</v>
+        <v>1413</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5669,13 +5909,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1323</v>
+        <v>1414</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1324</v>
+        <v>1415</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1325</v>
+        <v>1416</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5786,10 +6026,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1326</v>
+        <v>1417</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1327</v>
+        <v>1418</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5973,10 +6213,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1328</v>
+        <v>1419</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1329</v>
+        <v>1420</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -5992,10 +6232,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1330</v>
+        <v>1421</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1331</v>
+        <v>1422</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6009,10 +6249,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1332</v>
+        <v>1423</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1333</v>
+        <v>1424</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6026,10 +6266,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1334</v>
+        <v>1425</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1335</v>
+        <v>1426</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6043,10 +6283,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1336</v>
+        <v>1427</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1337</v>
+        <v>1428</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6060,10 +6300,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1338</v>
+        <v>1429</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1339</v>
+        <v>1430</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6077,7 +6317,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1340</v>
+        <v>1431</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -6094,10 +6334,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1341</v>
+        <v>1432</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1342</v>
+        <v>1433</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6111,10 +6351,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1343</v>
+        <v>1434</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1344</v>
+        <v>1435</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -6128,10 +6368,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1345</v>
+        <v>1436</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1346</v>
+        <v>1437</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -6145,10 +6385,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1347</v>
+        <v>1438</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1348</v>
+        <v>1439</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -6162,10 +6402,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1349</v>
+        <v>1440</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1350</v>
+        <v>1441</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6179,10 +6419,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1351</v>
+        <v>1442</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1352</v>
+        <v>1443</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6196,10 +6436,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1353</v>
+        <v>1444</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1354</v>
+        <v>1445</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6213,10 +6453,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1355</v>
+        <v>1446</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1356</v>
+        <v>1447</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6230,10 +6470,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1357</v>
+        <v>1448</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1358</v>
+        <v>1449</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6247,10 +6487,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1359</v>
+        <v>1450</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1346</v>
+        <v>1437</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -6264,10 +6504,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1360</v>
+        <v>1451</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1361</v>
+        <v>1452</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6281,10 +6521,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1362</v>
+        <v>1453</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1363</v>
+        <v>1454</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6298,10 +6538,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1364</v>
+        <v>1455</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1365</v>
+        <v>1456</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6315,10 +6555,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1366</v>
+        <v>1457</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1367</v>
+        <v>1458</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6332,10 +6572,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1368</v>
+        <v>1459</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1369</v>
+        <v>1460</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6349,10 +6589,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1370</v>
+        <v>1461</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1371</v>
+        <v>1462</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6366,10 +6606,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1372</v>
+        <v>1463</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1373</v>
+        <v>1464</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6383,10 +6623,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1374</v>
+        <v>1465</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1375</v>
+        <v>1466</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6400,10 +6640,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1376</v>
+        <v>1467</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1377</v>
+        <v>1468</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6417,10 +6657,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1378</v>
+        <v>1469</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1379</v>
+        <v>1470</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6434,10 +6674,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1380</v>
+        <v>1471</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1331</v>
+        <v>1422</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6451,13 +6691,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1381</v>
+        <v>1472</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1382</v>
+        <v>1473</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1382</v>
+        <v>1473</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6470,13 +6710,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1383</v>
+        <v>1474</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1384</v>
+        <v>1475</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1384</v>
+        <v>1475</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6489,7 +6729,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1385</v>
+        <v>1476</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6506,7 +6746,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1386</v>
+        <v>1477</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6523,7 +6763,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1387</v>
+        <v>1478</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6543,7 +6783,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1348</v>
+        <v>1439</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6638,10 +6878,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1388</v>
+        <v>1479</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1388</v>
+        <v>1479</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8540,7 +8780,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1389</v>
+        <v>1480</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8578,10 +8818,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1390</v>
+        <v>1481</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1391</v>
+        <v>1482</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8597,7 +8837,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1392</v>
+        <v>1483</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8616,13 +8856,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1393</v>
+        <v>1484</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1394</v>
+        <v>1485</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1395</v>
+        <v>1486</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8733,10 +8973,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1396</v>
+        <v>1487</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1397</v>
+        <v>1488</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8920,10 +9160,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1398</v>
+        <v>1489</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1399</v>
+        <v>1490</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -8939,10 +9179,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1400</v>
+        <v>1491</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1401</v>
+        <v>1492</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -8956,10 +9196,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1402</v>
+        <v>1493</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1403</v>
+        <v>1494</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -8973,10 +9213,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1404</v>
+        <v>1495</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1405</v>
+        <v>1496</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -8990,10 +9230,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1406</v>
+        <v>1497</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1407</v>
+        <v>1498</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9007,10 +9247,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1408</v>
+        <v>1499</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1409</v>
+        <v>1500</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9024,10 +9264,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1410</v>
+        <v>1501</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1411</v>
+        <v>1502</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -9043,10 +9283,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1412</v>
+        <v>1503</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1413</v>
+        <v>1504</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9060,10 +9300,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1414</v>
+        <v>1505</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1415</v>
+        <v>1506</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -9079,10 +9319,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1416</v>
+        <v>1507</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1417</v>
+        <v>1508</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -9098,10 +9338,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1418</v>
+        <v>1509</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1419</v>
+        <v>1510</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -9117,10 +9357,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1420</v>
+        <v>1511</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1421</v>
+        <v>1512</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9134,10 +9374,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1422</v>
+        <v>1513</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1423</v>
+        <v>1514</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9151,10 +9391,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1424</v>
+        <v>1515</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1425</v>
+        <v>1516</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9168,10 +9408,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1426</v>
+        <v>1517</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1427</v>
+        <v>1518</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9185,10 +9425,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1428</v>
+        <v>1519</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1429</v>
+        <v>1520</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9202,10 +9442,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1430</v>
+        <v>1521</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1431</v>
+        <v>1522</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -9221,10 +9461,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1432</v>
+        <v>1523</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1433</v>
+        <v>1524</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9238,10 +9478,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1434</v>
+        <v>1525</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1435</v>
+        <v>1526</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9255,10 +9495,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1436</v>
+        <v>1527</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1437</v>
+        <v>1528</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9272,10 +9512,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1438</v>
+        <v>1529</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1439</v>
+        <v>1530</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9289,10 +9529,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1440</v>
+        <v>1531</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1441</v>
+        <v>1532</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9306,10 +9546,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1442</v>
+        <v>1533</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1443</v>
+        <v>1534</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9323,10 +9563,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1444</v>
+        <v>1535</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1445</v>
+        <v>1536</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9340,10 +9580,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1446</v>
+        <v>1537</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1447</v>
+        <v>1538</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9357,10 +9597,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1448</v>
+        <v>1539</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1449</v>
+        <v>1540</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9374,10 +9614,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1450</v>
+        <v>1541</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1451</v>
+        <v>1542</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9391,10 +9631,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1452</v>
+        <v>1543</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1453</v>
+        <v>1544</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9408,10 +9648,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1454</v>
+        <v>1545</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1455</v>
+        <v>1546</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9425,10 +9665,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1456</v>
+        <v>1547</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1457</v>
+        <v>1548</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9442,7 +9682,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1458</v>
+        <v>1549</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9459,7 +9699,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1459</v>
+        <v>1550</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9476,7 +9716,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1460</v>
+        <v>1551</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -9777,10 +10017,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1461</v>
+        <v>1552</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1462</v>
+        <v>1553</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9796,10 +10036,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1463</v>
+        <v>1554</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1464</v>
+        <v>1555</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9815,10 +10055,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1465</v>
+        <v>1556</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1466</v>
+        <v>1557</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9834,10 +10074,10 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1467</v>
+        <v>1558</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1468</v>
+        <v>109</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9850,13 +10090,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1469</v>
+        <v>1559</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1470</v>
+        <v>111</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9869,13 +10109,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1471</v>
+        <v>1560</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1472</v>
+        <v>113</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9888,13 +10128,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1473</v>
+        <v>1561</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1474</v>
+        <v>1562</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9907,10 +10147,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="2"/>
@@ -9924,10 +10164,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="2"/>
@@ -9941,10 +10181,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -9958,10 +10198,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -9975,10 +10215,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -9992,10 +10232,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -10009,10 +10249,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -10026,10 +10266,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -10043,10 +10283,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -10060,10 +10300,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -10077,10 +10317,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -10094,10 +10334,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -10111,10 +10351,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -10128,10 +10368,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -10145,10 +10385,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -10162,10 +10402,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -10179,10 +10419,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -10196,10 +10436,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -10213,10 +10453,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -10230,10 +10470,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -10247,10 +10487,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -10264,13 +10504,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -10283,10 +10523,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -10300,10 +10540,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -10317,10 +10557,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -10334,10 +10574,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -10351,7 +10591,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
@@ -10368,13 +10608,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -10387,13 +10627,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -10406,13 +10646,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -10425,13 +10665,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -10444,13 +10684,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -10463,13 +10703,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -10482,13 +10722,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -10501,13 +10741,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -10520,13 +10760,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -10539,13 +10779,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -10558,13 +10798,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -10577,13 +10817,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -10596,13 +10836,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -10615,13 +10855,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -10634,13 +10874,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1475</v>
+        <v>1563</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -10653,13 +10893,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -10672,13 +10912,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -10691,13 +10931,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -10710,13 +10950,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -10729,13 +10969,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -10748,13 +10988,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -10767,13 +11007,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -10786,10 +11026,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -10803,13 +11043,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -10822,10 +11062,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -10839,10 +11079,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -10856,13 +11096,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -10875,13 +11115,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -10894,13 +11134,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -10913,13 +11153,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -10932,13 +11172,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -10951,13 +11191,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -10970,13 +11210,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -10989,13 +11229,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -11008,13 +11248,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -11027,13 +11267,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -11046,13 +11286,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -11065,13 +11305,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -11084,13 +11324,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -11103,13 +11343,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -11122,13 +11362,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -11141,13 +11381,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -11160,13 +11400,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -11179,13 +11419,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -11198,10 +11438,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -11215,13 +11455,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -11234,13 +11474,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -11253,13 +11493,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -11272,13 +11512,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -11291,13 +11531,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -11310,13 +11550,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -11329,13 +11569,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -11348,13 +11588,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -11367,13 +11607,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -11386,13 +11626,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -11405,13 +11645,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -11424,13 +11664,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -11443,13 +11683,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -11462,13 +11702,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -11481,13 +11721,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -11500,13 +11740,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -11519,13 +11759,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -11538,13 +11778,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -11557,13 +11797,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -11576,10 +11816,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -11593,10 +11833,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -11610,10 +11850,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -11627,10 +11867,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -11644,13 +11884,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -11663,10 +11903,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -11680,10 +11920,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -11697,10 +11937,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -11714,10 +11954,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -11731,10 +11971,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -11748,10 +11988,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -11765,10 +12005,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -11782,13 +12022,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -11801,10 +12041,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -11818,10 +12058,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -11835,13 +12075,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -11854,13 +12094,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -11873,13 +12113,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -11892,13 +12132,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -11911,13 +12151,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -11930,13 +12170,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -11949,13 +12189,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -11968,10 +12208,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -11985,10 +12225,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -12002,10 +12242,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -12019,10 +12259,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -12036,13 +12276,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -12055,13 +12295,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -12074,10 +12314,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -12091,13 +12331,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -12110,10 +12350,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -12127,10 +12367,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -12144,10 +12384,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -12161,10 +12401,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -12178,10 +12418,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -12195,10 +12435,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -12212,13 +12452,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -12231,10 +12471,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -12248,13 +12488,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -12267,13 +12507,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -12286,13 +12526,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -12305,10 +12545,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -12322,10 +12562,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -12339,10 +12579,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -12356,13 +12596,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -12375,13 +12615,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -12394,13 +12634,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -12413,10 +12653,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -12430,13 +12670,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -12449,13 +12689,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -12468,13 +12708,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -12487,13 +12727,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -12506,13 +12746,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -12525,13 +12765,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -12544,13 +12784,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -12563,10 +12803,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -12580,10 +12820,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -12597,13 +12837,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -12616,13 +12856,13 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -12635,13 +12875,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -12654,10 +12894,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -12671,10 +12911,10 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -12688,13 +12928,13 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -12707,13 +12947,13 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -12726,10 +12966,10 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -12743,10 +12983,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -12760,10 +13000,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -12777,10 +13017,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -12794,10 +13034,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -12811,10 +13051,10 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -12828,10 +13068,10 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -12845,10 +13085,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -12862,10 +13102,10 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -12879,10 +13119,10 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -12896,10 +13136,10 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -12913,10 +13153,10 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -12930,10 +13170,10 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -12947,13 +13187,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -12966,13 +13206,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -12985,13 +13225,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -13004,13 +13244,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -13023,13 +13263,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -13042,13 +13282,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -13061,13 +13301,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -13080,13 +13320,13 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -13099,13 +13339,13 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -13118,13 +13358,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -13137,13 +13377,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -13156,13 +13396,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -13175,13 +13415,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -13194,13 +13434,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -13213,13 +13453,13 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -13232,13 +13472,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -13251,13 +13491,13 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -13270,13 +13510,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -13289,13 +13529,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -13308,13 +13548,13 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -13327,13 +13567,13 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -13346,13 +13586,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -13365,13 +13605,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -13384,13 +13624,13 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -13403,13 +13643,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -13422,13 +13662,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -13441,13 +13681,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -13460,13 +13700,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -13479,13 +13719,13 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -13498,13 +13738,13 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -13517,13 +13757,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -13536,13 +13776,13 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -13555,13 +13795,13 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -13574,13 +13814,13 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -13593,13 +13833,13 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -13612,13 +13852,13 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -13631,13 +13871,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
@@ -13650,13 +13890,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -13669,13 +13909,13 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -13688,13 +13928,13 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -13707,13 +13947,13 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -13726,13 +13966,13 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -13745,13 +13985,13 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -13764,13 +14004,13 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -13783,13 +14023,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -13802,13 +14042,13 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -13821,13 +14061,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -13840,13 +14080,13 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -13859,13 +14099,13 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -13878,13 +14118,13 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -13897,13 +14137,13 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -13916,13 +14156,13 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -13935,13 +14175,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -13954,13 +14194,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -13973,13 +14213,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -13992,13 +14232,13 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -14011,13 +14251,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -14030,13 +14270,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -14049,13 +14289,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -14068,13 +14308,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -14087,13 +14327,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -14106,13 +14346,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -14125,13 +14365,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -14144,13 +14384,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -14163,13 +14403,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -14182,13 +14422,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -14201,13 +14441,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -14220,13 +14460,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -14239,13 +14479,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -14258,13 +14498,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -14277,13 +14517,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -14296,13 +14536,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -14315,13 +14555,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -14334,13 +14574,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -14353,13 +14593,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -14372,13 +14612,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -14391,13 +14631,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -14410,13 +14650,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -14429,13 +14669,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -14448,13 +14688,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -14467,13 +14707,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -14486,13 +14726,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -14505,13 +14745,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -14524,13 +14764,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -14543,13 +14783,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -14562,13 +14802,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -14581,13 +14821,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -14600,13 +14840,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -14619,13 +14859,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -14638,13 +14878,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -14657,13 +14897,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -14676,13 +14916,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -14695,13 +14935,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -14714,13 +14954,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14733,13 +14973,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14752,13 +14992,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14771,13 +15011,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -14790,13 +15030,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -14809,13 +15049,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -14828,13 +15068,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -14847,13 +15087,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14866,13 +15106,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14885,13 +15125,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14904,13 +15144,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -14923,13 +15163,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -14942,13 +15182,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -14961,13 +15201,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -14980,13 +15220,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14999,13 +15239,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -15018,13 +15258,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -15037,13 +15277,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -15056,13 +15296,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -15075,10 +15315,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -15092,13 +15332,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -15111,13 +15351,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -15130,13 +15370,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -15149,13 +15389,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -15168,13 +15408,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -15187,13 +15427,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -15206,13 +15446,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -15225,13 +15465,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -15244,13 +15484,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -15263,13 +15503,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -15282,13 +15522,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -15301,13 +15541,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15320,13 +15560,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -15339,13 +15579,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -15358,13 +15598,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -15377,13 +15617,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -15396,10 +15636,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -15413,10 +15653,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -15430,13 +15670,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -15449,13 +15689,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -15468,13 +15708,13 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -15487,10 +15727,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -15504,13 +15744,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -15523,13 +15763,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -15542,13 +15782,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -15561,13 +15801,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -15580,13 +15820,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -15599,13 +15839,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -15618,13 +15858,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -15637,13 +15877,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -15656,13 +15896,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -15675,13 +15915,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -15694,13 +15934,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -15713,13 +15953,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -15732,13 +15972,13 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -15751,13 +15991,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -15770,13 +16010,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -15789,13 +16029,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -15808,13 +16048,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -15827,13 +16067,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -15846,13 +16086,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -15865,13 +16105,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -15884,13 +16124,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -15903,13 +16143,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -15922,13 +16162,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -15941,13 +16181,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -15960,10 +16200,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -15977,10 +16217,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -15994,13 +16234,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -16013,10 +16253,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -16030,10 +16270,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -16047,10 +16287,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -16064,13 +16304,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -16083,10 +16323,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -16100,13 +16340,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -16119,10 +16359,10 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -16136,13 +16376,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -16155,13 +16395,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -16174,13 +16414,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -16193,13 +16433,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -16212,13 +16452,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -16231,13 +16471,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -16250,13 +16490,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -16269,10 +16509,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -16286,13 +16526,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -16305,13 +16545,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -16324,13 +16564,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -16343,13 +16583,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -16362,13 +16602,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -16381,13 +16621,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -16400,13 +16640,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -16419,13 +16659,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -16438,13 +16678,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -16457,13 +16697,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -16476,13 +16716,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -16495,13 +16735,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -16514,13 +16754,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -16533,13 +16773,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -16552,13 +16792,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -16571,13 +16811,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -16590,13 +16830,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -16609,13 +16849,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -16628,13 +16868,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -16647,13 +16887,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -16666,13 +16906,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -16685,13 +16925,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -16704,13 +16944,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -16723,13 +16963,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -16742,13 +16982,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -16761,13 +17001,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -16780,13 +17020,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -16799,13 +17039,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -16818,13 +17058,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -16837,13 +17077,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -16856,13 +17096,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -16875,13 +17115,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -16894,13 +17134,13 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -16913,10 +17153,10 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>104</v>
@@ -16932,13 +17172,13 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -16951,13 +17191,13 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -16970,13 +17210,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -16989,13 +17229,13 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -17008,13 +17248,13 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -17027,13 +17267,13 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -17046,13 +17286,13 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -17065,13 +17305,13 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -17084,13 +17324,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -17103,13 +17343,13 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -17122,13 +17362,13 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -17141,13 +17381,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -17160,13 +17400,13 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -17179,13 +17419,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -17198,13 +17438,13 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -17217,13 +17457,13 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -17236,13 +17476,13 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -17255,13 +17495,13 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -17274,13 +17514,13 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -17293,13 +17533,13 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -17312,13 +17552,13 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -17331,13 +17571,13 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -17350,13 +17590,13 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -17369,13 +17609,13 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -17388,13 +17628,13 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -17407,13 +17647,13 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -17426,13 +17666,13 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -17445,13 +17685,13 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -17464,13 +17704,13 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -17483,13 +17723,13 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -17502,13 +17742,13 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -17521,13 +17761,13 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -17540,13 +17780,13 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -17559,13 +17799,13 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -17578,13 +17818,13 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -17597,13 +17837,13 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -17616,13 +17856,13 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -17635,13 +17875,13 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -17654,13 +17894,13 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -17673,13 +17913,13 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -17692,13 +17932,13 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -17711,13 +17951,13 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -17730,10 +17970,10 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -17747,10 +17987,10 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -17764,10 +18004,10 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -17781,10 +18021,10 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -17798,10 +18038,10 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -17815,10 +18055,10 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -17832,10 +18072,10 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -17849,10 +18089,10 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -17866,10 +18106,10 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -17883,10 +18123,10 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -17900,10 +18140,10 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -17917,10 +18157,10 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -17934,10 +18174,10 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -17951,10 +18191,10 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -17968,10 +18208,10 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -17985,10 +18225,10 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -18002,10 +18242,10 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -18019,10 +18259,10 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -18036,10 +18276,10 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -18053,10 +18293,10 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -18070,10 +18310,10 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -18087,10 +18327,10 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -18104,10 +18344,10 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -18121,10 +18361,10 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -18138,10 +18378,10 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -18155,10 +18395,10 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -18172,10 +18412,10 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -18189,10 +18429,10 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -18206,10 +18446,10 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -18223,10 +18463,10 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -18240,13 +18480,13 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -18259,9 +18499,11 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B529" s="2"/>
+        <v>1306</v>
+      </c>
+      <c r="B529" s="8" t="s">
+        <v>1307</v>
+      </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -18274,9 +18516,11 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B530" s="2"/>
+        <v>1308</v>
+      </c>
+      <c r="B530" s="8" t="s">
+        <v>1309</v>
+      </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -18289,9 +18533,11 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B531" s="2"/>
+        <v>1310</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>1311</v>
+      </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -18304,9 +18550,11 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B532" s="2"/>
+        <v>1312</v>
+      </c>
+      <c r="B532" s="8" t="s">
+        <v>1313</v>
+      </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -18319,9 +18567,11 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B533" s="2"/>
+        <v>1314</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>1315</v>
+      </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -18334,9 +18584,11 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B534" s="2"/>
+        <v>1316</v>
+      </c>
+      <c r="B534" s="8" t="s">
+        <v>1317</v>
+      </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -18349,9 +18601,11 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B535" s="2"/>
+        <v>1318</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>1319</v>
+      </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -18364,9 +18618,11 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B536" s="2"/>
+        <v>1320</v>
+      </c>
+      <c r="B536" s="8" t="s">
+        <v>1321</v>
+      </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -18379,10 +18635,14 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B537" s="2"/>
-      <c r="C537" s="2"/>
+        <v>1322</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C537" s="8" t="s">
+        <v>1324</v>
+      </c>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
@@ -18394,10 +18654,14 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B538" s="2"/>
-      <c r="C538" s="2"/>
+        <v>1325</v>
+      </c>
+      <c r="B538" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C538" s="8" t="s">
+        <v>1327</v>
+      </c>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
@@ -18409,10 +18673,14 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
+        <v>1328</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C539" s="8" t="s">
+        <v>1330</v>
+      </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
@@ -18424,10 +18692,14 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B540" s="2"/>
-      <c r="C540" s="2"/>
+        <v>1331</v>
+      </c>
+      <c r="B540" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C540" s="8" t="s">
+        <v>1333</v>
+      </c>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
@@ -18439,9 +18711,9 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B541" s="2"/>
+        <v>1334</v>
+      </c>
+      <c r="B541" s="8"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -18454,10 +18726,14 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C542" s="8" t="s">
+        <v>1337</v>
+      </c>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
@@ -18469,10 +18745,14 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B543" s="2"/>
-      <c r="C543" s="2"/>
+        <v>1338</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C543" s="8" t="s">
+        <v>1340</v>
+      </c>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
@@ -18484,10 +18764,14 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B544" s="2"/>
-      <c r="C544" s="2"/>
+        <v>1341</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C544" s="8" t="s">
+        <v>1343</v>
+      </c>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
@@ -18498,9 +18782,15 @@
       <c r="K544" s="2"/>
     </row>
     <row r="545">
-      <c r="A545" s="1"/>
-      <c r="B545" s="2"/>
-      <c r="C545" s="2"/>
+      <c r="A545" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C545" s="8" t="s">
+        <v>1346</v>
+      </c>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
@@ -18511,9 +18801,15 @@
       <c r="K545" s="2"/>
     </row>
     <row r="546">
-      <c r="A546" s="1"/>
-      <c r="B546" s="2"/>
-      <c r="C546" s="2"/>
+      <c r="A546" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B546" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C546" s="8" t="s">
+        <v>1349</v>
+      </c>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
@@ -18524,9 +18820,15 @@
       <c r="K546" s="2"/>
     </row>
     <row r="547">
-      <c r="A547" s="1"/>
-      <c r="B547" s="2"/>
-      <c r="C547" s="2"/>
+      <c r="A547" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B547" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C547" s="8" t="s">
+        <v>1352</v>
+      </c>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
@@ -18537,9 +18839,15 @@
       <c r="K547" s="2"/>
     </row>
     <row r="548">
-      <c r="A548" s="1"/>
-      <c r="B548" s="2"/>
-      <c r="C548" s="2"/>
+      <c r="A548" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B548" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C548" s="8" t="s">
+        <v>1355</v>
+      </c>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
@@ -18550,9 +18858,15 @@
       <c r="K548" s="2"/>
     </row>
     <row r="549">
-      <c r="A549" s="1"/>
-      <c r="B549" s="2"/>
-      <c r="C549" s="2"/>
+      <c r="A549" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B549" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C549" s="8" t="s">
+        <v>1358</v>
+      </c>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
@@ -18563,9 +18877,15 @@
       <c r="K549" s="2"/>
     </row>
     <row r="550">
-      <c r="A550" s="1"/>
-      <c r="B550" s="2"/>
-      <c r="C550" s="2"/>
+      <c r="A550" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B550" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C550" s="8" t="s">
+        <v>1361</v>
+      </c>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
@@ -18576,9 +18896,15 @@
       <c r="K550" s="2"/>
     </row>
     <row r="551">
-      <c r="A551" s="1"/>
-      <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
+      <c r="A551" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C551" s="8" t="s">
+        <v>1364</v>
+      </c>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
@@ -18589,9 +18915,15 @@
       <c r="K551" s="2"/>
     </row>
     <row r="552">
-      <c r="A552" s="1"/>
-      <c r="B552" s="2"/>
-      <c r="C552" s="2"/>
+      <c r="A552" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B552" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C552" s="8" t="s">
+        <v>1367</v>
+      </c>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
@@ -18602,7 +18934,9 @@
       <c r="K552" s="2"/>
     </row>
     <row r="553">
-      <c r="A553" s="1"/>
+      <c r="A553" s="1" t="s">
+        <v>1368</v>
+      </c>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -18615,7 +18949,9 @@
       <c r="K553" s="2"/>
     </row>
     <row r="554">
-      <c r="A554" s="1"/>
+      <c r="A554" s="1" t="s">
+        <v>1369</v>
+      </c>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -18628,7 +18964,9 @@
       <c r="K554" s="2"/>
     </row>
     <row r="555">
-      <c r="A555" s="1"/>
+      <c r="A555" s="1" t="s">
+        <v>1370</v>
+      </c>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -18641,7 +18979,9 @@
       <c r="K555" s="2"/>
     </row>
     <row r="556">
-      <c r="A556" s="1"/>
+      <c r="A556" s="1" t="s">
+        <v>1371</v>
+      </c>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -18654,7 +18994,9 @@
       <c r="K556" s="2"/>
     </row>
     <row r="557">
-      <c r="A557" s="1"/>
+      <c r="A557" s="1" t="s">
+        <v>1372</v>
+      </c>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -18667,7 +19009,9 @@
       <c r="K557" s="2"/>
     </row>
     <row r="558">
-      <c r="A558" s="1"/>
+      <c r="A558" s="1" t="s">
+        <v>1373</v>
+      </c>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -18680,7 +19024,9 @@
       <c r="K558" s="2"/>
     </row>
     <row r="559">
-      <c r="A559" s="1"/>
+      <c r="A559" s="1" t="s">
+        <v>1374</v>
+      </c>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -18693,7 +19039,9 @@
       <c r="K559" s="2"/>
     </row>
     <row r="560">
-      <c r="A560" s="1"/>
+      <c r="A560" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -18706,7 +19054,9 @@
       <c r="K560" s="2"/>
     </row>
     <row r="561">
-      <c r="A561" s="1"/>
+      <c r="A561" s="1" t="s">
+        <v>1376</v>
+      </c>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -18719,7 +19069,9 @@
       <c r="K561" s="2"/>
     </row>
     <row r="562">
-      <c r="A562" s="1"/>
+      <c r="A562" s="1" t="s">
+        <v>1377</v>
+      </c>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -18732,7 +19084,9 @@
       <c r="K562" s="2"/>
     </row>
     <row r="563">
-      <c r="A563" s="1"/>
+      <c r="A563" s="1" t="s">
+        <v>1378</v>
+      </c>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -18745,7 +19099,9 @@
       <c r="K563" s="2"/>
     </row>
     <row r="564">
-      <c r="A564" s="1"/>
+      <c r="A564" s="1" t="s">
+        <v>1379</v>
+      </c>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -18758,7 +19114,9 @@
       <c r="K564" s="2"/>
     </row>
     <row r="565">
-      <c r="A565" s="1"/>
+      <c r="A565" s="1" t="s">
+        <v>1380</v>
+      </c>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -18771,7 +19129,9 @@
       <c r="K565" s="2"/>
     </row>
     <row r="566">
-      <c r="A566" s="1"/>
+      <c r="A566" s="1" t="s">
+        <v>1381</v>
+      </c>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -18784,7 +19144,9 @@
       <c r="K566" s="2"/>
     </row>
     <row r="567">
-      <c r="A567" s="1"/>
+      <c r="A567" s="1" t="s">
+        <v>1382</v>
+      </c>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -18797,7 +19159,9 @@
       <c r="K567" s="2"/>
     </row>
     <row r="568">
-      <c r="A568" s="1"/>
+      <c r="A568" s="1" t="s">
+        <v>1383</v>
+      </c>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -18810,7 +19174,9 @@
       <c r="K568" s="2"/>
     </row>
     <row r="569">
-      <c r="A569" s="1"/>
+      <c r="A569" s="1" t="s">
+        <v>1384</v>
+      </c>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -18823,7 +19189,9 @@
       <c r="K569" s="2"/>
     </row>
     <row r="570">
-      <c r="A570" s="1"/>
+      <c r="A570" s="1" t="s">
+        <v>1385</v>
+      </c>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -18836,7 +19204,9 @@
       <c r="K570" s="2"/>
     </row>
     <row r="571">
-      <c r="A571" s="1"/>
+      <c r="A571" s="1" t="s">
+        <v>1386</v>
+      </c>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -18849,7 +19219,9 @@
       <c r="K571" s="2"/>
     </row>
     <row r="572">
-      <c r="A572" s="1"/>
+      <c r="A572" s="1" t="s">
+        <v>1387</v>
+      </c>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -18862,7 +19234,9 @@
       <c r="K572" s="2"/>
     </row>
     <row r="573">
-      <c r="A573" s="1"/>
+      <c r="A573" s="1" t="s">
+        <v>1388</v>
+      </c>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -18875,7 +19249,9 @@
       <c r="K573" s="2"/>
     </row>
     <row r="574">
-      <c r="A574" s="1"/>
+      <c r="A574" s="1" t="s">
+        <v>1389</v>
+      </c>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -18888,7 +19264,9 @@
       <c r="K574" s="2"/>
     </row>
     <row r="575">
-      <c r="A575" s="1"/>
+      <c r="A575" s="1" t="s">
+        <v>1390</v>
+      </c>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -18901,7 +19279,9 @@
       <c r="K575" s="2"/>
     </row>
     <row r="576">
-      <c r="A576" s="1"/>
+      <c r="A576" s="1" t="s">
+        <v>1391</v>
+      </c>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -18914,7 +19294,9 @@
       <c r="K576" s="2"/>
     </row>
     <row r="577">
-      <c r="A577" s="1"/>
+      <c r="A577" s="1" t="s">
+        <v>1392</v>
+      </c>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -18927,7 +19309,9 @@
       <c r="K577" s="2"/>
     </row>
     <row r="578">
-      <c r="A578" s="1"/>
+      <c r="A578" s="1" t="s">
+        <v>1393</v>
+      </c>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -18940,7 +19324,9 @@
       <c r="K578" s="2"/>
     </row>
     <row r="579">
-      <c r="A579" s="1"/>
+      <c r="A579" s="1" t="s">
+        <v>1394</v>
+      </c>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -18953,7 +19339,9 @@
       <c r="K579" s="2"/>
     </row>
     <row r="580">
-      <c r="A580" s="1"/>
+      <c r="A580" s="1" t="s">
+        <v>1395</v>
+      </c>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -18966,7 +19354,9 @@
       <c r="K580" s="2"/>
     </row>
     <row r="581">
-      <c r="A581" s="1"/>
+      <c r="A581" s="1" t="s">
+        <v>1396</v>
+      </c>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -18979,7 +19369,9 @@
       <c r="K581" s="2"/>
     </row>
     <row r="582">
-      <c r="A582" s="1"/>
+      <c r="A582" s="1" t="s">
+        <v>1397</v>
+      </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -18992,7 +19384,9 @@
       <c r="K582" s="2"/>
     </row>
     <row r="583">
-      <c r="A583" s="1"/>
+      <c r="A583" s="1" t="s">
+        <v>1398</v>
+      </c>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -19005,7 +19399,9 @@
       <c r="K583" s="2"/>
     </row>
     <row r="584">
-      <c r="A584" s="1"/>
+      <c r="A584" s="1" t="s">
+        <v>1399</v>
+      </c>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -19018,7 +19414,9 @@
       <c r="K584" s="2"/>
     </row>
     <row r="585">
-      <c r="A585" s="1"/>
+      <c r="A585" s="1" t="s">
+        <v>1400</v>
+      </c>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -19031,7 +19429,9 @@
       <c r="K585" s="2"/>
     </row>
     <row r="586">
-      <c r="A586" s="1"/>
+      <c r="A586" s="1" t="s">
+        <v>1401</v>
+      </c>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -19044,7 +19444,9 @@
       <c r="K586" s="2"/>
     </row>
     <row r="587">
-      <c r="A587" s="1"/>
+      <c r="A587" s="1" t="s">
+        <v>1402</v>
+      </c>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -19057,7 +19459,9 @@
       <c r="K587" s="2"/>
     </row>
     <row r="588">
-      <c r="A588" s="1"/>
+      <c r="A588" s="1" t="s">
+        <v>1403</v>
+      </c>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -19070,7 +19474,9 @@
       <c r="K588" s="2"/>
     </row>
     <row r="589">
-      <c r="A589" s="1"/>
+      <c r="A589" s="1" t="s">
+        <v>1404</v>
+      </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -19083,7 +19489,9 @@
       <c r="K589" s="2"/>
     </row>
     <row r="590">
-      <c r="A590" s="1"/>
+      <c r="A590" s="1" t="s">
+        <v>1405</v>
+      </c>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -19096,7 +19504,9 @@
       <c r="K590" s="2"/>
     </row>
     <row r="591">
-      <c r="A591" s="1"/>
+      <c r="A591" s="1" t="s">
+        <v>1406</v>
+      </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -19109,7 +19519,9 @@
       <c r="K591" s="2"/>
     </row>
     <row r="592">
-      <c r="A592" s="1"/>
+      <c r="A592" s="1" t="s">
+        <v>1407</v>
+      </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -19122,7 +19534,9 @@
       <c r="K592" s="2"/>
     </row>
     <row r="593">
-      <c r="A593" s="1"/>
+      <c r="A593" s="1" t="s">
+        <v>1408</v>
+      </c>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -19135,7 +19549,9 @@
       <c r="K593" s="2"/>
     </row>
     <row r="594">
-      <c r="A594" s="1"/>
+      <c r="A594" s="1" t="s">
+        <v>1409</v>
+      </c>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1564" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1588" uniqueCount="1588">
   <si>
     <t>key</t>
   </si>
@@ -2090,6 +2090,216 @@
     <t>Brasilia</t>
   </si>
   <si>
+    <t>trans0001</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -4133,48 +4343,120 @@
     <t>trans0553</t>
   </si>
   <si>
+    <t>网络诊断</t>
+  </si>
+  <si>
+    <t>Internet Diagnose</t>
+  </si>
+  <si>
     <t>trans0554</t>
   </si>
   <si>
+    <t>Ping 测试</t>
+  </si>
+  <si>
+    <t>Ping Test</t>
+  </si>
+  <si>
     <t>trans0555</t>
   </si>
   <si>
+    <t>重复次数</t>
+  </si>
+  <si>
+    <t>Repetitions</t>
+  </si>
+  <si>
     <t>trans0556</t>
   </si>
   <si>
+    <t>Destination 地址</t>
+  </si>
+  <si>
     <t>trans0557</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
     <t>trans0558</t>
   </si>
   <si>
+    <t>Ping 测试失败</t>
+  </si>
+  <si>
+    <t>Ping test fail</t>
+  </si>
+  <si>
     <t>trans0559</t>
   </si>
   <si>
+    <t>正在进行 Ping 测试,请稍等...</t>
+  </si>
+  <si>
+    <t>Ping testing,please wait...</t>
+  </si>
+  <si>
     <t>trans0560</t>
   </si>
   <si>
+    <t>Traceroute 测试</t>
+  </si>
+  <si>
+    <t>Traceroute Test</t>
+  </si>
+  <si>
     <t>trans0561</t>
   </si>
   <si>
+    <t>Traceroute 测试失败</t>
+  </si>
+  <si>
+    <t>Traceroute test fail</t>
+  </si>
+  <si>
     <t>trans0562</t>
   </si>
   <si>
+    <t>正在进行 Traceroute 测试,请稍等...</t>
+  </si>
+  <si>
+    <t>Tracert testing,please wait...</t>
+  </si>
+  <si>
     <t>trans0563</t>
   </si>
   <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
     <t>trans0564</t>
   </si>
   <si>
+    <t>路由器切换到 Bridge（AP）模式后，后续可通过访问 http://192.168.3.1页面管理本设备。同时，请确认上行路由器维护 IP 地址不是192.168.3.1，避免 IP 冲突导致网络异常。使用 Bridge（AP）模式时，路由器不支持无线 HiLink 智联功能，子路由无法使用。</t>
+  </si>
+  <si>
     <t>trans0565</t>
   </si>
   <si>
+    <t>如果客人 Wi-Fi 已开启，路由器切换为桥接模式后，您的客人 Wi-Fi 将被关闭。</t>
+  </si>
+  <si>
     <t>trans0566</t>
   </si>
   <si>
+    <t>%s 无效</t>
+  </si>
+  <si>
     <t>trans0567</t>
   </si>
   <si>
+    <t>%s 只能为 %d-%d 位数字</t>
+  </si>
+  <si>
     <t>trans0568</t>
   </si>
   <si>
@@ -4254,216 +4536,6 @@
   </si>
   <si>
     <t>trans0594</t>
-  </si>
-  <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Acl</t>
   </si>
   <si>
     <r>
@@ -5833,7 +5905,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1410</v>
+        <v>690</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -5871,10 +5943,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1411</v>
+        <v>691</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1412</v>
+        <v>692</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -5890,7 +5962,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1413</v>
+        <v>693</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -5909,13 +5981,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1414</v>
+        <v>694</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1415</v>
+        <v>695</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1416</v>
+        <v>696</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6026,10 +6098,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1417</v>
+        <v>697</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1418</v>
+        <v>698</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6213,10 +6285,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1419</v>
+        <v>699</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1420</v>
+        <v>700</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -6232,10 +6304,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1421</v>
+        <v>701</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1422</v>
+        <v>702</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6249,10 +6321,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1423</v>
+        <v>703</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1424</v>
+        <v>704</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6266,10 +6338,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1425</v>
+        <v>705</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1426</v>
+        <v>706</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6283,10 +6355,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1427</v>
+        <v>707</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1428</v>
+        <v>708</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6300,10 +6372,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1429</v>
+        <v>709</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1430</v>
+        <v>710</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6317,7 +6389,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1431</v>
+        <v>711</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
@@ -6334,10 +6406,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1432</v>
+        <v>712</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1433</v>
+        <v>713</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6351,10 +6423,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1434</v>
+        <v>714</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1435</v>
+        <v>715</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -6368,10 +6440,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1437</v>
+        <v>717</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -6385,10 +6457,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1438</v>
+        <v>718</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1439</v>
+        <v>719</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -6402,10 +6474,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1441</v>
+        <v>721</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6419,10 +6491,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1442</v>
+        <v>722</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1443</v>
+        <v>723</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6436,10 +6508,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1444</v>
+        <v>724</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1445</v>
+        <v>725</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6453,10 +6525,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1446</v>
+        <v>726</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1447</v>
+        <v>727</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6470,10 +6542,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1448</v>
+        <v>728</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1449</v>
+        <v>729</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6487,10 +6559,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1450</v>
+        <v>730</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1437</v>
+        <v>717</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -6504,10 +6576,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1451</v>
+        <v>731</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1452</v>
+        <v>732</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -6521,10 +6593,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1453</v>
+        <v>733</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1454</v>
+        <v>734</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -6538,10 +6610,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1455</v>
+        <v>735</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1456</v>
+        <v>736</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -6555,10 +6627,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1457</v>
+        <v>737</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1458</v>
+        <v>738</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -6572,10 +6644,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1459</v>
+        <v>739</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1460</v>
+        <v>740</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -6589,10 +6661,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1461</v>
+        <v>741</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1462</v>
+        <v>742</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -6606,10 +6678,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1463</v>
+        <v>743</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1464</v>
+        <v>744</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -6623,10 +6695,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1465</v>
+        <v>745</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1466</v>
+        <v>746</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -6640,10 +6712,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1467</v>
+        <v>747</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1468</v>
+        <v>748</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -6657,10 +6729,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1469</v>
+        <v>749</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1470</v>
+        <v>750</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -6674,10 +6746,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1471</v>
+        <v>751</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1422</v>
+        <v>702</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -6691,13 +6763,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1472</v>
+        <v>752</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1473</v>
+        <v>753</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1473</v>
+        <v>753</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6710,13 +6782,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1474</v>
+        <v>754</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1475</v>
+        <v>755</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1475</v>
+        <v>755</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6729,7 +6801,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1476</v>
+        <v>756</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -6746,7 +6818,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1477</v>
+        <v>757</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -6763,7 +6835,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1478</v>
+        <v>758</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -6783,7 +6855,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1439</v>
+        <v>719</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>58</v>
@@ -6878,10 +6950,10 @@
         <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1479</v>
+        <v>759</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1479</v>
+        <v>759</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8780,7 +8852,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1480</v>
+        <v>1504</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8818,10 +8890,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1481</v>
+        <v>1505</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1482</v>
+        <v>1506</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8837,7 +8909,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1483</v>
+        <v>1507</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8856,13 +8928,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1484</v>
+        <v>1508</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1485</v>
+        <v>1509</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1486</v>
+        <v>1510</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8973,10 +9045,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1487</v>
+        <v>1511</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1488</v>
+        <v>1512</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9160,10 +9232,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1489</v>
+        <v>1513</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1490</v>
+        <v>1514</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -9179,10 +9251,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1491</v>
+        <v>1515</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1492</v>
+        <v>1516</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9196,10 +9268,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1493</v>
+        <v>1517</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1494</v>
+        <v>1518</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9213,10 +9285,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1495</v>
+        <v>1519</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1496</v>
+        <v>1520</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9230,10 +9302,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1497</v>
+        <v>1521</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1498</v>
+        <v>1522</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9247,10 +9319,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1499</v>
+        <v>1523</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1500</v>
+        <v>1524</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9264,10 +9336,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1501</v>
+        <v>1525</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1502</v>
+        <v>1526</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -9283,10 +9355,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1503</v>
+        <v>1527</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1504</v>
+        <v>1528</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9300,10 +9372,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1505</v>
+        <v>1529</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1506</v>
+        <v>1530</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -9319,10 +9391,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1507</v>
+        <v>1531</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1508</v>
+        <v>1532</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -9338,10 +9410,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1509</v>
+        <v>1533</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1510</v>
+        <v>1534</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -9357,10 +9429,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1511</v>
+        <v>1535</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1512</v>
+        <v>1536</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9374,10 +9446,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1513</v>
+        <v>1537</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1514</v>
+        <v>1538</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9391,10 +9463,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1515</v>
+        <v>1539</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1516</v>
+        <v>1540</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9408,10 +9480,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1517</v>
+        <v>1541</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1518</v>
+        <v>1542</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9425,10 +9497,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1519</v>
+        <v>1543</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1520</v>
+        <v>1544</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9442,10 +9514,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1521</v>
+        <v>1545</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1522</v>
+        <v>1546</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -9461,10 +9533,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1523</v>
+        <v>1547</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1524</v>
+        <v>1548</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9478,10 +9550,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1525</v>
+        <v>1549</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1526</v>
+        <v>1550</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9495,10 +9567,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1527</v>
+        <v>1551</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1528</v>
+        <v>1552</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9512,10 +9584,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1530</v>
+        <v>1554</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9529,10 +9601,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1531</v>
+        <v>1555</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1532</v>
+        <v>1556</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9546,10 +9618,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1534</v>
+        <v>1558</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9563,10 +9635,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1536</v>
+        <v>1560</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9580,10 +9652,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1537</v>
+        <v>1561</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1538</v>
+        <v>1562</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9597,10 +9669,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1539</v>
+        <v>1563</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1540</v>
+        <v>1564</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9614,10 +9686,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1541</v>
+        <v>1565</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1542</v>
+        <v>1566</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9631,10 +9703,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1543</v>
+        <v>1567</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1544</v>
+        <v>1568</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9648,10 +9720,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1545</v>
+        <v>1569</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1546</v>
+        <v>1570</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9665,10 +9737,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1548</v>
+        <v>1572</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9682,7 +9754,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1549</v>
+        <v>1573</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9699,7 +9771,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1550</v>
+        <v>1574</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9716,7 +9788,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1551</v>
+        <v>1575</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -10017,10 +10089,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1552</v>
+        <v>1576</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1553</v>
+        <v>1577</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10036,10 +10108,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1554</v>
+        <v>1578</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1555</v>
+        <v>1579</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10055,10 +10127,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1556</v>
+        <v>1580</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1557</v>
+        <v>1581</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10074,7 +10146,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1558</v>
+        <v>1582</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>109</v>
@@ -10093,7 +10165,7 @@
         <v>110</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1559</v>
+        <v>1583</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>111</v>
@@ -10112,7 +10184,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1560</v>
+        <v>1584</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>113</v>
@@ -10131,10 +10203,10 @@
         <v>114</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1561</v>
+        <v>1585</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1562</v>
+        <v>1586</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10877,7 +10949,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1563</v>
+        <v>1587</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -14251,13 +14323,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -14270,13 +14342,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -14289,13 +14361,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -14308,13 +14380,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -14327,13 +14399,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -14346,13 +14418,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -14365,13 +14437,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -14384,13 +14456,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -14403,13 +14475,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -14422,13 +14494,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -14441,13 +14513,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -14460,13 +14532,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>723</v>
+        <v>793</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>724</v>
+        <v>794</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -14479,13 +14551,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>726</v>
+        <v>796</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -14498,13 +14570,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>729</v>
+        <v>799</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -14517,13 +14589,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>734</v>
+        <v>804</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -14536,13 +14608,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>736</v>
+        <v>806</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>737</v>
+        <v>807</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -14555,13 +14627,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>739</v>
+        <v>809</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -14574,13 +14646,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>741</v>
+        <v>811</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>743</v>
+        <v>813</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -14593,13 +14665,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>744</v>
+        <v>814</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>745</v>
+        <v>815</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -14612,13 +14684,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>747</v>
+        <v>817</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -14631,13 +14703,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>752</v>
+        <v>822</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -14650,13 +14722,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>753</v>
+        <v>823</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>754</v>
+        <v>824</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>755</v>
+        <v>825</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -14669,13 +14741,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>756</v>
+        <v>826</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>757</v>
+        <v>827</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>758</v>
+        <v>828</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -14688,13 +14760,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>759</v>
+        <v>829</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>761</v>
+        <v>831</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -14707,13 +14779,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>762</v>
+        <v>832</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>763</v>
+        <v>833</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>764</v>
+        <v>834</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -14726,13 +14798,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>765</v>
+        <v>835</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>766</v>
+        <v>836</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>767</v>
+        <v>837</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -14745,13 +14817,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>769</v>
+        <v>839</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>770</v>
+        <v>840</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -14764,13 +14836,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>771</v>
+        <v>841</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>772</v>
+        <v>842</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>773</v>
+        <v>843</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -14783,13 +14855,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>774</v>
+        <v>844</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>775</v>
+        <v>845</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>776</v>
+        <v>846</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -14802,13 +14874,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>777</v>
+        <v>847</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>778</v>
+        <v>848</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>779</v>
+        <v>849</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -14821,13 +14893,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>781</v>
+        <v>851</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>782</v>
+        <v>852</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -14840,13 +14912,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>783</v>
+        <v>853</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>784</v>
+        <v>854</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -14859,13 +14931,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>786</v>
+        <v>856</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>787</v>
+        <v>857</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>788</v>
+        <v>858</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -14878,13 +14950,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>789</v>
+        <v>859</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>791</v>
+        <v>861</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -14897,13 +14969,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>792</v>
+        <v>862</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>793</v>
+        <v>863</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>794</v>
+        <v>864</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -14916,13 +14988,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>795</v>
+        <v>865</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>796</v>
+        <v>866</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -14935,13 +15007,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>798</v>
+        <v>868</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>799</v>
+        <v>869</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -14954,13 +15026,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>801</v>
+        <v>871</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>802</v>
+        <v>872</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>803</v>
+        <v>873</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14973,13 +15045,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>805</v>
+        <v>875</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>806</v>
+        <v>876</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14992,13 +15064,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>807</v>
+        <v>877</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>808</v>
+        <v>878</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -15011,13 +15083,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>812</v>
+        <v>882</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -15030,13 +15102,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>813</v>
+        <v>883</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>814</v>
+        <v>884</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>815</v>
+        <v>885</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -15049,13 +15121,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>816</v>
+        <v>886</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>817</v>
+        <v>887</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>818</v>
+        <v>888</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -15068,13 +15140,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>819</v>
+        <v>889</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -15087,13 +15159,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>822</v>
+        <v>892</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>823</v>
+        <v>893</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>824</v>
+        <v>894</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -15106,13 +15178,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>825</v>
+        <v>895</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>826</v>
+        <v>896</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>827</v>
+        <v>897</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -15125,13 +15197,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>828</v>
+        <v>898</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>829</v>
+        <v>899</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>830</v>
+        <v>900</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -15144,13 +15216,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>831</v>
+        <v>901</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>832</v>
+        <v>902</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>833</v>
+        <v>903</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -15163,13 +15235,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>834</v>
+        <v>904</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>835</v>
+        <v>905</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>836</v>
+        <v>906</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -15182,13 +15254,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>838</v>
+        <v>908</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>839</v>
+        <v>909</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -15201,13 +15273,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>840</v>
+        <v>910</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>841</v>
+        <v>911</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>842</v>
+        <v>912</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -15220,13 +15292,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>844</v>
+        <v>914</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -15239,13 +15311,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>846</v>
+        <v>916</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>847</v>
+        <v>917</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>848</v>
+        <v>918</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -15258,13 +15330,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>849</v>
+        <v>919</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>851</v>
+        <v>921</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -15277,13 +15349,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>852</v>
+        <v>922</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>853</v>
+        <v>923</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>854</v>
+        <v>924</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -15296,13 +15368,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>855</v>
+        <v>925</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>856</v>
+        <v>926</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>857</v>
+        <v>927</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -15315,10 +15387,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>858</v>
+        <v>928</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>859</v>
+        <v>929</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -15332,13 +15404,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>861</v>
+        <v>931</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>862</v>
+        <v>932</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -15351,13 +15423,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>863</v>
+        <v>933</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>864</v>
+        <v>934</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>865</v>
+        <v>935</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -15370,13 +15442,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>866</v>
+        <v>936</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>867</v>
+        <v>937</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>868</v>
+        <v>938</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -15389,13 +15461,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>869</v>
+        <v>939</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>870</v>
+        <v>940</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>871</v>
+        <v>941</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -15408,13 +15480,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>872</v>
+        <v>942</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>873</v>
+        <v>943</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>874</v>
+        <v>944</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -15427,13 +15499,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>875</v>
+        <v>945</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>877</v>
+        <v>947</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -15446,13 +15518,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>878</v>
+        <v>948</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>879</v>
+        <v>949</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>880</v>
+        <v>950</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -15465,13 +15537,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>882</v>
+        <v>952</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>883</v>
+        <v>953</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -15484,13 +15556,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>884</v>
+        <v>954</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>885</v>
+        <v>955</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>886</v>
+        <v>956</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -15503,13 +15575,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>887</v>
+        <v>957</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>888</v>
+        <v>958</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>889</v>
+        <v>959</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -15522,13 +15594,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>890</v>
+        <v>960</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>892</v>
+        <v>962</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -15541,13 +15613,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>893</v>
+        <v>963</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>894</v>
+        <v>964</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>895</v>
+        <v>965</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15560,13 +15632,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>896</v>
+        <v>966</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>897</v>
+        <v>967</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>898</v>
+        <v>968</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -15579,13 +15651,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>899</v>
+        <v>969</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>901</v>
+        <v>971</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -15598,13 +15670,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>902</v>
+        <v>972</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>903</v>
+        <v>973</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>903</v>
+        <v>973</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -15617,13 +15689,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>904</v>
+        <v>974</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>905</v>
+        <v>975</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>905</v>
+        <v>975</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -15636,10 +15708,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>906</v>
+        <v>976</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>907</v>
+        <v>977</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -15653,10 +15725,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>908</v>
+        <v>978</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>909</v>
+        <v>979</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -15670,13 +15742,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>910</v>
+        <v>980</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>911</v>
+        <v>981</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>911</v>
+        <v>981</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -15689,13 +15761,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>912</v>
+        <v>982</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>913</v>
+        <v>983</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>913</v>
+        <v>983</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -15708,7 +15780,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>914</v>
+        <v>984</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>538</v>
@@ -15727,10 +15799,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>915</v>
+        <v>985</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>916</v>
+        <v>986</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -15744,13 +15816,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>917</v>
+        <v>987</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>918</v>
+        <v>988</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>919</v>
+        <v>989</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -15763,13 +15835,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>921</v>
+        <v>991</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>922</v>
+        <v>992</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -15782,13 +15854,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>923</v>
+        <v>993</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>924</v>
+        <v>994</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>925</v>
+        <v>995</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -15801,13 +15873,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>926</v>
+        <v>996</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>927</v>
+        <v>997</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>928</v>
+        <v>998</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -15820,13 +15892,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>929</v>
+        <v>999</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>931</v>
+        <v>1001</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -15839,13 +15911,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>932</v>
+        <v>1002</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>933</v>
+        <v>1003</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>934</v>
+        <v>1004</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -15858,13 +15930,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>935</v>
+        <v>1005</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>936</v>
+        <v>1006</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>937</v>
+        <v>1007</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -15877,13 +15949,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>938</v>
+        <v>1008</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>939</v>
+        <v>1009</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>939</v>
+        <v>1009</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -15896,13 +15968,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>940</v>
+        <v>1010</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>941</v>
+        <v>1011</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>941</v>
+        <v>1011</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -15915,13 +15987,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>942</v>
+        <v>1012</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>943</v>
+        <v>1013</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>944</v>
+        <v>1014</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -15934,13 +16006,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>945</v>
+        <v>1015</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>946</v>
+        <v>1016</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>947</v>
+        <v>1017</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -15953,13 +16025,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>948</v>
+        <v>1018</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>949</v>
+        <v>1019</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>950</v>
+        <v>1020</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -15972,7 +16044,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>951</v>
+        <v>1021</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>158</v>
@@ -15991,13 +16063,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>952</v>
+        <v>1022</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>953</v>
+        <v>1023</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>953</v>
+        <v>1023</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -16010,13 +16082,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -16029,13 +16101,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>956</v>
+        <v>1026</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>957</v>
+        <v>1027</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>958</v>
+        <v>1028</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -16048,13 +16120,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>959</v>
+        <v>1029</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>960</v>
+        <v>1030</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>960</v>
+        <v>1030</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -16067,13 +16139,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>961</v>
+        <v>1031</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>962</v>
+        <v>1032</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>963</v>
+        <v>1033</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -16086,13 +16158,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>964</v>
+        <v>1034</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>965</v>
+        <v>1035</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>966</v>
+        <v>1036</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -16105,13 +16177,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>967</v>
+        <v>1037</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>968</v>
+        <v>1038</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>969</v>
+        <v>1039</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -16124,13 +16196,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>970</v>
+        <v>1040</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>971</v>
+        <v>1041</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>972</v>
+        <v>1042</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -16143,13 +16215,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>973</v>
+        <v>1043</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>974</v>
+        <v>1044</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -16162,13 +16234,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>975</v>
+        <v>1045</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>976</v>
+        <v>1046</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>977</v>
+        <v>1047</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -16181,13 +16253,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>978</v>
+        <v>1048</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>979</v>
+        <v>1049</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>980</v>
+        <v>1050</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -16200,10 +16272,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>981</v>
+        <v>1051</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>982</v>
+        <v>1052</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -16217,10 +16289,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>983</v>
+        <v>1053</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>984</v>
+        <v>1054</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -16234,13 +16306,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>985</v>
+        <v>1055</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>986</v>
+        <v>1056</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>986</v>
+        <v>1056</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -16253,10 +16325,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>987</v>
+        <v>1057</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>988</v>
+        <v>1058</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -16270,10 +16342,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>989</v>
+        <v>1059</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>990</v>
+        <v>1060</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -16287,10 +16359,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>991</v>
+        <v>1061</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>992</v>
+        <v>1062</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -16304,13 +16376,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>993</v>
+        <v>1063</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>994</v>
+        <v>1064</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>995</v>
+        <v>1065</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -16323,10 +16395,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>996</v>
+        <v>1066</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>997</v>
+        <v>1067</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -16340,13 +16412,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>999</v>
+        <v>1069</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>1000</v>
+        <v>1070</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -16359,10 +16431,10 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>1001</v>
+        <v>1071</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>1002</v>
+        <v>1072</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -16376,13 +16448,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>1003</v>
+        <v>1073</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1004</v>
+        <v>1074</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1005</v>
+        <v>1075</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -16395,13 +16467,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>1007</v>
+        <v>1077</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1008</v>
+        <v>1078</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -16414,13 +16486,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>1009</v>
+        <v>1079</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1010</v>
+        <v>1080</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1011</v>
+        <v>1081</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -16433,13 +16505,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>1012</v>
+        <v>1082</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1013</v>
+        <v>1083</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>1014</v>
+        <v>1084</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -16452,13 +16524,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>1015</v>
+        <v>1085</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>1016</v>
+        <v>1086</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1017</v>
+        <v>1087</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -16471,13 +16543,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1018</v>
+        <v>1088</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1019</v>
+        <v>1089</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>1020</v>
+        <v>1090</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -16490,13 +16562,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1021</v>
+        <v>1091</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1022</v>
+        <v>1092</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>1023</v>
+        <v>1093</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -16509,10 +16581,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1024</v>
+        <v>1094</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1025</v>
+        <v>1095</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -16526,13 +16598,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1026</v>
+        <v>1096</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1027</v>
+        <v>1097</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>986</v>
+        <v>1056</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -16545,13 +16617,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1028</v>
+        <v>1098</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>1029</v>
+        <v>1099</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -16564,13 +16636,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1030</v>
+        <v>1100</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1031</v>
+        <v>1101</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>1032</v>
+        <v>1102</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -16583,13 +16655,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1033</v>
+        <v>1103</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1034</v>
+        <v>1104</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>1035</v>
+        <v>1105</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -16602,13 +16674,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1036</v>
+        <v>1106</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1037</v>
+        <v>1107</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>1038</v>
+        <v>1108</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -16621,13 +16693,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1039</v>
+        <v>1109</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1040</v>
+        <v>1110</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>1041</v>
+        <v>1111</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -16640,13 +16712,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1042</v>
+        <v>1112</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>1043</v>
+        <v>1113</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1044</v>
+        <v>1114</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -16659,13 +16731,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1045</v>
+        <v>1115</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1046</v>
+        <v>1116</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>1047</v>
+        <v>1117</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -16678,13 +16750,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1048</v>
+        <v>1118</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1049</v>
+        <v>1119</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>1050</v>
+        <v>1120</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -16697,13 +16769,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1051</v>
+        <v>1121</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1052</v>
+        <v>1122</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1053</v>
+        <v>1123</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -16716,13 +16788,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1054</v>
+        <v>1124</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1055</v>
+        <v>1125</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>1056</v>
+        <v>1126</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -16735,13 +16807,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1057</v>
+        <v>1127</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1058</v>
+        <v>1128</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>1059</v>
+        <v>1129</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -16754,13 +16826,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1060</v>
+        <v>1130</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1061</v>
+        <v>1131</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>1062</v>
+        <v>1132</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -16773,13 +16845,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1063</v>
+        <v>1133</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1064</v>
+        <v>1134</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1065</v>
+        <v>1135</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -16792,13 +16864,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1066</v>
+        <v>1136</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1067</v>
+        <v>1137</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1068</v>
+        <v>1138</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -16811,13 +16883,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1069</v>
+        <v>1139</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1070</v>
+        <v>1140</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>1071</v>
+        <v>1141</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -16830,13 +16902,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1072</v>
+        <v>1142</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1073</v>
+        <v>1143</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>1074</v>
+        <v>1144</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -16849,13 +16921,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1075</v>
+        <v>1145</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1076</v>
+        <v>1146</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1077</v>
+        <v>1147</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -16868,13 +16940,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1078</v>
+        <v>1148</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1079</v>
+        <v>1149</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>1080</v>
+        <v>1150</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -16887,13 +16959,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1081</v>
+        <v>1151</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1082</v>
+        <v>1152</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>1083</v>
+        <v>1153</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -16906,13 +16978,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1084</v>
+        <v>1154</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1085</v>
+        <v>1155</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>1086</v>
+        <v>1156</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -16925,13 +16997,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1087</v>
+        <v>1157</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1088</v>
+        <v>1158</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>1089</v>
+        <v>1159</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -16944,13 +17016,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1090</v>
+        <v>1160</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1091</v>
+        <v>1161</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>1092</v>
+        <v>1162</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -16963,13 +17035,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1093</v>
+        <v>1163</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1094</v>
+        <v>1164</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>1095</v>
+        <v>1165</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -16982,13 +17054,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1096</v>
+        <v>1166</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1097</v>
+        <v>1167</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1098</v>
+        <v>1168</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -17001,13 +17073,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1099</v>
+        <v>1169</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1100</v>
+        <v>1170</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>1101</v>
+        <v>1171</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -17020,13 +17092,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1102</v>
+        <v>1172</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1103</v>
+        <v>1173</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>1104</v>
+        <v>1174</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -17039,13 +17111,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1105</v>
+        <v>1175</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1106</v>
+        <v>1176</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>1107</v>
+        <v>1177</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -17058,13 +17130,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1108</v>
+        <v>1178</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1109</v>
+        <v>1179</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>1110</v>
+        <v>1180</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -17077,13 +17149,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1111</v>
+        <v>1181</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1112</v>
+        <v>1182</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>1113</v>
+        <v>1183</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -17096,13 +17168,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1114</v>
+        <v>1184</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1115</v>
+        <v>1185</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>1116</v>
+        <v>1186</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -17115,13 +17187,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1117</v>
+        <v>1187</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1118</v>
+        <v>1188</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>1119</v>
+        <v>1189</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -17134,13 +17206,13 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1120</v>
+        <v>1190</v>
       </c>
       <c r="B454" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>1121</v>
+        <v>1191</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -17153,10 +17225,10 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1122</v>
+        <v>1192</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>1123</v>
+        <v>1193</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>104</v>
@@ -17172,13 +17244,13 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1124</v>
+        <v>1194</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1125</v>
+        <v>1195</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>1125</v>
+        <v>1195</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -17191,13 +17263,13 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1126</v>
+        <v>1196</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>1127</v>
+        <v>1197</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>1127</v>
+        <v>1197</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -17210,13 +17282,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1128</v>
+        <v>1198</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1129</v>
+        <v>1199</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>1130</v>
+        <v>1200</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -17229,13 +17301,13 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1131</v>
+        <v>1201</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>1132</v>
+        <v>1202</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>1133</v>
+        <v>1203</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -17248,13 +17320,13 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1134</v>
+        <v>1204</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1135</v>
+        <v>1205</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>1136</v>
+        <v>1206</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -17267,13 +17339,13 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1137</v>
+        <v>1207</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>1138</v>
+        <v>1208</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>1139</v>
+        <v>1209</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -17286,13 +17358,13 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1140</v>
+        <v>1210</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1141</v>
+        <v>1211</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>1142</v>
+        <v>1212</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -17305,13 +17377,13 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1143</v>
+        <v>1213</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>1144</v>
+        <v>1214</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1145</v>
+        <v>1215</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -17324,13 +17396,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1146</v>
+        <v>1216</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1147</v>
+        <v>1217</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1148</v>
+        <v>1218</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -17343,13 +17415,13 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1149</v>
+        <v>1219</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>1150</v>
+        <v>1220</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1151</v>
+        <v>1221</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -17362,13 +17434,13 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1152</v>
+        <v>1222</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1153</v>
+        <v>1223</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1154</v>
+        <v>1224</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -17381,13 +17453,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1155</v>
+        <v>1225</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1156</v>
+        <v>1226</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1157</v>
+        <v>1227</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -17400,13 +17472,13 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1158</v>
+        <v>1228</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1159</v>
+        <v>1229</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1160</v>
+        <v>1230</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -17419,13 +17491,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1161</v>
+        <v>1231</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>1162</v>
+        <v>1232</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1163</v>
+        <v>1233</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -17438,13 +17510,13 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1164</v>
+        <v>1234</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>1165</v>
+        <v>1235</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>1166</v>
+        <v>1236</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -17457,13 +17529,13 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1167</v>
+        <v>1237</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>1168</v>
+        <v>1238</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>1168</v>
+        <v>1238</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -17476,13 +17548,13 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1169</v>
+        <v>1239</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>1170</v>
+        <v>1240</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>1170</v>
+        <v>1240</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -17495,13 +17567,13 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1171</v>
+        <v>1241</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>1172</v>
+        <v>1242</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>1172</v>
+        <v>1242</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -17514,13 +17586,13 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1173</v>
+        <v>1243</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>1174</v>
+        <v>1244</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>1175</v>
+        <v>1245</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -17533,13 +17605,13 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1176</v>
+        <v>1246</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>1177</v>
+        <v>1247</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>1178</v>
+        <v>1248</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -17552,13 +17624,13 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1179</v>
+        <v>1249</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>1180</v>
+        <v>1250</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>1181</v>
+        <v>1251</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -17571,13 +17643,13 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1182</v>
+        <v>1252</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>1183</v>
+        <v>1253</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>1184</v>
+        <v>1254</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -17590,13 +17662,13 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1185</v>
+        <v>1255</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1186</v>
+        <v>1256</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>1187</v>
+        <v>1257</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -17609,13 +17681,13 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1188</v>
+        <v>1258</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>1189</v>
+        <v>1259</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>1190</v>
+        <v>1260</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -17628,13 +17700,13 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1191</v>
+        <v>1261</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>1192</v>
+        <v>1262</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>1193</v>
+        <v>1263</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -17647,13 +17719,13 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1194</v>
+        <v>1264</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>1195</v>
+        <v>1265</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>1196</v>
+        <v>1266</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -17666,13 +17738,13 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1197</v>
+        <v>1267</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>1198</v>
+        <v>1268</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>1198</v>
+        <v>1268</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -17685,13 +17757,13 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1199</v>
+        <v>1269</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>1200</v>
+        <v>1270</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>1201</v>
+        <v>1271</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -17704,13 +17776,13 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1202</v>
+        <v>1272</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>1203</v>
+        <v>1273</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>1204</v>
+        <v>1274</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -17723,13 +17795,13 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1205</v>
+        <v>1275</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>1206</v>
+        <v>1276</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>1207</v>
+        <v>1277</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -17742,13 +17814,13 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1208</v>
+        <v>1278</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>1209</v>
+        <v>1279</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>1210</v>
+        <v>1280</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -17761,13 +17833,13 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1211</v>
+        <v>1281</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>1212</v>
+        <v>1282</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>1213</v>
+        <v>1283</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -17780,13 +17852,13 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1214</v>
+        <v>1284</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>1215</v>
+        <v>1285</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>1216</v>
+        <v>1286</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -17799,13 +17871,13 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1217</v>
+        <v>1287</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>1218</v>
+        <v>1288</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>1219</v>
+        <v>1289</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -17818,13 +17890,13 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1220</v>
+        <v>1290</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>1221</v>
+        <v>1291</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>1222</v>
+        <v>1292</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -17837,13 +17909,13 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1223</v>
+        <v>1293</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>1224</v>
+        <v>1294</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>1225</v>
+        <v>1295</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -17856,13 +17928,13 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1226</v>
+        <v>1296</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>1227</v>
+        <v>1297</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>1228</v>
+        <v>1298</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -17875,13 +17947,13 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1229</v>
+        <v>1299</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>1230</v>
+        <v>1300</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>1231</v>
+        <v>1301</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -17894,13 +17966,13 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1232</v>
+        <v>1302</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>1233</v>
+        <v>1303</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>1233</v>
+        <v>1303</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -17913,13 +17985,13 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1234</v>
+        <v>1304</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>1235</v>
+        <v>1305</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>1236</v>
+        <v>1306</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -17932,13 +18004,13 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1237</v>
+        <v>1307</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>1238</v>
+        <v>1308</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>1239</v>
+        <v>1309</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -17951,13 +18023,13 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1240</v>
+        <v>1310</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>1241</v>
+        <v>1311</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>1242</v>
+        <v>1312</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -17970,10 +18042,10 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1243</v>
+        <v>1313</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>1244</v>
+        <v>1314</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -17987,10 +18059,10 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1245</v>
+        <v>1315</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>1246</v>
+        <v>1316</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -18004,10 +18076,10 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1247</v>
+        <v>1317</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>1248</v>
+        <v>1318</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -18021,10 +18093,10 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1249</v>
+        <v>1319</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>1250</v>
+        <v>1320</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -18038,10 +18110,10 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1251</v>
+        <v>1321</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>1252</v>
+        <v>1322</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -18055,10 +18127,10 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1253</v>
+        <v>1323</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1254</v>
+        <v>1324</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -18072,10 +18144,10 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1255</v>
+        <v>1325</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1256</v>
+        <v>1326</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -18089,10 +18161,10 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1257</v>
+        <v>1327</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>1258</v>
+        <v>1328</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -18106,10 +18178,10 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1259</v>
+        <v>1329</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1260</v>
+        <v>1330</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -18123,10 +18195,10 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1261</v>
+        <v>1331</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>1262</v>
+        <v>1332</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -18140,10 +18212,10 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1263</v>
+        <v>1333</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1264</v>
+        <v>1334</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -18157,10 +18229,10 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1265</v>
+        <v>1335</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1266</v>
+        <v>1336</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -18174,10 +18246,10 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1267</v>
+        <v>1337</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1268</v>
+        <v>1338</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -18191,10 +18263,10 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1269</v>
+        <v>1339</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>1270</v>
+        <v>1340</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -18208,10 +18280,10 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1271</v>
+        <v>1341</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1272</v>
+        <v>1342</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -18225,10 +18297,10 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1273</v>
+        <v>1343</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>1274</v>
+        <v>1344</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -18242,10 +18314,10 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1275</v>
+        <v>1345</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -18259,10 +18331,10 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1277</v>
+        <v>1347</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>1278</v>
+        <v>1348</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -18276,10 +18348,10 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1279</v>
+        <v>1349</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1280</v>
+        <v>1350</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -18293,10 +18365,10 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1281</v>
+        <v>1351</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1282</v>
+        <v>1352</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -18310,10 +18382,10 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1283</v>
+        <v>1353</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>1284</v>
+        <v>1354</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -18327,10 +18399,10 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1285</v>
+        <v>1355</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>1286</v>
+        <v>1356</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -18344,10 +18416,10 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1287</v>
+        <v>1357</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1288</v>
+        <v>1358</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -18361,10 +18433,10 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1289</v>
+        <v>1359</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>1290</v>
+        <v>1360</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -18378,10 +18450,10 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1291</v>
+        <v>1361</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1292</v>
+        <v>1362</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -18395,10 +18467,10 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1293</v>
+        <v>1363</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>1294</v>
+        <v>1364</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -18412,10 +18484,10 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1295</v>
+        <v>1365</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1296</v>
+        <v>1366</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -18429,10 +18501,10 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1297</v>
+        <v>1367</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>1298</v>
+        <v>1368</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -18446,10 +18518,10 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1299</v>
+        <v>1369</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1300</v>
+        <v>1370</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -18463,10 +18535,10 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1301</v>
+        <v>1371</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>1302</v>
+        <v>1372</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -18480,13 +18552,13 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1303</v>
+        <v>1373</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1304</v>
+        <v>1374</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>1305</v>
+        <v>1375</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -18499,10 +18571,10 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1306</v>
+        <v>1376</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>1307</v>
+        <v>1377</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -18516,10 +18588,10 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1308</v>
+        <v>1378</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1309</v>
+        <v>1379</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -18533,10 +18605,10 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1310</v>
+        <v>1380</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>1311</v>
+        <v>1381</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -18550,10 +18622,10 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1312</v>
+        <v>1382</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>1313</v>
+        <v>1383</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -18567,10 +18639,10 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1314</v>
+        <v>1384</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>1315</v>
+        <v>1385</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -18584,10 +18656,10 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1316</v>
+        <v>1386</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>1317</v>
+        <v>1387</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -18601,10 +18673,10 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1318</v>
+        <v>1388</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>1319</v>
+        <v>1389</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -18618,10 +18690,10 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1320</v>
+        <v>1390</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1321</v>
+        <v>1391</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -18635,13 +18707,13 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1322</v>
+        <v>1392</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>1323</v>
+        <v>1393</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>1324</v>
+        <v>1394</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -18654,13 +18726,13 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1325</v>
+        <v>1395</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>1326</v>
+        <v>1396</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>1327</v>
+        <v>1397</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -18673,13 +18745,13 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1328</v>
+        <v>1398</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>1329</v>
+        <v>1399</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>1330</v>
+        <v>1400</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -18692,13 +18764,13 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1331</v>
+        <v>1401</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1332</v>
+        <v>1402</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>1333</v>
+        <v>1403</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -18711,7 +18783,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1334</v>
+        <v>1404</v>
       </c>
       <c r="B541" s="8"/>
       <c r="C541" s="2"/>
@@ -18726,13 +18798,13 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1335</v>
+        <v>1405</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>1336</v>
+        <v>1406</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>1337</v>
+        <v>1407</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -18745,13 +18817,13 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1338</v>
+        <v>1408</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>1339</v>
+        <v>1409</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>1340</v>
+        <v>1410</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -18764,13 +18836,13 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1341</v>
+        <v>1411</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1342</v>
+        <v>1412</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>1343</v>
+        <v>1413</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -18783,13 +18855,13 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>1344</v>
+        <v>1414</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>1345</v>
+        <v>1415</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>1346</v>
+        <v>1416</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -18802,13 +18874,13 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>1347</v>
+        <v>1417</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>1348</v>
+        <v>1418</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>1349</v>
+        <v>1419</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -18821,13 +18893,13 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>1350</v>
+        <v>1420</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>1351</v>
+        <v>1421</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>1352</v>
+        <v>1422</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -18840,13 +18912,13 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>1353</v>
+        <v>1423</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>1354</v>
+        <v>1424</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>1355</v>
+        <v>1425</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -18859,13 +18931,13 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>1356</v>
+        <v>1426</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>1357</v>
+        <v>1427</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>1358</v>
+        <v>1428</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -18878,13 +18950,13 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>1359</v>
+        <v>1429</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1360</v>
+        <v>1430</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>1361</v>
+        <v>1431</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -18897,13 +18969,13 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>1362</v>
+        <v>1432</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>1363</v>
+        <v>1433</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>1364</v>
+        <v>1434</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -18916,13 +18988,13 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>1365</v>
+        <v>1435</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1366</v>
+        <v>1436</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>1367</v>
+        <v>1437</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -18935,10 +19007,14 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B553" s="2"/>
-      <c r="C553" s="2"/>
+        <v>1438</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C553" s="8" t="s">
+        <v>1440</v>
+      </c>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
@@ -18950,10 +19026,14 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B554" s="2"/>
-      <c r="C554" s="2"/>
+        <v>1441</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C554" s="8" t="s">
+        <v>1443</v>
+      </c>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
@@ -18965,10 +19045,14 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B555" s="2"/>
-      <c r="C555" s="2"/>
+        <v>1444</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C555" s="8" t="s">
+        <v>1446</v>
+      </c>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
@@ -18980,10 +19064,14 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B556" s="2"/>
-      <c r="C556" s="2"/>
+        <v>1447</v>
+      </c>
+      <c r="B556" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C556" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
@@ -18995,10 +19083,14 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B557" s="2"/>
-      <c r="C557" s="2"/>
+        <v>1449</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="C557" s="8" t="s">
+        <v>1450</v>
+      </c>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
@@ -19010,10 +19102,14 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B558" s="2"/>
-      <c r="C558" s="2"/>
+        <v>1451</v>
+      </c>
+      <c r="B558" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C558" s="8" t="s">
+        <v>1453</v>
+      </c>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
@@ -19025,10 +19121,14 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B559" s="2"/>
-      <c r="C559" s="2"/>
+        <v>1454</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C559" s="8" t="s">
+        <v>1456</v>
+      </c>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
@@ -19040,10 +19140,14 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B560" s="2"/>
-      <c r="C560" s="2"/>
+        <v>1457</v>
+      </c>
+      <c r="B560" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C560" s="8" t="s">
+        <v>1459</v>
+      </c>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
@@ -19055,10 +19159,14 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B561" s="2"/>
-      <c r="C561" s="2"/>
+        <v>1460</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C561" s="8" t="s">
+        <v>1462</v>
+      </c>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
@@ -19070,10 +19178,14 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B562" s="2"/>
-      <c r="C562" s="2"/>
+        <v>1463</v>
+      </c>
+      <c r="B562" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C562" s="8" t="s">
+        <v>1465</v>
+      </c>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
@@ -19085,10 +19197,14 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
+        <v>1466</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C563" s="8" t="s">
+        <v>1468</v>
+      </c>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
@@ -19100,9 +19216,11 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B564" s="2"/>
+        <v>1469</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>1470</v>
+      </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -19115,9 +19233,11 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B565" s="2"/>
+        <v>1471</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>1472</v>
+      </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -19130,9 +19250,11 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B566" s="2"/>
+        <v>1473</v>
+      </c>
+      <c r="B566" s="8" t="s">
+        <v>1474</v>
+      </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -19145,9 +19267,11 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B567" s="2"/>
+        <v>1475</v>
+      </c>
+      <c r="B567" s="8" t="s">
+        <v>1476</v>
+      </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -19160,7 +19284,7 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1383</v>
+        <v>1477</v>
       </c>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -19175,7 +19299,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1384</v>
+        <v>1478</v>
       </c>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -19190,7 +19314,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1385</v>
+        <v>1479</v>
       </c>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -19205,7 +19329,7 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1386</v>
+        <v>1480</v>
       </c>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -19220,7 +19344,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1387</v>
+        <v>1481</v>
       </c>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -19235,7 +19359,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1388</v>
+        <v>1482</v>
       </c>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -19250,7 +19374,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1389</v>
+        <v>1483</v>
       </c>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -19265,7 +19389,7 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1390</v>
+        <v>1484</v>
       </c>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -19280,7 +19404,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1391</v>
+        <v>1485</v>
       </c>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -19295,7 +19419,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1392</v>
+        <v>1486</v>
       </c>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -19310,7 +19434,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1393</v>
+        <v>1487</v>
       </c>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -19325,7 +19449,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1394</v>
+        <v>1488</v>
       </c>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -19340,7 +19464,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1395</v>
+        <v>1489</v>
       </c>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -19355,7 +19479,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1396</v>
+        <v>1490</v>
       </c>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -19370,7 +19494,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1397</v>
+        <v>1491</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -19385,7 +19509,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1398</v>
+        <v>1492</v>
       </c>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -19400,7 +19524,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1399</v>
+        <v>1493</v>
       </c>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -19415,7 +19539,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1400</v>
+        <v>1494</v>
       </c>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -19430,7 +19554,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1401</v>
+        <v>1495</v>
       </c>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -19445,7 +19569,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1402</v>
+        <v>1496</v>
       </c>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -19460,7 +19584,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1403</v>
+        <v>1497</v>
       </c>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -19475,7 +19599,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1404</v>
+        <v>1498</v>
       </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -19490,7 +19614,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1405</v>
+        <v>1499</v>
       </c>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -19505,7 +19629,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1406</v>
+        <v>1500</v>
       </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -19520,7 +19644,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1407</v>
+        <v>1501</v>
       </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -19535,7 +19659,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1408</v>
+        <v>1502</v>
       </c>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -19550,7 +19674,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1409</v>
+        <v>1503</v>
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1588" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1591" uniqueCount="1591">
   <si>
     <t>key</t>
   </si>
@@ -3599,648 +3599,657 @@
     <t>trans0454</t>
   </si>
   <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>trans0455</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>trans0456</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>trans0457</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>trans0458</t>
+  </si>
+  <si>
+    <t>用户侧的DHCP打开和关闭、租约时间（%s、%s、%s）</t>
+  </si>
+  <si>
+    <t>DHCP open, close and lease time(%s,%s,%s) in the side of user.</t>
+  </si>
+  <si>
+    <t>trans0459</t>
+  </si>
+  <si>
+    <t>子网掩码</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>trans0460</t>
+  </si>
+  <si>
+    <t>DHCP Server 状态</t>
+  </si>
+  <si>
+    <t>DHCP Server Status</t>
+  </si>
+  <si>
+    <t>trans0461</t>
+  </si>
+  <si>
+    <t>租期</t>
+  </si>
+  <si>
+    <t>Lease Time</t>
+  </si>
+  <si>
+    <t>trans0462</t>
+  </si>
+  <si>
+    <t>1 小时</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>trans0463</t>
+  </si>
+  <si>
+    <t>1 天</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>trans0464</t>
+  </si>
+  <si>
+    <t>1 周</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>trans0465</t>
+  </si>
+  <si>
+    <t>WAN和LAN IP地址不能在同一网段</t>
+  </si>
+  <si>
+    <t>The WAN and LAN IP addresses cannot be on the same network segment</t>
+  </si>
+  <si>
+    <t>trans0466</t>
+  </si>
+  <si>
+    <t>地址无效</t>
+  </si>
+  <si>
+    <t>invalid address</t>
+  </si>
+  <si>
+    <t>trans0467</t>
+  </si>
+  <si>
+    <t>结束IP必须大于开始IP</t>
+  </si>
+  <si>
+    <t>End IP must be greater than start IP</t>
+  </si>
+  <si>
+    <t>trans0468</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>Tip</t>
+  </si>
+  <si>
+    <t>trans0469</t>
+  </si>
+  <si>
+    <t>IPv6 %s 配置</t>
+  </si>
+  <si>
+    <t>IPv6 %s Configuration</t>
+  </si>
+  <si>
+    <t>trans0470</t>
+  </si>
+  <si>
+    <t>如果一个IPv6地址的首选寿命到期了，一般都禁止使用这个地址来启动新的连接</t>
+  </si>
+  <si>
+    <t>If the primary time of IPv6 address expire, it will be prohibited to start the new connection</t>
+  </si>
+  <si>
+    <t>trans0471</t>
+  </si>
+  <si>
+    <t>SLAAC</t>
+  </si>
+  <si>
+    <t>trans0472</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>trans0473</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>trans0474</t>
+  </si>
+  <si>
+    <t>%s 状态</t>
+  </si>
+  <si>
+    <t>%s Status</t>
+  </si>
+  <si>
+    <t>trans0475</t>
+  </si>
+  <si>
+    <t>RA 模式</t>
+  </si>
+  <si>
+    <t>RA Mode</t>
+  </si>
+  <si>
+    <t>trans0476</t>
+  </si>
+  <si>
+    <t>前缀</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>trans0477</t>
+  </si>
+  <si>
+    <t>前缀长度</t>
+  </si>
+  <si>
+    <t>Prefix Length</t>
+  </si>
+  <si>
+    <t>trans0478</t>
+  </si>
+  <si>
+    <t>首选寿命</t>
+  </si>
+  <si>
+    <t>Preferred Lifetime</t>
+  </si>
+  <si>
+    <t>trans0479</t>
+  </si>
+  <si>
+    <t>有效寿命</t>
+  </si>
+  <si>
+    <t>Valid Lifetime</t>
+  </si>
+  <si>
+    <t>trans0480</t>
+  </si>
+  <si>
+    <t>RA 消息最小间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA minimum interval   </t>
+  </si>
+  <si>
+    <t>trans0481</t>
+  </si>
+  <si>
+    <t>RA 消息最大间隔</t>
+  </si>
+  <si>
+    <t>RA maximal interval</t>
+  </si>
+  <si>
+    <t>trans0482</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>trans0483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed 标志  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed Flag  </t>
+  </si>
+  <si>
+    <t>trans0484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other 标志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Flag </t>
+  </si>
+  <si>
+    <t>trans0485</t>
+  </si>
+  <si>
+    <t>前缀来源</t>
+  </si>
+  <si>
+    <t>Prefix Source</t>
+  </si>
+  <si>
+    <t>trans0486</t>
+  </si>
+  <si>
+    <t>手动配置</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>trans0487</t>
+  </si>
+  <si>
+    <t>自动配置</t>
+  </si>
+  <si>
+    <t>Automatically</t>
+  </si>
+  <si>
+    <t>trans0488</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>second(s)</t>
+  </si>
+  <si>
+    <t>trans0489</t>
+  </si>
+  <si>
+    <t>分配地址格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allocation Address Format </t>
+  </si>
+  <si>
+    <t>trans0490</t>
+  </si>
+  <si>
+    <t>EUI64地址格式</t>
+  </si>
+  <si>
+    <t>EUI64 Address Format</t>
+  </si>
+  <si>
+    <t>trans0491</t>
+  </si>
+  <si>
+    <t>地址池格式</t>
+  </si>
+  <si>
+    <t>Address Pool Format</t>
+  </si>
+  <si>
+    <t>trans0492</t>
+  </si>
+  <si>
+    <t>配置模式</t>
+  </si>
+  <si>
+    <t>Configuration Mode</t>
+  </si>
+  <si>
+    <t>trans0493</t>
+  </si>
+  <si>
+    <t>域名服务器来源</t>
+  </si>
+  <si>
+    <t>DNS Server Source</t>
+  </si>
+  <si>
+    <t>trans0494</t>
+  </si>
+  <si>
+    <t>HGWProxy</t>
+  </si>
+  <si>
+    <t>trans0495</t>
+  </si>
+  <si>
+    <t>静态</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>trans0496</t>
+  </si>
+  <si>
+    <t>IPv6首选DNS</t>
+  </si>
+  <si>
+    <t>IPv6 Primary DNS</t>
+  </si>
+  <si>
+    <t>trans0497</t>
+  </si>
+  <si>
+    <t>IPv6备用DNS</t>
+  </si>
+  <si>
+    <t>IPv6 Secondary DNS</t>
+  </si>
+  <si>
+    <t>trans0498</t>
+  </si>
+  <si>
+    <t>Wi-Fi 高级</t>
+  </si>
+  <si>
+    <t>trans0499</t>
+  </si>
+  <si>
+    <t>您可以对无线网络做更多个性化的设置，适应各种无线网络环境。</t>
+  </si>
+  <si>
+    <t>trans0500</t>
+  </si>
+  <si>
+    <t>页面帮助</t>
+  </si>
+  <si>
+    <t>trans0501</t>
+  </si>
+  <si>
+    <t>Wi-Fi 信道：以无线信号作为传输媒体的数据信号传送通道，若选“自适应”，则路由器会根据周围的环境选择一个最好的信道。</t>
+  </si>
+  <si>
+    <t>trans0502</t>
+  </si>
+  <si>
+    <t>模式：设置路由器的无线工作模式。2.4G Wi-Fi 推荐使用 802.11b/g/n/ax 模式。5G Wi-Fi 推荐使用 802.11a/n/ac/ax 模式。</t>
+  </si>
+  <si>
+    <t>trans0503</t>
+  </si>
+  <si>
+    <t>Wi-Fi 频宽设置：设置无线数据传输时所占用的信道宽度，可选项有20 MHz、40 MHz、20/40 MHz、80 MHz、20/40/80 MHz和20/40/80/160 MHz。</t>
+  </si>
+  <si>
+    <t>trans0504</t>
+  </si>
+  <si>
+    <t>前导间隔设置：设置路由器发送的数据块间的保护间隔，可选项有短间隔、中间隔、长间隔。选择短间隔时，可提高路由器传输速率。</t>
+  </si>
+  <si>
+    <t>trans0505</t>
+  </si>
+  <si>
+    <t>Wi-Fi 隐身：隐藏 SSID 的名称。启用此功能，无线客户端将无法搜索到此无线网络。要加入此无线网络，须手动输入 SSID 的名称，以进一步增强无线网络的安全性。</t>
+  </si>
+  <si>
+    <t>trans0506</t>
+  </si>
+  <si>
+    <t>WMM：开启 WMM 后，路由器将具有无线服务质量功能，可提高无线客户端的视频和音频应用程序质量。</t>
+  </si>
+  <si>
+    <t>trans0507</t>
+  </si>
+  <si>
+    <t>2.4G Wi-Fi 信道</t>
+  </si>
+  <si>
+    <t>trans0508</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>trans0509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fi 频宽设置	</t>
+  </si>
+  <si>
+    <t>trans0510</t>
+  </si>
+  <si>
+    <t>自适应(1)</t>
+  </si>
+  <si>
+    <t>trans0511</t>
+  </si>
+  <si>
+    <t>802.11b/g/n mix</t>
+  </si>
+  <si>
+    <t>trans0512</t>
+  </si>
+  <si>
+    <t>802.11b/g mix</t>
+  </si>
+  <si>
+    <t>trans0513</t>
+  </si>
+  <si>
+    <t>802.11n</t>
+  </si>
+  <si>
+    <t>trans0514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802.11g </t>
+  </si>
+  <si>
+    <t>trans0515</t>
+  </si>
+  <si>
+    <t>802.11b</t>
+  </si>
+  <si>
+    <t>trans0516</t>
+  </si>
+  <si>
+    <t>20MHZ</t>
+  </si>
+  <si>
+    <t>trans0517</t>
+  </si>
+  <si>
+    <t>40MHZ</t>
+  </si>
+  <si>
+    <t>trans0518</t>
+  </si>
+  <si>
+    <t>20MHZ/40MHZ</t>
+  </si>
+  <si>
+    <t>trans0519</t>
+  </si>
+  <si>
+    <t>5G Wi-Fi</t>
+  </si>
+  <si>
+    <t>trans0520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5G Wi-Fi 信道	</t>
+  </si>
+  <si>
+    <t>trans0521</t>
+  </si>
+  <si>
+    <t>自适应(149)</t>
+  </si>
+  <si>
+    <t>trans0522</t>
+  </si>
+  <si>
+    <t>80MHz</t>
+  </si>
+  <si>
+    <t>trans0523</t>
+  </si>
+  <si>
+    <t>20/40/80MHz</t>
+  </si>
+  <si>
+    <t>trans0524</t>
+  </si>
+  <si>
+    <t>11a only</t>
+  </si>
+  <si>
+    <t>trans0525</t>
+  </si>
+  <si>
+    <t>11a/n mixed mode</t>
+  </si>
+  <si>
+    <t>trans0526</t>
+  </si>
+  <si>
+    <t>11ac/n/a</t>
+  </si>
+  <si>
+    <t>trans0527</t>
+  </si>
+  <si>
+    <t>11ac/n</t>
+  </si>
+  <si>
+    <t>trans0528</t>
+  </si>
+  <si>
+    <t>有效寿命应大于首选寿命</t>
+  </si>
+  <si>
+    <t>Valid Lifetime should be greater than Preferred Lifetime</t>
+  </si>
+  <si>
+    <t>trans0529</t>
+  </si>
+  <si>
+    <t>WIFI 高级设置</t>
+  </si>
+  <si>
+    <t>trans0530</t>
+  </si>
+  <si>
+    <t>客人 Wi-Fi</t>
+  </si>
+  <si>
+    <t>trans0531</t>
+  </si>
+  <si>
+    <t>当您家里来客人时，可以开启客人 Wi-Fi 功能。这样，您家将同时拥有主 Wi-Fi 和客人 Wi-Fi 这两个独立的 Wi-Fi 网络。客人虽然可以通过专属 Wi-Fi 上网，但不能管理您的路由器，也不能访问您家庭网络中的设备。客人 Wi-Fi 有效保证了您的网络隐私安全。</t>
+  </si>
+  <si>
+    <t>trans0532</t>
+  </si>
+  <si>
+    <t>开启时长：客人 Wi-Fi 开放使用的时长。超过设置时间，客人 Wi-Fi 将自动关闭。</t>
+  </si>
+  <si>
+    <t>trans0533</t>
+  </si>
+  <si>
+    <t>安全：选择是否为客人 Wi-Fi 网络设置密码。若选择“不加密”，则任何人都可以连接到该网络。</t>
+  </si>
+  <si>
+    <t>trans0534</t>
+  </si>
+  <si>
+    <t>客人 Wi-Fi 密码：设置加密模式下，连接客人 Wi-Fi 网络的密码。</t>
+  </si>
+  <si>
+    <t>trans0535</t>
+  </si>
+  <si>
+    <t>客人 Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0536</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>trans0537</t>
+  </si>
+  <si>
+    <t>路由器信息</t>
+  </si>
+  <si>
+    <t>Router Information</t>
+  </si>
+  <si>
+    <t>trans0538</t>
+  </si>
+  <si>
+    <t>您可以查看路由器的相关信息</t>
+  </si>
+  <si>
+    <t>You can view information about the router</t>
+  </si>
+  <si>
+    <t>trans0539</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>trans0540</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>trans0541</t>
+  </si>
+  <si>
+    <t>序列号</t>
+  </si>
+  <si>
     <t>Serial Number</t>
   </si>
   <si>
-    <t>trans0455</t>
-  </si>
-  <si>
-    <t>网络</t>
-  </si>
-  <si>
-    <t>trans0456</t>
-  </si>
-  <si>
-    <t>IPv4</t>
-  </si>
-  <si>
-    <t>trans0457</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>trans0458</t>
-  </si>
-  <si>
-    <t>用户侧的DHCP打开和关闭、租约时间（%s、%s、%s）</t>
-  </si>
-  <si>
-    <t>DHCP open, close and lease time(%s,%s,%s) in the side of user.</t>
-  </si>
-  <si>
-    <t>trans0459</t>
-  </si>
-  <si>
-    <t>子网掩码</t>
-  </si>
-  <si>
-    <t>Subnet Mask</t>
-  </si>
-  <si>
-    <t>trans0460</t>
-  </si>
-  <si>
-    <t>DHCP Server 状态</t>
-  </si>
-  <si>
-    <t>DHCP Server Status</t>
-  </si>
-  <si>
-    <t>trans0461</t>
-  </si>
-  <si>
-    <t>租期</t>
-  </si>
-  <si>
-    <t>Lease Time</t>
-  </si>
-  <si>
-    <t>trans0462</t>
-  </si>
-  <si>
-    <t>1 小时</t>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t>trans0463</t>
-  </si>
-  <si>
-    <t>1 天</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>trans0464</t>
-  </si>
-  <si>
-    <t>1 周</t>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>trans0465</t>
-  </si>
-  <si>
-    <t>WAN和LAN IP地址不能在同一网段</t>
-  </si>
-  <si>
-    <t>The WAN and LAN IP addresses cannot be on the same network segment</t>
-  </si>
-  <si>
-    <t>trans0466</t>
-  </si>
-  <si>
-    <t>地址无效</t>
-  </si>
-  <si>
-    <t>invalid address</t>
-  </si>
-  <si>
-    <t>trans0467</t>
-  </si>
-  <si>
-    <t>结束IP必须大于开始IP</t>
-  </si>
-  <si>
-    <t>End IP must be greater than start IP</t>
-  </si>
-  <si>
-    <t>trans0468</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>Tip</t>
-  </si>
-  <si>
-    <t>trans0469</t>
-  </si>
-  <si>
-    <t>IPv6 %s 配置</t>
-  </si>
-  <si>
-    <t>IPv6 %s Configuration</t>
-  </si>
-  <si>
-    <t>trans0470</t>
-  </si>
-  <si>
-    <t>如果一个IPv6地址的首选寿命到期了，一般都禁止使用这个地址来启动新的连接</t>
-  </si>
-  <si>
-    <t>If the primary time of IPv6 address expire, it will be prohibited to start the new connection</t>
-  </si>
-  <si>
-    <t>trans0471</t>
-  </si>
-  <si>
-    <t>SLAAC</t>
-  </si>
-  <si>
-    <t>trans0472</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
-    <t>trans0473</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>trans0474</t>
-  </si>
-  <si>
-    <t>%s 状态</t>
-  </si>
-  <si>
-    <t>%s Status</t>
-  </si>
-  <si>
-    <t>trans0475</t>
-  </si>
-  <si>
-    <t>RA 模式</t>
-  </si>
-  <si>
-    <t>RA Mode</t>
-  </si>
-  <si>
-    <t>trans0476</t>
-  </si>
-  <si>
-    <t>前缀</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>trans0477</t>
-  </si>
-  <si>
-    <t>前缀长度</t>
-  </si>
-  <si>
-    <t>Prefix Length</t>
-  </si>
-  <si>
-    <t>trans0478</t>
-  </si>
-  <si>
-    <t>首选寿命</t>
-  </si>
-  <si>
-    <t>Preferred Lifetime</t>
-  </si>
-  <si>
-    <t>trans0479</t>
-  </si>
-  <si>
-    <t>有效寿命</t>
-  </si>
-  <si>
-    <t>Valid Lifetime</t>
-  </si>
-  <si>
-    <t>trans0480</t>
-  </si>
-  <si>
-    <t>RA 消息最小间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA minimum interval   </t>
-  </si>
-  <si>
-    <t>trans0481</t>
-  </si>
-  <si>
-    <t>RA 消息最大间隔</t>
-  </si>
-  <si>
-    <t>RA maximal interval</t>
-  </si>
-  <si>
-    <t>trans0482</t>
-  </si>
-  <si>
-    <t>MTU</t>
-  </si>
-  <si>
-    <t>trans0483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed 标志  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed Flag  </t>
-  </si>
-  <si>
-    <t>trans0484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other 标志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Flag </t>
-  </si>
-  <si>
-    <t>trans0485</t>
-  </si>
-  <si>
-    <t>前缀来源</t>
-  </si>
-  <si>
-    <t>Prefix Source</t>
-  </si>
-  <si>
-    <t>trans0486</t>
-  </si>
-  <si>
-    <t>手动配置</t>
-  </si>
-  <si>
-    <t>Manually</t>
-  </si>
-  <si>
-    <t>trans0487</t>
-  </si>
-  <si>
-    <t>自动配置</t>
-  </si>
-  <si>
-    <t>Automatically</t>
-  </si>
-  <si>
-    <t>trans0488</t>
-  </si>
-  <si>
-    <t>秒</t>
-  </si>
-  <si>
-    <t>second(s)</t>
-  </si>
-  <si>
-    <t>trans0489</t>
-  </si>
-  <si>
-    <t>分配地址格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allocation Address Format </t>
-  </si>
-  <si>
-    <t>trans0490</t>
-  </si>
-  <si>
-    <t>EUI64地址格式</t>
-  </si>
-  <si>
-    <t>EUI64 Address Format</t>
-  </si>
-  <si>
-    <t>trans0491</t>
-  </si>
-  <si>
-    <t>地址池格式</t>
-  </si>
-  <si>
-    <t>Address Pool Format</t>
-  </si>
-  <si>
-    <t>trans0492</t>
-  </si>
-  <si>
-    <t>配置模式</t>
-  </si>
-  <si>
-    <t>Configuration Mode</t>
-  </si>
-  <si>
-    <t>trans0493</t>
-  </si>
-  <si>
-    <t>域名服务器来源</t>
-  </si>
-  <si>
-    <t>DNS Server Source</t>
-  </si>
-  <si>
-    <t>trans0494</t>
-  </si>
-  <si>
-    <t>HGWProxy</t>
-  </si>
-  <si>
-    <t>trans0495</t>
-  </si>
-  <si>
-    <t>静态</t>
-  </si>
-  <si>
-    <t>Static</t>
-  </si>
-  <si>
-    <t>trans0496</t>
-  </si>
-  <si>
-    <t>IPv6首选DNS</t>
-  </si>
-  <si>
-    <t>IPv6 Primary DNS</t>
-  </si>
-  <si>
-    <t>trans0497</t>
-  </si>
-  <si>
-    <t>IPv6备用DNS</t>
-  </si>
-  <si>
-    <t>IPv6 Secondary DNS</t>
-  </si>
-  <si>
-    <t>trans0498</t>
-  </si>
-  <si>
-    <t>Wi-Fi 高级</t>
-  </si>
-  <si>
-    <t>trans0499</t>
-  </si>
-  <si>
-    <t>您可以对无线网络做更多个性化的设置，适应各种无线网络环境。</t>
-  </si>
-  <si>
-    <t>trans0500</t>
-  </si>
-  <si>
-    <t>页面帮助</t>
-  </si>
-  <si>
-    <t>trans0501</t>
-  </si>
-  <si>
-    <t>Wi-Fi 信道：以无线信号作为传输媒体的数据信号传送通道，若选“自适应”，则路由器会根据周围的环境选择一个最好的信道。</t>
-  </si>
-  <si>
-    <t>trans0502</t>
-  </si>
-  <si>
-    <t>模式：设置路由器的无线工作模式。2.4G Wi-Fi 推荐使用 802.11b/g/n/ax 模式。5G Wi-Fi 推荐使用 802.11a/n/ac/ax 模式。</t>
-  </si>
-  <si>
-    <t>trans0503</t>
-  </si>
-  <si>
-    <t>Wi-Fi 频宽设置：设置无线数据传输时所占用的信道宽度，可选项有20 MHz、40 MHz、20/40 MHz、80 MHz、20/40/80 MHz和20/40/80/160 MHz。</t>
-  </si>
-  <si>
-    <t>trans0504</t>
-  </si>
-  <si>
-    <t>前导间隔设置：设置路由器发送的数据块间的保护间隔，可选项有短间隔、中间隔、长间隔。选择短间隔时，可提高路由器传输速率。</t>
-  </si>
-  <si>
-    <t>trans0505</t>
-  </si>
-  <si>
-    <t>Wi-Fi 隐身：隐藏 SSID 的名称。启用此功能，无线客户端将无法搜索到此无线网络。要加入此无线网络，须手动输入 SSID 的名称，以进一步增强无线网络的安全性。</t>
-  </si>
-  <si>
-    <t>trans0506</t>
-  </si>
-  <si>
-    <t>WMM：开启 WMM 后，路由器将具有无线服务质量功能，可提高无线客户端的视频和音频应用程序质量。</t>
-  </si>
-  <si>
-    <t>trans0507</t>
-  </si>
-  <si>
-    <t>2.4G Wi-Fi 信道</t>
-  </si>
-  <si>
-    <t>trans0508</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>trans0509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wi-Fi 频宽设置	</t>
-  </si>
-  <si>
-    <t>trans0510</t>
-  </si>
-  <si>
-    <t>自适应(1)</t>
-  </si>
-  <si>
-    <t>trans0511</t>
-  </si>
-  <si>
-    <t>802.11b/g/n mix</t>
-  </si>
-  <si>
-    <t>trans0512</t>
-  </si>
-  <si>
-    <t>802.11b/g mix</t>
-  </si>
-  <si>
-    <t>trans0513</t>
-  </si>
-  <si>
-    <t>802.11n</t>
-  </si>
-  <si>
-    <t>trans0514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802.11g </t>
-  </si>
-  <si>
-    <t>trans0515</t>
-  </si>
-  <si>
-    <t>802.11b</t>
-  </si>
-  <si>
-    <t>trans0516</t>
-  </si>
-  <si>
-    <t>20MHZ</t>
-  </si>
-  <si>
-    <t>trans0517</t>
-  </si>
-  <si>
-    <t>40MHZ</t>
-  </si>
-  <si>
-    <t>trans0518</t>
-  </si>
-  <si>
-    <t>20MHZ/40MHZ</t>
-  </si>
-  <si>
-    <t>trans0519</t>
-  </si>
-  <si>
-    <t>5G Wi-Fi</t>
-  </si>
-  <si>
-    <t>trans0520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5G Wi-Fi 信道	</t>
-  </si>
-  <si>
-    <t>trans0521</t>
-  </si>
-  <si>
-    <t>自适应(149)</t>
-  </si>
-  <si>
-    <t>trans0522</t>
-  </si>
-  <si>
-    <t>80MHz</t>
-  </si>
-  <si>
-    <t>trans0523</t>
-  </si>
-  <si>
-    <t>20/40/80MHz</t>
-  </si>
-  <si>
-    <t>trans0524</t>
-  </si>
-  <si>
-    <t>11a only</t>
-  </si>
-  <si>
-    <t>trans0525</t>
-  </si>
-  <si>
-    <t>11a/n mixed mode</t>
-  </si>
-  <si>
-    <t>trans0526</t>
-  </si>
-  <si>
-    <t>11ac/n/a</t>
-  </si>
-  <si>
-    <t>trans0527</t>
-  </si>
-  <si>
-    <t>11ac/n</t>
-  </si>
-  <si>
-    <t>trans0528</t>
-  </si>
-  <si>
-    <t>有效寿命应大于首选寿命</t>
-  </si>
-  <si>
-    <t>Valid Lifetime should be greater than Preferred Lifetime</t>
-  </si>
-  <si>
-    <t>trans0529</t>
-  </si>
-  <si>
-    <t>WIFI 高级设置</t>
-  </si>
-  <si>
-    <t>trans0530</t>
-  </si>
-  <si>
-    <t>客人 Wi-Fi</t>
-  </si>
-  <si>
-    <t>trans0531</t>
-  </si>
-  <si>
-    <t>当您家里来客人时，可以开启客人 Wi-Fi 功能。这样，您家将同时拥有主 Wi-Fi 和客人 Wi-Fi 这两个独立的 Wi-Fi 网络。客人虽然可以通过专属 Wi-Fi 上网，但不能管理您的路由器，也不能访问您家庭网络中的设备。客人 Wi-Fi 有效保证了您的网络隐私安全。</t>
-  </si>
-  <si>
-    <t>trans0532</t>
-  </si>
-  <si>
-    <t>开启时长：客人 Wi-Fi 开放使用的时长。超过设置时间，客人 Wi-Fi 将自动关闭。</t>
-  </si>
-  <si>
-    <t>trans0533</t>
-  </si>
-  <si>
-    <t>安全：选择是否为客人 Wi-Fi 网络设置密码。若选择“不加密”，则任何人都可以连接到该网络。</t>
-  </si>
-  <si>
-    <t>trans0534</t>
-  </si>
-  <si>
-    <t>客人 Wi-Fi 密码：设置加密模式下，连接客人 Wi-Fi 网络的密码。</t>
-  </si>
-  <si>
-    <t>trans0535</t>
-  </si>
-  <si>
-    <t>客人 Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0536</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>trans0537</t>
-  </si>
-  <si>
-    <t>路由器信息</t>
-  </si>
-  <si>
-    <t>Router Information</t>
-  </si>
-  <si>
-    <t>trans0538</t>
-  </si>
-  <si>
-    <t>您可以查看路由器的相关信息</t>
-  </si>
-  <si>
-    <t>You can view information about the router</t>
-  </si>
-  <si>
-    <t>trans0539</t>
-  </si>
-  <si>
-    <t>基本信息</t>
-  </si>
-  <si>
-    <t>Basic Information</t>
-  </si>
-  <si>
-    <t>trans0540</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>trans0541</t>
-  </si>
-  <si>
     <t>trans0542</t>
   </si>
   <si>
@@ -4370,7 +4379,7 @@
     <t>trans0556</t>
   </si>
   <si>
-    <t>Destination 地址</t>
+    <t>目的地址</t>
   </si>
   <si>
     <t>trans0557</t>
@@ -5604,7 +5613,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8852,7 +8861,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8890,10 +8899,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8909,7 +8918,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8928,13 +8937,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9045,10 +9054,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9232,10 +9241,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -9251,10 +9260,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9268,10 +9277,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9285,10 +9294,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9302,10 +9311,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9319,10 +9328,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9336,10 +9345,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -9355,10 +9364,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9372,10 +9381,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -9391,10 +9400,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -9410,10 +9419,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -9429,10 +9438,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9446,10 +9455,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9463,10 +9472,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9480,10 +9489,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9497,10 +9506,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9514,10 +9523,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -9533,10 +9542,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9550,10 +9559,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9567,10 +9576,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9584,10 +9593,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9601,10 +9610,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9618,10 +9627,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9635,10 +9644,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9652,10 +9661,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9669,10 +9678,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9686,10 +9695,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9703,10 +9712,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9720,10 +9729,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9737,10 +9746,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9754,7 +9763,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9771,7 +9780,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9788,7 +9797,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -10089,10 +10098,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10108,10 +10117,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10127,10 +10136,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10146,7 +10155,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>109</v>
@@ -10165,7 +10174,7 @@
         <v>110</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>111</v>
@@ -10184,7 +10193,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>113</v>
@@ -10203,10 +10212,10 @@
         <v>114</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10949,7 +10958,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -17209,10 +17218,10 @@
         <v>1190</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>187</v>
+        <v>1191</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -17225,10 +17234,10 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>104</v>
@@ -17244,13 +17253,13 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -17263,13 +17272,13 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -17282,13 +17291,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -17301,13 +17310,13 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -17320,13 +17329,13 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -17339,13 +17348,13 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -17358,13 +17367,13 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -17377,13 +17386,13 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -17396,13 +17405,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -17415,13 +17424,13 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -17434,13 +17443,13 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -17453,13 +17462,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -17472,13 +17481,13 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -17491,13 +17500,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -17510,13 +17519,13 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -17529,13 +17538,13 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -17548,13 +17557,13 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -17567,13 +17576,13 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -17586,13 +17595,13 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -17605,13 +17614,13 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -17624,13 +17633,13 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -17643,13 +17652,13 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -17662,13 +17671,13 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -17681,13 +17690,13 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -17700,13 +17709,13 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -17719,13 +17728,13 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -17738,13 +17747,13 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -17757,13 +17766,13 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -17776,13 +17785,13 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -17795,13 +17804,13 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -17814,13 +17823,13 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -17833,13 +17842,13 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -17852,13 +17861,13 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -17871,13 +17880,13 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -17890,13 +17899,13 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -17909,13 +17918,13 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -17928,13 +17937,13 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -17947,13 +17956,13 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -17966,13 +17975,13 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -17985,13 +17994,13 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -18004,13 +18013,13 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -18023,13 +18032,13 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -18042,10 +18051,10 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -18059,10 +18068,10 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -18076,10 +18085,10 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -18093,10 +18102,10 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -18110,10 +18119,10 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -18127,10 +18136,10 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -18144,10 +18153,10 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -18161,10 +18170,10 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -18178,10 +18187,10 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -18195,10 +18204,10 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -18212,10 +18221,10 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -18229,10 +18238,10 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -18246,10 +18255,10 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -18263,10 +18272,10 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -18280,10 +18289,10 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -18297,10 +18306,10 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -18314,10 +18323,10 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -18331,10 +18340,10 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -18348,10 +18357,10 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -18365,10 +18374,10 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -18382,10 +18391,10 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -18399,10 +18408,10 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -18416,10 +18425,10 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -18433,10 +18442,10 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -18450,10 +18459,10 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -18467,10 +18476,10 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -18484,10 +18493,10 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -18501,10 +18510,10 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -18518,10 +18527,10 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -18535,10 +18544,10 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -18552,13 +18561,13 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -18571,10 +18580,10 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -18588,10 +18597,10 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -18605,10 +18614,10 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -18622,10 +18631,10 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -18639,10 +18648,10 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -18656,10 +18665,10 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -18673,10 +18682,10 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -18690,10 +18699,10 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -18707,13 +18716,13 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -18726,13 +18735,13 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -18745,13 +18754,13 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -18764,13 +18773,13 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -18783,10 +18792,14 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B541" s="8"/>
-      <c r="C541" s="2"/>
+        <v>1405</v>
+      </c>
+      <c r="B541" s="8" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C541" s="8" t="s">
+        <v>1407</v>
+      </c>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
@@ -18798,13 +18811,13 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -18817,13 +18830,13 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -18836,13 +18849,13 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -18855,13 +18868,13 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -18874,13 +18887,13 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -18893,13 +18906,13 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -18912,13 +18925,13 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -18931,13 +18944,13 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -18950,13 +18963,13 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -18969,13 +18982,13 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -18988,13 +19001,13 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -19007,13 +19020,13 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -19026,13 +19039,13 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -19045,13 +19058,13 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -19064,10 +19077,10 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>269</v>
@@ -19083,13 +19096,13 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B557" s="8" t="s">
         <v>967</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -19102,13 +19115,13 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -19121,13 +19134,13 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -19140,13 +19153,13 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -19159,13 +19172,13 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -19178,13 +19191,13 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -19197,13 +19210,13 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -19216,10 +19229,10 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -19233,10 +19246,10 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -19250,10 +19263,10 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -19267,10 +19280,10 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -19284,7 +19297,7 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -19299,7 +19312,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -19314,7 +19327,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -19329,7 +19342,7 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -19344,7 +19357,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -19359,7 +19372,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -19374,7 +19387,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -19389,7 +19402,7 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -19404,7 +19417,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -19419,7 +19432,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -19434,7 +19447,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -19449,7 +19462,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -19464,7 +19477,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -19479,7 +19492,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -19494,7 +19507,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -19509,7 +19522,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -19524,7 +19537,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -19539,7 +19552,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -19554,7 +19567,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -19569,7 +19582,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -19584,7 +19597,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -19599,7 +19612,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -19614,7 +19627,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -19629,7 +19642,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -19644,7 +19657,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -19659,7 +19672,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -19674,7 +19687,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1591" uniqueCount="1591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1607" uniqueCount="1607">
   <si>
     <t>key</t>
   </si>
@@ -1458,7 +1458,7 @@
     <t>trans0224</t>
   </si>
   <si>
-    <t>回复出厂默认配置</t>
+    <t>恢复出厂默认配置</t>
   </si>
   <si>
     <t xml:space="preserve"> Reset to Defaults</t>
@@ -1467,7 +1467,7 @@
     <t>trans0225</t>
   </si>
   <si>
-    <t>确定回复出厂默认配置吗？</t>
+    <t>确定恢复出厂默认配置吗？</t>
   </si>
   <si>
     <t>Are you sure to reset to defaults?</t>
@@ -4469,25 +4469,73 @@
     <t>trans0568</t>
   </si>
   <si>
+    <t>Mesh 设置</t>
+  </si>
+  <si>
+    <t>Mesh Settings</t>
+  </si>
+  <si>
     <t>trans0569</t>
   </si>
   <si>
+    <t>协商结果</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
+  </si>
+  <si>
     <t>trans0570</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>trans0571</t>
   </si>
   <si>
+    <t>自动</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
     <t>trans0572</t>
   </si>
   <si>
+    <t>主设备</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
     <t>trans0573</t>
   </si>
   <si>
+    <t>从设备</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
     <t>trans0574</t>
   </si>
   <si>
+    <t>触发组网</t>
+  </si>
+  <si>
+    <t>Trigger Onboarding</t>
+  </si>
+  <si>
     <t>trans0575</t>
+  </si>
+  <si>
+    <t>在该页面查看Mesh状态或者修改Mesh设置。启用Mesh时，可以同时设置设备的角色，也可以在该页面触发Mesh组网过程</t>
+  </si>
+  <si>
+    <t>View Mesh Status or modify Mesh settings on this page. When Mesh is enabled, the role of the device can be set at the same time, or the Mesh network process can be triggered on this page</t>
   </si>
   <si>
     <t>trans0576</t>
@@ -5613,7 +5661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8861,7 +8909,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1507</v>
+        <v>1523</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8899,10 +8947,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8918,7 +8966,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1510</v>
+        <v>1526</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8937,13 +8985,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1511</v>
+        <v>1527</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1512</v>
+        <v>1528</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1513</v>
+        <v>1529</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9054,10 +9102,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1515</v>
+        <v>1531</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9241,10 +9289,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1516</v>
+        <v>1532</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1517</v>
+        <v>1533</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -9260,10 +9308,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1518</v>
+        <v>1534</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1519</v>
+        <v>1535</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9277,10 +9325,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1520</v>
+        <v>1536</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1521</v>
+        <v>1537</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9294,10 +9342,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1522</v>
+        <v>1538</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1523</v>
+        <v>1539</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9311,10 +9359,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1524</v>
+        <v>1540</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1525</v>
+        <v>1541</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9328,10 +9376,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1526</v>
+        <v>1542</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1527</v>
+        <v>1543</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9345,10 +9393,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1528</v>
+        <v>1544</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1529</v>
+        <v>1545</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -9364,10 +9412,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1530</v>
+        <v>1546</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1531</v>
+        <v>1547</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9381,10 +9429,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1532</v>
+        <v>1548</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1533</v>
+        <v>1549</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -9400,10 +9448,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1534</v>
+        <v>1550</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1535</v>
+        <v>1551</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -9419,10 +9467,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1536</v>
+        <v>1552</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1537</v>
+        <v>1553</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -9438,10 +9486,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1538</v>
+        <v>1554</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1539</v>
+        <v>1555</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9455,10 +9503,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1540</v>
+        <v>1556</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1541</v>
+        <v>1557</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9472,10 +9520,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1542</v>
+        <v>1558</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1543</v>
+        <v>1559</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9489,10 +9537,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1545</v>
+        <v>1561</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9506,10 +9554,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1546</v>
+        <v>1562</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9523,10 +9571,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1549</v>
+        <v>1565</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -9542,10 +9590,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1550</v>
+        <v>1566</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9559,10 +9607,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1552</v>
+        <v>1568</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1553</v>
+        <v>1569</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9576,10 +9624,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1554</v>
+        <v>1570</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1555</v>
+        <v>1571</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9593,10 +9641,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1556</v>
+        <v>1572</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1557</v>
+        <v>1573</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9610,10 +9658,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1558</v>
+        <v>1574</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1559</v>
+        <v>1575</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9627,10 +9675,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1561</v>
+        <v>1577</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9644,10 +9692,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1562</v>
+        <v>1578</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1563</v>
+        <v>1579</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9661,10 +9709,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1565</v>
+        <v>1581</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9678,10 +9726,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1566</v>
+        <v>1582</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1567</v>
+        <v>1583</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9695,10 +9743,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1568</v>
+        <v>1584</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1569</v>
+        <v>1585</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9712,10 +9760,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1571</v>
+        <v>1587</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9729,10 +9777,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1572</v>
+        <v>1588</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1573</v>
+        <v>1589</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9746,10 +9794,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1574</v>
+        <v>1590</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1575</v>
+        <v>1591</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9763,7 +9811,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9780,7 +9828,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1577</v>
+        <v>1593</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9797,7 +9845,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1578</v>
+        <v>1594</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -10098,10 +10146,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1579</v>
+        <v>1595</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10117,10 +10165,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1581</v>
+        <v>1597</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1582</v>
+        <v>1598</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10136,10 +10184,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1583</v>
+        <v>1599</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1584</v>
+        <v>1600</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10155,7 +10203,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1585</v>
+        <v>1601</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>109</v>
@@ -10174,7 +10222,7 @@
         <v>110</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>111</v>
@@ -10193,7 +10241,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>113</v>
@@ -10212,10 +10260,10 @@
         <v>114</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1588</v>
+        <v>1604</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1589</v>
+        <v>1605</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -10958,7 +11006,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1590</v>
+        <v>1606</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -19299,8 +19347,12 @@
       <c r="A568" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="B568" s="2"/>
-      <c r="C568" s="2"/>
+      <c r="B568" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C568" s="8" t="s">
+        <v>1482</v>
+      </c>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
@@ -19312,10 +19364,14 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B569" s="2"/>
-      <c r="C569" s="2"/>
+        <v>1483</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C569" s="8" t="s">
+        <v>1485</v>
+      </c>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
@@ -19327,10 +19383,14 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B570" s="2"/>
-      <c r="C570" s="2"/>
+        <v>1486</v>
+      </c>
+      <c r="B570" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C570" s="8" t="s">
+        <v>1488</v>
+      </c>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
@@ -19342,10 +19402,14 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B571" s="2"/>
-      <c r="C571" s="2"/>
+        <v>1489</v>
+      </c>
+      <c r="B571" s="8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C571" s="8" t="s">
+        <v>1491</v>
+      </c>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
@@ -19357,10 +19421,14 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B572" s="2"/>
-      <c r="C572" s="2"/>
+        <v>1492</v>
+      </c>
+      <c r="B572" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C572" s="8" t="s">
+        <v>1494</v>
+      </c>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
@@ -19372,10 +19440,14 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B573" s="2"/>
-      <c r="C573" s="2"/>
+        <v>1495</v>
+      </c>
+      <c r="B573" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C573" s="8" t="s">
+        <v>1497</v>
+      </c>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
@@ -19387,10 +19459,14 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B574" s="2"/>
-      <c r="C574" s="2"/>
+        <v>1498</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C574" s="8" t="s">
+        <v>1500</v>
+      </c>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
@@ -19402,10 +19478,14 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B575" s="2"/>
-      <c r="C575" s="2"/>
+        <v>1501</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C575" s="8" t="s">
+        <v>1503</v>
+      </c>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
@@ -19417,10 +19497,10 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1488</v>
+        <v>1504</v>
       </c>
       <c r="B576" s="2"/>
-      <c r="C576" s="2"/>
+      <c r="C576" s="12"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
@@ -19432,7 +19512,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -19447,7 +19527,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1490</v>
+        <v>1506</v>
       </c>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -19462,7 +19542,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1491</v>
+        <v>1507</v>
       </c>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -19477,7 +19557,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1492</v>
+        <v>1508</v>
       </c>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -19492,7 +19572,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1493</v>
+        <v>1509</v>
       </c>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -19507,7 +19587,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1494</v>
+        <v>1510</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -19522,7 +19602,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1495</v>
+        <v>1511</v>
       </c>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -19537,7 +19617,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1496</v>
+        <v>1512</v>
       </c>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -19552,7 +19632,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1497</v>
+        <v>1513</v>
       </c>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -19567,7 +19647,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1498</v>
+        <v>1514</v>
       </c>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -19582,7 +19662,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1499</v>
+        <v>1515</v>
       </c>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -19597,7 +19677,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -19612,7 +19692,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1501</v>
+        <v>1517</v>
       </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -19627,7 +19707,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -19642,7 +19722,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1503</v>
+        <v>1519</v>
       </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -19657,7 +19737,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1504</v>
+        <v>1520</v>
       </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -19672,7 +19752,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1505</v>
+        <v>1521</v>
       </c>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -19687,7 +19767,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1506</v>
+        <v>1522</v>
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1607" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1609" uniqueCount="1609">
   <si>
     <t>key</t>
   </si>
@@ -4539,6 +4539,12 @@
   </si>
   <si>
     <t>trans0576</t>
+  </si>
+  <si>
+    <t>正在应用设置，请稍候</t>
+  </si>
+  <si>
+    <t>Please wait while the settings are being applied</t>
   </si>
   <si>
     <t>trans0577</t>
@@ -8909,7 +8915,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -8947,10 +8953,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -8966,7 +8972,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -8985,13 +8991,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9102,10 +9108,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9289,10 +9295,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -9308,10 +9314,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9325,10 +9331,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9342,10 +9348,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9359,10 +9365,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9376,10 +9382,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9393,10 +9399,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>55</v>
@@ -9412,10 +9418,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9429,10 +9435,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>56</v>
@@ -9448,10 +9454,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>57</v>
@@ -9467,10 +9473,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>58</v>
@@ -9486,10 +9492,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9503,10 +9509,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9520,10 +9526,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9537,10 +9543,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9554,10 +9560,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9571,10 +9577,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>59</v>
@@ -9590,10 +9596,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9607,10 +9613,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9624,10 +9630,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9641,10 +9647,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9658,10 +9664,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9675,10 +9681,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9692,10 +9698,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9709,10 +9715,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -9726,10 +9732,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -9743,10 +9749,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -9760,10 +9766,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -9777,10 +9783,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -9794,10 +9800,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -9811,7 +9817,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
@@ -9828,7 +9834,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>61</v>
@@ -9845,7 +9851,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
@@ -10146,10 +10152,10 @@
         <v>105</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10165,10 +10171,10 @@
         <v>106</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10184,10 +10190,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10203,7 +10209,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>109</v>
@@ -10222,7 +10228,7 @@
         <v>110</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>111</v>
@@ -10241,7 +10247,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>113</v>
@@ -10260,10 +10266,10 @@
         <v>114</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11006,7 +11012,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -19499,8 +19505,12 @@
       <c r="A576" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="B576" s="2"/>
-      <c r="C576" s="12"/>
+      <c r="B576" s="8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C576" s="8" t="s">
+        <v>1506</v>
+      </c>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
@@ -19512,7 +19522,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -19527,7 +19537,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -19542,7 +19552,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -19557,7 +19567,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -19572,7 +19582,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -19587,7 +19597,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -19602,7 +19612,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -19617,7 +19627,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -19632,7 +19642,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -19647,7 +19657,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -19662,7 +19672,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -19677,7 +19687,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -19692,7 +19702,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -19707,7 +19717,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -19722,7 +19732,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -19737,7 +19747,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -19752,7 +19762,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -19767,7 +19777,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:workbook xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<ns2:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <ns2:workbookPr date1904="false"/>
   <ns2:bookViews>
     <ns2:workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:sst xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1625" uniqueCount="1625">
+<ns2:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1655" uniqueCount="1655">
   <ns2:si>
     <ns2:t>key</ns2:t>
   </ns2:si>
@@ -2090,6 +2090,216 @@
     <ns2:t>Brasilia</ns2:t>
   </ns2:si>
   <ns2:si>
+    <ns2:t>trans0001</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0003</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0004</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0005</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s太长了</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s is too long</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>您已经 %d 次用户名或密码输入错误（最多：三次）</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>You already login incorrectly for %d time (up to 3 times)</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0021</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>确定要退出登录吗?</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0022</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0023</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s 优选</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0024</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0025</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0026</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0027</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0028</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>路由器重启后，%s Wi-Fi 将自动开启</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0029</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Wi-Fi 名称</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0030</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Wi-Fi 密码</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0031</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>安全</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0032</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0033</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>不加密</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0034</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>WPA2 PSK 模式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0035</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>WPA/WPA2 PSK 混合模式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0036</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>WPA2 PSK/WPA3 SAE 混合模式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0037</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0038</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0039</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>将 Wi-Fi 密码作为路由器登录密码</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0040</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Wi-Fi 5 备用网络</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0041</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0042</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s 名称</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0043</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>密码保持与对应频段的 Wi-Fi 密码一致</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0044</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Wi-Fi 功率模式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0045</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>睡眠</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0046</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>一般</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0047</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>穿墙</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0048</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0049</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>2.4G</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0050</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>5G</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0051</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0052</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0053</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>Acl</ns2:t>
+  </ns2:si>
+  <ns2:si>
     <ns2:t>trans0300</ns2:t>
   </ns2:si>
   <ns2:si>
@@ -4406,7 +4616,7 @@
     <ns2:t>trans0588</ns2:t>
   </ns2:si>
   <ns2:si>
-    <ns2:t>用网线连接光猫与新路由</ns2:t>
+    <ns2:t>已用网线连接光猫与新路由</ns2:t>
   </ns2:si>
   <ns2:si>
     <ns2:t>trans0589</ns2:t>
@@ -4436,217 +4646,97 @@
     <ns2:t>trans0593</ns2:t>
   </ns2:si>
   <ns2:si>
+    <ns2:t>%s信息</ns2:t>
+  </ns2:si>
+  <ns2:si>
     <ns2:t>trans0594</ns2:t>
   </ns2:si>
   <ns2:si>
-    <ns2:t>trans0001</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0003</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0004</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0005</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>%s太长了</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>%s is too long</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>您已经 %d 次用户名或密码输入错误（最多：三次）</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>You already login incorrectly for %d time (up to 3 times)</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0021</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>确定要退出登录吗?</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0022</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0023</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>%s 优选</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0024</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0025</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0026</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0027</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0028</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>路由器重启后，%s Wi-Fi 将自动开启</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0029</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Wi-Fi 名称</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0030</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Wi-Fi 密码</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0031</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>安全</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0032</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0033</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>不加密</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0034</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>WPA2 PSK 模式</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0035</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>WPA/WPA2 PSK 混合模式</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0036</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>WPA2 PSK/WPA3 SAE 混合模式</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0037</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0038</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0039</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>将 Wi-Fi 密码作为路由器登录密码</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0040</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Wi-Fi 5 备用网络</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0041</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0042</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>%s 名称</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0043</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>密码保持与对应频段的 Wi-Fi 密码一致</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0044</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Wi-Fi 功率模式</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0045</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>睡眠</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0046</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>一般</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0047</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>穿墙</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0048</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0049</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>2.4G</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0050</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>5G</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0051</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0052</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>trans0053</ns2:t>
-  </ns2:si>
-  <ns2:si>
-    <ns2:t>Acl</ns2:t>
+    <ns2:t>获取前缀</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0595</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s前缀获取方式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0596</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s前缀</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0597</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>获取地址方式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0598</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%地址</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0599</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>默认%网关</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0600</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>首选%s DNS</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0601</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>备选%s DNS</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0602</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>PrefixDelegation</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0603</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0604</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>IP模式</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0605</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>IPv4/IPv6</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0606</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>正在检测网线连接状态</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0607</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>暂不配置网络</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0608</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>%s前缀长度</ns2:t>
+  </ns2:si>
+  <ns2:si>
+    <ns2:t>trans0609</ns2:t>
   </ns2:si>
   <ns2:si>
     <ns2:r>
@@ -5715,7 +5805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5976,7 +6066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:worksheet xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<ns2:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <ns2:dimension ref="A1"/>
   <ns2:sheetViews>
     <ns2:sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
@@ -6016,7 +6106,7 @@
     </ns2:row>
     <ns2:row r="2">
       <ns2:c r="A2" s="1" t="s">
-        <ns2:v>1471</ns2:v>
+        <ns2:v>690</ns2:v>
       </ns2:c>
       <ns2:c r="B2" s="3" t="s">
         <ns2:v>3</ns2:v>
@@ -6054,10 +6144,10 @@
     </ns2:row>
     <ns2:row r="4">
       <ns2:c r="A4" s="1" t="s">
-        <ns2:v>1472</ns2:v>
+        <ns2:v>691</ns2:v>
       </ns2:c>
       <ns2:c r="B4" s="3" t="s">
-        <ns2:v>1473</ns2:v>
+        <ns2:v>692</ns2:v>
       </ns2:c>
       <ns2:c r="C4" s="3" t="s">
         <ns2:v>8</ns2:v>
@@ -6073,7 +6163,7 @@
     </ns2:row>
     <ns2:row r="5">
       <ns2:c r="A5" s="1" t="s">
-        <ns2:v>1474</ns2:v>
+        <ns2:v>693</ns2:v>
       </ns2:c>
       <ns2:c r="B5" s="3" t="s">
         <ns2:v>9</ns2:v>
@@ -6092,13 +6182,13 @@
     </ns2:row>
     <ns2:row r="6">
       <ns2:c r="A6" s="1" t="s">
-        <ns2:v>1475</ns2:v>
+        <ns2:v>694</ns2:v>
       </ns2:c>
       <ns2:c r="B6" s="3" t="s">
-        <ns2:v>1476</ns2:v>
+        <ns2:v>695</ns2:v>
       </ns2:c>
       <ns2:c r="C6" s="3" t="s">
-        <ns2:v>1477</ns2:v>
+        <ns2:v>696</ns2:v>
       </ns2:c>
       <ns2:c r="D6" s="2"/>
       <ns2:c r="E6" s="2"/>
@@ -6209,10 +6299,10 @@
         <ns2:v>26</ns2:v>
       </ns2:c>
       <ns2:c r="B12" s="3" t="s">
-        <ns2:v>1478</ns2:v>
+        <ns2:v>697</ns2:v>
       </ns2:c>
       <ns2:c r="C12" s="3" t="s">
-        <ns2:v>1479</ns2:v>
+        <ns2:v>698</ns2:v>
       </ns2:c>
       <ns2:c r="D12" s="2"/>
       <ns2:c r="E12" s="2"/>
@@ -6396,10 +6486,10 @@
     </ns2:row>
     <ns2:row r="22">
       <ns2:c r="A22" s="1" t="s">
-        <ns2:v>1480</ns2:v>
+        <ns2:v>699</ns2:v>
       </ns2:c>
       <ns2:c r="B22" s="3" t="s">
-        <ns2:v>1481</ns2:v>
+        <ns2:v>700</ns2:v>
       </ns2:c>
       <ns2:c r="C22" s="3" t="s">
         <ns2:v>54</ns2:v>
@@ -6415,10 +6505,10 @@
     </ns2:row>
     <ns2:row r="23">
       <ns2:c r="A23" s="1" t="s">
-        <ns2:v>1482</ns2:v>
+        <ns2:v>701</ns2:v>
       </ns2:c>
       <ns2:c r="B23" s="4" t="s">
-        <ns2:v>1483</ns2:v>
+        <ns2:v>702</ns2:v>
       </ns2:c>
       <ns2:c r="C23" s="5"/>
       <ns2:c r="D23" s="2"/>
@@ -6432,10 +6522,10 @@
     </ns2:row>
     <ns2:row r="24">
       <ns2:c r="A24" s="1" t="s">
-        <ns2:v>1484</ns2:v>
+        <ns2:v>703</ns2:v>
       </ns2:c>
       <ns2:c r="B24" s="4" t="s">
-        <ns2:v>1485</ns2:v>
+        <ns2:v>704</ns2:v>
       </ns2:c>
       <ns2:c r="C24" s="5"/>
       <ns2:c r="D24" s="2"/>
@@ -6449,10 +6539,10 @@
     </ns2:row>
     <ns2:row r="25">
       <ns2:c r="A25" s="1" t="s">
-        <ns2:v>1486</ns2:v>
+        <ns2:v>705</ns2:v>
       </ns2:c>
       <ns2:c r="B25" s="4" t="s">
-        <ns2:v>1487</ns2:v>
+        <ns2:v>706</ns2:v>
       </ns2:c>
       <ns2:c r="C25" s="5"/>
       <ns2:c r="D25" s="2"/>
@@ -6466,10 +6556,10 @@
     </ns2:row>
     <ns2:row r="26">
       <ns2:c r="A26" s="1" t="s">
-        <ns2:v>1488</ns2:v>
+        <ns2:v>707</ns2:v>
       </ns2:c>
       <ns2:c r="B26" s="6" t="s">
-        <ns2:v>1489</ns2:v>
+        <ns2:v>708</ns2:v>
       </ns2:c>
       <ns2:c r="C26" s="5"/>
       <ns2:c r="D26" s="2"/>
@@ -6483,10 +6573,10 @@
     </ns2:row>
     <ns2:row r="27">
       <ns2:c r="A27" s="1" t="s">
-        <ns2:v>1490</ns2:v>
+        <ns2:v>709</ns2:v>
       </ns2:c>
       <ns2:c r="B27" s="6" t="s">
-        <ns2:v>1491</ns2:v>
+        <ns2:v>710</ns2:v>
       </ns2:c>
       <ns2:c r="C27" s="7"/>
       <ns2:c r="D27" s="2"/>
@@ -6500,7 +6590,7 @@
     </ns2:row>
     <ns2:row r="28">
       <ns2:c r="A28" s="1" t="s">
-        <ns2:v>1492</ns2:v>
+        <ns2:v>711</ns2:v>
       </ns2:c>
       <ns2:c r="B28" s="6" t="s">
         <ns2:v>55</ns2:v>
@@ -6517,10 +6607,10 @@
     </ns2:row>
     <ns2:row r="29">
       <ns2:c r="A29" s="1" t="s">
-        <ns2:v>1493</ns2:v>
+        <ns2:v>712</ns2:v>
       </ns2:c>
       <ns2:c r="B29" s="6" t="s">
-        <ns2:v>1494</ns2:v>
+        <ns2:v>713</ns2:v>
       </ns2:c>
       <ns2:c r="C29" s="7"/>
       <ns2:c r="D29" s="2"/>
@@ -6534,10 +6624,10 @@
     </ns2:row>
     <ns2:row r="30">
       <ns2:c r="A30" s="1" t="s">
-        <ns2:v>1495</ns2:v>
+        <ns2:v>714</ns2:v>
       </ns2:c>
       <ns2:c r="B30" s="6" t="s">
-        <ns2:v>1496</ns2:v>
+        <ns2:v>715</ns2:v>
       </ns2:c>
       <ns2:c r="C30" s="7"/>
       <ns2:c r="D30" s="2"/>
@@ -6551,10 +6641,10 @@
     </ns2:row>
     <ns2:row r="31">
       <ns2:c r="A31" s="1" t="s">
-        <ns2:v>1497</ns2:v>
+        <ns2:v>716</ns2:v>
       </ns2:c>
       <ns2:c r="B31" s="6" t="s">
-        <ns2:v>1498</ns2:v>
+        <ns2:v>717</ns2:v>
       </ns2:c>
       <ns2:c r="C31" s="7"/>
       <ns2:c r="D31" s="2"/>
@@ -6568,10 +6658,10 @@
     </ns2:row>
     <ns2:row r="32">
       <ns2:c r="A32" s="1" t="s">
-        <ns2:v>1499</ns2:v>
+        <ns2:v>718</ns2:v>
       </ns2:c>
       <ns2:c r="B32" s="6" t="s">
-        <ns2:v>1500</ns2:v>
+        <ns2:v>719</ns2:v>
       </ns2:c>
       <ns2:c r="C32" s="7"/>
       <ns2:c r="D32" s="2"/>
@@ -6585,10 +6675,10 @@
     </ns2:row>
     <ns2:row r="33">
       <ns2:c r="A33" s="1" t="s">
-        <ns2:v>1501</ns2:v>
+        <ns2:v>720</ns2:v>
       </ns2:c>
       <ns2:c r="B33" s="6" t="s">
-        <ns2:v>1502</ns2:v>
+        <ns2:v>721</ns2:v>
       </ns2:c>
       <ns2:c r="C33" s="7"/>
       <ns2:c r="D33" s="2"/>
@@ -6602,10 +6692,10 @@
     </ns2:row>
     <ns2:row r="34">
       <ns2:c r="A34" s="1" t="s">
-        <ns2:v>1503</ns2:v>
+        <ns2:v>722</ns2:v>
       </ns2:c>
       <ns2:c r="B34" s="6" t="s">
-        <ns2:v>1504</ns2:v>
+        <ns2:v>723</ns2:v>
       </ns2:c>
       <ns2:c r="C34" s="7"/>
       <ns2:c r="D34" s="2"/>
@@ -6619,10 +6709,10 @@
     </ns2:row>
     <ns2:row r="35">
       <ns2:c r="A35" s="1" t="s">
-        <ns2:v>1505</ns2:v>
+        <ns2:v>724</ns2:v>
       </ns2:c>
       <ns2:c r="B35" s="6" t="s">
-        <ns2:v>1506</ns2:v>
+        <ns2:v>725</ns2:v>
       </ns2:c>
       <ns2:c r="C35" s="7"/>
       <ns2:c r="D35" s="2"/>
@@ -6636,10 +6726,10 @@
     </ns2:row>
     <ns2:row r="36">
       <ns2:c r="A36" s="1" t="s">
-        <ns2:v>1507</ns2:v>
+        <ns2:v>726</ns2:v>
       </ns2:c>
       <ns2:c r="B36" s="6" t="s">
-        <ns2:v>1508</ns2:v>
+        <ns2:v>727</ns2:v>
       </ns2:c>
       <ns2:c r="C36" s="7"/>
       <ns2:c r="D36" s="2"/>
@@ -6653,10 +6743,10 @@
     </ns2:row>
     <ns2:row r="37">
       <ns2:c r="A37" s="1" t="s">
-        <ns2:v>1509</ns2:v>
+        <ns2:v>728</ns2:v>
       </ns2:c>
       <ns2:c r="B37" s="6" t="s">
-        <ns2:v>1510</ns2:v>
+        <ns2:v>729</ns2:v>
       </ns2:c>
       <ns2:c r="C37" s="7"/>
       <ns2:c r="D37" s="2"/>
@@ -6670,10 +6760,10 @@
     </ns2:row>
     <ns2:row r="38">
       <ns2:c r="A38" s="1" t="s">
-        <ns2:v>1511</ns2:v>
+        <ns2:v>730</ns2:v>
       </ns2:c>
       <ns2:c r="B38" s="6" t="s">
-        <ns2:v>1498</ns2:v>
+        <ns2:v>717</ns2:v>
       </ns2:c>
       <ns2:c r="C38" s="7"/>
       <ns2:c r="D38" s="2"/>
@@ -6687,10 +6777,10 @@
     </ns2:row>
     <ns2:row r="39">
       <ns2:c r="A39" s="1" t="s">
-        <ns2:v>1512</ns2:v>
+        <ns2:v>731</ns2:v>
       </ns2:c>
       <ns2:c r="B39" s="6" t="s">
-        <ns2:v>1513</ns2:v>
+        <ns2:v>732</ns2:v>
       </ns2:c>
       <ns2:c r="C39" s="7"/>
       <ns2:c r="D39" s="2"/>
@@ -6704,10 +6794,10 @@
     </ns2:row>
     <ns2:row r="40">
       <ns2:c r="A40" s="1" t="s">
-        <ns2:v>1514</ns2:v>
+        <ns2:v>733</ns2:v>
       </ns2:c>
       <ns2:c r="B40" s="6" t="s">
-        <ns2:v>1515</ns2:v>
+        <ns2:v>734</ns2:v>
       </ns2:c>
       <ns2:c r="C40" s="7"/>
       <ns2:c r="D40" s="2"/>
@@ -6721,10 +6811,10 @@
     </ns2:row>
     <ns2:row r="41">
       <ns2:c r="A41" s="1" t="s">
-        <ns2:v>1516</ns2:v>
+        <ns2:v>735</ns2:v>
       </ns2:c>
       <ns2:c r="B41" s="6" t="s">
-        <ns2:v>1517</ns2:v>
+        <ns2:v>736</ns2:v>
       </ns2:c>
       <ns2:c r="C41" s="7"/>
       <ns2:c r="D41" s="2"/>
@@ -6738,10 +6828,10 @@
     </ns2:row>
     <ns2:row r="42">
       <ns2:c r="A42" s="1" t="s">
-        <ns2:v>1518</ns2:v>
+        <ns2:v>737</ns2:v>
       </ns2:c>
       <ns2:c r="B42" s="6" t="s">
-        <ns2:v>1519</ns2:v>
+        <ns2:v>738</ns2:v>
       </ns2:c>
       <ns2:c r="C42" s="7"/>
       <ns2:c r="D42" s="2"/>
@@ -6755,10 +6845,10 @@
     </ns2:row>
     <ns2:row r="43">
       <ns2:c r="A43" s="1" t="s">
-        <ns2:v>1520</ns2:v>
+        <ns2:v>739</ns2:v>
       </ns2:c>
       <ns2:c r="B43" s="6" t="s">
-        <ns2:v>1521</ns2:v>
+        <ns2:v>740</ns2:v>
       </ns2:c>
       <ns2:c r="C43" s="7"/>
       <ns2:c r="D43" s="2"/>
@@ -6772,10 +6862,10 @@
     </ns2:row>
     <ns2:row r="44">
       <ns2:c r="A44" s="1" t="s">
-        <ns2:v>1522</ns2:v>
+        <ns2:v>741</ns2:v>
       </ns2:c>
       <ns2:c r="B44" s="6" t="s">
-        <ns2:v>1523</ns2:v>
+        <ns2:v>742</ns2:v>
       </ns2:c>
       <ns2:c r="C44" s="7"/>
       <ns2:c r="D44" s="2"/>
@@ -6789,10 +6879,10 @@
     </ns2:row>
     <ns2:row r="45">
       <ns2:c r="A45" s="1" t="s">
-        <ns2:v>1524</ns2:v>
+        <ns2:v>743</ns2:v>
       </ns2:c>
       <ns2:c r="B45" s="6" t="s">
-        <ns2:v>1525</ns2:v>
+        <ns2:v>744</ns2:v>
       </ns2:c>
       <ns2:c r="C45" s="7"/>
       <ns2:c r="D45" s="2"/>
@@ -6806,10 +6896,10 @@
     </ns2:row>
     <ns2:row r="46">
       <ns2:c r="A46" s="1" t="s">
-        <ns2:v>1526</ns2:v>
+        <ns2:v>745</ns2:v>
       </ns2:c>
       <ns2:c r="B46" s="6" t="s">
-        <ns2:v>1527</ns2:v>
+        <ns2:v>746</ns2:v>
       </ns2:c>
       <ns2:c r="C46" s="7"/>
       <ns2:c r="D46" s="2"/>
@@ -6823,10 +6913,10 @@
     </ns2:row>
     <ns2:row r="47">
       <ns2:c r="A47" s="1" t="s">
-        <ns2:v>1528</ns2:v>
+        <ns2:v>747</ns2:v>
       </ns2:c>
       <ns2:c r="B47" s="6" t="s">
-        <ns2:v>1529</ns2:v>
+        <ns2:v>748</ns2:v>
       </ns2:c>
       <ns2:c r="C47" s="7"/>
       <ns2:c r="D47" s="2"/>
@@ -6840,10 +6930,10 @@
     </ns2:row>
     <ns2:row r="48">
       <ns2:c r="A48" s="1" t="s">
-        <ns2:v>1530</ns2:v>
+        <ns2:v>749</ns2:v>
       </ns2:c>
       <ns2:c r="B48" s="6" t="s">
-        <ns2:v>1531</ns2:v>
+        <ns2:v>750</ns2:v>
       </ns2:c>
       <ns2:c r="C48" s="7"/>
       <ns2:c r="D48" s="2"/>
@@ -6857,10 +6947,10 @@
     </ns2:row>
     <ns2:row r="49">
       <ns2:c r="A49" s="1" t="s">
-        <ns2:v>1532</ns2:v>
+        <ns2:v>751</ns2:v>
       </ns2:c>
       <ns2:c r="B49" s="6" t="s">
-        <ns2:v>1483</ns2:v>
+        <ns2:v>702</ns2:v>
       </ns2:c>
       <ns2:c r="C49" s="7"/>
       <ns2:c r="D49" s="2"/>
@@ -6874,13 +6964,13 @@
     </ns2:row>
     <ns2:row r="50">
       <ns2:c r="A50" s="1" t="s">
-        <ns2:v>1533</ns2:v>
+        <ns2:v>752</ns2:v>
       </ns2:c>
       <ns2:c r="B50" s="6" t="s">
-        <ns2:v>1534</ns2:v>
+        <ns2:v>753</ns2:v>
       </ns2:c>
       <ns2:c r="C50" s="6" t="s">
-        <ns2:v>1534</ns2:v>
+        <ns2:v>753</ns2:v>
       </ns2:c>
       <ns2:c r="D50" s="2"/>
       <ns2:c r="E50" s="2"/>
@@ -6893,13 +6983,13 @@
     </ns2:row>
     <ns2:row r="51">
       <ns2:c r="A51" s="1" t="s">
-        <ns2:v>1535</ns2:v>
+        <ns2:v>754</ns2:v>
       </ns2:c>
       <ns2:c r="B51" s="6" t="s">
-        <ns2:v>1536</ns2:v>
+        <ns2:v>755</ns2:v>
       </ns2:c>
       <ns2:c r="C51" s="6" t="s">
-        <ns2:v>1536</ns2:v>
+        <ns2:v>755</ns2:v>
       </ns2:c>
       <ns2:c r="D51" s="2"/>
       <ns2:c r="E51" s="2"/>
@@ -6912,7 +7002,7 @@
     </ns2:row>
     <ns2:row r="52">
       <ns2:c r="A52" s="1" t="s">
-        <ns2:v>1537</ns2:v>
+        <ns2:v>756</ns2:v>
       </ns2:c>
       <ns2:c r="B52" s="6" t="s">
         <ns2:v>60</ns2:v>
@@ -6929,7 +7019,7 @@
     </ns2:row>
     <ns2:row r="53">
       <ns2:c r="A53" s="1" t="s">
-        <ns2:v>1538</ns2:v>
+        <ns2:v>757</ns2:v>
       </ns2:c>
       <ns2:c r="B53" s="6" t="s">
         <ns2:v>61</ns2:v>
@@ -6946,7 +7036,7 @@
     </ns2:row>
     <ns2:row r="54">
       <ns2:c r="A54" s="1" t="s">
-        <ns2:v>1539</ns2:v>
+        <ns2:v>758</ns2:v>
       </ns2:c>
       <ns2:c r="B54" s="6" t="s">
         <ns2:v>62</ns2:v>
@@ -6966,7 +7056,7 @@
         <ns2:v>64</ns2:v>
       </ns2:c>
       <ns2:c r="B55" s="8" t="s">
-        <ns2:v>1500</ns2:v>
+        <ns2:v>719</ns2:v>
       </ns2:c>
       <ns2:c r="C55" s="8" t="s">
         <ns2:v>58</ns2:v>
@@ -7061,10 +7151,10 @@
         <ns2:v>78</ns2:v>
       </ns2:c>
       <ns2:c r="B60" s="8" t="s">
-        <ns2:v>1540</ns2:v>
+        <ns2:v>759</ns2:v>
       </ns2:c>
       <ns2:c r="C60" s="8" t="s">
-        <ns2:v>1540</ns2:v>
+        <ns2:v>759</ns2:v>
       </ns2:c>
       <ns2:c r="D60" s="2"/>
       <ns2:c r="E60" s="2"/>
@@ -8923,7 +9013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:worksheet xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<ns2:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <ns2:dimension ref="A1"/>
   <ns2:sheetViews>
     <ns2:sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
@@ -8963,7 +9053,7 @@
     </ns2:row>
     <ns2:row r="2">
       <ns2:c r="A2" s="1" t="s">
-        <ns2:v>1541</ns2:v>
+        <ns2:v>1571</ns2:v>
       </ns2:c>
       <ns2:c r="B2" s="3" t="s">
         <ns2:v>3</ns2:v>
@@ -9001,10 +9091,10 @@
     </ns2:row>
     <ns2:row r="4">
       <ns2:c r="A4" s="1" t="s">
-        <ns2:v>1542</ns2:v>
+        <ns2:v>1572</ns2:v>
       </ns2:c>
       <ns2:c r="B4" s="3" t="s">
-        <ns2:v>1543</ns2:v>
+        <ns2:v>1573</ns2:v>
       </ns2:c>
       <ns2:c r="C4" s="3" t="s">
         <ns2:v>8</ns2:v>
@@ -9020,7 +9110,7 @@
     </ns2:row>
     <ns2:row r="5">
       <ns2:c r="A5" s="1" t="s">
-        <ns2:v>1544</ns2:v>
+        <ns2:v>1574</ns2:v>
       </ns2:c>
       <ns2:c r="B5" s="3" t="s">
         <ns2:v>9</ns2:v>
@@ -9039,13 +9129,13 @@
     </ns2:row>
     <ns2:row r="6">
       <ns2:c r="A6" s="1" t="s">
-        <ns2:v>1545</ns2:v>
+        <ns2:v>1575</ns2:v>
       </ns2:c>
       <ns2:c r="B6" s="3" t="s">
-        <ns2:v>1546</ns2:v>
+        <ns2:v>1576</ns2:v>
       </ns2:c>
       <ns2:c r="C6" s="3" t="s">
-        <ns2:v>1547</ns2:v>
+        <ns2:v>1577</ns2:v>
       </ns2:c>
       <ns2:c r="D6" s="2"/>
       <ns2:c r="E6" s="2"/>
@@ -9156,10 +9246,10 @@
         <ns2:v>26</ns2:v>
       </ns2:c>
       <ns2:c r="B12" s="3" t="s">
-        <ns2:v>1548</ns2:v>
+        <ns2:v>1578</ns2:v>
       </ns2:c>
       <ns2:c r="C12" s="3" t="s">
-        <ns2:v>1549</ns2:v>
+        <ns2:v>1579</ns2:v>
       </ns2:c>
       <ns2:c r="D12" s="2"/>
       <ns2:c r="E12" s="2"/>
@@ -9343,10 +9433,10 @@
     </ns2:row>
     <ns2:row r="22">
       <ns2:c r="A22" s="1" t="s">
-        <ns2:v>1550</ns2:v>
+        <ns2:v>1580</ns2:v>
       </ns2:c>
       <ns2:c r="B22" s="3" t="s">
-        <ns2:v>1551</ns2:v>
+        <ns2:v>1581</ns2:v>
       </ns2:c>
       <ns2:c r="C22" s="3" t="s">
         <ns2:v>54</ns2:v>
@@ -9362,10 +9452,10 @@
     </ns2:row>
     <ns2:row r="23">
       <ns2:c r="A23" s="1" t="s">
-        <ns2:v>1552</ns2:v>
+        <ns2:v>1582</ns2:v>
       </ns2:c>
       <ns2:c r="B23" s="4" t="s">
-        <ns2:v>1553</ns2:v>
+        <ns2:v>1583</ns2:v>
       </ns2:c>
       <ns2:c r="C23" s="5"/>
       <ns2:c r="D23" s="2"/>
@@ -9379,10 +9469,10 @@
     </ns2:row>
     <ns2:row r="24">
       <ns2:c r="A24" s="1" t="s">
-        <ns2:v>1554</ns2:v>
+        <ns2:v>1584</ns2:v>
       </ns2:c>
       <ns2:c r="B24" s="4" t="s">
-        <ns2:v>1555</ns2:v>
+        <ns2:v>1585</ns2:v>
       </ns2:c>
       <ns2:c r="C24" s="5"/>
       <ns2:c r="D24" s="2"/>
@@ -9396,10 +9486,10 @@
     </ns2:row>
     <ns2:row r="25">
       <ns2:c r="A25" s="1" t="s">
-        <ns2:v>1556</ns2:v>
+        <ns2:v>1586</ns2:v>
       </ns2:c>
       <ns2:c r="B25" s="4" t="s">
-        <ns2:v>1557</ns2:v>
+        <ns2:v>1587</ns2:v>
       </ns2:c>
       <ns2:c r="C25" s="5"/>
       <ns2:c r="D25" s="2"/>
@@ -9413,10 +9503,10 @@
     </ns2:row>
     <ns2:row r="26">
       <ns2:c r="A26" s="1" t="s">
-        <ns2:v>1558</ns2:v>
+        <ns2:v>1588</ns2:v>
       </ns2:c>
       <ns2:c r="B26" s="6" t="s">
-        <ns2:v>1559</ns2:v>
+        <ns2:v>1589</ns2:v>
       </ns2:c>
       <ns2:c r="C26" s="5"/>
       <ns2:c r="D26" s="2"/>
@@ -9430,10 +9520,10 @@
     </ns2:row>
     <ns2:row r="27">
       <ns2:c r="A27" s="1" t="s">
-        <ns2:v>1560</ns2:v>
+        <ns2:v>1590</ns2:v>
       </ns2:c>
       <ns2:c r="B27" s="6" t="s">
-        <ns2:v>1561</ns2:v>
+        <ns2:v>1591</ns2:v>
       </ns2:c>
       <ns2:c r="C27" s="7"/>
       <ns2:c r="D27" s="2"/>
@@ -9447,10 +9537,10 @@
     </ns2:row>
     <ns2:row r="28">
       <ns2:c r="A28" s="1" t="s">
-        <ns2:v>1562</ns2:v>
+        <ns2:v>1592</ns2:v>
       </ns2:c>
       <ns2:c r="B28" s="6" t="s">
-        <ns2:v>1563</ns2:v>
+        <ns2:v>1593</ns2:v>
       </ns2:c>
       <ns2:c r="C28" s="6" t="s">
         <ns2:v>55</ns2:v>
@@ -9466,10 +9556,10 @@
     </ns2:row>
     <ns2:row r="29">
       <ns2:c r="A29" s="1" t="s">
-        <ns2:v>1564</ns2:v>
+        <ns2:v>1594</ns2:v>
       </ns2:c>
       <ns2:c r="B29" s="6" t="s">
-        <ns2:v>1565</ns2:v>
+        <ns2:v>1595</ns2:v>
       </ns2:c>
       <ns2:c r="C29" s="7"/>
       <ns2:c r="D29" s="2"/>
@@ -9483,10 +9573,10 @@
     </ns2:row>
     <ns2:row r="30">
       <ns2:c r="A30" s="1" t="s">
-        <ns2:v>1566</ns2:v>
+        <ns2:v>1596</ns2:v>
       </ns2:c>
       <ns2:c r="B30" s="6" t="s">
-        <ns2:v>1567</ns2:v>
+        <ns2:v>1597</ns2:v>
       </ns2:c>
       <ns2:c r="C30" s="6" t="s">
         <ns2:v>56</ns2:v>
@@ -9502,10 +9592,10 @@
     </ns2:row>
     <ns2:row r="31">
       <ns2:c r="A31" s="1" t="s">
-        <ns2:v>1568</ns2:v>
+        <ns2:v>1598</ns2:v>
       </ns2:c>
       <ns2:c r="B31" s="6" t="s">
-        <ns2:v>1569</ns2:v>
+        <ns2:v>1599</ns2:v>
       </ns2:c>
       <ns2:c r="C31" s="6" t="s">
         <ns2:v>57</ns2:v>
@@ -9521,10 +9611,10 @@
     </ns2:row>
     <ns2:row r="32">
       <ns2:c r="A32" s="1" t="s">
-        <ns2:v>1570</ns2:v>
+        <ns2:v>1600</ns2:v>
       </ns2:c>
       <ns2:c r="B32" s="6" t="s">
-        <ns2:v>1571</ns2:v>
+        <ns2:v>1601</ns2:v>
       </ns2:c>
       <ns2:c r="C32" s="6" t="s">
         <ns2:v>58</ns2:v>
@@ -9540,10 +9630,10 @@
     </ns2:row>
     <ns2:row r="33">
       <ns2:c r="A33" s="1" t="s">
-        <ns2:v>1572</ns2:v>
+        <ns2:v>1602</ns2:v>
       </ns2:c>
       <ns2:c r="B33" s="6" t="s">
-        <ns2:v>1573</ns2:v>
+        <ns2:v>1603</ns2:v>
       </ns2:c>
       <ns2:c r="C33" s="7"/>
       <ns2:c r="D33" s="2"/>
@@ -9557,10 +9647,10 @@
     </ns2:row>
     <ns2:row r="34">
       <ns2:c r="A34" s="1" t="s">
-        <ns2:v>1574</ns2:v>
+        <ns2:v>1604</ns2:v>
       </ns2:c>
       <ns2:c r="B34" s="6" t="s">
-        <ns2:v>1575</ns2:v>
+        <ns2:v>1605</ns2:v>
       </ns2:c>
       <ns2:c r="C34" s="7"/>
       <ns2:c r="D34" s="2"/>
@@ -9574,10 +9664,10 @@
     </ns2:row>
     <ns2:row r="35">
       <ns2:c r="A35" s="1" t="s">
-        <ns2:v>1576</ns2:v>
+        <ns2:v>1606</ns2:v>
       </ns2:c>
       <ns2:c r="B35" s="6" t="s">
-        <ns2:v>1577</ns2:v>
+        <ns2:v>1607</ns2:v>
       </ns2:c>
       <ns2:c r="C35" s="7"/>
       <ns2:c r="D35" s="2"/>
@@ -9591,10 +9681,10 @@
     </ns2:row>
     <ns2:row r="36">
       <ns2:c r="A36" s="1" t="s">
-        <ns2:v>1578</ns2:v>
+        <ns2:v>1608</ns2:v>
       </ns2:c>
       <ns2:c r="B36" s="6" t="s">
-        <ns2:v>1579</ns2:v>
+        <ns2:v>1609</ns2:v>
       </ns2:c>
       <ns2:c r="C36" s="7"/>
       <ns2:c r="D36" s="2"/>
@@ -9608,10 +9698,10 @@
     </ns2:row>
     <ns2:row r="37">
       <ns2:c r="A37" s="1" t="s">
-        <ns2:v>1580</ns2:v>
+        <ns2:v>1610</ns2:v>
       </ns2:c>
       <ns2:c r="B37" s="6" t="s">
-        <ns2:v>1581</ns2:v>
+        <ns2:v>1611</ns2:v>
       </ns2:c>
       <ns2:c r="C37" s="7"/>
       <ns2:c r="D37" s="2"/>
@@ -9625,10 +9715,10 @@
     </ns2:row>
     <ns2:row r="38">
       <ns2:c r="A38" s="1" t="s">
-        <ns2:v>1582</ns2:v>
+        <ns2:v>1612</ns2:v>
       </ns2:c>
       <ns2:c r="B38" s="6" t="s">
-        <ns2:v>1583</ns2:v>
+        <ns2:v>1613</ns2:v>
       </ns2:c>
       <ns2:c r="C38" s="6" t="s">
         <ns2:v>59</ns2:v>
@@ -9644,10 +9734,10 @@
     </ns2:row>
     <ns2:row r="39">
       <ns2:c r="A39" s="1" t="s">
-        <ns2:v>1584</ns2:v>
+        <ns2:v>1614</ns2:v>
       </ns2:c>
       <ns2:c r="B39" s="6" t="s">
-        <ns2:v>1585</ns2:v>
+        <ns2:v>1615</ns2:v>
       </ns2:c>
       <ns2:c r="C39" s="7"/>
       <ns2:c r="D39" s="2"/>
@@ -9661,10 +9751,10 @@
     </ns2:row>
     <ns2:row r="40">
       <ns2:c r="A40" s="1" t="s">
-        <ns2:v>1586</ns2:v>
+        <ns2:v>1616</ns2:v>
       </ns2:c>
       <ns2:c r="B40" s="6" t="s">
-        <ns2:v>1587</ns2:v>
+        <ns2:v>1617</ns2:v>
       </ns2:c>
       <ns2:c r="C40" s="7"/>
       <ns2:c r="D40" s="2"/>
@@ -9678,10 +9768,10 @@
     </ns2:row>
     <ns2:row r="41">
       <ns2:c r="A41" s="1" t="s">
-        <ns2:v>1588</ns2:v>
+        <ns2:v>1618</ns2:v>
       </ns2:c>
       <ns2:c r="B41" s="6" t="s">
-        <ns2:v>1589</ns2:v>
+        <ns2:v>1619</ns2:v>
       </ns2:c>
       <ns2:c r="C41" s="7"/>
       <ns2:c r="D41" s="2"/>
@@ -9695,10 +9785,10 @@
     </ns2:row>
     <ns2:row r="42">
       <ns2:c r="A42" s="1" t="s">
-        <ns2:v>1590</ns2:v>
+        <ns2:v>1620</ns2:v>
       </ns2:c>
       <ns2:c r="B42" s="6" t="s">
-        <ns2:v>1591</ns2:v>
+        <ns2:v>1621</ns2:v>
       </ns2:c>
       <ns2:c r="C42" s="7"/>
       <ns2:c r="D42" s="2"/>
@@ -9712,10 +9802,10 @@
     </ns2:row>
     <ns2:row r="43">
       <ns2:c r="A43" s="1" t="s">
-        <ns2:v>1592</ns2:v>
+        <ns2:v>1622</ns2:v>
       </ns2:c>
       <ns2:c r="B43" s="6" t="s">
-        <ns2:v>1593</ns2:v>
+        <ns2:v>1623</ns2:v>
       </ns2:c>
       <ns2:c r="C43" s="7"/>
       <ns2:c r="D43" s="2"/>
@@ -9729,10 +9819,10 @@
     </ns2:row>
     <ns2:row r="44">
       <ns2:c r="A44" s="1" t="s">
-        <ns2:v>1594</ns2:v>
+        <ns2:v>1624</ns2:v>
       </ns2:c>
       <ns2:c r="B44" s="6" t="s">
-        <ns2:v>1595</ns2:v>
+        <ns2:v>1625</ns2:v>
       </ns2:c>
       <ns2:c r="C44" s="7"/>
       <ns2:c r="D44" s="2"/>
@@ -9746,10 +9836,10 @@
     </ns2:row>
     <ns2:row r="45">
       <ns2:c r="A45" s="1" t="s">
-        <ns2:v>1596</ns2:v>
+        <ns2:v>1626</ns2:v>
       </ns2:c>
       <ns2:c r="B45" s="6" t="s">
-        <ns2:v>1597</ns2:v>
+        <ns2:v>1627</ns2:v>
       </ns2:c>
       <ns2:c r="C45" s="7"/>
       <ns2:c r="D45" s="2"/>
@@ -9763,10 +9853,10 @@
     </ns2:row>
     <ns2:row r="46">
       <ns2:c r="A46" s="1" t="s">
-        <ns2:v>1598</ns2:v>
+        <ns2:v>1628</ns2:v>
       </ns2:c>
       <ns2:c r="B46" s="6" t="s">
-        <ns2:v>1599</ns2:v>
+        <ns2:v>1629</ns2:v>
       </ns2:c>
       <ns2:c r="C46" s="7"/>
       <ns2:c r="D46" s="2"/>
@@ -9780,10 +9870,10 @@
     </ns2:row>
     <ns2:row r="47">
       <ns2:c r="A47" s="1" t="s">
-        <ns2:v>1600</ns2:v>
+        <ns2:v>1630</ns2:v>
       </ns2:c>
       <ns2:c r="B47" s="6" t="s">
-        <ns2:v>1601</ns2:v>
+        <ns2:v>1631</ns2:v>
       </ns2:c>
       <ns2:c r="C47" s="7"/>
       <ns2:c r="D47" s="2"/>
@@ -9797,10 +9887,10 @@
     </ns2:row>
     <ns2:row r="48">
       <ns2:c r="A48" s="1" t="s">
-        <ns2:v>1602</ns2:v>
+        <ns2:v>1632</ns2:v>
       </ns2:c>
       <ns2:c r="B48" s="6" t="s">
-        <ns2:v>1603</ns2:v>
+        <ns2:v>1633</ns2:v>
       </ns2:c>
       <ns2:c r="C48" s="7"/>
       <ns2:c r="D48" s="2"/>
@@ -9814,10 +9904,10 @@
     </ns2:row>
     <ns2:row r="49">
       <ns2:c r="A49" s="1" t="s">
-        <ns2:v>1604</ns2:v>
+        <ns2:v>1634</ns2:v>
       </ns2:c>
       <ns2:c r="B49" s="6" t="s">
-        <ns2:v>1605</ns2:v>
+        <ns2:v>1635</ns2:v>
       </ns2:c>
       <ns2:c r="C49" s="7"/>
       <ns2:c r="D49" s="2"/>
@@ -9831,10 +9921,10 @@
     </ns2:row>
     <ns2:row r="50">
       <ns2:c r="A50" s="1" t="s">
-        <ns2:v>1606</ns2:v>
+        <ns2:v>1636</ns2:v>
       </ns2:c>
       <ns2:c r="B50" s="6" t="s">
-        <ns2:v>1607</ns2:v>
+        <ns2:v>1637</ns2:v>
       </ns2:c>
       <ns2:c r="C50" s="7"/>
       <ns2:c r="D50" s="2"/>
@@ -9848,10 +9938,10 @@
     </ns2:row>
     <ns2:row r="51">
       <ns2:c r="A51" s="1" t="s">
-        <ns2:v>1608</ns2:v>
+        <ns2:v>1638</ns2:v>
       </ns2:c>
       <ns2:c r="B51" s="6" t="s">
-        <ns2:v>1609</ns2:v>
+        <ns2:v>1639</ns2:v>
       </ns2:c>
       <ns2:c r="C51" s="7"/>
       <ns2:c r="D51" s="2"/>
@@ -9865,7 +9955,7 @@
     </ns2:row>
     <ns2:row r="52">
       <ns2:c r="A52" s="1" t="s">
-        <ns2:v>1610</ns2:v>
+        <ns2:v>1640</ns2:v>
       </ns2:c>
       <ns2:c r="B52" s="6" t="s">
         <ns2:v>60</ns2:v>
@@ -9882,7 +9972,7 @@
     </ns2:row>
     <ns2:row r="53">
       <ns2:c r="A53" s="1" t="s">
-        <ns2:v>1611</ns2:v>
+        <ns2:v>1641</ns2:v>
       </ns2:c>
       <ns2:c r="B53" s="6" t="s">
         <ns2:v>61</ns2:v>
@@ -9899,7 +9989,7 @@
     </ns2:row>
     <ns2:row r="54">
       <ns2:c r="A54" s="1" t="s">
-        <ns2:v>1612</ns2:v>
+        <ns2:v>1642</ns2:v>
       </ns2:c>
       <ns2:c r="B54" s="6" t="s">
         <ns2:v>62</ns2:v>
@@ -10200,10 +10290,10 @@
         <ns2:v>105</ns2:v>
       </ns2:c>
       <ns2:c r="B70" s="9" t="s">
-        <ns2:v>1613</ns2:v>
+        <ns2:v>1643</ns2:v>
       </ns2:c>
       <ns2:c r="C70" s="9" t="s">
-        <ns2:v>1614</ns2:v>
+        <ns2:v>1644</ns2:v>
       </ns2:c>
       <ns2:c r="D70" s="2"/>
       <ns2:c r="E70" s="2"/>
@@ -10219,10 +10309,10 @@
         <ns2:v>106</ns2:v>
       </ns2:c>
       <ns2:c r="B71" s="9" t="s">
-        <ns2:v>1615</ns2:v>
+        <ns2:v>1645</ns2:v>
       </ns2:c>
       <ns2:c r="C71" s="9" t="s">
-        <ns2:v>1616</ns2:v>
+        <ns2:v>1646</ns2:v>
       </ns2:c>
       <ns2:c r="D71" s="2"/>
       <ns2:c r="E71" s="2"/>
@@ -10238,10 +10328,10 @@
         <ns2:v>107</ns2:v>
       </ns2:c>
       <ns2:c r="B72" s="9" t="s">
-        <ns2:v>1617</ns2:v>
+        <ns2:v>1647</ns2:v>
       </ns2:c>
       <ns2:c r="C72" s="9" t="s">
-        <ns2:v>1618</ns2:v>
+        <ns2:v>1648</ns2:v>
       </ns2:c>
       <ns2:c r="D72" s="2"/>
       <ns2:c r="E72" s="2"/>
@@ -10257,7 +10347,7 @@
         <ns2:v>108</ns2:v>
       </ns2:c>
       <ns2:c r="B73" s="9" t="s">
-        <ns2:v>1619</ns2:v>
+        <ns2:v>1649</ns2:v>
       </ns2:c>
       <ns2:c r="C73" s="9" t="s">
         <ns2:v>109</ns2:v>
@@ -10276,7 +10366,7 @@
         <ns2:v>110</ns2:v>
       </ns2:c>
       <ns2:c r="B74" s="9" t="s">
-        <ns2:v>1620</ns2:v>
+        <ns2:v>1650</ns2:v>
       </ns2:c>
       <ns2:c r="C74" s="9" t="s">
         <ns2:v>111</ns2:v>
@@ -10295,7 +10385,7 @@
         <ns2:v>112</ns2:v>
       </ns2:c>
       <ns2:c r="B75" s="9" t="s">
-        <ns2:v>1621</ns2:v>
+        <ns2:v>1651</ns2:v>
       </ns2:c>
       <ns2:c r="C75" s="9" t="s">
         <ns2:v>113</ns2:v>
@@ -10314,10 +10404,10 @@
         <ns2:v>114</ns2:v>
       </ns2:c>
       <ns2:c r="B76" s="9" t="s">
-        <ns2:v>1622</ns2:v>
+        <ns2:v>1652</ns2:v>
       </ns2:c>
       <ns2:c r="C76" s="9" t="s">
-        <ns2:v>1623</ns2:v>
+        <ns2:v>1653</ns2:v>
       </ns2:c>
       <ns2:c r="D76" s="2"/>
       <ns2:c r="E76" s="2"/>
@@ -11060,7 +11150,7 @@
         <ns2:v>209</ns2:v>
       </ns2:c>
       <ns2:c r="B118" s="12" t="s">
-        <ns2:v>1624</ns2:v>
+        <ns2:v>1654</ns2:v>
       </ns2:c>
       <ns2:c r="C118" s="8" t="s">
         <ns2:v>210</ns2:v>
@@ -14434,13 +14524,13 @@
     </ns2:row>
     <ns2:row r="301">
       <ns2:c r="A301" s="1" t="s">
-        <ns2:v>690</ns2:v>
+        <ns2:v>760</ns2:v>
       </ns2:c>
       <ns2:c r="B301" s="12" t="s">
-        <ns2:v>691</ns2:v>
+        <ns2:v>761</ns2:v>
       </ns2:c>
       <ns2:c r="C301" s="12" t="s">
-        <ns2:v>692</ns2:v>
+        <ns2:v>762</ns2:v>
       </ns2:c>
       <ns2:c r="D301" s="2"/>
       <ns2:c r="E301" s="2"/>
@@ -14453,13 +14543,13 @@
     </ns2:row>
     <ns2:row r="302">
       <ns2:c r="A302" s="1" t="s">
-        <ns2:v>693</ns2:v>
+        <ns2:v>763</ns2:v>
       </ns2:c>
       <ns2:c r="B302" s="12" t="s">
-        <ns2:v>694</ns2:v>
+        <ns2:v>764</ns2:v>
       </ns2:c>
       <ns2:c r="C302" s="12" t="s">
-        <ns2:v>695</ns2:v>
+        <ns2:v>765</ns2:v>
       </ns2:c>
       <ns2:c r="D302" s="2"/>
       <ns2:c r="E302" s="2"/>
@@ -14472,13 +14562,13 @@
     </ns2:row>
     <ns2:row r="303">
       <ns2:c r="A303" s="1" t="s">
-        <ns2:v>696</ns2:v>
+        <ns2:v>766</ns2:v>
       </ns2:c>
       <ns2:c r="B303" s="12" t="s">
-        <ns2:v>697</ns2:v>
+        <ns2:v>767</ns2:v>
       </ns2:c>
       <ns2:c r="C303" s="12" t="s">
-        <ns2:v>698</ns2:v>
+        <ns2:v>768</ns2:v>
       </ns2:c>
       <ns2:c r="D303" s="2"/>
       <ns2:c r="E303" s="2"/>
@@ -14491,13 +14581,13 @@
     </ns2:row>
     <ns2:row r="304">
       <ns2:c r="A304" s="1" t="s">
-        <ns2:v>699</ns2:v>
+        <ns2:v>769</ns2:v>
       </ns2:c>
       <ns2:c r="B304" s="12" t="s">
-        <ns2:v>700</ns2:v>
+        <ns2:v>770</ns2:v>
       </ns2:c>
       <ns2:c r="C304" s="12" t="s">
-        <ns2:v>701</ns2:v>
+        <ns2:v>771</ns2:v>
       </ns2:c>
       <ns2:c r="D304" s="2"/>
       <ns2:c r="E304" s="2"/>
@@ -14510,13 +14600,13 @@
     </ns2:row>
     <ns2:row r="305">
       <ns2:c r="A305" s="1" t="s">
-        <ns2:v>702</ns2:v>
+        <ns2:v>772</ns2:v>
       </ns2:c>
       <ns2:c r="B305" s="12" t="s">
-        <ns2:v>703</ns2:v>
+        <ns2:v>773</ns2:v>
       </ns2:c>
       <ns2:c r="C305" s="12" t="s">
-        <ns2:v>704</ns2:v>
+        <ns2:v>774</ns2:v>
       </ns2:c>
       <ns2:c r="D305" s="2"/>
       <ns2:c r="E305" s="2"/>
@@ -14529,13 +14619,13 @@
     </ns2:row>
     <ns2:row r="306">
       <ns2:c r="A306" s="1" t="s">
-        <ns2:v>705</ns2:v>
+        <ns2:v>775</ns2:v>
       </ns2:c>
       <ns2:c r="B306" s="12" t="s">
-        <ns2:v>706</ns2:v>
+        <ns2:v>776</ns2:v>
       </ns2:c>
       <ns2:c r="C306" s="12" t="s">
-        <ns2:v>707</ns2:v>
+        <ns2:v>777</ns2:v>
       </ns2:c>
       <ns2:c r="D306" s="2"/>
       <ns2:c r="E306" s="2"/>
@@ -14548,13 +14638,13 @@
     </ns2:row>
     <ns2:row r="307">
       <ns2:c r="A307" s="1" t="s">
-        <ns2:v>708</ns2:v>
+        <ns2:v>778</ns2:v>
       </ns2:c>
       <ns2:c r="B307" s="12" t="s">
-        <ns2:v>709</ns2:v>
+        <ns2:v>779</ns2:v>
       </ns2:c>
       <ns2:c r="C307" s="12" t="s">
-        <ns2:v>710</ns2:v>
+        <ns2:v>780</ns2:v>
       </ns2:c>
       <ns2:c r="D307" s="2"/>
       <ns2:c r="E307" s="2"/>
@@ -14567,13 +14657,13 @@
     </ns2:row>
     <ns2:row r="308">
       <ns2:c r="A308" s="1" t="s">
-        <ns2:v>711</ns2:v>
+        <ns2:v>781</ns2:v>
       </ns2:c>
       <ns2:c r="B308" s="12" t="s">
-        <ns2:v>712</ns2:v>
+        <ns2:v>782</ns2:v>
       </ns2:c>
       <ns2:c r="C308" s="12" t="s">
-        <ns2:v>713</ns2:v>
+        <ns2:v>783</ns2:v>
       </ns2:c>
       <ns2:c r="D308" s="2"/>
       <ns2:c r="E308" s="2"/>
@@ -14586,13 +14676,13 @@
     </ns2:row>
     <ns2:row r="309">
       <ns2:c r="A309" s="1" t="s">
-        <ns2:v>714</ns2:v>
+        <ns2:v>784</ns2:v>
       </ns2:c>
       <ns2:c r="B309" s="12" t="s">
-        <ns2:v>715</ns2:v>
+        <ns2:v>785</ns2:v>
       </ns2:c>
       <ns2:c r="C309" s="12" t="s">
-        <ns2:v>716</ns2:v>
+        <ns2:v>786</ns2:v>
       </ns2:c>
       <ns2:c r="D309" s="2"/>
       <ns2:c r="E309" s="2"/>
@@ -14605,13 +14695,13 @@
     </ns2:row>
     <ns2:row r="310">
       <ns2:c r="A310" s="1" t="s">
-        <ns2:v>717</ns2:v>
+        <ns2:v>787</ns2:v>
       </ns2:c>
       <ns2:c r="B310" s="12" t="s">
-        <ns2:v>718</ns2:v>
+        <ns2:v>788</ns2:v>
       </ns2:c>
       <ns2:c r="C310" s="12" t="s">
-        <ns2:v>719</ns2:v>
+        <ns2:v>789</ns2:v>
       </ns2:c>
       <ns2:c r="D310" s="2"/>
       <ns2:c r="E310" s="2"/>
@@ -14624,13 +14714,13 @@
     </ns2:row>
     <ns2:row r="311">
       <ns2:c r="A311" s="1" t="s">
-        <ns2:v>720</ns2:v>
+        <ns2:v>790</ns2:v>
       </ns2:c>
       <ns2:c r="B311" s="12" t="s">
-        <ns2:v>721</ns2:v>
+        <ns2:v>791</ns2:v>
       </ns2:c>
       <ns2:c r="C311" s="12" t="s">
-        <ns2:v>722</ns2:v>
+        <ns2:v>792</ns2:v>
       </ns2:c>
       <ns2:c r="D311" s="2"/>
       <ns2:c r="E311" s="2"/>
@@ -14643,13 +14733,13 @@
     </ns2:row>
     <ns2:row r="312">
       <ns2:c r="A312" s="1" t="s">
-        <ns2:v>723</ns2:v>
+        <ns2:v>793</ns2:v>
       </ns2:c>
       <ns2:c r="B312" s="12" t="s">
-        <ns2:v>724</ns2:v>
+        <ns2:v>794</ns2:v>
       </ns2:c>
       <ns2:c r="C312" s="12" t="s">
-        <ns2:v>725</ns2:v>
+        <ns2:v>795</ns2:v>
       </ns2:c>
       <ns2:c r="D312" s="2"/>
       <ns2:c r="E312" s="2"/>
@@ -14662,13 +14752,13 @@
     </ns2:row>
     <ns2:row r="313">
       <ns2:c r="A313" s="1" t="s">
-        <ns2:v>726</ns2:v>
+        <ns2:v>796</ns2:v>
       </ns2:c>
       <ns2:c r="B313" s="12" t="s">
-        <ns2:v>727</ns2:v>
+        <ns2:v>797</ns2:v>
       </ns2:c>
       <ns2:c r="C313" s="12" t="s">
-        <ns2:v>728</ns2:v>
+        <ns2:v>798</ns2:v>
       </ns2:c>
       <ns2:c r="D313" s="2"/>
       <ns2:c r="E313" s="2"/>
@@ -14681,13 +14771,13 @@
     </ns2:row>
     <ns2:row r="314">
       <ns2:c r="A314" s="1" t="s">
-        <ns2:v>729</ns2:v>
+        <ns2:v>799</ns2:v>
       </ns2:c>
       <ns2:c r="B314" s="12" t="s">
-        <ns2:v>730</ns2:v>
+        <ns2:v>800</ns2:v>
       </ns2:c>
       <ns2:c r="C314" s="12" t="s">
-        <ns2:v>731</ns2:v>
+        <ns2:v>801</ns2:v>
       </ns2:c>
       <ns2:c r="D314" s="2"/>
       <ns2:c r="E314" s="2"/>
@@ -14700,13 +14790,13 @@
     </ns2:row>
     <ns2:row r="315">
       <ns2:c r="A315" s="1" t="s">
-        <ns2:v>732</ns2:v>
+        <ns2:v>802</ns2:v>
       </ns2:c>
       <ns2:c r="B315" s="12" t="s">
-        <ns2:v>733</ns2:v>
+        <ns2:v>803</ns2:v>
       </ns2:c>
       <ns2:c r="C315" s="12" t="s">
-        <ns2:v>734</ns2:v>
+        <ns2:v>804</ns2:v>
       </ns2:c>
       <ns2:c r="D315" s="2"/>
       <ns2:c r="E315" s="2"/>
@@ -14719,13 +14809,13 @@
     </ns2:row>
     <ns2:row r="316">
       <ns2:c r="A316" s="1" t="s">
-        <ns2:v>735</ns2:v>
+        <ns2:v>805</ns2:v>
       </ns2:c>
       <ns2:c r="B316" s="12" t="s">
-        <ns2:v>736</ns2:v>
+        <ns2:v>806</ns2:v>
       </ns2:c>
       <ns2:c r="C316" s="12" t="s">
-        <ns2:v>737</ns2:v>
+        <ns2:v>807</ns2:v>
       </ns2:c>
       <ns2:c r="D316" s="2"/>
       <ns2:c r="E316" s="2"/>
@@ -14738,13 +14828,13 @@
     </ns2:row>
     <ns2:row r="317">
       <ns2:c r="A317" s="1" t="s">
-        <ns2:v>738</ns2:v>
+        <ns2:v>808</ns2:v>
       </ns2:c>
       <ns2:c r="B317" s="12" t="s">
-        <ns2:v>739</ns2:v>
+        <ns2:v>809</ns2:v>
       </ns2:c>
       <ns2:c r="C317" s="12" t="s">
-        <ns2:v>740</ns2:v>
+        <ns2:v>810</ns2:v>
       </ns2:c>
       <ns2:c r="D317" s="2"/>
       <ns2:c r="E317" s="2"/>
@@ -14757,13 +14847,13 @@
     </ns2:row>
     <ns2:row r="318">
       <ns2:c r="A318" s="1" t="s">
-        <ns2:v>741</ns2:v>
+        <ns2:v>811</ns2:v>
       </ns2:c>
       <ns2:c r="B318" s="12" t="s">
-        <ns2:v>742</ns2:v>
+        <ns2:v>812</ns2:v>
       </ns2:c>
       <ns2:c r="C318" s="12" t="s">
-        <ns2:v>743</ns2:v>
+        <ns2:v>813</ns2:v>
       </ns2:c>
       <ns2:c r="D318" s="2"/>
       <ns2:c r="E318" s="2"/>
@@ -14776,13 +14866,13 @@
     </ns2:row>
     <ns2:row r="319">
       <ns2:c r="A319" s="1" t="s">
-        <ns2:v>744</ns2:v>
+        <ns2:v>814</ns2:v>
       </ns2:c>
       <ns2:c r="B319" s="12" t="s">
-        <ns2:v>745</ns2:v>
+        <ns2:v>815</ns2:v>
       </ns2:c>
       <ns2:c r="C319" s="12" t="s">
-        <ns2:v>746</ns2:v>
+        <ns2:v>816</ns2:v>
       </ns2:c>
       <ns2:c r="D319" s="2"/>
       <ns2:c r="E319" s="2"/>
@@ -14795,13 +14885,13 @@
     </ns2:row>
     <ns2:row r="320">
       <ns2:c r="A320" s="1" t="s">
-        <ns2:v>747</ns2:v>
+        <ns2:v>817</ns2:v>
       </ns2:c>
       <ns2:c r="B320" s="12" t="s">
-        <ns2:v>748</ns2:v>
+        <ns2:v>818</ns2:v>
       </ns2:c>
       <ns2:c r="C320" s="12" t="s">
-        <ns2:v>749</ns2:v>
+        <ns2:v>819</ns2:v>
       </ns2:c>
       <ns2:c r="D320" s="2"/>
       <ns2:c r="E320" s="2"/>
@@ -14814,13 +14904,13 @@
     </ns2:row>
     <ns2:row r="321">
       <ns2:c r="A321" s="1" t="s">
-        <ns2:v>750</ns2:v>
+        <ns2:v>820</ns2:v>
       </ns2:c>
       <ns2:c r="B321" s="12" t="s">
-        <ns2:v>751</ns2:v>
+        <ns2:v>821</ns2:v>
       </ns2:c>
       <ns2:c r="C321" s="12" t="s">
-        <ns2:v>752</ns2:v>
+        <ns2:v>822</ns2:v>
       </ns2:c>
       <ns2:c r="D321" s="2"/>
       <ns2:c r="E321" s="2"/>
@@ -14833,13 +14923,13 @@
     </ns2:row>
     <ns2:row r="322">
       <ns2:c r="A322" s="1" t="s">
-        <ns2:v>753</ns2:v>
+        <ns2:v>823</ns2:v>
       </ns2:c>
       <ns2:c r="B322" s="12" t="s">
-        <ns2:v>754</ns2:v>
+        <ns2:v>824</ns2:v>
       </ns2:c>
       <ns2:c r="C322" s="12" t="s">
-        <ns2:v>755</ns2:v>
+        <ns2:v>825</ns2:v>
       </ns2:c>
       <ns2:c r="D322" s="2"/>
       <ns2:c r="E322" s="2"/>
@@ -14852,13 +14942,13 @@
     </ns2:row>
     <ns2:row r="323">
       <ns2:c r="A323" s="1" t="s">
-        <ns2:v>756</ns2:v>
+        <ns2:v>826</ns2:v>
       </ns2:c>
       <ns2:c r="B323" s="12" t="s">
-        <ns2:v>757</ns2:v>
+        <ns2:v>827</ns2:v>
       </ns2:c>
       <ns2:c r="C323" s="12" t="s">
-        <ns2:v>758</ns2:v>
+        <ns2:v>828</ns2:v>
       </ns2:c>
       <ns2:c r="D323" s="2"/>
       <ns2:c r="E323" s="2"/>
@@ -14871,13 +14961,13 @@
     </ns2:row>
     <ns2:row r="324">
       <ns2:c r="A324" s="1" t="s">
-        <ns2:v>759</ns2:v>
+        <ns2:v>829</ns2:v>
       </ns2:c>
       <ns2:c r="B324" s="12" t="s">
-        <ns2:v>760</ns2:v>
+        <ns2:v>830</ns2:v>
       </ns2:c>
       <ns2:c r="C324" s="12" t="s">
-        <ns2:v>761</ns2:v>
+        <ns2:v>831</ns2:v>
       </ns2:c>
       <ns2:c r="D324" s="2"/>
       <ns2:c r="E324" s="2"/>
@@ -14890,13 +14980,13 @@
     </ns2:row>
     <ns2:row r="325">
       <ns2:c r="A325" s="1" t="s">
-        <ns2:v>762</ns2:v>
+        <ns2:v>832</ns2:v>
       </ns2:c>
       <ns2:c r="B325" s="12" t="s">
-        <ns2:v>763</ns2:v>
+        <ns2:v>833</ns2:v>
       </ns2:c>
       <ns2:c r="C325" s="12" t="s">
-        <ns2:v>764</ns2:v>
+        <ns2:v>834</ns2:v>
       </ns2:c>
       <ns2:c r="D325" s="2"/>
       <ns2:c r="E325" s="2"/>
@@ -14909,13 +14999,13 @@
     </ns2:row>
     <ns2:row r="326">
       <ns2:c r="A326" s="1" t="s">
-        <ns2:v>765</ns2:v>
+        <ns2:v>835</ns2:v>
       </ns2:c>
       <ns2:c r="B326" s="12" t="s">
-        <ns2:v>766</ns2:v>
+        <ns2:v>836</ns2:v>
       </ns2:c>
       <ns2:c r="C326" s="12" t="s">
-        <ns2:v>767</ns2:v>
+        <ns2:v>837</ns2:v>
       </ns2:c>
       <ns2:c r="D326" s="2"/>
       <ns2:c r="E326" s="2"/>
@@ -14928,13 +15018,13 @@
     </ns2:row>
     <ns2:row r="327">
       <ns2:c r="A327" s="1" t="s">
-        <ns2:v>768</ns2:v>
+        <ns2:v>838</ns2:v>
       </ns2:c>
       <ns2:c r="B327" s="12" t="s">
-        <ns2:v>769</ns2:v>
+        <ns2:v>839</ns2:v>
       </ns2:c>
       <ns2:c r="C327" s="12" t="s">
-        <ns2:v>770</ns2:v>
+        <ns2:v>840</ns2:v>
       </ns2:c>
       <ns2:c r="D327" s="2"/>
       <ns2:c r="E327" s="2"/>
@@ -14947,13 +15037,13 @@
     </ns2:row>
     <ns2:row r="328">
       <ns2:c r="A328" s="1" t="s">
-        <ns2:v>771</ns2:v>
+        <ns2:v>841</ns2:v>
       </ns2:c>
       <ns2:c r="B328" s="12" t="s">
-        <ns2:v>772</ns2:v>
+        <ns2:v>842</ns2:v>
       </ns2:c>
       <ns2:c r="C328" s="12" t="s">
-        <ns2:v>773</ns2:v>
+        <ns2:v>843</ns2:v>
       </ns2:c>
       <ns2:c r="D328" s="2"/>
       <ns2:c r="E328" s="2"/>
@@ -14966,13 +15056,13 @@
     </ns2:row>
     <ns2:row r="329">
       <ns2:c r="A329" s="1" t="s">
-        <ns2:v>774</ns2:v>
+        <ns2:v>844</ns2:v>
       </ns2:c>
       <ns2:c r="B329" s="12" t="s">
-        <ns2:v>775</ns2:v>
+        <ns2:v>845</ns2:v>
       </ns2:c>
       <ns2:c r="C329" s="12" t="s">
-        <ns2:v>776</ns2:v>
+        <ns2:v>846</ns2:v>
       </ns2:c>
       <ns2:c r="D329" s="2"/>
       <ns2:c r="E329" s="2"/>
@@ -14985,13 +15075,13 @@
     </ns2:row>
     <ns2:row r="330">
       <ns2:c r="A330" s="1" t="s">
-        <ns2:v>777</ns2:v>
+        <ns2:v>847</ns2:v>
       </ns2:c>
       <ns2:c r="B330" s="12" t="s">
-        <ns2:v>778</ns2:v>
+        <ns2:v>848</ns2:v>
       </ns2:c>
       <ns2:c r="C330" s="12" t="s">
-        <ns2:v>779</ns2:v>
+        <ns2:v>849</ns2:v>
       </ns2:c>
       <ns2:c r="D330" s="2"/>
       <ns2:c r="E330" s="2"/>
@@ -15004,13 +15094,13 @@
     </ns2:row>
     <ns2:row r="331">
       <ns2:c r="A331" s="1" t="s">
-        <ns2:v>780</ns2:v>
+        <ns2:v>850</ns2:v>
       </ns2:c>
       <ns2:c r="B331" s="12" t="s">
-        <ns2:v>781</ns2:v>
+        <ns2:v>851</ns2:v>
       </ns2:c>
       <ns2:c r="C331" s="12" t="s">
-        <ns2:v>782</ns2:v>
+        <ns2:v>852</ns2:v>
       </ns2:c>
       <ns2:c r="D331" s="2"/>
       <ns2:c r="E331" s="2"/>
@@ -15023,13 +15113,13 @@
     </ns2:row>
     <ns2:row r="332">
       <ns2:c r="A332" s="1" t="s">
-        <ns2:v>783</ns2:v>
+        <ns2:v>853</ns2:v>
       </ns2:c>
       <ns2:c r="B332" s="12" t="s">
-        <ns2:v>784</ns2:v>
+        <ns2:v>854</ns2:v>
       </ns2:c>
       <ns2:c r="C332" s="12" t="s">
-        <ns2:v>785</ns2:v>
+        <ns2:v>855</ns2:v>
       </ns2:c>
       <ns2:c r="D332" s="2"/>
       <ns2:c r="E332" s="2"/>
@@ -15042,13 +15132,13 @@
     </ns2:row>
     <ns2:row r="333">
       <ns2:c r="A333" s="1" t="s">
-        <ns2:v>786</ns2:v>
+        <ns2:v>856</ns2:v>
       </ns2:c>
       <ns2:c r="B333" s="12" t="s">
-        <ns2:v>787</ns2:v>
+        <ns2:v>857</ns2:v>
       </ns2:c>
       <ns2:c r="C333" s="12" t="s">
-        <ns2:v>788</ns2:v>
+        <ns2:v>858</ns2:v>
       </ns2:c>
       <ns2:c r="D333" s="2"/>
       <ns2:c r="E333" s="2"/>
@@ -15061,13 +15151,13 @@
     </ns2:row>
     <ns2:row r="334">
       <ns2:c r="A334" s="1" t="s">
-        <ns2:v>789</ns2:v>
+        <ns2:v>859</ns2:v>
       </ns2:c>
       <ns2:c r="B334" s="12" t="s">
-        <ns2:v>790</ns2:v>
+        <ns2:v>860</ns2:v>
       </ns2:c>
       <ns2:c r="C334" s="12" t="s">
-        <ns2:v>791</ns2:v>
+        <ns2:v>861</ns2:v>
       </ns2:c>
       <ns2:c r="D334" s="2"/>
       <ns2:c r="E334" s="2"/>
@@ -15080,13 +15170,13 @@
     </ns2:row>
     <ns2:row r="335">
       <ns2:c r="A335" s="1" t="s">
-        <ns2:v>792</ns2:v>
+        <ns2:v>862</ns2:v>
       </ns2:c>
       <ns2:c r="B335" s="12" t="s">
-        <ns2:v>793</ns2:v>
+        <ns2:v>863</ns2:v>
       </ns2:c>
       <ns2:c r="C335" s="12" t="s">
-        <ns2:v>794</ns2:v>
+        <ns2:v>864</ns2:v>
       </ns2:c>
       <ns2:c r="D335" s="2"/>
       <ns2:c r="E335" s="2"/>
@@ -15099,13 +15189,13 @@
     </ns2:row>
     <ns2:row r="336">
       <ns2:c r="A336" s="1" t="s">
-        <ns2:v>795</ns2:v>
+        <ns2:v>865</ns2:v>
       </ns2:c>
       <ns2:c r="B336" s="12" t="s">
-        <ns2:v>796</ns2:v>
+        <ns2:v>866</ns2:v>
       </ns2:c>
       <ns2:c r="C336" s="12" t="s">
-        <ns2:v>797</ns2:v>
+        <ns2:v>867</ns2:v>
       </ns2:c>
       <ns2:c r="D336" s="2"/>
       <ns2:c r="E336" s="2"/>
@@ -15118,13 +15208,13 @@
     </ns2:row>
     <ns2:row r="337">
       <ns2:c r="A337" s="1" t="s">
-        <ns2:v>798</ns2:v>
+        <ns2:v>868</ns2:v>
       </ns2:c>
       <ns2:c r="B337" s="12" t="s">
-        <ns2:v>799</ns2:v>
+        <ns2:v>869</ns2:v>
       </ns2:c>
       <ns2:c r="C337" s="12" t="s">
-        <ns2:v>800</ns2:v>
+        <ns2:v>870</ns2:v>
       </ns2:c>
       <ns2:c r="D337" s="2"/>
       <ns2:c r="E337" s="2"/>
@@ -15137,13 +15227,13 @@
     </ns2:row>
     <ns2:row r="338">
       <ns2:c r="A338" s="1" t="s">
-        <ns2:v>801</ns2:v>
+        <ns2:v>871</ns2:v>
       </ns2:c>
       <ns2:c r="B338" s="12" t="s">
-        <ns2:v>802</ns2:v>
+        <ns2:v>872</ns2:v>
       </ns2:c>
       <ns2:c r="C338" s="12" t="s">
-        <ns2:v>803</ns2:v>
+        <ns2:v>873</ns2:v>
       </ns2:c>
       <ns2:c r="D338" s="2"/>
       <ns2:c r="E338" s="2"/>
@@ -15156,13 +15246,13 @@
     </ns2:row>
     <ns2:row r="339">
       <ns2:c r="A339" s="1" t="s">
-        <ns2:v>804</ns2:v>
+        <ns2:v>874</ns2:v>
       </ns2:c>
       <ns2:c r="B339" s="12" t="s">
-        <ns2:v>805</ns2:v>
+        <ns2:v>875</ns2:v>
       </ns2:c>
       <ns2:c r="C339" s="12" t="s">
-        <ns2:v>806</ns2:v>
+        <ns2:v>876</ns2:v>
       </ns2:c>
       <ns2:c r="D339" s="2"/>
       <ns2:c r="E339" s="2"/>
@@ -15175,13 +15265,13 @@
     </ns2:row>
     <ns2:row r="340">
       <ns2:c r="A340" s="1" t="s">
-        <ns2:v>807</ns2:v>
+        <ns2:v>877</ns2:v>
       </ns2:c>
       <ns2:c r="B340" s="12" t="s">
-        <ns2:v>808</ns2:v>
+        <ns2:v>878</ns2:v>
       </ns2:c>
       <ns2:c r="C340" s="12" t="s">
-        <ns2:v>809</ns2:v>
+        <ns2:v>879</ns2:v>
       </ns2:c>
       <ns2:c r="D340" s="2"/>
       <ns2:c r="E340" s="2"/>
@@ -15194,13 +15284,13 @@
     </ns2:row>
     <ns2:row r="341">
       <ns2:c r="A341" s="1" t="s">
-        <ns2:v>810</ns2:v>
+        <ns2:v>880</ns2:v>
       </ns2:c>
       <ns2:c r="B341" s="12" t="s">
-        <ns2:v>811</ns2:v>
+        <ns2:v>881</ns2:v>
       </ns2:c>
       <ns2:c r="C341" s="12" t="s">
-        <ns2:v>812</ns2:v>
+        <ns2:v>882</ns2:v>
       </ns2:c>
       <ns2:c r="D341" s="2"/>
       <ns2:c r="E341" s="2"/>
@@ -15213,13 +15303,13 @@
     </ns2:row>
     <ns2:row r="342">
       <ns2:c r="A342" s="1" t="s">
-        <ns2:v>813</ns2:v>
+        <ns2:v>883</ns2:v>
       </ns2:c>
       <ns2:c r="B342" s="12" t="s">
-        <ns2:v>814</ns2:v>
+        <ns2:v>884</ns2:v>
       </ns2:c>
       <ns2:c r="C342" s="12" t="s">
-        <ns2:v>815</ns2:v>
+        <ns2:v>885</ns2:v>
       </ns2:c>
       <ns2:c r="D342" s="2"/>
       <ns2:c r="E342" s="2"/>
@@ -15232,13 +15322,13 @@
     </ns2:row>
     <ns2:row r="343">
       <ns2:c r="A343" s="1" t="s">
-        <ns2:v>816</ns2:v>
+        <ns2:v>886</ns2:v>
       </ns2:c>
       <ns2:c r="B343" s="12" t="s">
-        <ns2:v>817</ns2:v>
+        <ns2:v>887</ns2:v>
       </ns2:c>
       <ns2:c r="C343" s="12" t="s">
-        <ns2:v>818</ns2:v>
+        <ns2:v>888</ns2:v>
       </ns2:c>
       <ns2:c r="D343" s="2"/>
       <ns2:c r="E343" s="2"/>
@@ -15251,13 +15341,13 @@
     </ns2:row>
     <ns2:row r="344">
       <ns2:c r="A344" s="1" t="s">
-        <ns2:v>819</ns2:v>
+        <ns2:v>889</ns2:v>
       </ns2:c>
       <ns2:c r="B344" s="12" t="s">
-        <ns2:v>820</ns2:v>
+        <ns2:v>890</ns2:v>
       </ns2:c>
       <ns2:c r="C344" s="12" t="s">
-        <ns2:v>821</ns2:v>
+        <ns2:v>891</ns2:v>
       </ns2:c>
       <ns2:c r="D344" s="2"/>
       <ns2:c r="E344" s="2"/>
@@ -15270,13 +15360,13 @@
     </ns2:row>
     <ns2:row r="345">
       <ns2:c r="A345" s="1" t="s">
-        <ns2:v>822</ns2:v>
+        <ns2:v>892</ns2:v>
       </ns2:c>
       <ns2:c r="B345" s="12" t="s">
-        <ns2:v>823</ns2:v>
+        <ns2:v>893</ns2:v>
       </ns2:c>
       <ns2:c r="C345" s="12" t="s">
-        <ns2:v>824</ns2:v>
+        <ns2:v>894</ns2:v>
       </ns2:c>
       <ns2:c r="D345" s="2"/>
       <ns2:c r="E345" s="2"/>
@@ -15289,13 +15379,13 @@
     </ns2:row>
     <ns2:row r="346">
       <ns2:c r="A346" s="1" t="s">
-        <ns2:v>825</ns2:v>
+        <ns2:v>895</ns2:v>
       </ns2:c>
       <ns2:c r="B346" s="12" t="s">
-        <ns2:v>826</ns2:v>
+        <ns2:v>896</ns2:v>
       </ns2:c>
       <ns2:c r="C346" s="12" t="s">
-        <ns2:v>827</ns2:v>
+        <ns2:v>897</ns2:v>
       </ns2:c>
       <ns2:c r="D346" s="2"/>
       <ns2:c r="E346" s="2"/>
@@ -15308,13 +15398,13 @@
     </ns2:row>
     <ns2:row r="347">
       <ns2:c r="A347" s="1" t="s">
-        <ns2:v>828</ns2:v>
+        <ns2:v>898</ns2:v>
       </ns2:c>
       <ns2:c r="B347" s="12" t="s">
-        <ns2:v>829</ns2:v>
+        <ns2:v>899</ns2:v>
       </ns2:c>
       <ns2:c r="C347" s="12" t="s">
-        <ns2:v>830</ns2:v>
+        <ns2:v>900</ns2:v>
       </ns2:c>
       <ns2:c r="D347" s="2"/>
       <ns2:c r="E347" s="2"/>
@@ -15327,13 +15417,13 @@
     </ns2:row>
     <ns2:row r="348">
       <ns2:c r="A348" s="1" t="s">
-        <ns2:v>831</ns2:v>
+        <ns2:v>901</ns2:v>
       </ns2:c>
       <ns2:c r="B348" s="12" t="s">
-        <ns2:v>832</ns2:v>
+        <ns2:v>902</ns2:v>
       </ns2:c>
       <ns2:c r="C348" s="12" t="s">
-        <ns2:v>833</ns2:v>
+        <ns2:v>903</ns2:v>
       </ns2:c>
       <ns2:c r="D348" s="2"/>
       <ns2:c r="E348" s="2"/>
@@ -15346,13 +15436,13 @@
     </ns2:row>
     <ns2:row r="349">
       <ns2:c r="A349" s="1" t="s">
-        <ns2:v>834</ns2:v>
+        <ns2:v>904</ns2:v>
       </ns2:c>
       <ns2:c r="B349" s="12" t="s">
-        <ns2:v>835</ns2:v>
+        <ns2:v>905</ns2:v>
       </ns2:c>
       <ns2:c r="C349" s="12" t="s">
-        <ns2:v>836</ns2:v>
+        <ns2:v>906</ns2:v>
       </ns2:c>
       <ns2:c r="D349" s="2"/>
       <ns2:c r="E349" s="2"/>
@@ -15365,13 +15455,13 @@
     </ns2:row>
     <ns2:row r="350">
       <ns2:c r="A350" s="1" t="s">
-        <ns2:v>837</ns2:v>
+        <ns2:v>907</ns2:v>
       </ns2:c>
       <ns2:c r="B350" s="12" t="s">
-        <ns2:v>838</ns2:v>
+        <ns2:v>908</ns2:v>
       </ns2:c>
       <ns2:c r="C350" s="12" t="s">
-        <ns2:v>839</ns2:v>
+        <ns2:v>909</ns2:v>
       </ns2:c>
       <ns2:c r="D350" s="2"/>
       <ns2:c r="E350" s="2"/>
@@ -15384,13 +15474,13 @@
     </ns2:row>
     <ns2:row r="351">
       <ns2:c r="A351" s="1" t="s">
-        <ns2:v>840</ns2:v>
+        <ns2:v>910</ns2:v>
       </ns2:c>
       <ns2:c r="B351" s="12" t="s">
-        <ns2:v>841</ns2:v>
+        <ns2:v>911</ns2:v>
       </ns2:c>
       <ns2:c r="C351" s="12" t="s">
-        <ns2:v>842</ns2:v>
+        <ns2:v>912</ns2:v>
       </ns2:c>
       <ns2:c r="D351" s="2"/>
       <ns2:c r="E351" s="2"/>
@@ -15403,13 +15493,13 @@
     </ns2:row>
     <ns2:row r="352">
       <ns2:c r="A352" s="1" t="s">
-        <ns2:v>843</ns2:v>
+        <ns2:v>913</ns2:v>
       </ns2:c>
       <ns2:c r="B352" s="12" t="s">
-        <ns2:v>844</ns2:v>
+        <ns2:v>914</ns2:v>
       </ns2:c>
       <ns2:c r="C352" s="12" t="s">
-        <ns2:v>845</ns2:v>
+        <ns2:v>915</ns2:v>
       </ns2:c>
       <ns2:c r="D352" s="2"/>
       <ns2:c r="E352" s="2"/>
@@ -15422,13 +15512,13 @@
     </ns2:row>
     <ns2:row r="353">
       <ns2:c r="A353" s="1" t="s">
-        <ns2:v>846</ns2:v>
+        <ns2:v>916</ns2:v>
       </ns2:c>
       <ns2:c r="B353" s="12" t="s">
-        <ns2:v>847</ns2:v>
+        <ns2:v>917</ns2:v>
       </ns2:c>
       <ns2:c r="C353" s="12" t="s">
-        <ns2:v>848</ns2:v>
+        <ns2:v>918</ns2:v>
       </ns2:c>
       <ns2:c r="D353" s="2"/>
       <ns2:c r="E353" s="2"/>
@@ -15441,13 +15531,13 @@
     </ns2:row>
     <ns2:row r="354">
       <ns2:c r="A354" s="1" t="s">
-        <ns2:v>849</ns2:v>
+        <ns2:v>919</ns2:v>
       </ns2:c>
       <ns2:c r="B354" s="12" t="s">
-        <ns2:v>850</ns2:v>
+        <ns2:v>920</ns2:v>
       </ns2:c>
       <ns2:c r="C354" s="12" t="s">
-        <ns2:v>851</ns2:v>
+        <ns2:v>921</ns2:v>
       </ns2:c>
       <ns2:c r="D354" s="2"/>
       <ns2:c r="E354" s="2"/>
@@ -15460,13 +15550,13 @@
     </ns2:row>
     <ns2:row r="355">
       <ns2:c r="A355" s="1" t="s">
-        <ns2:v>852</ns2:v>
+        <ns2:v>922</ns2:v>
       </ns2:c>
       <ns2:c r="B355" s="12" t="s">
-        <ns2:v>853</ns2:v>
+        <ns2:v>923</ns2:v>
       </ns2:c>
       <ns2:c r="C355" s="12" t="s">
-        <ns2:v>854</ns2:v>
+        <ns2:v>924</ns2:v>
       </ns2:c>
       <ns2:c r="D355" s="2"/>
       <ns2:c r="E355" s="2"/>
@@ -15479,13 +15569,13 @@
     </ns2:row>
     <ns2:row r="356">
       <ns2:c r="A356" s="1" t="s">
-        <ns2:v>855</ns2:v>
+        <ns2:v>925</ns2:v>
       </ns2:c>
       <ns2:c r="B356" s="8" t="s">
-        <ns2:v>856</ns2:v>
+        <ns2:v>926</ns2:v>
       </ns2:c>
       <ns2:c r="C356" s="8" t="s">
-        <ns2:v>857</ns2:v>
+        <ns2:v>927</ns2:v>
       </ns2:c>
       <ns2:c r="D356" s="2"/>
       <ns2:c r="E356" s="2"/>
@@ -15498,10 +15588,10 @@
     </ns2:row>
     <ns2:row r="357">
       <ns2:c r="A357" s="1" t="s">
-        <ns2:v>858</ns2:v>
+        <ns2:v>928</ns2:v>
       </ns2:c>
       <ns2:c r="B357" s="8" t="s">
-        <ns2:v>859</ns2:v>
+        <ns2:v>929</ns2:v>
       </ns2:c>
       <ns2:c r="C357" s="2"/>
       <ns2:c r="D357" s="2"/>
@@ -15515,13 +15605,13 @@
     </ns2:row>
     <ns2:row r="358">
       <ns2:c r="A358" s="1" t="s">
-        <ns2:v>860</ns2:v>
+        <ns2:v>930</ns2:v>
       </ns2:c>
       <ns2:c r="B358" s="8" t="s">
-        <ns2:v>861</ns2:v>
+        <ns2:v>931</ns2:v>
       </ns2:c>
       <ns2:c r="C358" s="8" t="s">
-        <ns2:v>862</ns2:v>
+        <ns2:v>932</ns2:v>
       </ns2:c>
       <ns2:c r="D358" s="2"/>
       <ns2:c r="E358" s="2"/>
@@ -15534,13 +15624,13 @@
     </ns2:row>
     <ns2:row r="359">
       <ns2:c r="A359" s="1" t="s">
-        <ns2:v>863</ns2:v>
+        <ns2:v>933</ns2:v>
       </ns2:c>
       <ns2:c r="B359" s="8" t="s">
-        <ns2:v>864</ns2:v>
+        <ns2:v>934</ns2:v>
       </ns2:c>
       <ns2:c r="C359" s="8" t="s">
-        <ns2:v>865</ns2:v>
+        <ns2:v>935</ns2:v>
       </ns2:c>
       <ns2:c r="D359" s="2"/>
       <ns2:c r="E359" s="2"/>
@@ -15553,13 +15643,13 @@
     </ns2:row>
     <ns2:row r="360">
       <ns2:c r="A360" s="1" t="s">
-        <ns2:v>866</ns2:v>
+        <ns2:v>936</ns2:v>
       </ns2:c>
       <ns2:c r="B360" s="8" t="s">
-        <ns2:v>867</ns2:v>
+        <ns2:v>937</ns2:v>
       </ns2:c>
       <ns2:c r="C360" s="8" t="s">
-        <ns2:v>868</ns2:v>
+        <ns2:v>938</ns2:v>
       </ns2:c>
       <ns2:c r="D360" s="2"/>
       <ns2:c r="E360" s="2"/>
@@ -15572,13 +15662,13 @@
     </ns2:row>
     <ns2:row r="361">
       <ns2:c r="A361" s="1" t="s">
-        <ns2:v>869</ns2:v>
+        <ns2:v>939</ns2:v>
       </ns2:c>
       <ns2:c r="B361" s="8" t="s">
-        <ns2:v>870</ns2:v>
+        <ns2:v>940</ns2:v>
       </ns2:c>
       <ns2:c r="C361" s="8" t="s">
-        <ns2:v>871</ns2:v>
+        <ns2:v>941</ns2:v>
       </ns2:c>
       <ns2:c r="D361" s="2"/>
       <ns2:c r="E361" s="2"/>
@@ -15591,13 +15681,13 @@
     </ns2:row>
     <ns2:row r="362">
       <ns2:c r="A362" s="1" t="s">
-        <ns2:v>872</ns2:v>
+        <ns2:v>942</ns2:v>
       </ns2:c>
       <ns2:c r="B362" s="8" t="s">
-        <ns2:v>873</ns2:v>
+        <ns2:v>943</ns2:v>
       </ns2:c>
       <ns2:c r="C362" s="8" t="s">
-        <ns2:v>874</ns2:v>
+        <ns2:v>944</ns2:v>
       </ns2:c>
       <ns2:c r="D362" s="2"/>
       <ns2:c r="E362" s="2"/>
@@ -15610,13 +15700,13 @@
     </ns2:row>
     <ns2:row r="363">
       <ns2:c r="A363" s="1" t="s">
-        <ns2:v>875</ns2:v>
+        <ns2:v>945</ns2:v>
       </ns2:c>
       <ns2:c r="B363" s="8" t="s">
-        <ns2:v>876</ns2:v>
+        <ns2:v>946</ns2:v>
       </ns2:c>
       <ns2:c r="C363" s="8" t="s">
-        <ns2:v>877</ns2:v>
+        <ns2:v>947</ns2:v>
       </ns2:c>
       <ns2:c r="D363" s="2"/>
       <ns2:c r="E363" s="2"/>
@@ -15629,13 +15719,13 @@
     </ns2:row>
     <ns2:row r="364">
       <ns2:c r="A364" s="1" t="s">
-        <ns2:v>878</ns2:v>
+        <ns2:v>948</ns2:v>
       </ns2:c>
       <ns2:c r="B364" s="8" t="s">
-        <ns2:v>879</ns2:v>
+        <ns2:v>949</ns2:v>
       </ns2:c>
       <ns2:c r="C364" s="8" t="s">
-        <ns2:v>880</ns2:v>
+        <ns2:v>950</ns2:v>
       </ns2:c>
       <ns2:c r="D364" s="2"/>
       <ns2:c r="E364" s="2"/>
@@ -15648,13 +15738,13 @@
     </ns2:row>
     <ns2:row r="365">
       <ns2:c r="A365" s="1" t="s">
-        <ns2:v>881</ns2:v>
+        <ns2:v>951</ns2:v>
       </ns2:c>
       <ns2:c r="B365" s="8" t="s">
-        <ns2:v>882</ns2:v>
+        <ns2:v>952</ns2:v>
       </ns2:c>
       <ns2:c r="C365" s="8" t="s">
-        <ns2:v>883</ns2:v>
+        <ns2:v>953</ns2:v>
       </ns2:c>
       <ns2:c r="D365" s="2"/>
       <ns2:c r="E365" s="2"/>
@@ -15667,13 +15757,13 @@
     </ns2:row>
     <ns2:row r="366">
       <ns2:c r="A366" s="1" t="s">
-        <ns2:v>884</ns2:v>
+        <ns2:v>954</ns2:v>
       </ns2:c>
       <ns2:c r="B366" s="8" t="s">
-        <ns2:v>885</ns2:v>
+        <ns2:v>955</ns2:v>
       </ns2:c>
       <ns2:c r="C366" s="8" t="s">
-        <ns2:v>886</ns2:v>
+        <ns2:v>956</ns2:v>
       </ns2:c>
       <ns2:c r="D366" s="2"/>
       <ns2:c r="E366" s="2"/>
@@ -15686,13 +15776,13 @@
     </ns2:row>
     <ns2:row r="367">
       <ns2:c r="A367" s="1" t="s">
-        <ns2:v>887</ns2:v>
+        <ns2:v>957</ns2:v>
       </ns2:c>
       <ns2:c r="B367" s="8" t="s">
-        <ns2:v>888</ns2:v>
+        <ns2:v>958</ns2:v>
       </ns2:c>
       <ns2:c r="C367" s="8" t="s">
-        <ns2:v>889</ns2:v>
+        <ns2:v>959</ns2:v>
       </ns2:c>
       <ns2:c r="D367" s="2"/>
       <ns2:c r="E367" s="2"/>
@@ -15705,13 +15795,13 @@
     </ns2:row>
     <ns2:row r="368">
       <ns2:c r="A368" s="1" t="s">
-        <ns2:v>890</ns2:v>
+        <ns2:v>960</ns2:v>
       </ns2:c>
       <ns2:c r="B368" s="8" t="s">
-        <ns2:v>891</ns2:v>
+        <ns2:v>961</ns2:v>
       </ns2:c>
       <ns2:c r="C368" s="8" t="s">
-        <ns2:v>892</ns2:v>
+        <ns2:v>962</ns2:v>
       </ns2:c>
       <ns2:c r="D368" s="2"/>
       <ns2:c r="E368" s="2"/>
@@ -15724,13 +15814,13 @@
     </ns2:row>
     <ns2:row r="369">
       <ns2:c r="A369" s="1" t="s">
-        <ns2:v>893</ns2:v>
+        <ns2:v>963</ns2:v>
       </ns2:c>
       <ns2:c r="B369" s="8" t="s">
-        <ns2:v>894</ns2:v>
+        <ns2:v>964</ns2:v>
       </ns2:c>
       <ns2:c r="C369" s="8" t="s">
-        <ns2:v>895</ns2:v>
+        <ns2:v>965</ns2:v>
       </ns2:c>
       <ns2:c r="D369" s="2"/>
       <ns2:c r="E369" s="2"/>
@@ -15743,13 +15833,13 @@
     </ns2:row>
     <ns2:row r="370">
       <ns2:c r="A370" s="1" t="s">
-        <ns2:v>896</ns2:v>
+        <ns2:v>966</ns2:v>
       </ns2:c>
       <ns2:c r="B370" s="8" t="s">
-        <ns2:v>897</ns2:v>
+        <ns2:v>967</ns2:v>
       </ns2:c>
       <ns2:c r="C370" s="8" t="s">
-        <ns2:v>898</ns2:v>
+        <ns2:v>968</ns2:v>
       </ns2:c>
       <ns2:c r="D370" s="2"/>
       <ns2:c r="E370" s="2"/>
@@ -15762,13 +15852,13 @@
     </ns2:row>
     <ns2:row r="371">
       <ns2:c r="A371" s="1" t="s">
-        <ns2:v>899</ns2:v>
+        <ns2:v>969</ns2:v>
       </ns2:c>
       <ns2:c r="B371" s="8" t="s">
-        <ns2:v>900</ns2:v>
+        <ns2:v>970</ns2:v>
       </ns2:c>
       <ns2:c r="C371" s="8" t="s">
-        <ns2:v>901</ns2:v>
+        <ns2:v>971</ns2:v>
       </ns2:c>
       <ns2:c r="D371" s="2"/>
       <ns2:c r="E371" s="2"/>
@@ -15781,13 +15871,13 @@
     </ns2:row>
     <ns2:row r="372">
       <ns2:c r="A372" s="1" t="s">
-        <ns2:v>902</ns2:v>
+        <ns2:v>972</ns2:v>
       </ns2:c>
       <ns2:c r="B372" s="14" t="s">
-        <ns2:v>903</ns2:v>
+        <ns2:v>973</ns2:v>
       </ns2:c>
       <ns2:c r="C372" s="14" t="s">
-        <ns2:v>903</ns2:v>
+        <ns2:v>973</ns2:v>
       </ns2:c>
       <ns2:c r="D372" s="2"/>
       <ns2:c r="E372" s="2"/>
@@ -15800,13 +15890,13 @@
     </ns2:row>
     <ns2:row r="373">
       <ns2:c r="A373" s="1" t="s">
-        <ns2:v>904</ns2:v>
+        <ns2:v>974</ns2:v>
       </ns2:c>
       <ns2:c r="B373" s="14" t="s">
-        <ns2:v>905</ns2:v>
+        <ns2:v>975</ns2:v>
       </ns2:c>
       <ns2:c r="C373" s="14" t="s">
-        <ns2:v>905</ns2:v>
+        <ns2:v>975</ns2:v>
       </ns2:c>
       <ns2:c r="D373" s="2"/>
       <ns2:c r="E373" s="2"/>
@@ -15819,10 +15909,10 @@
     </ns2:row>
     <ns2:row r="374">
       <ns2:c r="A374" s="1" t="s">
-        <ns2:v>906</ns2:v>
+        <ns2:v>976</ns2:v>
       </ns2:c>
       <ns2:c r="B374" s="8" t="s">
-        <ns2:v>907</ns2:v>
+        <ns2:v>977</ns2:v>
       </ns2:c>
       <ns2:c r="C374" s="2"/>
       <ns2:c r="D374" s="2"/>
@@ -15836,10 +15926,10 @@
     </ns2:row>
     <ns2:row r="375">
       <ns2:c r="A375" s="1" t="s">
-        <ns2:v>908</ns2:v>
+        <ns2:v>978</ns2:v>
       </ns2:c>
       <ns2:c r="B375" s="8" t="s">
-        <ns2:v>909</ns2:v>
+        <ns2:v>979</ns2:v>
       </ns2:c>
       <ns2:c r="C375" s="2"/>
       <ns2:c r="D375" s="2"/>
@@ -15853,13 +15943,13 @@
     </ns2:row>
     <ns2:row r="376">
       <ns2:c r="A376" s="1" t="s">
-        <ns2:v>910</ns2:v>
+        <ns2:v>980</ns2:v>
       </ns2:c>
       <ns2:c r="B376" s="8" t="s">
-        <ns2:v>911</ns2:v>
+        <ns2:v>981</ns2:v>
       </ns2:c>
       <ns2:c r="C376" s="8" t="s">
-        <ns2:v>911</ns2:v>
+        <ns2:v>981</ns2:v>
       </ns2:c>
       <ns2:c r="D376" s="2"/>
       <ns2:c r="E376" s="2"/>
@@ -15872,13 +15962,13 @@
     </ns2:row>
     <ns2:row r="377">
       <ns2:c r="A377" s="1" t="s">
-        <ns2:v>912</ns2:v>
+        <ns2:v>982</ns2:v>
       </ns2:c>
       <ns2:c r="B377" s="8" t="s">
-        <ns2:v>913</ns2:v>
+        <ns2:v>983</ns2:v>
       </ns2:c>
       <ns2:c r="C377" s="8" t="s">
-        <ns2:v>913</ns2:v>
+        <ns2:v>983</ns2:v>
       </ns2:c>
       <ns2:c r="D377" s="2"/>
       <ns2:c r="E377" s="2"/>
@@ -15891,7 +15981,7 @@
     </ns2:row>
     <ns2:row r="378">
       <ns2:c r="A378" s="1" t="s">
-        <ns2:v>914</ns2:v>
+        <ns2:v>984</ns2:v>
       </ns2:c>
       <ns2:c r="B378" s="8" t="s">
         <ns2:v>538</ns2:v>
@@ -15910,10 +16000,10 @@
     </ns2:row>
     <ns2:row r="379">
       <ns2:c r="A379" s="1" t="s">
-        <ns2:v>915</ns2:v>
+        <ns2:v>985</ns2:v>
       </ns2:c>
       <ns2:c r="B379" s="8" t="s">
-        <ns2:v>916</ns2:v>
+        <ns2:v>986</ns2:v>
       </ns2:c>
       <ns2:c r="C379" s="2"/>
       <ns2:c r="D379" s="2"/>
@@ -15927,13 +16017,13 @@
     </ns2:row>
     <ns2:row r="380">
       <ns2:c r="A380" s="1" t="s">
-        <ns2:v>917</ns2:v>
+        <ns2:v>987</ns2:v>
       </ns2:c>
       <ns2:c r="B380" s="8" t="s">
-        <ns2:v>918</ns2:v>
+        <ns2:v>988</ns2:v>
       </ns2:c>
       <ns2:c r="C380" s="8" t="s">
-        <ns2:v>919</ns2:v>
+        <ns2:v>989</ns2:v>
       </ns2:c>
       <ns2:c r="D380" s="2"/>
       <ns2:c r="E380" s="2"/>
@@ -15946,13 +16036,13 @@
     </ns2:row>
     <ns2:row r="381">
       <ns2:c r="A381" s="1" t="s">
-        <ns2:v>920</ns2:v>
+        <ns2:v>990</ns2:v>
       </ns2:c>
       <ns2:c r="B381" s="8" t="s">
-        <ns2:v>921</ns2:v>
+        <ns2:v>991</ns2:v>
       </ns2:c>
       <ns2:c r="C381" s="8" t="s">
-        <ns2:v>922</ns2:v>
+        <ns2:v>992</ns2:v>
       </ns2:c>
       <ns2:c r="D381" s="2"/>
       <ns2:c r="E381" s="2"/>
@@ -15965,13 +16055,13 @@
     </ns2:row>
     <ns2:row r="382">
       <ns2:c r="A382" s="1" t="s">
-        <ns2:v>923</ns2:v>
+        <ns2:v>993</ns2:v>
       </ns2:c>
       <ns2:c r="B382" s="8" t="s">
-        <ns2:v>924</ns2:v>
+        <ns2:v>994</ns2:v>
       </ns2:c>
       <ns2:c r="C382" s="8" t="s">
-        <ns2:v>925</ns2:v>
+        <ns2:v>995</ns2:v>
       </ns2:c>
       <ns2:c r="D382" s="2"/>
       <ns2:c r="E382" s="2"/>
@@ -15984,13 +16074,13 @@
     </ns2:row>
     <ns2:row r="383">
       <ns2:c r="A383" s="1" t="s">
-        <ns2:v>926</ns2:v>
+        <ns2:v>996</ns2:v>
       </ns2:c>
       <ns2:c r="B383" s="8" t="s">
-        <ns2:v>927</ns2:v>
+        <ns2:v>997</ns2:v>
       </ns2:c>
       <ns2:c r="C383" s="8" t="s">
-        <ns2:v>928</ns2:v>
+        <ns2:v>998</ns2:v>
       </ns2:c>
       <ns2:c r="D383" s="2"/>
       <ns2:c r="E383" s="2"/>
@@ -16003,13 +16093,13 @@
     </ns2:row>
     <ns2:row r="384">
       <ns2:c r="A384" s="1" t="s">
-        <ns2:v>929</ns2:v>
+        <ns2:v>999</ns2:v>
       </ns2:c>
       <ns2:c r="B384" s="8" t="s">
-        <ns2:v>930</ns2:v>
+        <ns2:v>1000</ns2:v>
       </ns2:c>
       <ns2:c r="C384" s="8" t="s">
-        <ns2:v>931</ns2:v>
+        <ns2:v>1001</ns2:v>
       </ns2:c>
       <ns2:c r="D384" s="2"/>
       <ns2:c r="E384" s="2"/>
@@ -16022,13 +16112,13 @@
     </ns2:row>
     <ns2:row r="385">
       <ns2:c r="A385" s="1" t="s">
-        <ns2:v>932</ns2:v>
+        <ns2:v>1002</ns2:v>
       </ns2:c>
       <ns2:c r="B385" s="8" t="s">
-        <ns2:v>933</ns2:v>
+        <ns2:v>1003</ns2:v>
       </ns2:c>
       <ns2:c r="C385" s="8" t="s">
-        <ns2:v>934</ns2:v>
+        <ns2:v>1004</ns2:v>
       </ns2:c>
       <ns2:c r="D385" s="2"/>
       <ns2:c r="E385" s="2"/>
@@ -16041,13 +16131,13 @@
     </ns2:row>
     <ns2:row r="386">
       <ns2:c r="A386" s="1" t="s">
-        <ns2:v>935</ns2:v>
+        <ns2:v>1005</ns2:v>
       </ns2:c>
       <ns2:c r="B386" s="8" t="s">
-        <ns2:v>936</ns2:v>
+        <ns2:v>1006</ns2:v>
       </ns2:c>
       <ns2:c r="C386" s="8" t="s">
-        <ns2:v>937</ns2:v>
+        <ns2:v>1007</ns2:v>
       </ns2:c>
       <ns2:c r="D386" s="2"/>
       <ns2:c r="E386" s="2"/>
@@ -16060,13 +16150,13 @@
     </ns2:row>
     <ns2:row r="387">
       <ns2:c r="A387" s="1" t="s">
-        <ns2:v>938</ns2:v>
+        <ns2:v>1008</ns2:v>
       </ns2:c>
       <ns2:c r="B387" s="8" t="s">
-        <ns2:v>939</ns2:v>
+        <ns2:v>1009</ns2:v>
       </ns2:c>
       <ns2:c r="C387" s="8" t="s">
-        <ns2:v>939</ns2:v>
+        <ns2:v>1009</ns2:v>
       </ns2:c>
       <ns2:c r="D387" s="2"/>
       <ns2:c r="E387" s="2"/>
@@ -16079,13 +16169,13 @@
     </ns2:row>
     <ns2:row r="388">
       <ns2:c r="A388" s="1" t="s">
-        <ns2:v>940</ns2:v>
+        <ns2:v>1010</ns2:v>
       </ns2:c>
       <ns2:c r="B388" s="8" t="s">
-        <ns2:v>941</ns2:v>
+        <ns2:v>1011</ns2:v>
       </ns2:c>
       <ns2:c r="C388" s="8" t="s">
-        <ns2:v>941</ns2:v>
+        <ns2:v>1011</ns2:v>
       </ns2:c>
       <ns2:c r="D388" s="2"/>
       <ns2:c r="E388" s="2"/>
@@ -16098,13 +16188,13 @@
     </ns2:row>
     <ns2:row r="389">
       <ns2:c r="A389" s="1" t="s">
-        <ns2:v>942</ns2:v>
+        <ns2:v>1012</ns2:v>
       </ns2:c>
       <ns2:c r="B389" s="8" t="s">
-        <ns2:v>943</ns2:v>
+        <ns2:v>1013</ns2:v>
       </ns2:c>
       <ns2:c r="C389" s="8" t="s">
-        <ns2:v>944</ns2:v>
+        <ns2:v>1014</ns2:v>
       </ns2:c>
       <ns2:c r="D389" s="2"/>
       <ns2:c r="E389" s="2"/>
@@ -16117,13 +16207,13 @@
     </ns2:row>
     <ns2:row r="390">
       <ns2:c r="A390" s="1" t="s">
-        <ns2:v>945</ns2:v>
+        <ns2:v>1015</ns2:v>
       </ns2:c>
       <ns2:c r="B390" s="8" t="s">
-        <ns2:v>946</ns2:v>
+        <ns2:v>1016</ns2:v>
       </ns2:c>
       <ns2:c r="C390" s="8" t="s">
-        <ns2:v>947</ns2:v>
+        <ns2:v>1017</ns2:v>
       </ns2:c>
       <ns2:c r="D390" s="2"/>
       <ns2:c r="E390" s="2"/>
@@ -16136,13 +16226,13 @@
     </ns2:row>
     <ns2:row r="391">
       <ns2:c r="A391" s="1" t="s">
-        <ns2:v>948</ns2:v>
+        <ns2:v>1018</ns2:v>
       </ns2:c>
       <ns2:c r="B391" s="8" t="s">
-        <ns2:v>949</ns2:v>
+        <ns2:v>1019</ns2:v>
       </ns2:c>
       <ns2:c r="C391" s="8" t="s">
-        <ns2:v>950</ns2:v>
+        <ns2:v>1020</ns2:v>
       </ns2:c>
       <ns2:c r="D391" s="2"/>
       <ns2:c r="E391" s="2"/>
@@ -16155,7 +16245,7 @@
     </ns2:row>
     <ns2:row r="392">
       <ns2:c r="A392" s="1" t="s">
-        <ns2:v>951</ns2:v>
+        <ns2:v>1021</ns2:v>
       </ns2:c>
       <ns2:c r="B392" s="8" t="s">
         <ns2:v>158</ns2:v>
@@ -16174,13 +16264,13 @@
     </ns2:row>
     <ns2:row r="393">
       <ns2:c r="A393" s="1" t="s">
-        <ns2:v>952</ns2:v>
+        <ns2:v>1022</ns2:v>
       </ns2:c>
       <ns2:c r="B393" s="8" t="s">
-        <ns2:v>953</ns2:v>
+        <ns2:v>1023</ns2:v>
       </ns2:c>
       <ns2:c r="C393" s="8" t="s">
-        <ns2:v>953</ns2:v>
+        <ns2:v>1023</ns2:v>
       </ns2:c>
       <ns2:c r="D393" s="2"/>
       <ns2:c r="E393" s="2"/>
@@ -16193,13 +16283,13 @@
     </ns2:row>
     <ns2:row r="394">
       <ns2:c r="A394" s="1" t="s">
-        <ns2:v>954</ns2:v>
+        <ns2:v>1024</ns2:v>
       </ns2:c>
       <ns2:c r="B394" s="8" t="s">
-        <ns2:v>955</ns2:v>
+        <ns2:v>1025</ns2:v>
       </ns2:c>
       <ns2:c r="C394" s="8" t="s">
-        <ns2:v>955</ns2:v>
+        <ns2:v>1025</ns2:v>
       </ns2:c>
       <ns2:c r="D394" s="2"/>
       <ns2:c r="E394" s="2"/>
@@ -16212,13 +16302,13 @@
     </ns2:row>
     <ns2:row r="395">
       <ns2:c r="A395" s="1" t="s">
-        <ns2:v>956</ns2:v>
+        <ns2:v>1026</ns2:v>
       </ns2:c>
       <ns2:c r="B395" s="8" t="s">
-        <ns2:v>957</ns2:v>
+        <ns2:v>1027</ns2:v>
       </ns2:c>
       <ns2:c r="C395" s="8" t="s">
-        <ns2:v>958</ns2:v>
+        <ns2:v>1028</ns2:v>
       </ns2:c>
       <ns2:c r="D395" s="2"/>
       <ns2:c r="E395" s="2"/>
@@ -16231,13 +16321,13 @@
     </ns2:row>
     <ns2:row r="396">
       <ns2:c r="A396" s="1" t="s">
-        <ns2:v>959</ns2:v>
+        <ns2:v>1029</ns2:v>
       </ns2:c>
       <ns2:c r="B396" s="8" t="s">
-        <ns2:v>960</ns2:v>
+        <ns2:v>1030</ns2:v>
       </ns2:c>
       <ns2:c r="C396" s="8" t="s">
-        <ns2:v>960</ns2:v>
+        <ns2:v>1030</ns2:v>
       </ns2:c>
       <ns2:c r="D396" s="2"/>
       <ns2:c r="E396" s="2"/>
@@ -16250,13 +16340,13 @@
     </ns2:row>
     <ns2:row r="397">
       <ns2:c r="A397" s="1" t="s">
-        <ns2:v>961</ns2:v>
+        <ns2:v>1031</ns2:v>
       </ns2:c>
       <ns2:c r="B397" s="8" t="s">
-        <ns2:v>962</ns2:v>
+        <ns2:v>1032</ns2:v>
       </ns2:c>
       <ns2:c r="C397" s="8" t="s">
-        <ns2:v>963</ns2:v>
+        <ns2:v>1033</ns2:v>
       </ns2:c>
       <ns2:c r="D397" s="2"/>
       <ns2:c r="E397" s="2"/>
@@ -16269,13 +16359,13 @@
     </ns2:row>
     <ns2:row r="398">
       <ns2:c r="A398" s="1" t="s">
-        <ns2:v>964</ns2:v>
+        <ns2:v>1034</ns2:v>
       </ns2:c>
       <ns2:c r="B398" s="8" t="s">
-        <ns2:v>965</ns2:v>
+        <ns2:v>1035</ns2:v>
       </ns2:c>
       <ns2:c r="C398" s="8" t="s">
-        <ns2:v>966</ns2:v>
+        <ns2:v>1036</ns2:v>
       </ns2:c>
       <ns2:c r="D398" s="2"/>
       <ns2:c r="E398" s="2"/>
@@ -16288,13 +16378,13 @@
     </ns2:row>
     <ns2:row r="399">
       <ns2:c r="A399" s="1" t="s">
-        <ns2:v>967</ns2:v>
+        <ns2:v>1037</ns2:v>
       </ns2:c>
       <ns2:c r="B399" s="8" t="s">
-        <ns2:v>968</ns2:v>
+        <ns2:v>1038</ns2:v>
       </ns2:c>
       <ns2:c r="C399" s="8" t="s">
-        <ns2:v>969</ns2:v>
+        <ns2:v>1039</ns2:v>
       </ns2:c>
       <ns2:c r="D399" s="2"/>
       <ns2:c r="E399" s="2"/>
@@ -16307,13 +16397,13 @@
     </ns2:row>
     <ns2:row r="400">
       <ns2:c r="A400" s="1" t="s">
-        <ns2:v>970</ns2:v>
+        <ns2:v>1040</ns2:v>
       </ns2:c>
       <ns2:c r="B400" s="8" t="s">
-        <ns2:v>971</ns2:v>
+        <ns2:v>1041</ns2:v>
       </ns2:c>
       <ns2:c r="C400" s="8" t="s">
-        <ns2:v>972</ns2:v>
+        <ns2:v>1042</ns2:v>
       </ns2:c>
       <ns2:c r="D400" s="2"/>
       <ns2:c r="E400" s="2"/>
@@ -16326,13 +16416,13 @@
     </ns2:row>
     <ns2:row r="401">
       <ns2:c r="A401" s="1" t="s">
-        <ns2:v>973</ns2:v>
+        <ns2:v>1043</ns2:v>
       </ns2:c>
       <ns2:c r="B401" s="8" t="s">
         <ns2:v>37</ns2:v>
       </ns2:c>
       <ns2:c r="C401" s="8" t="s">
-        <ns2:v>974</ns2:v>
+        <ns2:v>1044</ns2:v>
       </ns2:c>
       <ns2:c r="D401" s="2"/>
       <ns2:c r="E401" s="2"/>
@@ -16345,13 +16435,13 @@
     </ns2:row>
     <ns2:row r="402">
       <ns2:c r="A402" s="1" t="s">
-        <ns2:v>975</ns2:v>
+        <ns2:v>1045</ns2:v>
       </ns2:c>
       <ns2:c r="B402" s="8" t="s">
-        <ns2:v>976</ns2:v>
+        <ns2:v>1046</ns2:v>
       </ns2:c>
       <ns2:c r="C402" s="8" t="s">
-        <ns2:v>977</ns2:v>
+        <ns2:v>1047</ns2:v>
       </ns2:c>
       <ns2:c r="D402" s="2"/>
       <ns2:c r="E402" s="2"/>
@@ -16364,13 +16454,13 @@
     </ns2:row>
     <ns2:row r="403">
       <ns2:c r="A403" s="1" t="s">
-        <ns2:v>978</ns2:v>
+        <ns2:v>1048</ns2:v>
       </ns2:c>
       <ns2:c r="B403" s="8" t="s">
-        <ns2:v>979</ns2:v>
+        <ns2:v>1049</ns2:v>
       </ns2:c>
       <ns2:c r="C403" s="8" t="s">
-        <ns2:v>980</ns2:v>
+        <ns2:v>1050</ns2:v>
       </ns2:c>
       <ns2:c r="D403" s="2"/>
       <ns2:c r="E403" s="2"/>
@@ -16383,10 +16473,10 @@
     </ns2:row>
     <ns2:row r="404">
       <ns2:c r="A404" s="1" t="s">
-        <ns2:v>981</ns2:v>
+        <ns2:v>1051</ns2:v>
       </ns2:c>
       <ns2:c r="B404" s="8" t="s">
-        <ns2:v>982</ns2:v>
+        <ns2:v>1052</ns2:v>
       </ns2:c>
       <ns2:c r="C404" s="2"/>
       <ns2:c r="D404" s="2"/>
@@ -16400,10 +16490,10 @@
     </ns2:row>
     <ns2:row r="405">
       <ns2:c r="A405" s="1" t="s">
-        <ns2:v>983</ns2:v>
+        <ns2:v>1053</ns2:v>
       </ns2:c>
       <ns2:c r="B405" s="8" t="s">
-        <ns2:v>984</ns2:v>
+        <ns2:v>1054</ns2:v>
       </ns2:c>
       <ns2:c r="C405" s="2"/>
       <ns2:c r="D405" s="2"/>
@@ -16417,13 +16507,13 @@
     </ns2:row>
     <ns2:row r="406">
       <ns2:c r="A406" s="1" t="s">
-        <ns2:v>985</ns2:v>
+        <ns2:v>1055</ns2:v>
       </ns2:c>
       <ns2:c r="B406" s="8" t="s">
-        <ns2:v>986</ns2:v>
+        <ns2:v>1056</ns2:v>
       </ns2:c>
       <ns2:c r="C406" s="8" t="s">
-        <ns2:v>986</ns2:v>
+        <ns2:v>1056</ns2:v>
       </ns2:c>
       <ns2:c r="D406" s="2"/>
       <ns2:c r="E406" s="2"/>
@@ -16436,10 +16526,10 @@
     </ns2:row>
     <ns2:row r="407">
       <ns2:c r="A407" s="1" t="s">
-        <ns2:v>987</ns2:v>
+        <ns2:v>1057</ns2:v>
       </ns2:c>
       <ns2:c r="B407" s="8" t="s">
-        <ns2:v>988</ns2:v>
+        <ns2:v>1058</ns2:v>
       </ns2:c>
       <ns2:c r="C407" s="2"/>
       <ns2:c r="D407" s="2"/>
@@ -16453,10 +16543,10 @@
     </ns2:row>
     <ns2:row r="408">
       <ns2:c r="A408" s="1" t="s">
-        <ns2:v>989</ns2:v>
+        <ns2:v>1059</ns2:v>
       </ns2:c>
       <ns2:c r="B408" s="8" t="s">
-        <ns2:v>990</ns2:v>
+        <ns2:v>1060</ns2:v>
       </ns2:c>
       <ns2:c r="C408" s="2"/>
       <ns2:c r="D408" s="2"/>
@@ -16470,10 +16560,10 @@
     </ns2:row>
     <ns2:row r="409">
       <ns2:c r="A409" s="1" t="s">
-        <ns2:v>991</ns2:v>
+        <ns2:v>1061</ns2:v>
       </ns2:c>
       <ns2:c r="B409" s="8" t="s">
-        <ns2:v>992</ns2:v>
+        <ns2:v>1062</ns2:v>
       </ns2:c>
       <ns2:c r="C409" s="2"/>
       <ns2:c r="D409" s="2"/>
@@ -16487,13 +16577,13 @@
     </ns2:row>
     <ns2:row r="410">
       <ns2:c r="A410" s="1" t="s">
-        <ns2:v>993</ns2:v>
+        <ns2:v>1063</ns2:v>
       </ns2:c>
       <ns2:c r="B410" s="8" t="s">
-        <ns2:v>994</ns2:v>
+        <ns2:v>1064</ns2:v>
       </ns2:c>
       <ns2:c r="C410" s="8" t="s">
-        <ns2:v>995</ns2:v>
+        <ns2:v>1065</ns2:v>
       </ns2:c>
       <ns2:c r="D410" s="2"/>
       <ns2:c r="E410" s="2"/>
@@ -16506,10 +16596,10 @@
     </ns2:row>
     <ns2:row r="411">
       <ns2:c r="A411" s="1" t="s">
-        <ns2:v>996</ns2:v>
+        <ns2:v>1066</ns2:v>
       </ns2:c>
       <ns2:c r="B411" s="8" t="s">
-        <ns2:v>997</ns2:v>
+        <ns2:v>1067</ns2:v>
       </ns2:c>
       <ns2:c r="C411" s="2"/>
       <ns2:c r="D411" s="2"/>
@@ -16523,13 +16613,13 @@
     </ns2:row>
     <ns2:row r="412">
       <ns2:c r="A412" s="1" t="s">
-        <ns2:v>998</ns2:v>
+        <ns2:v>1068</ns2:v>
       </ns2:c>
       <ns2:c r="B412" s="8" t="s">
-        <ns2:v>999</ns2:v>
+        <ns2:v>1069</ns2:v>
       </ns2:c>
       <ns2:c r="C412" s="8" t="s">
-        <ns2:v>1000</ns2:v>
+        <ns2:v>1070</ns2:v>
       </ns2:c>
       <ns2:c r="D412" s="2"/>
       <ns2:c r="E412" s="2"/>
@@ -16542,10 +16632,10 @@
     </ns2:row>
     <ns2:row r="413">
       <ns2:c r="A413" s="1" t="s">
-        <ns2:v>1001</ns2:v>
+        <ns2:v>1071</ns2:v>
       </ns2:c>
       <ns2:c r="B413" s="8" t="s">
-        <ns2:v>1002</ns2:v>
+        <ns2:v>1072</ns2:v>
       </ns2:c>
       <ns2:c r="C413" s="2"/>
       <ns2:c r="D413" s="2"/>
@@ -16559,13 +16649,13 @@
     </ns2:row>
     <ns2:row r="414">
       <ns2:c r="A414" s="1" t="s">
-        <ns2:v>1003</ns2:v>
+        <ns2:v>1073</ns2:v>
       </ns2:c>
       <ns2:c r="B414" s="8" t="s">
-        <ns2:v>1004</ns2:v>
+        <ns2:v>1074</ns2:v>
       </ns2:c>
       <ns2:c r="C414" s="8" t="s">
-        <ns2:v>1005</ns2:v>
+        <ns2:v>1075</ns2:v>
       </ns2:c>
       <ns2:c r="D414" s="2"/>
       <ns2:c r="E414" s="2"/>
@@ -16578,13 +16668,13 @@
     </ns2:row>
     <ns2:row r="415">
       <ns2:c r="A415" s="1" t="s">
-        <ns2:v>1006</ns2:v>
+        <ns2:v>1076</ns2:v>
       </ns2:c>
       <ns2:c r="B415" s="11" t="s">
-        <ns2:v>1007</ns2:v>
+        <ns2:v>1077</ns2:v>
       </ns2:c>
       <ns2:c r="C415" s="11" t="s">
-        <ns2:v>1008</ns2:v>
+        <ns2:v>1078</ns2:v>
       </ns2:c>
       <ns2:c r="D415" s="2"/>
       <ns2:c r="E415" s="2"/>
@@ -16597,13 +16687,13 @@
     </ns2:row>
     <ns2:row r="416">
       <ns2:c r="A416" s="1" t="s">
-        <ns2:v>1009</ns2:v>
+        <ns2:v>1079</ns2:v>
       </ns2:c>
       <ns2:c r="B416" s="8" t="s">
-        <ns2:v>1010</ns2:v>
+        <ns2:v>1080</ns2:v>
       </ns2:c>
       <ns2:c r="C416" s="8" t="s">
-        <ns2:v>1011</ns2:v>
+        <ns2:v>1081</ns2:v>
       </ns2:c>
       <ns2:c r="D416" s="2"/>
       <ns2:c r="E416" s="2"/>
@@ -16616,13 +16706,13 @@
     </ns2:row>
     <ns2:row r="417">
       <ns2:c r="A417" s="1" t="s">
-        <ns2:v>1012</ns2:v>
+        <ns2:v>1082</ns2:v>
       </ns2:c>
       <ns2:c r="B417" s="8" t="s">
-        <ns2:v>1013</ns2:v>
+        <ns2:v>1083</ns2:v>
       </ns2:c>
       <ns2:c r="C417" s="8" t="s">
-        <ns2:v>1014</ns2:v>
+        <ns2:v>1084</ns2:v>
       </ns2:c>
       <ns2:c r="D417" s="2"/>
       <ns2:c r="E417" s="2"/>
@@ -16635,13 +16725,13 @@
     </ns2:row>
     <ns2:row r="418">
       <ns2:c r="A418" s="1" t="s">
-        <ns2:v>1015</ns2:v>
+        <ns2:v>1085</ns2:v>
       </ns2:c>
       <ns2:c r="B418" s="8" t="s">
-        <ns2:v>1016</ns2:v>
+        <ns2:v>1086</ns2:v>
       </ns2:c>
       <ns2:c r="C418" s="8" t="s">
-        <ns2:v>1017</ns2:v>
+        <ns2:v>1087</ns2:v>
       </ns2:c>
       <ns2:c r="D418" s="2"/>
       <ns2:c r="E418" s="2"/>
@@ -16654,13 +16744,13 @@
     </ns2:row>
     <ns2:row r="419">
       <ns2:c r="A419" s="1" t="s">
-        <ns2:v>1018</ns2:v>
+        <ns2:v>1088</ns2:v>
       </ns2:c>
       <ns2:c r="B419" s="8" t="s">
-        <ns2:v>1019</ns2:v>
+        <ns2:v>1089</ns2:v>
       </ns2:c>
       <ns2:c r="C419" s="8" t="s">
-        <ns2:v>1020</ns2:v>
+        <ns2:v>1090</ns2:v>
       </ns2:c>
       <ns2:c r="D419" s="2"/>
       <ns2:c r="E419" s="2"/>
@@ -16673,13 +16763,13 @@
     </ns2:row>
     <ns2:row r="420">
       <ns2:c r="A420" s="1" t="s">
-        <ns2:v>1021</ns2:v>
+        <ns2:v>1091</ns2:v>
       </ns2:c>
       <ns2:c r="B420" s="8" t="s">
-        <ns2:v>1022</ns2:v>
+        <ns2:v>1092</ns2:v>
       </ns2:c>
       <ns2:c r="C420" s="8" t="s">
-        <ns2:v>1023</ns2:v>
+        <ns2:v>1093</ns2:v>
       </ns2:c>
       <ns2:c r="D420" s="2"/>
       <ns2:c r="E420" s="2"/>
@@ -16692,10 +16782,10 @@
     </ns2:row>
     <ns2:row r="421">
       <ns2:c r="A421" s="1" t="s">
-        <ns2:v>1024</ns2:v>
+        <ns2:v>1094</ns2:v>
       </ns2:c>
       <ns2:c r="B421" s="8" t="s">
-        <ns2:v>1025</ns2:v>
+        <ns2:v>1095</ns2:v>
       </ns2:c>
       <ns2:c r="C421" s="2"/>
       <ns2:c r="D421" s="2"/>
@@ -16709,13 +16799,13 @@
     </ns2:row>
     <ns2:row r="422">
       <ns2:c r="A422" s="1" t="s">
-        <ns2:v>1026</ns2:v>
+        <ns2:v>1096</ns2:v>
       </ns2:c>
       <ns2:c r="B422" s="8" t="s">
-        <ns2:v>1027</ns2:v>
+        <ns2:v>1097</ns2:v>
       </ns2:c>
       <ns2:c r="C422" s="8" t="s">
-        <ns2:v>986</ns2:v>
+        <ns2:v>1056</ns2:v>
       </ns2:c>
       <ns2:c r="D422" s="2"/>
       <ns2:c r="E422" s="2"/>
@@ -16728,13 +16818,13 @@
     </ns2:row>
     <ns2:row r="423">
       <ns2:c r="A423" s="1" t="s">
-        <ns2:v>1028</ns2:v>
+        <ns2:v>1098</ns2:v>
       </ns2:c>
       <ns2:c r="B423" s="8" t="s">
         <ns2:v>96</ns2:v>
       </ns2:c>
       <ns2:c r="C423" s="8" t="s">
-        <ns2:v>1029</ns2:v>
+        <ns2:v>1099</ns2:v>
       </ns2:c>
       <ns2:c r="D423" s="2"/>
       <ns2:c r="E423" s="2"/>
@@ -16747,13 +16837,13 @@
     </ns2:row>
     <ns2:row r="424">
       <ns2:c r="A424" s="1" t="s">
-        <ns2:v>1030</ns2:v>
+        <ns2:v>1100</ns2:v>
       </ns2:c>
       <ns2:c r="B424" s="8" t="s">
-        <ns2:v>1031</ns2:v>
+        <ns2:v>1101</ns2:v>
       </ns2:c>
       <ns2:c r="C424" s="8" t="s">
-        <ns2:v>1032</ns2:v>
+        <ns2:v>1102</ns2:v>
       </ns2:c>
       <ns2:c r="D424" s="2"/>
       <ns2:c r="E424" s="2"/>
@@ -16766,13 +16856,13 @@
     </ns2:row>
     <ns2:row r="425">
       <ns2:c r="A425" s="1" t="s">
-        <ns2:v>1033</ns2:v>
+        <ns2:v>1103</ns2:v>
       </ns2:c>
       <ns2:c r="B425" s="8" t="s">
-        <ns2:v>1034</ns2:v>
+        <ns2:v>1104</ns2:v>
       </ns2:c>
       <ns2:c r="C425" s="8" t="s">
-        <ns2:v>1035</ns2:v>
+        <ns2:v>1105</ns2:v>
       </ns2:c>
       <ns2:c r="D425" s="2"/>
       <ns2:c r="E425" s="2"/>
@@ -16785,13 +16875,13 @@
     </ns2:row>
     <ns2:row r="426">
       <ns2:c r="A426" s="1" t="s">
-        <ns2:v>1036</ns2:v>
+        <ns2:v>1106</ns2:v>
       </ns2:c>
       <ns2:c r="B426" s="8" t="s">
-        <ns2:v>1037</ns2:v>
+        <ns2:v>1107</ns2:v>
       </ns2:c>
       <ns2:c r="C426" s="8" t="s">
-        <ns2:v>1038</ns2:v>
+        <ns2:v>1108</ns2:v>
       </ns2:c>
       <ns2:c r="D426" s="2"/>
       <ns2:c r="E426" s="2"/>
@@ -16804,13 +16894,13 @@
     </ns2:row>
     <ns2:row r="427">
       <ns2:c r="A427" s="1" t="s">
-        <ns2:v>1039</ns2:v>
+        <ns2:v>1109</ns2:v>
       </ns2:c>
       <ns2:c r="B427" s="8" t="s">
-        <ns2:v>1040</ns2:v>
+        <ns2:v>1110</ns2:v>
       </ns2:c>
       <ns2:c r="C427" s="8" t="s">
-        <ns2:v>1041</ns2:v>
+        <ns2:v>1111</ns2:v>
       </ns2:c>
       <ns2:c r="D427" s="2"/>
       <ns2:c r="E427" s="2"/>
@@ -16823,13 +16913,13 @@
     </ns2:row>
     <ns2:row r="428">
       <ns2:c r="A428" s="1" t="s">
-        <ns2:v>1042</ns2:v>
+        <ns2:v>1112</ns2:v>
       </ns2:c>
       <ns2:c r="B428" s="11" t="s">
-        <ns2:v>1043</ns2:v>
+        <ns2:v>1113</ns2:v>
       </ns2:c>
       <ns2:c r="C428" s="11" t="s">
-        <ns2:v>1044</ns2:v>
+        <ns2:v>1114</ns2:v>
       </ns2:c>
       <ns2:c r="D428" s="2"/>
       <ns2:c r="E428" s="2"/>
@@ -16842,13 +16932,13 @@
     </ns2:row>
     <ns2:row r="429">
       <ns2:c r="A429" s="1" t="s">
-        <ns2:v>1045</ns2:v>
+        <ns2:v>1115</ns2:v>
       </ns2:c>
       <ns2:c r="B429" s="8" t="s">
-        <ns2:v>1046</ns2:v>
+        <ns2:v>1116</ns2:v>
       </ns2:c>
       <ns2:c r="C429" s="8" t="s">
-        <ns2:v>1047</ns2:v>
+        <ns2:v>1117</ns2:v>
       </ns2:c>
       <ns2:c r="D429" s="2"/>
       <ns2:c r="E429" s="2"/>
@@ -16861,13 +16951,13 @@
     </ns2:row>
     <ns2:row r="430">
       <ns2:c r="A430" s="1" t="s">
-        <ns2:v>1048</ns2:v>
+        <ns2:v>1118</ns2:v>
       </ns2:c>
       <ns2:c r="B430" s="8" t="s">
-        <ns2:v>1049</ns2:v>
+        <ns2:v>1119</ns2:v>
       </ns2:c>
       <ns2:c r="C430" s="8" t="s">
-        <ns2:v>1050</ns2:v>
+        <ns2:v>1120</ns2:v>
       </ns2:c>
       <ns2:c r="D430" s="2"/>
       <ns2:c r="E430" s="2"/>
@@ -16880,13 +16970,13 @@
     </ns2:row>
     <ns2:row r="431">
       <ns2:c r="A431" s="1" t="s">
-        <ns2:v>1051</ns2:v>
+        <ns2:v>1121</ns2:v>
       </ns2:c>
       <ns2:c r="B431" s="8" t="s">
-        <ns2:v>1052</ns2:v>
+        <ns2:v>1122</ns2:v>
       </ns2:c>
       <ns2:c r="C431" s="8" t="s">
-        <ns2:v>1053</ns2:v>
+        <ns2:v>1123</ns2:v>
       </ns2:c>
       <ns2:c r="D431" s="2"/>
       <ns2:c r="E431" s="2"/>
@@ -16899,13 +16989,13 @@
     </ns2:row>
     <ns2:row r="432">
       <ns2:c r="A432" s="1" t="s">
-        <ns2:v>1054</ns2:v>
+        <ns2:v>1124</ns2:v>
       </ns2:c>
       <ns2:c r="B432" s="8" t="s">
-        <ns2:v>1055</ns2:v>
+        <ns2:v>1125</ns2:v>
       </ns2:c>
       <ns2:c r="C432" s="8" t="s">
-        <ns2:v>1056</ns2:v>
+        <ns2:v>1126</ns2:v>
       </ns2:c>
       <ns2:c r="D432" s="2"/>
       <ns2:c r="E432" s="2"/>
@@ -16918,13 +17008,13 @@
     </ns2:row>
     <ns2:row r="433">
       <ns2:c r="A433" s="1" t="s">
-        <ns2:v>1057</ns2:v>
+        <ns2:v>1127</ns2:v>
       </ns2:c>
       <ns2:c r="B433" s="8" t="s">
-        <ns2:v>1058</ns2:v>
+        <ns2:v>1128</ns2:v>
       </ns2:c>
       <ns2:c r="C433" s="8" t="s">
-        <ns2:v>1059</ns2:v>
+        <ns2:v>1129</ns2:v>
       </ns2:c>
       <ns2:c r="D433" s="2"/>
       <ns2:c r="E433" s="2"/>
@@ -16937,13 +17027,13 @@
     </ns2:row>
     <ns2:row r="434">
       <ns2:c r="A434" s="1" t="s">
-        <ns2:v>1060</ns2:v>
+        <ns2:v>1130</ns2:v>
       </ns2:c>
       <ns2:c r="B434" s="8" t="s">
-        <ns2:v>1061</ns2:v>
+        <ns2:v>1131</ns2:v>
       </ns2:c>
       <ns2:c r="C434" s="8" t="s">
-        <ns2:v>1062</ns2:v>
+        <ns2:v>1132</ns2:v>
       </ns2:c>
       <ns2:c r="D434" s="2"/>
       <ns2:c r="E434" s="2"/>
@@ -16956,13 +17046,13 @@
     </ns2:row>
     <ns2:row r="435">
       <ns2:c r="A435" s="1" t="s">
-        <ns2:v>1063</ns2:v>
+        <ns2:v>1133</ns2:v>
       </ns2:c>
       <ns2:c r="B435" s="8" t="s">
-        <ns2:v>1064</ns2:v>
+        <ns2:v>1134</ns2:v>
       </ns2:c>
       <ns2:c r="C435" s="8" t="s">
-        <ns2:v>1065</ns2:v>
+        <ns2:v>1135</ns2:v>
       </ns2:c>
       <ns2:c r="D435" s="2"/>
       <ns2:c r="E435" s="2"/>
@@ -16975,13 +17065,13 @@
     </ns2:row>
     <ns2:row r="436">
       <ns2:c r="A436" s="1" t="s">
-        <ns2:v>1066</ns2:v>
+        <ns2:v>1136</ns2:v>
       </ns2:c>
       <ns2:c r="B436" s="8" t="s">
-        <ns2:v>1067</ns2:v>
+        <ns2:v>1137</ns2:v>
       </ns2:c>
       <ns2:c r="C436" s="8" t="s">
-        <ns2:v>1068</ns2:v>
+        <ns2:v>1138</ns2:v>
       </ns2:c>
       <ns2:c r="D436" s="2"/>
       <ns2:c r="E436" s="2"/>
@@ -16994,13 +17084,13 @@
     </ns2:row>
     <ns2:row r="437">
       <ns2:c r="A437" s="1" t="s">
-        <ns2:v>1069</ns2:v>
+        <ns2:v>1139</ns2:v>
       </ns2:c>
       <ns2:c r="B437" s="8" t="s">
-        <ns2:v>1070</ns2:v>
+        <ns2:v>1140</ns2:v>
       </ns2:c>
       <ns2:c r="C437" s="8" t="s">
-        <ns2:v>1071</ns2:v>
+        <ns2:v>1141</ns2:v>
       </ns2:c>
       <ns2:c r="D437" s="2"/>
       <ns2:c r="E437" s="2"/>
@@ -17013,13 +17103,13 @@
     </ns2:row>
     <ns2:row r="438">
       <ns2:c r="A438" s="1" t="s">
-        <ns2:v>1072</ns2:v>
+        <ns2:v>1142</ns2:v>
       </ns2:c>
       <ns2:c r="B438" s="8" t="s">
-        <ns2:v>1073</ns2:v>
+        <ns2:v>1143</ns2:v>
       </ns2:c>
       <ns2:c r="C438" s="8" t="s">
-        <ns2:v>1074</ns2:v>
+        <ns2:v>1144</ns2:v>
       </ns2:c>
       <ns2:c r="D438" s="2"/>
       <ns2:c r="E438" s="2"/>
@@ -17032,13 +17122,13 @@
     </ns2:row>
     <ns2:row r="439">
       <ns2:c r="A439" s="1" t="s">
-        <ns2:v>1075</ns2:v>
+        <ns2:v>1145</ns2:v>
       </ns2:c>
       <ns2:c r="B439" s="8" t="s">
-        <ns2:v>1076</ns2:v>
+        <ns2:v>1146</ns2:v>
       </ns2:c>
       <ns2:c r="C439" s="8" t="s">
-        <ns2:v>1077</ns2:v>
+        <ns2:v>1147</ns2:v>
       </ns2:c>
       <ns2:c r="D439" s="2"/>
       <ns2:c r="E439" s="2"/>
@@ -17051,13 +17141,13 @@
     </ns2:row>
     <ns2:row r="440">
       <ns2:c r="A440" s="1" t="s">
-        <ns2:v>1078</ns2:v>
+        <ns2:v>1148</ns2:v>
       </ns2:c>
       <ns2:c r="B440" s="8" t="s">
-        <ns2:v>1079</ns2:v>
+        <ns2:v>1149</ns2:v>
       </ns2:c>
       <ns2:c r="C440" s="8" t="s">
-        <ns2:v>1080</ns2:v>
+        <ns2:v>1150</ns2:v>
       </ns2:c>
       <ns2:c r="D440" s="2"/>
       <ns2:c r="E440" s="2"/>
@@ -17070,13 +17160,13 @@
     </ns2:row>
     <ns2:row r="441">
       <ns2:c r="A441" s="1" t="s">
-        <ns2:v>1081</ns2:v>
+        <ns2:v>1151</ns2:v>
       </ns2:c>
       <ns2:c r="B441" s="8" t="s">
-        <ns2:v>1082</ns2:v>
+        <ns2:v>1152</ns2:v>
       </ns2:c>
       <ns2:c r="C441" s="8" t="s">
-        <ns2:v>1083</ns2:v>
+        <ns2:v>1153</ns2:v>
       </ns2:c>
       <ns2:c r="D441" s="2"/>
       <ns2:c r="E441" s="2"/>
@@ -17089,13 +17179,13 @@
     </ns2:row>
     <ns2:row r="442">
       <ns2:c r="A442" s="1" t="s">
-        <ns2:v>1084</ns2:v>
+        <ns2:v>1154</ns2:v>
       </ns2:c>
       <ns2:c r="B442" s="8" t="s">
-        <ns2:v>1085</ns2:v>
+        <ns2:v>1155</ns2:v>
       </ns2:c>
       <ns2:c r="C442" s="8" t="s">
-        <ns2:v>1086</ns2:v>
+        <ns2:v>1156</ns2:v>
       </ns2:c>
       <ns2:c r="D442" s="2"/>
       <ns2:c r="E442" s="2"/>
@@ -17108,13 +17198,13 @@
     </ns2:row>
     <ns2:row r="443">
       <ns2:c r="A443" s="1" t="s">
-        <ns2:v>1087</ns2:v>
+        <ns2:v>1157</ns2:v>
       </ns2:c>
       <ns2:c r="B443" s="8" t="s">
-        <ns2:v>1088</ns2:v>
+        <ns2:v>1158</ns2:v>
       </ns2:c>
       <ns2:c r="C443" s="8" t="s">
-        <ns2:v>1089</ns2:v>
+        <ns2:v>1159</ns2:v>
       </ns2:c>
       <ns2:c r="D443" s="2"/>
       <ns2:c r="E443" s="2"/>
@@ -17127,13 +17217,13 @@
     </ns2:row>
     <ns2:row r="444">
       <ns2:c r="A444" s="1" t="s">
-        <ns2:v>1090</ns2:v>
+        <ns2:v>1160</ns2:v>
       </ns2:c>
       <ns2:c r="B444" s="8" t="s">
-        <ns2:v>1091</ns2:v>
+        <ns2:v>1161</ns2:v>
       </ns2:c>
       <ns2:c r="C444" s="8" t="s">
-        <ns2:v>1092</ns2:v>
+        <ns2:v>1162</ns2:v>
       </ns2:c>
       <ns2:c r="D444" s="2"/>
       <ns2:c r="E444" s="2"/>
@@ -17146,13 +17236,13 @@
     </ns2:row>
     <ns2:row r="445">
       <ns2:c r="A445" s="1" t="s">
-        <ns2:v>1093</ns2:v>
+        <ns2:v>1163</ns2:v>
       </ns2:c>
       <ns2:c r="B445" s="8" t="s">
-        <ns2:v>1094</ns2:v>
+        <ns2:v>1164</ns2:v>
       </ns2:c>
       <ns2:c r="C445" s="8" t="s">
-        <ns2:v>1095</ns2:v>
+        <ns2:v>1165</ns2:v>
       </ns2:c>
       <ns2:c r="D445" s="2"/>
       <ns2:c r="E445" s="2"/>
@@ -17165,13 +17255,13 @@
     </ns2:row>
     <ns2:row r="446">
       <ns2:c r="A446" s="1" t="s">
-        <ns2:v>1096</ns2:v>
+        <ns2:v>1166</ns2:v>
       </ns2:c>
       <ns2:c r="B446" s="8" t="s">
-        <ns2:v>1097</ns2:v>
+        <ns2:v>1167</ns2:v>
       </ns2:c>
       <ns2:c r="C446" s="8" t="s">
-        <ns2:v>1098</ns2:v>
+        <ns2:v>1168</ns2:v>
       </ns2:c>
       <ns2:c r="D446" s="2"/>
       <ns2:c r="E446" s="2"/>
@@ -17184,13 +17274,13 @@
     </ns2:row>
     <ns2:row r="447">
       <ns2:c r="A447" s="1" t="s">
-        <ns2:v>1099</ns2:v>
+        <ns2:v>1169</ns2:v>
       </ns2:c>
       <ns2:c r="B447" s="8" t="s">
-        <ns2:v>1100</ns2:v>
+        <ns2:v>1170</ns2:v>
       </ns2:c>
       <ns2:c r="C447" s="8" t="s">
-        <ns2:v>1101</ns2:v>
+        <ns2:v>1171</ns2:v>
       </ns2:c>
       <ns2:c r="D447" s="2"/>
       <ns2:c r="E447" s="2"/>
@@ -17203,13 +17293,13 @@
     </ns2:row>
     <ns2:row r="448">
       <ns2:c r="A448" s="1" t="s">
-        <ns2:v>1102</ns2:v>
+        <ns2:v>1172</ns2:v>
       </ns2:c>
       <ns2:c r="B448" s="8" t="s">
-        <ns2:v>1103</ns2:v>
+        <ns2:v>1173</ns2:v>
       </ns2:c>
       <ns2:c r="C448" s="8" t="s">
-        <ns2:v>1104</ns2:v>
+        <ns2:v>1174</ns2:v>
       </ns2:c>
       <ns2:c r="D448" s="2"/>
       <ns2:c r="E448" s="2"/>
@@ -17222,13 +17312,13 @@
     </ns2:row>
     <ns2:row r="449">
       <ns2:c r="A449" s="1" t="s">
-        <ns2:v>1105</ns2:v>
+        <ns2:v>1175</ns2:v>
       </ns2:c>
       <ns2:c r="B449" s="8" t="s">
-        <ns2:v>1106</ns2:v>
+        <ns2:v>1176</ns2:v>
       </ns2:c>
       <ns2:c r="C449" s="8" t="s">
-        <ns2:v>1107</ns2:v>
+        <ns2:v>1177</ns2:v>
       </ns2:c>
       <ns2:c r="D449" s="2"/>
       <ns2:c r="E449" s="2"/>
@@ -17241,13 +17331,13 @@
     </ns2:row>
     <ns2:row r="450">
       <ns2:c r="A450" s="1" t="s">
-        <ns2:v>1108</ns2:v>
+        <ns2:v>1178</ns2:v>
       </ns2:c>
       <ns2:c r="B450" s="8" t="s">
-        <ns2:v>1109</ns2:v>
+        <ns2:v>1179</ns2:v>
       </ns2:c>
       <ns2:c r="C450" s="8" t="s">
-        <ns2:v>1110</ns2:v>
+        <ns2:v>1180</ns2:v>
       </ns2:c>
       <ns2:c r="D450" s="2"/>
       <ns2:c r="E450" s="2"/>
@@ -17260,13 +17350,13 @@
     </ns2:row>
     <ns2:row r="451">
       <ns2:c r="A451" s="1" t="s">
-        <ns2:v>1111</ns2:v>
+        <ns2:v>1181</ns2:v>
       </ns2:c>
       <ns2:c r="B451" s="8" t="s">
-        <ns2:v>1112</ns2:v>
+        <ns2:v>1182</ns2:v>
       </ns2:c>
       <ns2:c r="C451" s="8" t="s">
-        <ns2:v>1113</ns2:v>
+        <ns2:v>1183</ns2:v>
       </ns2:c>
       <ns2:c r="D451" s="2"/>
       <ns2:c r="E451" s="2"/>
@@ -17279,13 +17369,13 @@
     </ns2:row>
     <ns2:row r="452">
       <ns2:c r="A452" s="1" t="s">
-        <ns2:v>1114</ns2:v>
+        <ns2:v>1184</ns2:v>
       </ns2:c>
       <ns2:c r="B452" s="8" t="s">
-        <ns2:v>1115</ns2:v>
+        <ns2:v>1185</ns2:v>
       </ns2:c>
       <ns2:c r="C452" s="8" t="s">
-        <ns2:v>1116</ns2:v>
+        <ns2:v>1186</ns2:v>
       </ns2:c>
       <ns2:c r="D452" s="2"/>
       <ns2:c r="E452" s="2"/>
@@ -17298,13 +17388,13 @@
     </ns2:row>
     <ns2:row r="453">
       <ns2:c r="A453" s="1" t="s">
-        <ns2:v>1117</ns2:v>
+        <ns2:v>1187</ns2:v>
       </ns2:c>
       <ns2:c r="B453" s="8" t="s">
-        <ns2:v>1118</ns2:v>
+        <ns2:v>1188</ns2:v>
       </ns2:c>
       <ns2:c r="C453" s="8" t="s">
-        <ns2:v>1119</ns2:v>
+        <ns2:v>1189</ns2:v>
       </ns2:c>
       <ns2:c r="D453" s="2"/>
       <ns2:c r="E453" s="2"/>
@@ -17317,13 +17407,13 @@
     </ns2:row>
     <ns2:row r="454">
       <ns2:c r="A454" s="1" t="s">
-        <ns2:v>1120</ns2:v>
+        <ns2:v>1190</ns2:v>
       </ns2:c>
       <ns2:c r="B454" s="8" t="s">
-        <ns2:v>1121</ns2:v>
+        <ns2:v>1191</ns2:v>
       </ns2:c>
       <ns2:c r="C454" s="8" t="s">
-        <ns2:v>1122</ns2:v>
+        <ns2:v>1192</ns2:v>
       </ns2:c>
       <ns2:c r="D454" s="2"/>
       <ns2:c r="E454" s="2"/>
@@ -17336,10 +17426,10 @@
     </ns2:row>
     <ns2:row r="455">
       <ns2:c r="A455" s="1" t="s">
-        <ns2:v>1123</ns2:v>
+        <ns2:v>1193</ns2:v>
       </ns2:c>
       <ns2:c r="B455" s="8" t="s">
-        <ns2:v>1124</ns2:v>
+        <ns2:v>1194</ns2:v>
       </ns2:c>
       <ns2:c r="C455" s="8" t="s">
         <ns2:v>104</ns2:v>
@@ -17355,13 +17445,13 @@
     </ns2:row>
     <ns2:row r="456">
       <ns2:c r="A456" s="1" t="s">
-        <ns2:v>1125</ns2:v>
+        <ns2:v>1195</ns2:v>
       </ns2:c>
       <ns2:c r="B456" s="8" t="s">
-        <ns2:v>1126</ns2:v>
+        <ns2:v>1196</ns2:v>
       </ns2:c>
       <ns2:c r="C456" s="8" t="s">
-        <ns2:v>1126</ns2:v>
+        <ns2:v>1196</ns2:v>
       </ns2:c>
       <ns2:c r="D456" s="2"/>
       <ns2:c r="E456" s="2"/>
@@ -17374,13 +17464,13 @@
     </ns2:row>
     <ns2:row r="457">
       <ns2:c r="A457" s="1" t="s">
-        <ns2:v>1127</ns2:v>
+        <ns2:v>1197</ns2:v>
       </ns2:c>
       <ns2:c r="B457" s="8" t="s">
-        <ns2:v>1128</ns2:v>
+        <ns2:v>1198</ns2:v>
       </ns2:c>
       <ns2:c r="C457" s="8" t="s">
-        <ns2:v>1128</ns2:v>
+        <ns2:v>1198</ns2:v>
       </ns2:c>
       <ns2:c r="D457" s="2"/>
       <ns2:c r="E457" s="2"/>
@@ -17393,13 +17483,13 @@
     </ns2:row>
     <ns2:row r="458">
       <ns2:c r="A458" s="1" t="s">
-        <ns2:v>1129</ns2:v>
+        <ns2:v>1199</ns2:v>
       </ns2:c>
       <ns2:c r="B458" s="8" t="s">
-        <ns2:v>1130</ns2:v>
+        <ns2:v>1200</ns2:v>
       </ns2:c>
       <ns2:c r="C458" s="8" t="s">
-        <ns2:v>1131</ns2:v>
+        <ns2:v>1201</ns2:v>
       </ns2:c>
       <ns2:c r="D458" s="2"/>
       <ns2:c r="E458" s="2"/>
@@ -17412,13 +17502,13 @@
     </ns2:row>
     <ns2:row r="459">
       <ns2:c r="A459" s="1" t="s">
-        <ns2:v>1132</ns2:v>
+        <ns2:v>1202</ns2:v>
       </ns2:c>
       <ns2:c r="B459" s="8" t="s">
-        <ns2:v>1133</ns2:v>
+        <ns2:v>1203</ns2:v>
       </ns2:c>
       <ns2:c r="C459" s="8" t="s">
-        <ns2:v>1134</ns2:v>
+        <ns2:v>1204</ns2:v>
       </ns2:c>
       <ns2:c r="D459" s="2"/>
       <ns2:c r="E459" s="2"/>
@@ -17431,13 +17521,13 @@
     </ns2:row>
     <ns2:row r="460">
       <ns2:c r="A460" s="1" t="s">
-        <ns2:v>1135</ns2:v>
+        <ns2:v>1205</ns2:v>
       </ns2:c>
       <ns2:c r="B460" s="8" t="s">
-        <ns2:v>1136</ns2:v>
+        <ns2:v>1206</ns2:v>
       </ns2:c>
       <ns2:c r="C460" s="8" t="s">
-        <ns2:v>1137</ns2:v>
+        <ns2:v>1207</ns2:v>
       </ns2:c>
       <ns2:c r="D460" s="2"/>
       <ns2:c r="E460" s="2"/>
@@ -17450,13 +17540,13 @@
     </ns2:row>
     <ns2:row r="461">
       <ns2:c r="A461" s="1" t="s">
-        <ns2:v>1138</ns2:v>
+        <ns2:v>1208</ns2:v>
       </ns2:c>
       <ns2:c r="B461" s="8" t="s">
-        <ns2:v>1139</ns2:v>
+        <ns2:v>1209</ns2:v>
       </ns2:c>
       <ns2:c r="C461" s="8" t="s">
-        <ns2:v>1140</ns2:v>
+        <ns2:v>1210</ns2:v>
       </ns2:c>
       <ns2:c r="D461" s="2"/>
       <ns2:c r="E461" s="2"/>
@@ -17469,13 +17559,13 @@
     </ns2:row>
     <ns2:row r="462">
       <ns2:c r="A462" s="1" t="s">
-        <ns2:v>1141</ns2:v>
+        <ns2:v>1211</ns2:v>
       </ns2:c>
       <ns2:c r="B462" s="8" t="s">
-        <ns2:v>1142</ns2:v>
+        <ns2:v>1212</ns2:v>
       </ns2:c>
       <ns2:c r="C462" s="8" t="s">
-        <ns2:v>1143</ns2:v>
+        <ns2:v>1213</ns2:v>
       </ns2:c>
       <ns2:c r="D462" s="2"/>
       <ns2:c r="E462" s="2"/>
@@ -17488,13 +17578,13 @@
     </ns2:row>
     <ns2:row r="463">
       <ns2:c r="A463" s="1" t="s">
-        <ns2:v>1144</ns2:v>
+        <ns2:v>1214</ns2:v>
       </ns2:c>
       <ns2:c r="B463" s="8" t="s">
-        <ns2:v>1145</ns2:v>
+        <ns2:v>1215</ns2:v>
       </ns2:c>
       <ns2:c r="C463" s="8" t="s">
-        <ns2:v>1146</ns2:v>
+        <ns2:v>1216</ns2:v>
       </ns2:c>
       <ns2:c r="D463" s="2"/>
       <ns2:c r="E463" s="2"/>
@@ -17507,13 +17597,13 @@
     </ns2:row>
     <ns2:row r="464">
       <ns2:c r="A464" s="1" t="s">
-        <ns2:v>1147</ns2:v>
+        <ns2:v>1217</ns2:v>
       </ns2:c>
       <ns2:c r="B464" s="8" t="s">
-        <ns2:v>1148</ns2:v>
+        <ns2:v>1218</ns2:v>
       </ns2:c>
       <ns2:c r="C464" s="8" t="s">
-        <ns2:v>1149</ns2:v>
+        <ns2:v>1219</ns2:v>
       </ns2:c>
       <ns2:c r="D464" s="2"/>
       <ns2:c r="E464" s="2"/>
@@ -17526,13 +17616,13 @@
     </ns2:row>
     <ns2:row r="465">
       <ns2:c r="A465" s="1" t="s">
-        <ns2:v>1150</ns2:v>
+        <ns2:v>1220</ns2:v>
       </ns2:c>
       <ns2:c r="B465" s="8" t="s">
-        <ns2:v>1151</ns2:v>
+        <ns2:v>1221</ns2:v>
       </ns2:c>
       <ns2:c r="C465" s="8" t="s">
-        <ns2:v>1152</ns2:v>
+        <ns2:v>1222</ns2:v>
       </ns2:c>
       <ns2:c r="D465" s="2"/>
       <ns2:c r="E465" s="2"/>
@@ -17545,13 +17635,13 @@
     </ns2:row>
     <ns2:row r="466">
       <ns2:c r="A466" s="1" t="s">
-        <ns2:v>1153</ns2:v>
+        <ns2:v>1223</ns2:v>
       </ns2:c>
       <ns2:c r="B466" s="8" t="s">
-        <ns2:v>1154</ns2:v>
+        <ns2:v>1224</ns2:v>
       </ns2:c>
       <ns2:c r="C466" s="8" t="s">
-        <ns2:v>1155</ns2:v>
+        <ns2:v>1225</ns2:v>
       </ns2:c>
       <ns2:c r="D466" s="2"/>
       <ns2:c r="E466" s="2"/>
@@ -17564,13 +17654,13 @@
     </ns2:row>
     <ns2:row r="467">
       <ns2:c r="A467" s="1" t="s">
-        <ns2:v>1156</ns2:v>
+        <ns2:v>1226</ns2:v>
       </ns2:c>
       <ns2:c r="B467" s="8" t="s">
-        <ns2:v>1157</ns2:v>
+        <ns2:v>1227</ns2:v>
       </ns2:c>
       <ns2:c r="C467" s="8" t="s">
-        <ns2:v>1158</ns2:v>
+        <ns2:v>1228</ns2:v>
       </ns2:c>
       <ns2:c r="D467" s="2"/>
       <ns2:c r="E467" s="2"/>
@@ -17583,13 +17673,13 @@
     </ns2:row>
     <ns2:row r="468">
       <ns2:c r="A468" s="1" t="s">
-        <ns2:v>1159</ns2:v>
+        <ns2:v>1229</ns2:v>
       </ns2:c>
       <ns2:c r="B468" s="8" t="s">
-        <ns2:v>1160</ns2:v>
+        <ns2:v>1230</ns2:v>
       </ns2:c>
       <ns2:c r="C468" s="8" t="s">
-        <ns2:v>1161</ns2:v>
+        <ns2:v>1231</ns2:v>
       </ns2:c>
       <ns2:c r="D468" s="2"/>
       <ns2:c r="E468" s="2"/>
@@ -17602,13 +17692,13 @@
     </ns2:row>
     <ns2:row r="469">
       <ns2:c r="A469" s="1" t="s">
-        <ns2:v>1162</ns2:v>
+        <ns2:v>1232</ns2:v>
       </ns2:c>
       <ns2:c r="B469" s="8" t="s">
-        <ns2:v>1163</ns2:v>
+        <ns2:v>1233</ns2:v>
       </ns2:c>
       <ns2:c r="C469" s="8" t="s">
-        <ns2:v>1164</ns2:v>
+        <ns2:v>1234</ns2:v>
       </ns2:c>
       <ns2:c r="D469" s="2"/>
       <ns2:c r="E469" s="2"/>
@@ -17621,13 +17711,13 @@
     </ns2:row>
     <ns2:row r="470">
       <ns2:c r="A470" s="1" t="s">
-        <ns2:v>1165</ns2:v>
+        <ns2:v>1235</ns2:v>
       </ns2:c>
       <ns2:c r="B470" s="8" t="s">
-        <ns2:v>1166</ns2:v>
+        <ns2:v>1236</ns2:v>
       </ns2:c>
       <ns2:c r="C470" s="8" t="s">
-        <ns2:v>1167</ns2:v>
+        <ns2:v>1237</ns2:v>
       </ns2:c>
       <ns2:c r="D470" s="2"/>
       <ns2:c r="E470" s="2"/>
@@ -17640,13 +17730,13 @@
     </ns2:row>
     <ns2:row r="471">
       <ns2:c r="A471" s="1" t="s">
-        <ns2:v>1168</ns2:v>
+        <ns2:v>1238</ns2:v>
       </ns2:c>
       <ns2:c r="B471" s="8" t="s">
-        <ns2:v>1169</ns2:v>
+        <ns2:v>1239</ns2:v>
       </ns2:c>
       <ns2:c r="C471" s="8" t="s">
-        <ns2:v>1169</ns2:v>
+        <ns2:v>1239</ns2:v>
       </ns2:c>
       <ns2:c r="D471" s="2"/>
       <ns2:c r="E471" s="2"/>
@@ -17659,13 +17749,13 @@
     </ns2:row>
     <ns2:row r="472">
       <ns2:c r="A472" s="1" t="s">
-        <ns2:v>1170</ns2:v>
+        <ns2:v>1240</ns2:v>
       </ns2:c>
       <ns2:c r="B472" s="8" t="s">
-        <ns2:v>1171</ns2:v>
+        <ns2:v>1241</ns2:v>
       </ns2:c>
       <ns2:c r="C472" s="8" t="s">
-        <ns2:v>1171</ns2:v>
+        <ns2:v>1241</ns2:v>
       </ns2:c>
       <ns2:c r="D472" s="2"/>
       <ns2:c r="E472" s="2"/>
@@ -17678,13 +17768,13 @@
     </ns2:row>
     <ns2:row r="473">
       <ns2:c r="A473" s="1" t="s">
-        <ns2:v>1172</ns2:v>
+        <ns2:v>1242</ns2:v>
       </ns2:c>
       <ns2:c r="B473" s="8" t="s">
-        <ns2:v>1173</ns2:v>
+        <ns2:v>1243</ns2:v>
       </ns2:c>
       <ns2:c r="C473" s="8" t="s">
-        <ns2:v>1173</ns2:v>
+        <ns2:v>1243</ns2:v>
       </ns2:c>
       <ns2:c r="D473" s="2"/>
       <ns2:c r="E473" s="2"/>
@@ -17697,13 +17787,13 @@
     </ns2:row>
     <ns2:row r="474">
       <ns2:c r="A474" s="1" t="s">
-        <ns2:v>1174</ns2:v>
+        <ns2:v>1244</ns2:v>
       </ns2:c>
       <ns2:c r="B474" s="8" t="s">
-        <ns2:v>1175</ns2:v>
+        <ns2:v>1245</ns2:v>
       </ns2:c>
       <ns2:c r="C474" s="8" t="s">
-        <ns2:v>1176</ns2:v>
+        <ns2:v>1246</ns2:v>
       </ns2:c>
       <ns2:c r="D474" s="2"/>
       <ns2:c r="E474" s="2"/>
@@ -17716,13 +17806,13 @@
     </ns2:row>
     <ns2:row r="475">
       <ns2:c r="A475" s="1" t="s">
-        <ns2:v>1177</ns2:v>
+        <ns2:v>1247</ns2:v>
       </ns2:c>
       <ns2:c r="B475" s="8" t="s">
-        <ns2:v>1178</ns2:v>
+        <ns2:v>1248</ns2:v>
       </ns2:c>
       <ns2:c r="C475" s="8" t="s">
-        <ns2:v>1179</ns2:v>
+        <ns2:v>1249</ns2:v>
       </ns2:c>
       <ns2:c r="D475" s="2"/>
       <ns2:c r="E475" s="2"/>
@@ -17735,13 +17825,13 @@
     </ns2:row>
     <ns2:row r="476">
       <ns2:c r="A476" s="1" t="s">
-        <ns2:v>1180</ns2:v>
+        <ns2:v>1250</ns2:v>
       </ns2:c>
       <ns2:c r="B476" s="8" t="s">
-        <ns2:v>1181</ns2:v>
+        <ns2:v>1251</ns2:v>
       </ns2:c>
       <ns2:c r="C476" s="8" t="s">
-        <ns2:v>1182</ns2:v>
+        <ns2:v>1252</ns2:v>
       </ns2:c>
       <ns2:c r="D476" s="2"/>
       <ns2:c r="E476" s="2"/>
@@ -17754,13 +17844,13 @@
     </ns2:row>
     <ns2:row r="477">
       <ns2:c r="A477" s="1" t="s">
-        <ns2:v>1183</ns2:v>
+        <ns2:v>1253</ns2:v>
       </ns2:c>
       <ns2:c r="B477" s="8" t="s">
-        <ns2:v>1184</ns2:v>
+        <ns2:v>1254</ns2:v>
       </ns2:c>
       <ns2:c r="C477" s="8" t="s">
-        <ns2:v>1185</ns2:v>
+        <ns2:v>1255</ns2:v>
       </ns2:c>
       <ns2:c r="D477" s="2"/>
       <ns2:c r="E477" s="2"/>
@@ -17773,13 +17863,13 @@
     </ns2:row>
     <ns2:row r="478">
       <ns2:c r="A478" s="1" t="s">
-        <ns2:v>1186</ns2:v>
+        <ns2:v>1256</ns2:v>
       </ns2:c>
       <ns2:c r="B478" s="8" t="s">
-        <ns2:v>1187</ns2:v>
+        <ns2:v>1257</ns2:v>
       </ns2:c>
       <ns2:c r="C478" s="8" t="s">
-        <ns2:v>1188</ns2:v>
+        <ns2:v>1258</ns2:v>
       </ns2:c>
       <ns2:c r="D478" s="2"/>
       <ns2:c r="E478" s="2"/>
@@ -17792,13 +17882,13 @@
     </ns2:row>
     <ns2:row r="479">
       <ns2:c r="A479" s="1" t="s">
-        <ns2:v>1189</ns2:v>
+        <ns2:v>1259</ns2:v>
       </ns2:c>
       <ns2:c r="B479" s="8" t="s">
-        <ns2:v>1190</ns2:v>
+        <ns2:v>1260</ns2:v>
       </ns2:c>
       <ns2:c r="C479" s="8" t="s">
-        <ns2:v>1191</ns2:v>
+        <ns2:v>1261</ns2:v>
       </ns2:c>
       <ns2:c r="D479" s="2"/>
       <ns2:c r="E479" s="2"/>
@@ -17811,13 +17901,13 @@
     </ns2:row>
     <ns2:row r="480">
       <ns2:c r="A480" s="1" t="s">
-        <ns2:v>1192</ns2:v>
+        <ns2:v>1262</ns2:v>
       </ns2:c>
       <ns2:c r="B480" s="8" t="s">
-        <ns2:v>1193</ns2:v>
+        <ns2:v>1263</ns2:v>
       </ns2:c>
       <ns2:c r="C480" s="8" t="s">
-        <ns2:v>1194</ns2:v>
+        <ns2:v>1264</ns2:v>
       </ns2:c>
       <ns2:c r="D480" s="2"/>
       <ns2:c r="E480" s="2"/>
@@ -17830,13 +17920,13 @@
     </ns2:row>
     <ns2:row r="481">
       <ns2:c r="A481" s="1" t="s">
-        <ns2:v>1195</ns2:v>
+        <ns2:v>1265</ns2:v>
       </ns2:c>
       <ns2:c r="B481" s="8" t="s">
-        <ns2:v>1196</ns2:v>
+        <ns2:v>1266</ns2:v>
       </ns2:c>
       <ns2:c r="C481" s="8" t="s">
-        <ns2:v>1197</ns2:v>
+        <ns2:v>1267</ns2:v>
       </ns2:c>
       <ns2:c r="D481" s="2"/>
       <ns2:c r="E481" s="2"/>
@@ -17849,13 +17939,13 @@
     </ns2:row>
     <ns2:row r="482">
       <ns2:c r="A482" s="1" t="s">
-        <ns2:v>1198</ns2:v>
+        <ns2:v>1268</ns2:v>
       </ns2:c>
       <ns2:c r="B482" s="8" t="s">
-        <ns2:v>1199</ns2:v>
+        <ns2:v>1269</ns2:v>
       </ns2:c>
       <ns2:c r="C482" s="8" t="s">
-        <ns2:v>1199</ns2:v>
+        <ns2:v>1269</ns2:v>
       </ns2:c>
       <ns2:c r="D482" s="2"/>
       <ns2:c r="E482" s="2"/>
@@ -17868,13 +17958,13 @@
     </ns2:row>
     <ns2:row r="483">
       <ns2:c r="A483" s="1" t="s">
-        <ns2:v>1200</ns2:v>
+        <ns2:v>1270</ns2:v>
       </ns2:c>
       <ns2:c r="B483" s="8" t="s">
-        <ns2:v>1201</ns2:v>
+        <ns2:v>1271</ns2:v>
       </ns2:c>
       <ns2:c r="C483" s="8" t="s">
-        <ns2:v>1202</ns2:v>
+        <ns2:v>1272</ns2:v>
       </ns2:c>
       <ns2:c r="D483" s="2"/>
       <ns2:c r="E483" s="2"/>
@@ -17887,13 +17977,13 @@
     </ns2:row>
     <ns2:row r="484">
       <ns2:c r="A484" s="1" t="s">
-        <ns2:v>1203</ns2:v>
+        <ns2:v>1273</ns2:v>
       </ns2:c>
       <ns2:c r="B484" s="8" t="s">
-        <ns2:v>1204</ns2:v>
+        <ns2:v>1274</ns2:v>
       </ns2:c>
       <ns2:c r="C484" s="8" t="s">
-        <ns2:v>1205</ns2:v>
+        <ns2:v>1275</ns2:v>
       </ns2:c>
       <ns2:c r="D484" s="2"/>
       <ns2:c r="E484" s="2"/>
@@ -17906,13 +17996,13 @@
     </ns2:row>
     <ns2:row r="485">
       <ns2:c r="A485" s="1" t="s">
-        <ns2:v>1206</ns2:v>
+        <ns2:v>1276</ns2:v>
       </ns2:c>
       <ns2:c r="B485" s="8" t="s">
-        <ns2:v>1207</ns2:v>
+        <ns2:v>1277</ns2:v>
       </ns2:c>
       <ns2:c r="C485" s="8" t="s">
-        <ns2:v>1208</ns2:v>
+        <ns2:v>1278</ns2:v>
       </ns2:c>
       <ns2:c r="D485" s="2"/>
       <ns2:c r="E485" s="2"/>
@@ -17925,13 +18015,13 @@
     </ns2:row>
     <ns2:row r="486">
       <ns2:c r="A486" s="1" t="s">
-        <ns2:v>1209</ns2:v>
+        <ns2:v>1279</ns2:v>
       </ns2:c>
       <ns2:c r="B486" s="8" t="s">
-        <ns2:v>1210</ns2:v>
+        <ns2:v>1280</ns2:v>
       </ns2:c>
       <ns2:c r="C486" s="8" t="s">
-        <ns2:v>1211</ns2:v>
+        <ns2:v>1281</ns2:v>
       </ns2:c>
       <ns2:c r="D486" s="2"/>
       <ns2:c r="E486" s="2"/>
@@ -17944,13 +18034,13 @@
     </ns2:row>
     <ns2:row r="487">
       <ns2:c r="A487" s="1" t="s">
-        <ns2:v>1212</ns2:v>
+        <ns2:v>1282</ns2:v>
       </ns2:c>
       <ns2:c r="B487" s="8" t="s">
-        <ns2:v>1213</ns2:v>
+        <ns2:v>1283</ns2:v>
       </ns2:c>
       <ns2:c r="C487" s="8" t="s">
-        <ns2:v>1214</ns2:v>
+        <ns2:v>1284</ns2:v>
       </ns2:c>
       <ns2:c r="D487" s="2"/>
       <ns2:c r="E487" s="2"/>
@@ -17963,13 +18053,13 @@
     </ns2:row>
     <ns2:row r="488">
       <ns2:c r="A488" s="1" t="s">
-        <ns2:v>1215</ns2:v>
+        <ns2:v>1285</ns2:v>
       </ns2:c>
       <ns2:c r="B488" s="8" t="s">
-        <ns2:v>1216</ns2:v>
+        <ns2:v>1286</ns2:v>
       </ns2:c>
       <ns2:c r="C488" s="8" t="s">
-        <ns2:v>1217</ns2:v>
+        <ns2:v>1287</ns2:v>
       </ns2:c>
       <ns2:c r="D488" s="2"/>
       <ns2:c r="E488" s="2"/>
@@ -17982,13 +18072,13 @@
     </ns2:row>
     <ns2:row r="489">
       <ns2:c r="A489" s="1" t="s">
-        <ns2:v>1218</ns2:v>
+        <ns2:v>1288</ns2:v>
       </ns2:c>
       <ns2:c r="B489" s="8" t="s">
-        <ns2:v>1219</ns2:v>
+        <ns2:v>1289</ns2:v>
       </ns2:c>
       <ns2:c r="C489" s="8" t="s">
-        <ns2:v>1220</ns2:v>
+        <ns2:v>1290</ns2:v>
       </ns2:c>
       <ns2:c r="D489" s="2"/>
       <ns2:c r="E489" s="2"/>
@@ -18001,13 +18091,13 @@
     </ns2:row>
     <ns2:row r="490">
       <ns2:c r="A490" s="1" t="s">
-        <ns2:v>1221</ns2:v>
+        <ns2:v>1291</ns2:v>
       </ns2:c>
       <ns2:c r="B490" s="8" t="s">
-        <ns2:v>1222</ns2:v>
+        <ns2:v>1292</ns2:v>
       </ns2:c>
       <ns2:c r="C490" s="8" t="s">
-        <ns2:v>1223</ns2:v>
+        <ns2:v>1293</ns2:v>
       </ns2:c>
       <ns2:c r="D490" s="2"/>
       <ns2:c r="E490" s="2"/>
@@ -18020,13 +18110,13 @@
     </ns2:row>
     <ns2:row r="491">
       <ns2:c r="A491" s="1" t="s">
-        <ns2:v>1224</ns2:v>
+        <ns2:v>1294</ns2:v>
       </ns2:c>
       <ns2:c r="B491" s="8" t="s">
-        <ns2:v>1225</ns2:v>
+        <ns2:v>1295</ns2:v>
       </ns2:c>
       <ns2:c r="C491" s="8" t="s">
-        <ns2:v>1226</ns2:v>
+        <ns2:v>1296</ns2:v>
       </ns2:c>
       <ns2:c r="D491" s="2"/>
       <ns2:c r="E491" s="2"/>
@@ -18039,13 +18129,13 @@
     </ns2:row>
     <ns2:row r="492">
       <ns2:c r="A492" s="1" t="s">
-        <ns2:v>1227</ns2:v>
+        <ns2:v>1297</ns2:v>
       </ns2:c>
       <ns2:c r="B492" s="8" t="s">
-        <ns2:v>1228</ns2:v>
+        <ns2:v>1298</ns2:v>
       </ns2:c>
       <ns2:c r="C492" s="8" t="s">
-        <ns2:v>1229</ns2:v>
+        <ns2:v>1299</ns2:v>
       </ns2:c>
       <ns2:c r="D492" s="2"/>
       <ns2:c r="E492" s="2"/>
@@ -18058,13 +18148,13 @@
     </ns2:row>
     <ns2:row r="493">
       <ns2:c r="A493" s="1" t="s">
-        <ns2:v>1230</ns2:v>
+        <ns2:v>1300</ns2:v>
       </ns2:c>
       <ns2:c r="B493" s="8" t="s">
-        <ns2:v>1231</ns2:v>
+        <ns2:v>1301</ns2:v>
       </ns2:c>
       <ns2:c r="C493" s="8" t="s">
-        <ns2:v>1232</ns2:v>
+        <ns2:v>1302</ns2:v>
       </ns2:c>
       <ns2:c r="D493" s="2"/>
       <ns2:c r="E493" s="2"/>
@@ -18077,13 +18167,13 @@
     </ns2:row>
     <ns2:row r="494">
       <ns2:c r="A494" s="1" t="s">
-        <ns2:v>1233</ns2:v>
+        <ns2:v>1303</ns2:v>
       </ns2:c>
       <ns2:c r="B494" s="8" t="s">
-        <ns2:v>1234</ns2:v>
+        <ns2:v>1304</ns2:v>
       </ns2:c>
       <ns2:c r="C494" s="8" t="s">
-        <ns2:v>1234</ns2:v>
+        <ns2:v>1304</ns2:v>
       </ns2:c>
       <ns2:c r="D494" s="2"/>
       <ns2:c r="E494" s="2"/>
@@ -18096,13 +18186,13 @@
     </ns2:row>
     <ns2:row r="495">
       <ns2:c r="A495" s="1" t="s">
-        <ns2:v>1235</ns2:v>
+        <ns2:v>1305</ns2:v>
       </ns2:c>
       <ns2:c r="B495" s="8" t="s">
-        <ns2:v>1236</ns2:v>
+        <ns2:v>1306</ns2:v>
       </ns2:c>
       <ns2:c r="C495" s="8" t="s">
-        <ns2:v>1237</ns2:v>
+        <ns2:v>1307</ns2:v>
       </ns2:c>
       <ns2:c r="D495" s="2"/>
       <ns2:c r="E495" s="2"/>
@@ -18115,13 +18205,13 @@
     </ns2:row>
     <ns2:row r="496">
       <ns2:c r="A496" s="1" t="s">
-        <ns2:v>1238</ns2:v>
+        <ns2:v>1308</ns2:v>
       </ns2:c>
       <ns2:c r="B496" s="8" t="s">
-        <ns2:v>1239</ns2:v>
+        <ns2:v>1309</ns2:v>
       </ns2:c>
       <ns2:c r="C496" s="8" t="s">
-        <ns2:v>1240</ns2:v>
+        <ns2:v>1310</ns2:v>
       </ns2:c>
       <ns2:c r="D496" s="2"/>
       <ns2:c r="E496" s="2"/>
@@ -18134,13 +18224,13 @@
     </ns2:row>
     <ns2:row r="497">
       <ns2:c r="A497" s="1" t="s">
-        <ns2:v>1241</ns2:v>
+        <ns2:v>1311</ns2:v>
       </ns2:c>
       <ns2:c r="B497" s="8" t="s">
-        <ns2:v>1242</ns2:v>
+        <ns2:v>1312</ns2:v>
       </ns2:c>
       <ns2:c r="C497" s="8" t="s">
-        <ns2:v>1243</ns2:v>
+        <ns2:v>1313</ns2:v>
       </ns2:c>
       <ns2:c r="D497" s="2"/>
       <ns2:c r="E497" s="2"/>
@@ -18153,10 +18243,10 @@
     </ns2:row>
     <ns2:row r="498">
       <ns2:c r="A498" s="1" t="s">
-        <ns2:v>1244</ns2:v>
+        <ns2:v>1314</ns2:v>
       </ns2:c>
       <ns2:c r="B498" s="8" t="s">
-        <ns2:v>1245</ns2:v>
+        <ns2:v>1315</ns2:v>
       </ns2:c>
       <ns2:c r="C498" s="2"/>
       <ns2:c r="D498" s="2"/>
@@ -18170,10 +18260,10 @@
     </ns2:row>
     <ns2:row r="499">
       <ns2:c r="A499" s="1" t="s">
-        <ns2:v>1246</ns2:v>
+        <ns2:v>1316</ns2:v>
       </ns2:c>
       <ns2:c r="B499" s="8" t="s">
-        <ns2:v>1247</ns2:v>
+        <ns2:v>1317</ns2:v>
       </ns2:c>
       <ns2:c r="C499" s="2"/>
       <ns2:c r="D499" s="2"/>
@@ -18187,10 +18277,10 @@
     </ns2:row>
     <ns2:row r="500">
       <ns2:c r="A500" s="1" t="s">
-        <ns2:v>1248</ns2:v>
+        <ns2:v>1318</ns2:v>
       </ns2:c>
       <ns2:c r="B500" s="8" t="s">
-        <ns2:v>1249</ns2:v>
+        <ns2:v>1319</ns2:v>
       </ns2:c>
       <ns2:c r="C500" s="2"/>
       <ns2:c r="D500" s="2"/>
@@ -18204,10 +18294,10 @@
     </ns2:row>
     <ns2:row r="501">
       <ns2:c r="A501" s="1" t="s">
-        <ns2:v>1250</ns2:v>
+        <ns2:v>1320</ns2:v>
       </ns2:c>
       <ns2:c r="B501" s="8" t="s">
-        <ns2:v>1251</ns2:v>
+        <ns2:v>1321</ns2:v>
       </ns2:c>
       <ns2:c r="C501" s="2"/>
       <ns2:c r="D501" s="2"/>
@@ -18221,10 +18311,10 @@
     </ns2:row>
     <ns2:row r="502">
       <ns2:c r="A502" s="1" t="s">
-        <ns2:v>1252</ns2:v>
+        <ns2:v>1322</ns2:v>
       </ns2:c>
       <ns2:c r="B502" s="8" t="s">
-        <ns2:v>1253</ns2:v>
+        <ns2:v>1323</ns2:v>
       </ns2:c>
       <ns2:c r="C502" s="2"/>
       <ns2:c r="D502" s="2"/>
@@ -18238,10 +18328,10 @@
     </ns2:row>
     <ns2:row r="503">
       <ns2:c r="A503" s="1" t="s">
-        <ns2:v>1254</ns2:v>
+        <ns2:v>1324</ns2:v>
       </ns2:c>
       <ns2:c r="B503" s="8" t="s">
-        <ns2:v>1255</ns2:v>
+        <ns2:v>1325</ns2:v>
       </ns2:c>
       <ns2:c r="C503" s="2"/>
       <ns2:c r="D503" s="2"/>
@@ -18255,10 +18345,10 @@
     </ns2:row>
     <ns2:row r="504">
       <ns2:c r="A504" s="1" t="s">
-        <ns2:v>1256</ns2:v>
+        <ns2:v>1326</ns2:v>
       </ns2:c>
       <ns2:c r="B504" s="8" t="s">
-        <ns2:v>1257</ns2:v>
+        <ns2:v>1327</ns2:v>
       </ns2:c>
       <ns2:c r="C504" s="2"/>
       <ns2:c r="D504" s="2"/>
@@ -18272,10 +18362,10 @@
     </ns2:row>
     <ns2:row r="505">
       <ns2:c r="A505" s="1" t="s">
-        <ns2:v>1258</ns2:v>
+        <ns2:v>1328</ns2:v>
       </ns2:c>
       <ns2:c r="B505" s="8" t="s">
-        <ns2:v>1259</ns2:v>
+        <ns2:v>1329</ns2:v>
       </ns2:c>
       <ns2:c r="C505" s="2"/>
       <ns2:c r="D505" s="2"/>
@@ -18289,10 +18379,10 @@
     </ns2:row>
     <ns2:row r="506">
       <ns2:c r="A506" s="1" t="s">
-        <ns2:v>1260</ns2:v>
+        <ns2:v>1330</ns2:v>
       </ns2:c>
       <ns2:c r="B506" s="8" t="s">
-        <ns2:v>1261</ns2:v>
+        <ns2:v>1331</ns2:v>
       </ns2:c>
       <ns2:c r="C506" s="2"/>
       <ns2:c r="D506" s="2"/>
@@ -18306,10 +18396,10 @@
     </ns2:row>
     <ns2:row r="507">
       <ns2:c r="A507" s="1" t="s">
-        <ns2:v>1262</ns2:v>
+        <ns2:v>1332</ns2:v>
       </ns2:c>
       <ns2:c r="B507" s="8" t="s">
-        <ns2:v>1263</ns2:v>
+        <ns2:v>1333</ns2:v>
       </ns2:c>
       <ns2:c r="C507" s="2"/>
       <ns2:c r="D507" s="2"/>
@@ -18323,10 +18413,10 @@
     </ns2:row>
     <ns2:row r="508">
       <ns2:c r="A508" s="1" t="s">
-        <ns2:v>1264</ns2:v>
+        <ns2:v>1334</ns2:v>
       </ns2:c>
       <ns2:c r="B508" s="8" t="s">
-        <ns2:v>1265</ns2:v>
+        <ns2:v>1335</ns2:v>
       </ns2:c>
       <ns2:c r="C508" s="2"/>
       <ns2:c r="D508" s="2"/>
@@ -18340,10 +18430,10 @@
     </ns2:row>
     <ns2:row r="509">
       <ns2:c r="A509" s="1" t="s">
-        <ns2:v>1266</ns2:v>
+        <ns2:v>1336</ns2:v>
       </ns2:c>
       <ns2:c r="B509" s="8" t="s">
-        <ns2:v>1267</ns2:v>
+        <ns2:v>1337</ns2:v>
       </ns2:c>
       <ns2:c r="C509" s="2"/>
       <ns2:c r="D509" s="2"/>
@@ -18357,10 +18447,10 @@
     </ns2:row>
     <ns2:row r="510">
       <ns2:c r="A510" s="1" t="s">
-        <ns2:v>1268</ns2:v>
+        <ns2:v>1338</ns2:v>
       </ns2:c>
       <ns2:c r="B510" s="8" t="s">
-        <ns2:v>1269</ns2:v>
+        <ns2:v>1339</ns2:v>
       </ns2:c>
       <ns2:c r="C510" s="2"/>
       <ns2:c r="D510" s="2"/>
@@ -18374,10 +18464,10 @@
     </ns2:row>
     <ns2:row r="511">
       <ns2:c r="A511" s="1" t="s">
-        <ns2:v>1270</ns2:v>
+        <ns2:v>1340</ns2:v>
       </ns2:c>
       <ns2:c r="B511" s="8" t="s">
-        <ns2:v>1271</ns2:v>
+        <ns2:v>1341</ns2:v>
       </ns2:c>
       <ns2:c r="C511" s="2"/>
       <ns2:c r="D511" s="2"/>
@@ -18391,10 +18481,10 @@
     </ns2:row>
     <ns2:row r="512">
       <ns2:c r="A512" s="1" t="s">
-        <ns2:v>1272</ns2:v>
+        <ns2:v>1342</ns2:v>
       </ns2:c>
       <ns2:c r="B512" s="8" t="s">
-        <ns2:v>1273</ns2:v>
+        <ns2:v>1343</ns2:v>
       </ns2:c>
       <ns2:c r="C512" s="2"/>
       <ns2:c r="D512" s="2"/>
@@ -18408,10 +18498,10 @@
     </ns2:row>
     <ns2:row r="513">
       <ns2:c r="A513" s="1" t="s">
-        <ns2:v>1274</ns2:v>
+        <ns2:v>1344</ns2:v>
       </ns2:c>
       <ns2:c r="B513" s="8" t="s">
-        <ns2:v>1275</ns2:v>
+        <ns2:v>1345</ns2:v>
       </ns2:c>
       <ns2:c r="C513" s="2"/>
       <ns2:c r="D513" s="2"/>
@@ -18425,10 +18515,10 @@
     </ns2:row>
     <ns2:row r="514">
       <ns2:c r="A514" s="1" t="s">
-        <ns2:v>1276</ns2:v>
+        <ns2:v>1346</ns2:v>
       </ns2:c>
       <ns2:c r="B514" s="8" t="s">
-        <ns2:v>1277</ns2:v>
+        <ns2:v>1347</ns2:v>
       </ns2:c>
       <ns2:c r="C514" s="2"/>
       <ns2:c r="D514" s="2"/>
@@ -18442,10 +18532,10 @@
     </ns2:row>
     <ns2:row r="515">
       <ns2:c r="A515" s="1" t="s">
-        <ns2:v>1278</ns2:v>
+        <ns2:v>1348</ns2:v>
       </ns2:c>
       <ns2:c r="B515" s="8" t="s">
-        <ns2:v>1279</ns2:v>
+        <ns2:v>1349</ns2:v>
       </ns2:c>
       <ns2:c r="C515" s="2"/>
       <ns2:c r="D515" s="2"/>
@@ -18459,10 +18549,10 @@
     </ns2:row>
     <ns2:row r="516">
       <ns2:c r="A516" s="1" t="s">
-        <ns2:v>1280</ns2:v>
+        <ns2:v>1350</ns2:v>
       </ns2:c>
       <ns2:c r="B516" s="8" t="s">
-        <ns2:v>1281</ns2:v>
+        <ns2:v>1351</ns2:v>
       </ns2:c>
       <ns2:c r="C516" s="2"/>
       <ns2:c r="D516" s="2"/>
@@ -18476,10 +18566,10 @@
     </ns2:row>
     <ns2:row r="517">
       <ns2:c r="A517" s="1" t="s">
-        <ns2:v>1282</ns2:v>
+        <ns2:v>1352</ns2:v>
       </ns2:c>
       <ns2:c r="B517" s="8" t="s">
-        <ns2:v>1283</ns2:v>
+        <ns2:v>1353</ns2:v>
       </ns2:c>
       <ns2:c r="C517" s="2"/>
       <ns2:c r="D517" s="2"/>
@@ -18493,10 +18583,10 @@
     </ns2:row>
     <ns2:row r="518">
       <ns2:c r="A518" s="1" t="s">
-        <ns2:v>1284</ns2:v>
+        <ns2:v>1354</ns2:v>
       </ns2:c>
       <ns2:c r="B518" s="8" t="s">
-        <ns2:v>1285</ns2:v>
+        <ns2:v>1355</ns2:v>
       </ns2:c>
       <ns2:c r="C518" s="2"/>
       <ns2:c r="D518" s="2"/>
@@ -18510,10 +18600,10 @@
     </ns2:row>
     <ns2:row r="519">
       <ns2:c r="A519" s="1" t="s">
-        <ns2:v>1286</ns2:v>
+        <ns2:v>1356</ns2:v>
       </ns2:c>
       <ns2:c r="B519" s="8" t="s">
-        <ns2:v>1287</ns2:v>
+        <ns2:v>1357</ns2:v>
       </ns2:c>
       <ns2:c r="C519" s="2"/>
       <ns2:c r="D519" s="2"/>
@@ -18527,10 +18617,10 @@
     </ns2:row>
     <ns2:row r="520">
       <ns2:c r="A520" s="1" t="s">
-        <ns2:v>1288</ns2:v>
+        <ns2:v>1358</ns2:v>
       </ns2:c>
       <ns2:c r="B520" s="8" t="s">
-        <ns2:v>1289</ns2:v>
+        <ns2:v>1359</ns2:v>
       </ns2:c>
       <ns2:c r="C520" s="2"/>
       <ns2:c r="D520" s="2"/>
@@ -18544,10 +18634,10 @@
     </ns2:row>
     <ns2:row r="521">
       <ns2:c r="A521" s="1" t="s">
-        <ns2:v>1290</ns2:v>
+        <ns2:v>1360</ns2:v>
       </ns2:c>
       <ns2:c r="B521" s="8" t="s">
-        <ns2:v>1291</ns2:v>
+        <ns2:v>1361</ns2:v>
       </ns2:c>
       <ns2:c r="C521" s="2"/>
       <ns2:c r="D521" s="2"/>
@@ -18561,10 +18651,10 @@
     </ns2:row>
     <ns2:row r="522">
       <ns2:c r="A522" s="1" t="s">
-        <ns2:v>1292</ns2:v>
+        <ns2:v>1362</ns2:v>
       </ns2:c>
       <ns2:c r="B522" s="8" t="s">
-        <ns2:v>1293</ns2:v>
+        <ns2:v>1363</ns2:v>
       </ns2:c>
       <ns2:c r="C522" s="2"/>
       <ns2:c r="D522" s="2"/>
@@ -18578,10 +18668,10 @@
     </ns2:row>
     <ns2:row r="523">
       <ns2:c r="A523" s="1" t="s">
-        <ns2:v>1294</ns2:v>
+        <ns2:v>1364</ns2:v>
       </ns2:c>
       <ns2:c r="B523" s="8" t="s">
-        <ns2:v>1295</ns2:v>
+        <ns2:v>1365</ns2:v>
       </ns2:c>
       <ns2:c r="C523" s="2"/>
       <ns2:c r="D523" s="2"/>
@@ -18595,10 +18685,10 @@
     </ns2:row>
     <ns2:row r="524">
       <ns2:c r="A524" s="1" t="s">
-        <ns2:v>1296</ns2:v>
+        <ns2:v>1366</ns2:v>
       </ns2:c>
       <ns2:c r="B524" s="8" t="s">
-        <ns2:v>1297</ns2:v>
+        <ns2:v>1367</ns2:v>
       </ns2:c>
       <ns2:c r="C524" s="2"/>
       <ns2:c r="D524" s="2"/>
@@ -18612,10 +18702,10 @@
     </ns2:row>
     <ns2:row r="525">
       <ns2:c r="A525" s="1" t="s">
-        <ns2:v>1298</ns2:v>
+        <ns2:v>1368</ns2:v>
       </ns2:c>
       <ns2:c r="B525" s="8" t="s">
-        <ns2:v>1299</ns2:v>
+        <ns2:v>1369</ns2:v>
       </ns2:c>
       <ns2:c r="C525" s="2"/>
       <ns2:c r="D525" s="2"/>
@@ -18629,10 +18719,10 @@
     </ns2:row>
     <ns2:row r="526">
       <ns2:c r="A526" s="1" t="s">
-        <ns2:v>1300</ns2:v>
+        <ns2:v>1370</ns2:v>
       </ns2:c>
       <ns2:c r="B526" s="8" t="s">
-        <ns2:v>1301</ns2:v>
+        <ns2:v>1371</ns2:v>
       </ns2:c>
       <ns2:c r="C526" s="2"/>
       <ns2:c r="D526" s="2"/>
@@ -18646,10 +18736,10 @@
     </ns2:row>
     <ns2:row r="527">
       <ns2:c r="A527" s="1" t="s">
-        <ns2:v>1302</ns2:v>
+        <ns2:v>1372</ns2:v>
       </ns2:c>
       <ns2:c r="B527" s="8" t="s">
-        <ns2:v>1303</ns2:v>
+        <ns2:v>1373</ns2:v>
       </ns2:c>
       <ns2:c r="C527" s="2"/>
       <ns2:c r="D527" s="2"/>
@@ -18663,13 +18753,13 @@
     </ns2:row>
     <ns2:row r="528">
       <ns2:c r="A528" s="1" t="s">
-        <ns2:v>1304</ns2:v>
+        <ns2:v>1374</ns2:v>
       </ns2:c>
       <ns2:c r="B528" s="8" t="s">
-        <ns2:v>1305</ns2:v>
+        <ns2:v>1375</ns2:v>
       </ns2:c>
       <ns2:c r="C528" s="8" t="s">
-        <ns2:v>1306</ns2:v>
+        <ns2:v>1376</ns2:v>
       </ns2:c>
       <ns2:c r="D528" s="2"/>
       <ns2:c r="E528" s="2"/>
@@ -18682,10 +18772,10 @@
     </ns2:row>
     <ns2:row r="529">
       <ns2:c r="A529" s="1" t="s">
-        <ns2:v>1307</ns2:v>
+        <ns2:v>1377</ns2:v>
       </ns2:c>
       <ns2:c r="B529" s="8" t="s">
-        <ns2:v>1308</ns2:v>
+        <ns2:v>1378</ns2:v>
       </ns2:c>
       <ns2:c r="C529" s="2"/>
       <ns2:c r="D529" s="2"/>
@@ -18699,10 +18789,10 @@
     </ns2:row>
     <ns2:row r="530">
       <ns2:c r="A530" s="1" t="s">
-        <ns2:v>1309</ns2:v>
+        <ns2:v>1379</ns2:v>
       </ns2:c>
       <ns2:c r="B530" s="8" t="s">
-        <ns2:v>1310</ns2:v>
+        <ns2:v>1380</ns2:v>
       </ns2:c>
       <ns2:c r="C530" s="2"/>
       <ns2:c r="D530" s="2"/>
@@ -18716,10 +18806,10 @@
     </ns2:row>
     <ns2:row r="531">
       <ns2:c r="A531" s="1" t="s">
-        <ns2:v>1311</ns2:v>
+        <ns2:v>1381</ns2:v>
       </ns2:c>
       <ns2:c r="B531" s="8" t="s">
-        <ns2:v>1312</ns2:v>
+        <ns2:v>1382</ns2:v>
       </ns2:c>
       <ns2:c r="C531" s="2"/>
       <ns2:c r="D531" s="2"/>
@@ -18733,10 +18823,10 @@
     </ns2:row>
     <ns2:row r="532">
       <ns2:c r="A532" s="1" t="s">
-        <ns2:v>1313</ns2:v>
+        <ns2:v>1383</ns2:v>
       </ns2:c>
       <ns2:c r="B532" s="8" t="s">
-        <ns2:v>1314</ns2:v>
+        <ns2:v>1384</ns2:v>
       </ns2:c>
       <ns2:c r="C532" s="2"/>
       <ns2:c r="D532" s="2"/>
@@ -18750,10 +18840,10 @@
     </ns2:row>
     <ns2:row r="533">
       <ns2:c r="A533" s="1" t="s">
-        <ns2:v>1315</ns2:v>
+        <ns2:v>1385</ns2:v>
       </ns2:c>
       <ns2:c r="B533" s="8" t="s">
-        <ns2:v>1316</ns2:v>
+        <ns2:v>1386</ns2:v>
       </ns2:c>
       <ns2:c r="C533" s="2"/>
       <ns2:c r="D533" s="2"/>
@@ -18767,10 +18857,10 @@
     </ns2:row>
     <ns2:row r="534">
       <ns2:c r="A534" s="1" t="s">
-        <ns2:v>1317</ns2:v>
+        <ns2:v>1387</ns2:v>
       </ns2:c>
       <ns2:c r="B534" s="8" t="s">
-        <ns2:v>1318</ns2:v>
+        <ns2:v>1388</ns2:v>
       </ns2:c>
       <ns2:c r="C534" s="2"/>
       <ns2:c r="D534" s="2"/>
@@ -18784,10 +18874,10 @@
     </ns2:row>
     <ns2:row r="535">
       <ns2:c r="A535" s="1" t="s">
-        <ns2:v>1319</ns2:v>
+        <ns2:v>1389</ns2:v>
       </ns2:c>
       <ns2:c r="B535" s="8" t="s">
-        <ns2:v>1320</ns2:v>
+        <ns2:v>1390</ns2:v>
       </ns2:c>
       <ns2:c r="C535" s="2"/>
       <ns2:c r="D535" s="2"/>
@@ -18801,10 +18891,10 @@
     </ns2:row>
     <ns2:row r="536">
       <ns2:c r="A536" s="1" t="s">
-        <ns2:v>1321</ns2:v>
+        <ns2:v>1391</ns2:v>
       </ns2:c>
       <ns2:c r="B536" s="8" t="s">
-        <ns2:v>1322</ns2:v>
+        <ns2:v>1392</ns2:v>
       </ns2:c>
       <ns2:c r="C536" s="2"/>
       <ns2:c r="D536" s="2"/>
@@ -18818,13 +18908,13 @@
     </ns2:row>
     <ns2:row r="537">
       <ns2:c r="A537" s="1" t="s">
-        <ns2:v>1323</ns2:v>
+        <ns2:v>1393</ns2:v>
       </ns2:c>
       <ns2:c r="B537" s="8" t="s">
-        <ns2:v>1324</ns2:v>
+        <ns2:v>1394</ns2:v>
       </ns2:c>
       <ns2:c r="C537" s="8" t="s">
-        <ns2:v>1325</ns2:v>
+        <ns2:v>1395</ns2:v>
       </ns2:c>
       <ns2:c r="D537" s="2"/>
       <ns2:c r="E537" s="2"/>
@@ -18837,13 +18927,13 @@
     </ns2:row>
     <ns2:row r="538">
       <ns2:c r="A538" s="1" t="s">
-        <ns2:v>1326</ns2:v>
+        <ns2:v>1396</ns2:v>
       </ns2:c>
       <ns2:c r="B538" s="8" t="s">
-        <ns2:v>1327</ns2:v>
+        <ns2:v>1397</ns2:v>
       </ns2:c>
       <ns2:c r="C538" s="8" t="s">
-        <ns2:v>1328</ns2:v>
+        <ns2:v>1398</ns2:v>
       </ns2:c>
       <ns2:c r="D538" s="2"/>
       <ns2:c r="E538" s="2"/>
@@ -18856,13 +18946,13 @@
     </ns2:row>
     <ns2:row r="539">
       <ns2:c r="A539" s="1" t="s">
-        <ns2:v>1329</ns2:v>
+        <ns2:v>1399</ns2:v>
       </ns2:c>
       <ns2:c r="B539" s="8" t="s">
-        <ns2:v>1330</ns2:v>
+        <ns2:v>1400</ns2:v>
       </ns2:c>
       <ns2:c r="C539" s="8" t="s">
-        <ns2:v>1331</ns2:v>
+        <ns2:v>1401</ns2:v>
       </ns2:c>
       <ns2:c r="D539" s="2"/>
       <ns2:c r="E539" s="2"/>
@@ -18875,13 +18965,13 @@
     </ns2:row>
     <ns2:row r="540">
       <ns2:c r="A540" s="1" t="s">
-        <ns2:v>1332</ns2:v>
+        <ns2:v>1402</ns2:v>
       </ns2:c>
       <ns2:c r="B540" s="8" t="s">
-        <ns2:v>1333</ns2:v>
+        <ns2:v>1403</ns2:v>
       </ns2:c>
       <ns2:c r="C540" s="8" t="s">
-        <ns2:v>1334</ns2:v>
+        <ns2:v>1404</ns2:v>
       </ns2:c>
       <ns2:c r="D540" s="2"/>
       <ns2:c r="E540" s="2"/>
@@ -18894,13 +18984,13 @@
     </ns2:row>
     <ns2:row r="541">
       <ns2:c r="A541" s="1" t="s">
-        <ns2:v>1335</ns2:v>
+        <ns2:v>1405</ns2:v>
       </ns2:c>
       <ns2:c r="B541" s="8" t="s">
-        <ns2:v>1336</ns2:v>
+        <ns2:v>1406</ns2:v>
       </ns2:c>
       <ns2:c r="C541" s="8" t="s">
-        <ns2:v>1337</ns2:v>
+        <ns2:v>1407</ns2:v>
       </ns2:c>
       <ns2:c r="D541" s="2"/>
       <ns2:c r="E541" s="2"/>
@@ -18913,13 +19003,13 @@
     </ns2:row>
     <ns2:row r="542">
       <ns2:c r="A542" s="1" t="s">
-        <ns2:v>1338</ns2:v>
+        <ns2:v>1408</ns2:v>
       </ns2:c>
       <ns2:c r="B542" s="8" t="s">
-        <ns2:v>1339</ns2:v>
+        <ns2:v>1409</ns2:v>
       </ns2:c>
       <ns2:c r="C542" s="8" t="s">
-        <ns2:v>1340</ns2:v>
+        <ns2:v>1410</ns2:v>
       </ns2:c>
       <ns2:c r="D542" s="2"/>
       <ns2:c r="E542" s="2"/>
@@ -18932,13 +19022,13 @@
     </ns2:row>
     <ns2:row r="543">
       <ns2:c r="A543" s="1" t="s">
-        <ns2:v>1341</ns2:v>
+        <ns2:v>1411</ns2:v>
       </ns2:c>
       <ns2:c r="B543" s="8" t="s">
-        <ns2:v>1342</ns2:v>
+        <ns2:v>1412</ns2:v>
       </ns2:c>
       <ns2:c r="C543" s="8" t="s">
-        <ns2:v>1343</ns2:v>
+        <ns2:v>1413</ns2:v>
       </ns2:c>
       <ns2:c r="D543" s="2"/>
       <ns2:c r="E543" s="2"/>
@@ -18951,13 +19041,13 @@
     </ns2:row>
     <ns2:row r="544">
       <ns2:c r="A544" s="1" t="s">
-        <ns2:v>1344</ns2:v>
+        <ns2:v>1414</ns2:v>
       </ns2:c>
       <ns2:c r="B544" s="8" t="s">
-        <ns2:v>1345</ns2:v>
+        <ns2:v>1415</ns2:v>
       </ns2:c>
       <ns2:c r="C544" s="8" t="s">
-        <ns2:v>1346</ns2:v>
+        <ns2:v>1416</ns2:v>
       </ns2:c>
       <ns2:c r="D544" s="2"/>
       <ns2:c r="E544" s="2"/>
@@ -18970,13 +19060,13 @@
     </ns2:row>
     <ns2:row r="545">
       <ns2:c r="A545" s="1" t="s">
-        <ns2:v>1347</ns2:v>
+        <ns2:v>1417</ns2:v>
       </ns2:c>
       <ns2:c r="B545" s="8" t="s">
-        <ns2:v>1348</ns2:v>
+        <ns2:v>1418</ns2:v>
       </ns2:c>
       <ns2:c r="C545" s="8" t="s">
-        <ns2:v>1349</ns2:v>
+        <ns2:v>1419</ns2:v>
       </ns2:c>
       <ns2:c r="D545" s="2"/>
       <ns2:c r="E545" s="2"/>
@@ -18989,13 +19079,13 @@
     </ns2:row>
     <ns2:row r="546">
       <ns2:c r="A546" s="1" t="s">
-        <ns2:v>1350</ns2:v>
+        <ns2:v>1420</ns2:v>
       </ns2:c>
       <ns2:c r="B546" s="8" t="s">
-        <ns2:v>1351</ns2:v>
+        <ns2:v>1421</ns2:v>
       </ns2:c>
       <ns2:c r="C546" s="8" t="s">
-        <ns2:v>1352</ns2:v>
+        <ns2:v>1422</ns2:v>
       </ns2:c>
       <ns2:c r="D546" s="2"/>
       <ns2:c r="E546" s="2"/>
@@ -19008,13 +19098,13 @@
     </ns2:row>
     <ns2:row r="547">
       <ns2:c r="A547" s="1" t="s">
-        <ns2:v>1353</ns2:v>
+        <ns2:v>1423</ns2:v>
       </ns2:c>
       <ns2:c r="B547" s="8" t="s">
-        <ns2:v>1354</ns2:v>
+        <ns2:v>1424</ns2:v>
       </ns2:c>
       <ns2:c r="C547" s="8" t="s">
-        <ns2:v>1355</ns2:v>
+        <ns2:v>1425</ns2:v>
       </ns2:c>
       <ns2:c r="D547" s="2"/>
       <ns2:c r="E547" s="2"/>
@@ -19027,13 +19117,13 @@
     </ns2:row>
     <ns2:row r="548">
       <ns2:c r="A548" s="1" t="s">
-        <ns2:v>1356</ns2:v>
+        <ns2:v>1426</ns2:v>
       </ns2:c>
       <ns2:c r="B548" s="8" t="s">
-        <ns2:v>1357</ns2:v>
+        <ns2:v>1427</ns2:v>
       </ns2:c>
       <ns2:c r="C548" s="8" t="s">
-        <ns2:v>1358</ns2:v>
+        <ns2:v>1428</ns2:v>
       </ns2:c>
       <ns2:c r="D548" s="2"/>
       <ns2:c r="E548" s="2"/>
@@ -19046,13 +19136,13 @@
     </ns2:row>
     <ns2:row r="549">
       <ns2:c r="A549" s="1" t="s">
-        <ns2:v>1359</ns2:v>
+        <ns2:v>1429</ns2:v>
       </ns2:c>
       <ns2:c r="B549" s="8" t="s">
-        <ns2:v>1360</ns2:v>
+        <ns2:v>1430</ns2:v>
       </ns2:c>
       <ns2:c r="C549" s="8" t="s">
-        <ns2:v>1361</ns2:v>
+        <ns2:v>1431</ns2:v>
       </ns2:c>
       <ns2:c r="D549" s="2"/>
       <ns2:c r="E549" s="2"/>
@@ -19065,13 +19155,13 @@
     </ns2:row>
     <ns2:row r="550">
       <ns2:c r="A550" s="1" t="s">
-        <ns2:v>1362</ns2:v>
+        <ns2:v>1432</ns2:v>
       </ns2:c>
       <ns2:c r="B550" s="8" t="s">
-        <ns2:v>1363</ns2:v>
+        <ns2:v>1433</ns2:v>
       </ns2:c>
       <ns2:c r="C550" s="8" t="s">
-        <ns2:v>1364</ns2:v>
+        <ns2:v>1434</ns2:v>
       </ns2:c>
       <ns2:c r="D550" s="2"/>
       <ns2:c r="E550" s="2"/>
@@ -19084,13 +19174,13 @@
     </ns2:row>
     <ns2:row r="551">
       <ns2:c r="A551" s="1" t="s">
-        <ns2:v>1365</ns2:v>
+        <ns2:v>1435</ns2:v>
       </ns2:c>
       <ns2:c r="B551" s="8" t="s">
-        <ns2:v>1366</ns2:v>
+        <ns2:v>1436</ns2:v>
       </ns2:c>
       <ns2:c r="C551" s="8" t="s">
-        <ns2:v>1367</ns2:v>
+        <ns2:v>1437</ns2:v>
       </ns2:c>
       <ns2:c r="D551" s="2"/>
       <ns2:c r="E551" s="2"/>
@@ -19103,13 +19193,13 @@
     </ns2:row>
     <ns2:row r="552">
       <ns2:c r="A552" s="1" t="s">
-        <ns2:v>1368</ns2:v>
+        <ns2:v>1438</ns2:v>
       </ns2:c>
       <ns2:c r="B552" s="8" t="s">
-        <ns2:v>1369</ns2:v>
+        <ns2:v>1439</ns2:v>
       </ns2:c>
       <ns2:c r="C552" s="8" t="s">
-        <ns2:v>1370</ns2:v>
+        <ns2:v>1440</ns2:v>
       </ns2:c>
       <ns2:c r="D552" s="2"/>
       <ns2:c r="E552" s="2"/>
@@ -19122,13 +19212,13 @@
     </ns2:row>
     <ns2:row r="553">
       <ns2:c r="A553" s="1" t="s">
-        <ns2:v>1371</ns2:v>
+        <ns2:v>1441</ns2:v>
       </ns2:c>
       <ns2:c r="B553" s="8" t="s">
-        <ns2:v>1372</ns2:v>
+        <ns2:v>1442</ns2:v>
       </ns2:c>
       <ns2:c r="C553" s="8" t="s">
-        <ns2:v>1373</ns2:v>
+        <ns2:v>1443</ns2:v>
       </ns2:c>
       <ns2:c r="D553" s="2"/>
       <ns2:c r="E553" s="2"/>
@@ -19141,13 +19231,13 @@
     </ns2:row>
     <ns2:row r="554">
       <ns2:c r="A554" s="1" t="s">
-        <ns2:v>1374</ns2:v>
+        <ns2:v>1444</ns2:v>
       </ns2:c>
       <ns2:c r="B554" s="8" t="s">
-        <ns2:v>1375</ns2:v>
+        <ns2:v>1445</ns2:v>
       </ns2:c>
       <ns2:c r="C554" s="8" t="s">
-        <ns2:v>1376</ns2:v>
+        <ns2:v>1446</ns2:v>
       </ns2:c>
       <ns2:c r="D554" s="2"/>
       <ns2:c r="E554" s="2"/>
@@ -19160,13 +19250,13 @@
     </ns2:row>
     <ns2:row r="555">
       <ns2:c r="A555" s="1" t="s">
-        <ns2:v>1377</ns2:v>
+        <ns2:v>1447</ns2:v>
       </ns2:c>
       <ns2:c r="B555" s="8" t="s">
-        <ns2:v>1378</ns2:v>
+        <ns2:v>1448</ns2:v>
       </ns2:c>
       <ns2:c r="C555" s="8" t="s">
-        <ns2:v>1379</ns2:v>
+        <ns2:v>1449</ns2:v>
       </ns2:c>
       <ns2:c r="D555" s="2"/>
       <ns2:c r="E555" s="2"/>
@@ -19179,10 +19269,10 @@
     </ns2:row>
     <ns2:row r="556">
       <ns2:c r="A556" s="1" t="s">
-        <ns2:v>1380</ns2:v>
+        <ns2:v>1450</ns2:v>
       </ns2:c>
       <ns2:c r="B556" s="8" t="s">
-        <ns2:v>1381</ns2:v>
+        <ns2:v>1451</ns2:v>
       </ns2:c>
       <ns2:c r="C556" s="8" t="s">
         <ns2:v>269</ns2:v>
@@ -19198,13 +19288,13 @@
     </ns2:row>
     <ns2:row r="557">
       <ns2:c r="A557" s="1" t="s">
-        <ns2:v>1382</ns2:v>
+        <ns2:v>1452</ns2:v>
       </ns2:c>
       <ns2:c r="B557" s="8" t="s">
-        <ns2:v>897</ns2:v>
+        <ns2:v>967</ns2:v>
       </ns2:c>
       <ns2:c r="C557" s="8" t="s">
-        <ns2:v>1383</ns2:v>
+        <ns2:v>1453</ns2:v>
       </ns2:c>
       <ns2:c r="D557" s="2"/>
       <ns2:c r="E557" s="2"/>
@@ -19217,13 +19307,13 @@
     </ns2:row>
     <ns2:row r="558">
       <ns2:c r="A558" s="1" t="s">
-        <ns2:v>1384</ns2:v>
+        <ns2:v>1454</ns2:v>
       </ns2:c>
       <ns2:c r="B558" s="8" t="s">
-        <ns2:v>1385</ns2:v>
+        <ns2:v>1455</ns2:v>
       </ns2:c>
       <ns2:c r="C558" s="8" t="s">
-        <ns2:v>1386</ns2:v>
+        <ns2:v>1456</ns2:v>
       </ns2:c>
       <ns2:c r="D558" s="2"/>
       <ns2:c r="E558" s="2"/>
@@ -19236,13 +19326,13 @@
     </ns2:row>
     <ns2:row r="559">
       <ns2:c r="A559" s="1" t="s">
-        <ns2:v>1387</ns2:v>
+        <ns2:v>1457</ns2:v>
       </ns2:c>
       <ns2:c r="B559" s="8" t="s">
-        <ns2:v>1388</ns2:v>
+        <ns2:v>1458</ns2:v>
       </ns2:c>
       <ns2:c r="C559" s="8" t="s">
-        <ns2:v>1389</ns2:v>
+        <ns2:v>1459</ns2:v>
       </ns2:c>
       <ns2:c r="D559" s="2"/>
       <ns2:c r="E559" s="2"/>
@@ -19255,13 +19345,13 @@
     </ns2:row>
     <ns2:row r="560">
       <ns2:c r="A560" s="1" t="s">
-        <ns2:v>1390</ns2:v>
+        <ns2:v>1460</ns2:v>
       </ns2:c>
       <ns2:c r="B560" s="8" t="s">
-        <ns2:v>1391</ns2:v>
+        <ns2:v>1461</ns2:v>
       </ns2:c>
       <ns2:c r="C560" s="8" t="s">
-        <ns2:v>1392</ns2:v>
+        <ns2:v>1462</ns2:v>
       </ns2:c>
       <ns2:c r="D560" s="2"/>
       <ns2:c r="E560" s="2"/>
@@ -19274,13 +19364,13 @@
     </ns2:row>
     <ns2:row r="561">
       <ns2:c r="A561" s="1" t="s">
-        <ns2:v>1393</ns2:v>
+        <ns2:v>1463</ns2:v>
       </ns2:c>
       <ns2:c r="B561" s="8" t="s">
-        <ns2:v>1394</ns2:v>
+        <ns2:v>1464</ns2:v>
       </ns2:c>
       <ns2:c r="C561" s="8" t="s">
-        <ns2:v>1395</ns2:v>
+        <ns2:v>1465</ns2:v>
       </ns2:c>
       <ns2:c r="D561" s="2"/>
       <ns2:c r="E561" s="2"/>
@@ -19293,13 +19383,13 @@
     </ns2:row>
     <ns2:row r="562">
       <ns2:c r="A562" s="1" t="s">
-        <ns2:v>1396</ns2:v>
+        <ns2:v>1466</ns2:v>
       </ns2:c>
       <ns2:c r="B562" s="8" t="s">
-        <ns2:v>1397</ns2:v>
+        <ns2:v>1467</ns2:v>
       </ns2:c>
       <ns2:c r="C562" s="8" t="s">
-        <ns2:v>1398</ns2:v>
+        <ns2:v>1468</ns2:v>
       </ns2:c>
       <ns2:c r="D562" s="2"/>
       <ns2:c r="E562" s="2"/>
@@ -19312,13 +19402,13 @@
     </ns2:row>
     <ns2:row r="563">
       <ns2:c r="A563" s="1" t="s">
-        <ns2:v>1399</ns2:v>
+        <ns2:v>1469</ns2:v>
       </ns2:c>
       <ns2:c r="B563" s="8" t="s">
-        <ns2:v>1400</ns2:v>
+        <ns2:v>1470</ns2:v>
       </ns2:c>
       <ns2:c r="C563" s="8" t="s">
-        <ns2:v>1401</ns2:v>
+        <ns2:v>1471</ns2:v>
       </ns2:c>
       <ns2:c r="D563" s="2"/>
       <ns2:c r="E563" s="2"/>
@@ -19331,10 +19421,10 @@
     </ns2:row>
     <ns2:row r="564">
       <ns2:c r="A564" s="1" t="s">
-        <ns2:v>1402</ns2:v>
+        <ns2:v>1472</ns2:v>
       </ns2:c>
       <ns2:c r="B564" s="8" t="s">
-        <ns2:v>1403</ns2:v>
+        <ns2:v>1473</ns2:v>
       </ns2:c>
       <ns2:c r="C564" s="2"/>
       <ns2:c r="D564" s="2"/>
@@ -19348,10 +19438,10 @@
     </ns2:row>
     <ns2:row r="565">
       <ns2:c r="A565" s="1" t="s">
-        <ns2:v>1404</ns2:v>
+        <ns2:v>1474</ns2:v>
       </ns2:c>
       <ns2:c r="B565" s="8" t="s">
-        <ns2:v>1405</ns2:v>
+        <ns2:v>1475</ns2:v>
       </ns2:c>
       <ns2:c r="C565" s="2"/>
       <ns2:c r="D565" s="2"/>
@@ -19365,10 +19455,10 @@
     </ns2:row>
     <ns2:row r="566">
       <ns2:c r="A566" s="1" t="s">
-        <ns2:v>1406</ns2:v>
+        <ns2:v>1476</ns2:v>
       </ns2:c>
       <ns2:c r="B566" s="8" t="s">
-        <ns2:v>1407</ns2:v>
+        <ns2:v>1477</ns2:v>
       </ns2:c>
       <ns2:c r="C566" s="2"/>
       <ns2:c r="D566" s="2"/>
@@ -19382,10 +19472,10 @@
     </ns2:row>
     <ns2:row r="567">
       <ns2:c r="A567" s="1" t="s">
-        <ns2:v>1408</ns2:v>
+        <ns2:v>1478</ns2:v>
       </ns2:c>
       <ns2:c r="B567" s="8" t="s">
-        <ns2:v>1409</ns2:v>
+        <ns2:v>1479</ns2:v>
       </ns2:c>
       <ns2:c r="C567" s="2"/>
       <ns2:c r="D567" s="2"/>
@@ -19399,13 +19489,13 @@
     </ns2:row>
     <ns2:row r="568">
       <ns2:c r="A568" s="1" t="s">
-        <ns2:v>1410</ns2:v>
+        <ns2:v>1480</ns2:v>
       </ns2:c>
       <ns2:c r="B568" s="8" t="s">
-        <ns2:v>1411</ns2:v>
+        <ns2:v>1481</ns2:v>
       </ns2:c>
       <ns2:c r="C568" s="8" t="s">
-        <ns2:v>1412</ns2:v>
+        <ns2:v>1482</ns2:v>
       </ns2:c>
       <ns2:c r="D568" s="2"/>
       <ns2:c r="E568" s="2"/>
@@ -19418,13 +19508,13 @@
     </ns2:row>
     <ns2:row r="569">
       <ns2:c r="A569" s="1" t="s">
-        <ns2:v>1413</ns2:v>
+        <ns2:v>1483</ns2:v>
       </ns2:c>
       <ns2:c r="B569" s="8" t="s">
-        <ns2:v>1414</ns2:v>
+        <ns2:v>1484</ns2:v>
       </ns2:c>
       <ns2:c r="C569" s="8" t="s">
-        <ns2:v>1415</ns2:v>
+        <ns2:v>1485</ns2:v>
       </ns2:c>
       <ns2:c r="D569" s="2"/>
       <ns2:c r="E569" s="2"/>
@@ -19437,13 +19527,13 @@
     </ns2:row>
     <ns2:row r="570">
       <ns2:c r="A570" s="1" t="s">
-        <ns2:v>1416</ns2:v>
+        <ns2:v>1486</ns2:v>
       </ns2:c>
       <ns2:c r="B570" s="8" t="s">
-        <ns2:v>1417</ns2:v>
+        <ns2:v>1487</ns2:v>
       </ns2:c>
       <ns2:c r="C570" s="8" t="s">
-        <ns2:v>1418</ns2:v>
+        <ns2:v>1488</ns2:v>
       </ns2:c>
       <ns2:c r="D570" s="2"/>
       <ns2:c r="E570" s="2"/>
@@ -19456,13 +19546,13 @@
     </ns2:row>
     <ns2:row r="571">
       <ns2:c r="A571" s="1" t="s">
-        <ns2:v>1419</ns2:v>
+        <ns2:v>1489</ns2:v>
       </ns2:c>
       <ns2:c r="B571" s="8" t="s">
-        <ns2:v>1420</ns2:v>
+        <ns2:v>1490</ns2:v>
       </ns2:c>
       <ns2:c r="C571" s="8" t="s">
-        <ns2:v>1421</ns2:v>
+        <ns2:v>1491</ns2:v>
       </ns2:c>
       <ns2:c r="D571" s="2"/>
       <ns2:c r="E571" s="2"/>
@@ -19475,13 +19565,13 @@
     </ns2:row>
     <ns2:row r="572">
       <ns2:c r="A572" s="1" t="s">
-        <ns2:v>1422</ns2:v>
+        <ns2:v>1492</ns2:v>
       </ns2:c>
       <ns2:c r="B572" s="8" t="s">
-        <ns2:v>1423</ns2:v>
+        <ns2:v>1493</ns2:v>
       </ns2:c>
       <ns2:c r="C572" s="8" t="s">
-        <ns2:v>1424</ns2:v>
+        <ns2:v>1494</ns2:v>
       </ns2:c>
       <ns2:c r="D572" s="2"/>
       <ns2:c r="E572" s="2"/>
@@ -19494,13 +19584,13 @@
     </ns2:row>
     <ns2:row r="573">
       <ns2:c r="A573" s="1" t="s">
-        <ns2:v>1425</ns2:v>
+        <ns2:v>1495</ns2:v>
       </ns2:c>
       <ns2:c r="B573" s="8" t="s">
-        <ns2:v>1426</ns2:v>
+        <ns2:v>1496</ns2:v>
       </ns2:c>
       <ns2:c r="C573" s="8" t="s">
-        <ns2:v>1427</ns2:v>
+        <ns2:v>1497</ns2:v>
       </ns2:c>
       <ns2:c r="D573" s="2"/>
       <ns2:c r="E573" s="2"/>
@@ -19513,13 +19603,13 @@
     </ns2:row>
     <ns2:row r="574">
       <ns2:c r="A574" s="1" t="s">
-        <ns2:v>1428</ns2:v>
+        <ns2:v>1498</ns2:v>
       </ns2:c>
       <ns2:c r="B574" s="8" t="s">
-        <ns2:v>1429</ns2:v>
+        <ns2:v>1499</ns2:v>
       </ns2:c>
       <ns2:c r="C574" s="8" t="s">
-        <ns2:v>1430</ns2:v>
+        <ns2:v>1500</ns2:v>
       </ns2:c>
       <ns2:c r="D574" s="2"/>
       <ns2:c r="E574" s="2"/>
@@ -19532,13 +19622,13 @@
     </ns2:row>
     <ns2:row r="575">
       <ns2:c r="A575" s="1" t="s">
-        <ns2:v>1431</ns2:v>
+        <ns2:v>1501</ns2:v>
       </ns2:c>
       <ns2:c r="B575" s="8" t="s">
-        <ns2:v>1432</ns2:v>
+        <ns2:v>1502</ns2:v>
       </ns2:c>
       <ns2:c r="C575" s="8" t="s">
-        <ns2:v>1433</ns2:v>
+        <ns2:v>1503</ns2:v>
       </ns2:c>
       <ns2:c r="D575" s="2"/>
       <ns2:c r="E575" s="2"/>
@@ -19551,13 +19641,13 @@
     </ns2:row>
     <ns2:row r="576">
       <ns2:c r="A576" s="1" t="s">
-        <ns2:v>1434</ns2:v>
+        <ns2:v>1504</ns2:v>
       </ns2:c>
       <ns2:c r="B576" s="8" t="s">
-        <ns2:v>1435</ns2:v>
+        <ns2:v>1505</ns2:v>
       </ns2:c>
       <ns2:c r="C576" s="8" t="s">
-        <ns2:v>1436</ns2:v>
+        <ns2:v>1506</ns2:v>
       </ns2:c>
       <ns2:c r="D576" s="2"/>
       <ns2:c r="E576" s="2"/>
@@ -19570,10 +19660,10 @@
     </ns2:row>
     <ns2:row r="577">
       <ns2:c r="A577" s="1" t="s">
-        <ns2:v>1437</ns2:v>
+        <ns2:v>1507</ns2:v>
       </ns2:c>
       <ns2:c r="B577" s="8" t="s">
-        <ns2:v>1438</ns2:v>
+        <ns2:v>1508</ns2:v>
       </ns2:c>
       <ns2:c r="C577" s="2"/>
       <ns2:c r="D577" s="2"/>
@@ -19587,10 +19677,10 @@
     </ns2:row>
     <ns2:row r="578">
       <ns2:c r="A578" s="1" t="s">
-        <ns2:v>1439</ns2:v>
+        <ns2:v>1509</ns2:v>
       </ns2:c>
       <ns2:c r="B578" s="8" t="s">
-        <ns2:v>1440</ns2:v>
+        <ns2:v>1510</ns2:v>
       </ns2:c>
       <ns2:c r="C578" s="2"/>
       <ns2:c r="D578" s="2"/>
@@ -19604,10 +19694,10 @@
     </ns2:row>
     <ns2:row r="579">
       <ns2:c r="A579" s="1" t="s">
-        <ns2:v>1441</ns2:v>
+        <ns2:v>1511</ns2:v>
       </ns2:c>
       <ns2:c r="B579" s="8" t="s">
-        <ns2:v>1442</ns2:v>
+        <ns2:v>1512</ns2:v>
       </ns2:c>
       <ns2:c r="C579" s="2"/>
       <ns2:c r="D579" s="2"/>
@@ -19621,10 +19711,10 @@
     </ns2:row>
     <ns2:row r="580">
       <ns2:c r="A580" s="1" t="s">
-        <ns2:v>1443</ns2:v>
+        <ns2:v>1513</ns2:v>
       </ns2:c>
       <ns2:c r="B580" s="8" t="s">
-        <ns2:v>1444</ns2:v>
+        <ns2:v>1514</ns2:v>
       </ns2:c>
       <ns2:c r="C580" s="2"/>
       <ns2:c r="D580" s="2"/>
@@ -19638,10 +19728,10 @@
     </ns2:row>
     <ns2:row r="581">
       <ns2:c r="A581" s="1" t="s">
-        <ns2:v>1445</ns2:v>
+        <ns2:v>1515</ns2:v>
       </ns2:c>
       <ns2:c r="B581" s="8" t="s">
-        <ns2:v>1446</ns2:v>
+        <ns2:v>1516</ns2:v>
       </ns2:c>
       <ns2:c r="C581" s="2"/>
       <ns2:c r="D581" s="2"/>
@@ -19655,10 +19745,10 @@
     </ns2:row>
     <ns2:row r="582">
       <ns2:c r="A582" s="1" t="s">
-        <ns2:v>1447</ns2:v>
+        <ns2:v>1517</ns2:v>
       </ns2:c>
       <ns2:c r="B582" s="8" t="s">
-        <ns2:v>1448</ns2:v>
+        <ns2:v>1518</ns2:v>
       </ns2:c>
       <ns2:c r="C582" s="2"/>
       <ns2:c r="D582" s="2"/>
@@ -19672,10 +19762,10 @@
     </ns2:row>
     <ns2:row r="583">
       <ns2:c r="A583" s="1" t="s">
-        <ns2:v>1449</ns2:v>
+        <ns2:v>1519</ns2:v>
       </ns2:c>
       <ns2:c r="B583" s="8" t="s">
-        <ns2:v>1450</ns2:v>
+        <ns2:v>1520</ns2:v>
       </ns2:c>
       <ns2:c r="C583" s="2"/>
       <ns2:c r="D583" s="2"/>
@@ -19689,10 +19779,10 @@
     </ns2:row>
     <ns2:row r="584">
       <ns2:c r="A584" s="1" t="s">
-        <ns2:v>1451</ns2:v>
+        <ns2:v>1521</ns2:v>
       </ns2:c>
       <ns2:c r="B584" s="8" t="s">
-        <ns2:v>1452</ns2:v>
+        <ns2:v>1522</ns2:v>
       </ns2:c>
       <ns2:c r="C584" s="2"/>
       <ns2:c r="D584" s="2"/>
@@ -19706,10 +19796,10 @@
     </ns2:row>
     <ns2:row r="585">
       <ns2:c r="A585" s="1" t="s">
-        <ns2:v>1453</ns2:v>
+        <ns2:v>1523</ns2:v>
       </ns2:c>
       <ns2:c r="B585" s="8" t="s">
-        <ns2:v>1454</ns2:v>
+        <ns2:v>1524</ns2:v>
       </ns2:c>
       <ns2:c r="C585" s="2"/>
       <ns2:c r="D585" s="2"/>
@@ -19723,10 +19813,10 @@
     </ns2:row>
     <ns2:row r="586">
       <ns2:c r="A586" s="1" t="s">
-        <ns2:v>1455</ns2:v>
+        <ns2:v>1525</ns2:v>
       </ns2:c>
       <ns2:c r="B586" s="8" t="s">
-        <ns2:v>1456</ns2:v>
+        <ns2:v>1526</ns2:v>
       </ns2:c>
       <ns2:c r="C586" s="2"/>
       <ns2:c r="D586" s="2"/>
@@ -19740,10 +19830,10 @@
     </ns2:row>
     <ns2:row r="587">
       <ns2:c r="A587" s="1" t="s">
-        <ns2:v>1457</ns2:v>
+        <ns2:v>1527</ns2:v>
       </ns2:c>
       <ns2:c r="B587" s="8" t="s">
-        <ns2:v>1458</ns2:v>
+        <ns2:v>1528</ns2:v>
       </ns2:c>
       <ns2:c r="C587" s="2"/>
       <ns2:c r="D587" s="2"/>
@@ -19757,10 +19847,10 @@
     </ns2:row>
     <ns2:row r="588">
       <ns2:c r="A588" s="1" t="s">
-        <ns2:v>1459</ns2:v>
+        <ns2:v>1529</ns2:v>
       </ns2:c>
       <ns2:c r="B588" s="8" t="s">
-        <ns2:v>1460</ns2:v>
+        <ns2:v>1530</ns2:v>
       </ns2:c>
       <ns2:c r="C588" s="2"/>
       <ns2:c r="D588" s="2"/>
@@ -19774,10 +19864,10 @@
     </ns2:row>
     <ns2:row r="589">
       <ns2:c r="A589" s="1" t="s">
-        <ns2:v>1461</ns2:v>
+        <ns2:v>1531</ns2:v>
       </ns2:c>
       <ns2:c r="B589" s="8" t="s">
-        <ns2:v>1462</ns2:v>
+        <ns2:v>1532</ns2:v>
       </ns2:c>
       <ns2:c r="C589" s="2"/>
       <ns2:c r="D589" s="2"/>
@@ -19791,10 +19881,10 @@
     </ns2:row>
     <ns2:row r="590">
       <ns2:c r="A590" s="1" t="s">
-        <ns2:v>1463</ns2:v>
+        <ns2:v>1533</ns2:v>
       </ns2:c>
       <ns2:c r="B590" s="8" t="s">
-        <ns2:v>1464</ns2:v>
+        <ns2:v>1534</ns2:v>
       </ns2:c>
       <ns2:c r="C590" s="2"/>
       <ns2:c r="D590" s="2"/>
@@ -19808,10 +19898,10 @@
     </ns2:row>
     <ns2:row r="591">
       <ns2:c r="A591" s="1" t="s">
-        <ns2:v>1465</ns2:v>
+        <ns2:v>1535</ns2:v>
       </ns2:c>
       <ns2:c r="B591" s="8" t="s">
-        <ns2:v>1466</ns2:v>
+        <ns2:v>1536</ns2:v>
       </ns2:c>
       <ns2:c r="C591" s="2"/>
       <ns2:c r="D591" s="2"/>
@@ -19825,10 +19915,10 @@
     </ns2:row>
     <ns2:row r="592">
       <ns2:c r="A592" s="1" t="s">
-        <ns2:v>1467</ns2:v>
+        <ns2:v>1537</ns2:v>
       </ns2:c>
       <ns2:c r="B592" s="8" t="s">
-        <ns2:v>1468</ns2:v>
+        <ns2:v>1538</ns2:v>
       </ns2:c>
       <ns2:c r="C592" s="2"/>
       <ns2:c r="D592" s="2"/>
@@ -19842,9 +19932,11 @@
     </ns2:row>
     <ns2:row r="593">
       <ns2:c r="A593" s="1" t="s">
-        <ns2:v>1469</ns2:v>
-      </ns2:c>
-      <ns2:c r="B593" s="2"/>
+        <ns2:v>1539</ns2:v>
+      </ns2:c>
+      <ns2:c r="B593" s="8" t="s">
+        <ns2:v>1540</ns2:v>
+      </ns2:c>
       <ns2:c r="C593" s="2"/>
       <ns2:c r="D593" s="2"/>
       <ns2:c r="E593" s="2"/>
@@ -19857,9 +19949,11 @@
     </ns2:row>
     <ns2:row r="594">
       <ns2:c r="A594" s="1" t="s">
-        <ns2:v>1470</ns2:v>
-      </ns2:c>
-      <ns2:c r="B594" s="2"/>
+        <ns2:v>1541</ns2:v>
+      </ns2:c>
+      <ns2:c r="B594" s="8" t="s">
+        <ns2:v>1542</ns2:v>
+      </ns2:c>
       <ns2:c r="C594" s="2"/>
       <ns2:c r="D594" s="2"/>
       <ns2:c r="E594" s="2"/>
@@ -19871,8 +19965,12 @@
       <ns2:c r="K594" s="2"/>
     </ns2:row>
     <ns2:row r="595">
-      <ns2:c r="A595" s="1"/>
-      <ns2:c r="B595" s="2"/>
+      <ns2:c r="A595" s="1" t="s">
+        <ns2:v>1543</ns2:v>
+      </ns2:c>
+      <ns2:c r="B595" s="8" t="s">
+        <ns2:v>1544</ns2:v>
+      </ns2:c>
       <ns2:c r="C595" s="2"/>
       <ns2:c r="D595" s="2"/>
       <ns2:c r="E595" s="2"/>
@@ -19884,8 +19982,12 @@
       <ns2:c r="K595" s="2"/>
     </ns2:row>
     <ns2:row r="596">
-      <ns2:c r="A596" s="1"/>
-      <ns2:c r="B596" s="2"/>
+      <ns2:c r="A596" s="1" t="s">
+        <ns2:v>1545</ns2:v>
+      </ns2:c>
+      <ns2:c r="B596" s="8" t="s">
+        <ns2:v>1546</ns2:v>
+      </ns2:c>
       <ns2:c r="C596" s="2"/>
       <ns2:c r="D596" s="2"/>
       <ns2:c r="E596" s="2"/>
@@ -19897,8 +19999,12 @@
       <ns2:c r="K596" s="2"/>
     </ns2:row>
     <ns2:row r="597">
-      <ns2:c r="A597" s="1"/>
-      <ns2:c r="B597" s="2"/>
+      <ns2:c r="A597" s="1" t="s">
+        <ns2:v>1547</ns2:v>
+      </ns2:c>
+      <ns2:c r="B597" s="8" t="s">
+        <ns2:v>1548</ns2:v>
+      </ns2:c>
       <ns2:c r="C597" s="2"/>
       <ns2:c r="D597" s="2"/>
       <ns2:c r="E597" s="2"/>
@@ -19910,8 +20016,12 @@
       <ns2:c r="K597" s="2"/>
     </ns2:row>
     <ns2:row r="598">
-      <ns2:c r="A598" s="1"/>
-      <ns2:c r="B598" s="2"/>
+      <ns2:c r="A598" s="1" t="s">
+        <ns2:v>1549</ns2:v>
+      </ns2:c>
+      <ns2:c r="B598" s="8" t="s">
+        <ns2:v>1550</ns2:v>
+      </ns2:c>
       <ns2:c r="C598" s="2"/>
       <ns2:c r="D598" s="2"/>
       <ns2:c r="E598" s="2"/>
@@ -19923,8 +20033,12 @@
       <ns2:c r="K598" s="2"/>
     </ns2:row>
     <ns2:row r="599">
-      <ns2:c r="A599" s="1"/>
-      <ns2:c r="B599" s="2"/>
+      <ns2:c r="A599" s="1" t="s">
+        <ns2:v>1551</ns2:v>
+      </ns2:c>
+      <ns2:c r="B599" s="8" t="s">
+        <ns2:v>1552</ns2:v>
+      </ns2:c>
       <ns2:c r="C599" s="2"/>
       <ns2:c r="D599" s="2"/>
       <ns2:c r="E599" s="2"/>
@@ -19936,8 +20050,12 @@
       <ns2:c r="K599" s="2"/>
     </ns2:row>
     <ns2:row r="600">
-      <ns2:c r="A600" s="1"/>
-      <ns2:c r="B600" s="2"/>
+      <ns2:c r="A600" s="1" t="s">
+        <ns2:v>1553</ns2:v>
+      </ns2:c>
+      <ns2:c r="B600" s="8" t="s">
+        <ns2:v>1554</ns2:v>
+      </ns2:c>
       <ns2:c r="C600" s="2"/>
       <ns2:c r="D600" s="2"/>
       <ns2:c r="E600" s="2"/>
@@ -19949,8 +20067,12 @@
       <ns2:c r="K600" s="2"/>
     </ns2:row>
     <ns2:row r="601">
-      <ns2:c r="A601" s="1"/>
-      <ns2:c r="B601" s="2"/>
+      <ns2:c r="A601" s="1" t="s">
+        <ns2:v>1555</ns2:v>
+      </ns2:c>
+      <ns2:c r="B601" s="8" t="s">
+        <ns2:v>1556</ns2:v>
+      </ns2:c>
       <ns2:c r="C601" s="2"/>
       <ns2:c r="D601" s="2"/>
       <ns2:c r="E601" s="2"/>
@@ -19962,8 +20084,12 @@
       <ns2:c r="K601" s="2"/>
     </ns2:row>
     <ns2:row r="602">
-      <ns2:c r="A602" s="1"/>
-      <ns2:c r="B602" s="2"/>
+      <ns2:c r="A602" s="1" t="s">
+        <ns2:v>1557</ns2:v>
+      </ns2:c>
+      <ns2:c r="B602" s="8" t="s">
+        <ns2:v>1558</ns2:v>
+      </ns2:c>
       <ns2:c r="C602" s="2"/>
       <ns2:c r="D602" s="2"/>
       <ns2:c r="E602" s="2"/>
@@ -19975,8 +20101,12 @@
       <ns2:c r="K602" s="2"/>
     </ns2:row>
     <ns2:row r="603">
-      <ns2:c r="A603" s="1"/>
-      <ns2:c r="B603" s="2"/>
+      <ns2:c r="A603" s="1" t="s">
+        <ns2:v>1559</ns2:v>
+      </ns2:c>
+      <ns2:c r="B603" s="8" t="s">
+        <ns2:v>1307</ns2:v>
+      </ns2:c>
       <ns2:c r="C603" s="2"/>
       <ns2:c r="D603" s="2"/>
       <ns2:c r="E603" s="2"/>
@@ -19988,8 +20118,12 @@
       <ns2:c r="K603" s="2"/>
     </ns2:row>
     <ns2:row r="604">
-      <ns2:c r="A604" s="1"/>
-      <ns2:c r="B604" s="2"/>
+      <ns2:c r="A604" s="1" t="s">
+        <ns2:v>1560</ns2:v>
+      </ns2:c>
+      <ns2:c r="B604" s="8" t="s">
+        <ns2:v>1561</ns2:v>
+      </ns2:c>
       <ns2:c r="C604" s="2"/>
       <ns2:c r="D604" s="2"/>
       <ns2:c r="E604" s="2"/>
@@ -20001,8 +20135,12 @@
       <ns2:c r="K604" s="2"/>
     </ns2:row>
     <ns2:row r="605">
-      <ns2:c r="A605" s="1"/>
-      <ns2:c r="B605" s="2"/>
+      <ns2:c r="A605" s="1" t="s">
+        <ns2:v>1562</ns2:v>
+      </ns2:c>
+      <ns2:c r="B605" s="11" t="s">
+        <ns2:v>1563</ns2:v>
+      </ns2:c>
       <ns2:c r="C605" s="2"/>
       <ns2:c r="D605" s="2"/>
       <ns2:c r="E605" s="2"/>
@@ -20014,8 +20152,12 @@
       <ns2:c r="K605" s="2"/>
     </ns2:row>
     <ns2:row r="606">
-      <ns2:c r="A606" s="1"/>
-      <ns2:c r="B606" s="2"/>
+      <ns2:c r="A606" s="1" t="s">
+        <ns2:v>1564</ns2:v>
+      </ns2:c>
+      <ns2:c r="B606" s="11" t="s">
+        <ns2:v>1565</ns2:v>
+      </ns2:c>
       <ns2:c r="C606" s="2"/>
       <ns2:c r="D606" s="2"/>
       <ns2:c r="E606" s="2"/>
@@ -20027,8 +20169,12 @@
       <ns2:c r="K606" s="2"/>
     </ns2:row>
     <ns2:row r="607">
-      <ns2:c r="A607" s="1"/>
-      <ns2:c r="B607" s="2"/>
+      <ns2:c r="A607" s="1" t="s">
+        <ns2:v>1566</ns2:v>
+      </ns2:c>
+      <ns2:c r="B607" s="8" t="s">
+        <ns2:v>1567</ns2:v>
+      </ns2:c>
       <ns2:c r="C607" s="2"/>
       <ns2:c r="D607" s="2"/>
       <ns2:c r="E607" s="2"/>
@@ -20040,8 +20186,12 @@
       <ns2:c r="K607" s="2"/>
     </ns2:row>
     <ns2:row r="608">
-      <ns2:c r="A608" s="1"/>
-      <ns2:c r="B608" s="2"/>
+      <ns2:c r="A608" s="1" t="s">
+        <ns2:v>1568</ns2:v>
+      </ns2:c>
+      <ns2:c r="B608" s="8" t="s">
+        <ns2:v>1569</ns2:v>
+      </ns2:c>
       <ns2:c r="C608" s="2"/>
       <ns2:c r="D608" s="2"/>
       <ns2:c r="E608" s="2"/>
@@ -20053,8 +20203,10 @@
       <ns2:c r="K608" s="2"/>
     </ns2:row>
     <ns2:row r="609">
-      <ns2:c r="A609" s="1"/>
-      <ns2:c r="B609" s="2"/>
+      <ns2:c r="A609" s="1" t="s">
+        <ns2:v>1570</ns2:v>
+      </ns2:c>
+      <ns2:c r="B609" s="12"/>
       <ns2:c r="C609" s="2"/>
       <ns2:c r="D609" s="2"/>
       <ns2:c r="E609" s="2"/>
@@ -20067,7 +20219,7 @@
     </ns2:row>
     <ns2:row r="610">
       <ns2:c r="A610" s="1"/>
-      <ns2:c r="B610" s="2"/>
+      <ns2:c r="B610" s="12"/>
       <ns2:c r="C610" s="2"/>
       <ns2:c r="D610" s="2"/>
       <ns2:c r="E610" s="2"/>
@@ -20080,7 +20232,7 @@
     </ns2:row>
     <ns2:row r="611">
       <ns2:c r="A611" s="1"/>
-      <ns2:c r="B611" s="2"/>
+      <ns2:c r="B611" s="12"/>
       <ns2:c r="C611" s="2"/>
       <ns2:c r="D611" s="2"/>
       <ns2:c r="E611" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1697" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1698" uniqueCount="1698">
   <si>
     <t>key</t>
   </si>
@@ -1104,13 +1104,13 @@
     <t>trans0177</t>
   </si>
   <si>
-    <t>上行速度</t>
+    <t>上行限速</t>
   </si>
   <si>
     <t>trans0178</t>
   </si>
   <si>
-    <t>下行速度</t>
+    <t>下行限速</t>
   </si>
   <si>
     <t>trans0179</t>
@@ -4788,6 +4788,9 @@
   </si>
   <si>
     <t>trans0617</t>
+  </si>
+  <si>
+    <t>恢复出厂中</t>
   </si>
   <si>
     <t>trans0618</t>
@@ -9195,7 +9198,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -9217,10 +9220,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -9233,10 +9236,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -9252,7 +9255,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -9271,13 +9274,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9388,10 +9391,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9575,10 +9578,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -9594,10 +9597,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9611,10 +9614,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9628,10 +9631,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9645,10 +9648,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9662,10 +9665,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9679,10 +9682,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>53</v>
@@ -9698,10 +9701,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9715,10 +9718,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>54</v>
@@ -9734,10 +9737,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>55</v>
@@ -9753,10 +9756,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -9772,10 +9775,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9789,10 +9792,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9806,10 +9809,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9823,10 +9826,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9840,10 +9843,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9857,10 +9860,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
@@ -9876,10 +9879,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9893,10 +9896,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9910,10 +9913,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9927,10 +9930,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9944,10 +9947,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9961,10 +9964,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9978,10 +9981,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9995,10 +9998,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -10012,10 +10015,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -10029,10 +10032,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -10046,10 +10049,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -10063,10 +10066,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -10080,10 +10083,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -10097,7 +10100,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>58</v>
@@ -10114,7 +10117,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>59</v>
@@ -10131,7 +10134,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>60</v>
@@ -10432,10 +10435,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10451,10 +10454,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10470,10 +10473,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10489,7 +10492,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>107</v>
@@ -10527,7 +10530,7 @@
         <v>111</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>112</v>
@@ -10546,10 +10549,10 @@
         <v>113</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11292,7 +11295,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -20490,7 +20493,9 @@
       <c r="A617" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="B617" s="2"/>
+      <c r="B617" s="8" t="s">
+        <v>1588</v>
+      </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -20503,7 +20508,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -20518,7 +20523,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -20533,7 +20538,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -20548,7 +20553,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -20563,7 +20568,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -20578,7 +20583,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -20593,7 +20598,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -20608,7 +20613,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -20623,7 +20628,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -20638,7 +20643,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -20653,7 +20658,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -20668,7 +20673,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -20683,7 +20688,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -20698,7 +20703,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20713,7 +20718,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20728,7 +20733,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20743,7 +20748,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20758,7 +20763,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20773,7 +20778,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20788,7 +20793,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20803,7 +20808,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20818,7 +20823,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20833,7 +20838,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20848,7 +20853,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1698" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1699" uniqueCount="1699">
   <si>
     <t>key</t>
   </si>
@@ -4443,6 +4443,9 @@
   </si>
   <si>
     <t>路由器切换到 Bridge（AP）模式后，后续可通过访问 http://192.168.110.1页面管理本设备。同时，请确认上行路由器维护 IP 地址不是192.168.110.1，避免 IP 冲突导致网络异常。</t>
+  </si>
+  <si>
+    <t>trans0565</t>
   </si>
   <si>
     <t>如果客人 Wi-Fi 已开启，路由器切换为桥接模式后，您的客人 Wi-Fi 将被关闭。</t>
@@ -5804,7 +5807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -5869,11 +5872,6 @@
       <sz val="10.0"/>
       <color rgb="267EF0"/>
     </font>
-    <font>
-      <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <color rgb="790EAD"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5898,7 +5896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
@@ -5940,9 +5938,6 @@
       <alignment wrapText="false" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
       <alignment wrapText="false" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9198,7 +9193,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -9220,10 +9215,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -9236,10 +9231,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -9255,7 +9250,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -9274,13 +9269,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9391,10 +9386,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9578,10 +9573,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -9597,10 +9592,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9614,10 +9609,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9631,10 +9626,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9648,10 +9643,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9665,10 +9660,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9682,10 +9677,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>53</v>
@@ -9701,10 +9696,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9718,10 +9713,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>54</v>
@@ -9737,10 +9732,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>55</v>
@@ -9756,10 +9751,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -9775,10 +9770,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9792,10 +9787,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9809,10 +9804,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9826,10 +9821,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9843,10 +9838,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9860,10 +9855,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
@@ -9879,10 +9874,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9896,10 +9891,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9913,10 +9908,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9930,10 +9925,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9947,10 +9942,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9964,10 +9959,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9981,10 +9976,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9998,10 +9993,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -10015,10 +10010,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -10032,10 +10027,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -10049,10 +10044,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -10066,10 +10061,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -10083,10 +10078,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -10100,7 +10095,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>58</v>
@@ -10117,7 +10112,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>59</v>
@@ -10134,7 +10129,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>60</v>
@@ -10435,10 +10430,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10454,10 +10449,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10473,10 +10468,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10492,7 +10487,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>107</v>
@@ -10530,7 +10525,7 @@
         <v>111</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>112</v>
@@ -10549,10 +10544,10 @@
         <v>113</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11295,7 +11290,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -19582,11 +19577,11 @@
       <c r="K564" s="2"/>
     </row>
     <row r="565">
-      <c r="A565" s="15" t="s">
-        <v>124</v>
+      <c r="A565" s="1" t="s">
+        <v>1473</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -19600,10 +19595,10 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -19617,10 +19612,10 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -19634,13 +19629,13 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -19653,13 +19648,13 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -19672,13 +19667,13 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -19691,13 +19686,13 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -19710,13 +19705,13 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -19729,13 +19724,13 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -19748,13 +19743,13 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -19767,13 +19762,13 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -19786,13 +19781,13 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -19805,10 +19800,10 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -19822,10 +19817,10 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -19839,10 +19834,10 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -19856,10 +19851,10 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -19873,10 +19868,10 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -19890,10 +19885,10 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -19907,10 +19902,10 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -19924,10 +19919,10 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -19941,10 +19936,10 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -19958,10 +19953,10 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -19975,10 +19970,10 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -19992,10 +19987,10 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -20009,10 +20004,10 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -20026,10 +20021,10 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -20043,10 +20038,10 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -20060,10 +20055,10 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -20077,10 +20072,10 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -20094,10 +20089,10 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -20111,10 +20106,10 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -20128,10 +20123,10 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -20145,10 +20140,10 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -20162,10 +20157,10 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -20179,10 +20174,10 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -20196,10 +20191,10 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -20213,10 +20208,10 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -20230,10 +20225,10 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -20247,7 +20242,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B603" s="8" t="s">
         <v>1308</v>
@@ -20264,10 +20259,10 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -20281,10 +20276,10 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -20298,10 +20293,10 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -20315,10 +20310,10 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -20332,10 +20327,10 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -20349,13 +20344,13 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C609" s="8" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -20368,13 +20363,13 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C610" s="8" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -20387,10 +20382,10 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -20404,10 +20399,10 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -20421,10 +20416,10 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -20438,10 +20433,10 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -20455,10 +20450,10 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -20472,13 +20467,13 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -20491,10 +20486,10 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -20508,7 +20503,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -20523,7 +20518,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -20538,7 +20533,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -20553,7 +20548,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -20568,7 +20563,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -20583,7 +20578,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -20598,7 +20593,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -20613,7 +20608,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -20628,7 +20623,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -20643,7 +20638,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -20658,7 +20653,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -20673,7 +20668,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -20688,7 +20683,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -20703,7 +20698,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20718,7 +20713,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20733,7 +20728,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20748,7 +20743,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20763,7 +20758,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20778,7 +20773,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20793,7 +20788,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20808,7 +20803,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20823,7 +20818,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20838,7 +20833,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20853,7 +20848,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<ns2:workbook xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <ns2:workbookPr date1904="false"/>
   <ns2:bookViews>
     <ns2:workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1699" uniqueCount="1699">
+<ns2:sst xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1699" uniqueCount="1699">
   <ns2:si>
     <ns2:t>key</ns2:t>
   </ns2:si>
@@ -4571,7 +4571,7 @@
     <ns2:t>trans0616</ns2:t>
   </ns2:si>
   <ns2:si>
-    <ns2:t>登 录</ns2:t>
+    <ns2:t>登录</ns2:t>
   </ns2:si>
   <ns2:si>
     <ns2:t>Log in</ns2:t>
@@ -4885,7 +4885,7 @@
         <ns2:sz val="11.0"/>
         <ns2:color theme="1" tint="0.0"/>
       </ns2:rPr>
-      <ns2:t xml:space="preserve">应 用</ns2:t>
+      <ns2:t xml:space="preserve">应用</ns2:t>
     </ns2:r>
     <ns2:phoneticPr fontId="1" type="noConversion"/>
   </ns2:si>
@@ -5945,7 +5945,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6206,7 +6206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<ns2:worksheet xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <ns2:dimension ref="A1"/>
   <ns2:sheetViews>
     <ns2:sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
@@ -9153,7 +9153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<ns2:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<ns2:worksheet xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns2="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <ns2:dimension ref="A1"/>
   <ns2:sheetViews>
     <ns2:sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1699" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1701" uniqueCount="1701">
   <si>
     <t>key</t>
   </si>
@@ -4799,7 +4799,13 @@
     <t>trans0618</t>
   </si>
   <si>
+    <t>未知设备</t>
+  </si>
+  <si>
     <t>trans0619</t>
+  </si>
+  <si>
+    <t>本机</t>
   </si>
   <si>
     <t>trans0620</t>
@@ -9193,7 +9199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -9215,10 +9221,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -9231,10 +9237,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -9250,7 +9256,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -9269,13 +9275,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9386,10 +9392,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9573,10 +9579,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -9592,10 +9598,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9609,10 +9615,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9626,10 +9632,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9643,10 +9649,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9660,10 +9666,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9677,10 +9683,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>53</v>
@@ -9696,10 +9702,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9713,10 +9719,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>54</v>
@@ -9732,10 +9738,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>55</v>
@@ -9751,10 +9757,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>56</v>
@@ -9770,10 +9776,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9787,10 +9793,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9804,10 +9810,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9821,10 +9827,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9838,10 +9844,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9855,10 +9861,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
@@ -9874,10 +9880,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9891,10 +9897,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9908,10 +9914,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -9925,10 +9931,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -9942,10 +9948,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -9959,10 +9965,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -9976,10 +9982,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -9993,10 +9999,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -10010,10 +10016,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -10027,10 +10033,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -10044,10 +10050,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -10061,10 +10067,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -10078,10 +10084,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -10095,7 +10101,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>58</v>
@@ -10112,7 +10118,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>59</v>
@@ -10129,7 +10135,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>60</v>
@@ -10430,10 +10436,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10449,10 +10455,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10468,10 +10474,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10487,7 +10493,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>107</v>
@@ -10525,7 +10531,7 @@
         <v>111</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>112</v>
@@ -10544,10 +10550,10 @@
         <v>113</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11290,7 +11296,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>210</v>
@@ -20505,7 +20511,9 @@
       <c r="A618" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="B618" s="2"/>
+      <c r="B618" s="8" t="s">
+        <v>1591</v>
+      </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -20518,9 +20526,11 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B619" s="2"/>
+        <v>1592</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>1593</v>
+      </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -20533,7 +20543,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -20548,7 +20558,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -20563,7 +20573,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -20578,7 +20588,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -20593,7 +20603,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -20608,7 +20618,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -20623,7 +20633,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -20638,7 +20648,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -20653,7 +20663,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -20668,7 +20678,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -20683,7 +20693,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -20698,7 +20708,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20713,7 +20723,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20728,7 +20738,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20743,7 +20753,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20758,7 +20768,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20773,7 +20783,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20788,7 +20798,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20803,7 +20813,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20818,7 +20828,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20833,7 +20843,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20848,7 +20858,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1712" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1718" uniqueCount="1718">
   <si>
     <t>key</t>
   </si>
@@ -918,10 +918,10 @@
     <t>trans0154</t>
   </si>
   <si>
-    <t>应用名称</t>
-  </si>
-  <si>
-    <t>Application Name</t>
+    <t>协议类型</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
   </si>
   <si>
     <t>trans0155</t>
@@ -2738,10 +2738,10 @@
     <t>trans0380</t>
   </si>
   <si>
-    <t>范围：%d - %d; 单位: %s; 默认值: %d</t>
-  </si>
-  <si>
-    <t>Range：%d - %d; Unit: %s; default: %d</t>
+    <t>范围：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range: </t>
   </si>
   <si>
     <t>trans0381</t>
@@ -3710,6 +3710,12 @@
     <t>trans0498</t>
   </si>
   <si>
+    <t>单位：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit: </t>
+  </si>
+  <si>
     <t>trans0499</t>
   </si>
   <si>
@@ -4466,7 +4472,7 @@
     <t>trans0609</t>
   </si>
   <si>
-    <t>无效IPv6 前缀！ 有效格式是： XXXX:XXXX:XXXX:XXXX::/XX</t>
+    <t>%s 有效格式是： XXXX:XXXX:XXXX:XXXX::/XX</t>
   </si>
   <si>
     <t>Invalid IP prefix! Format for XXXX:XXXX:XXXX:XXXX::/XX</t>
@@ -4475,7 +4481,7 @@
     <t>trans0610</t>
   </si>
   <si>
-    <t>无效IPv6 前缀！ 有效格式是： XXXX:XXXX:XXXX:XXXX::</t>
+    <t>%s 有效格式是： XXXX:XXXX:XXXX:XXXX::</t>
   </si>
   <si>
     <t>Invalid address prefix! Format for XXXX:XXXX:XXXX:XXXX::/XX</t>
@@ -4610,10 +4616,22 @@
     <t>trans0630</t>
   </si>
   <si>
+    <t>无效IPv6 前缀！</t>
+  </si>
+  <si>
     <t>trans0631</t>
   </si>
   <si>
+    <t>名称非法</t>
+  </si>
+  <si>
     <t>trans0632</t>
+  </si>
+  <si>
+    <t>默认值：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default: </t>
   </si>
   <si>
     <t>trans0633</t>
@@ -5437,7 +5455,7 @@
         <sz val="11.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">安全级</t>
+      <t xml:space="preserve">安全级别</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6325,7 +6343,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -6347,7 +6365,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>159</v>
@@ -6363,10 +6381,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -6382,10 +6400,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6401,13 +6419,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6499,7 +6517,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -6518,10 +6536,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6591,7 +6609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -6632,10 +6650,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6705,10 +6723,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
@@ -6724,10 +6742,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6741,10 +6759,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6758,10 +6776,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6775,10 +6793,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6792,10 +6810,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6809,7 +6827,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>48</v>
@@ -6826,10 +6844,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6843,10 +6861,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -6860,10 +6878,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -6877,10 +6895,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -6894,10 +6912,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6911,10 +6929,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6928,10 +6946,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6945,10 +6963,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6962,10 +6980,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6979,10 +6997,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -6996,10 +7014,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -7013,10 +7031,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -7030,10 +7048,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -7047,10 +7065,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -7064,10 +7082,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -7081,10 +7099,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -7098,10 +7116,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -7115,10 +7133,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -7132,10 +7150,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -7149,10 +7167,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -7166,10 +7184,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -7183,13 +7201,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -7202,13 +7220,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7221,7 +7239,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>53</v>
@@ -7238,7 +7256,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>54</v>
@@ -7255,7 +7273,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>55</v>
@@ -7275,7 +7293,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>51</v>
@@ -7294,10 +7312,10 @@
         <v>60</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7313,10 +7331,10 @@
         <v>62</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -7332,10 +7350,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7351,10 +7369,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7370,10 +7388,10 @@
         <v>68</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -9272,7 +9290,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -9294,10 +9312,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -9310,10 +9328,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -9329,10 +9347,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -9348,13 +9366,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9446,7 +9464,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -9465,10 +9483,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9538,7 +9556,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -9579,10 +9597,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -9652,10 +9670,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
@@ -9671,10 +9689,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9688,10 +9706,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9705,10 +9723,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9722,10 +9740,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9739,10 +9757,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9756,10 +9774,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>48</v>
@@ -9775,10 +9793,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9792,10 +9810,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>49</v>
@@ -9811,10 +9829,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>50</v>
@@ -9830,10 +9848,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>51</v>
@@ -9849,10 +9867,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9866,10 +9884,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9883,10 +9901,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9900,10 +9918,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9917,10 +9935,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9934,10 +9952,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>52</v>
@@ -9953,10 +9971,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9970,10 +9988,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -9987,10 +10005,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -10004,10 +10022,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -10021,10 +10039,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -10038,10 +10056,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -10055,10 +10073,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -10072,10 +10090,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -10089,10 +10107,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -10106,10 +10124,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -10123,10 +10141,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -10140,10 +10158,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -10157,10 +10175,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -10174,7 +10192,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>53</v>
@@ -10191,7 +10209,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>54</v>
@@ -10208,7 +10226,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>55</v>
@@ -10509,10 +10527,10 @@
         <v>94</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10528,10 +10546,10 @@
         <v>95</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10547,10 +10565,10 @@
         <v>96</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10566,7 +10584,7 @@
         <v>97</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>98</v>
@@ -10604,7 +10622,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>103</v>
@@ -10623,10 +10641,10 @@
         <v>104</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11369,7 +11387,7 @@
         <v>199</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>200</v>
@@ -18458,8 +18476,12 @@
       <c r="A498" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B498" s="8"/>
-      <c r="C498" s="2"/>
+      <c r="B498" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C498" s="8" t="s">
+        <v>1229</v>
+      </c>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
@@ -18471,10 +18493,10 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -18488,10 +18510,10 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -18505,10 +18527,10 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -18522,10 +18544,10 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -18539,10 +18561,10 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -18556,10 +18578,10 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -18573,10 +18595,10 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -18590,10 +18612,10 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -18607,10 +18629,10 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -18624,10 +18646,10 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -18641,10 +18663,10 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -18658,10 +18680,10 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -18675,10 +18697,10 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -18692,10 +18714,10 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -18709,10 +18731,10 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -18726,10 +18748,10 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -18743,10 +18765,10 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -18760,10 +18782,10 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -18777,10 +18799,10 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -18794,10 +18816,10 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -18811,10 +18833,10 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -18828,10 +18850,10 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -18845,10 +18867,10 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -18862,10 +18884,10 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -18879,10 +18901,10 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -18896,10 +18918,10 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -18913,10 +18935,10 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -18930,10 +18952,10 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -18947,10 +18969,10 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -18964,13 +18986,13 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -18983,10 +19005,10 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -19000,10 +19022,10 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -19017,10 +19039,10 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -19034,10 +19056,10 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -19051,10 +19073,10 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -19068,10 +19090,10 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -19085,10 +19107,10 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -19102,10 +19124,10 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -19119,13 +19141,13 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -19138,13 +19160,13 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -19157,13 +19179,13 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -19176,13 +19198,13 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -19195,13 +19217,13 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -19214,13 +19236,13 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -19233,13 +19255,13 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -19252,13 +19274,13 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -19271,13 +19293,13 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -19290,7 +19312,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B546" s="8" t="s">
         <v>148</v>
@@ -19309,13 +19331,13 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -19328,13 +19350,13 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -19347,13 +19369,13 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -19366,13 +19388,13 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -19385,13 +19407,13 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -19404,13 +19426,13 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -19423,13 +19445,13 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -19442,13 +19464,13 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -19461,13 +19483,13 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -19480,10 +19502,10 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>257</v>
@@ -19499,13 +19521,13 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B557" s="8" t="s">
         <v>882</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -19518,13 +19540,13 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -19537,13 +19559,13 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -19556,13 +19578,13 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -19575,13 +19597,13 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -19594,13 +19616,13 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -19613,13 +19635,13 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -19632,10 +19654,10 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -19649,10 +19671,10 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -19666,10 +19688,10 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -19683,10 +19705,10 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -19700,13 +19722,13 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -19719,13 +19741,13 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -19738,13 +19760,13 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -19757,13 +19779,13 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -19776,13 +19798,13 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -19795,13 +19817,13 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -19814,13 +19836,13 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -19833,13 +19855,13 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -19852,13 +19874,13 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -19871,10 +19893,10 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -19888,10 +19910,10 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -19905,10 +19927,10 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -19922,10 +19944,10 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -19939,10 +19961,10 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -19956,10 +19978,10 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -19973,10 +19995,10 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -19990,10 +20012,10 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -20007,10 +20029,10 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -20024,10 +20046,10 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -20041,10 +20063,10 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -20058,10 +20080,10 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -20075,10 +20097,10 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -20092,10 +20114,10 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -20109,10 +20131,10 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -20126,10 +20148,10 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -20143,10 +20165,10 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -20160,10 +20182,10 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -20177,10 +20199,10 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -20194,10 +20216,10 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -20211,10 +20233,10 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -20228,10 +20250,10 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -20245,10 +20267,10 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -20262,10 +20284,10 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -20279,10 +20301,10 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -20296,10 +20318,10 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -20313,7 +20335,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B603" s="8" t="s">
         <v>1220</v>
@@ -20330,10 +20352,10 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -20347,10 +20369,10 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -20364,10 +20386,10 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -20381,10 +20403,10 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -20398,10 +20420,10 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -20415,13 +20437,13 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C609" s="8" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -20434,13 +20456,13 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C610" s="8" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -20453,10 +20475,10 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -20470,10 +20492,10 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -20487,10 +20509,10 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -20504,10 +20526,10 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -20521,10 +20543,10 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -20538,13 +20560,13 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -20557,10 +20579,10 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -20574,10 +20596,10 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -20591,10 +20613,10 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -20608,10 +20630,10 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -20625,10 +20647,10 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -20642,10 +20664,10 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -20659,13 +20681,13 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -20678,10 +20700,10 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -20695,10 +20717,10 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -20712,10 +20734,10 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C626" s="8" t="s">
         <v>214</v>
@@ -20731,13 +20753,13 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -20750,13 +20772,13 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -20769,13 +20791,13 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -20788,9 +20810,11 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B630" s="2"/>
+        <v>1529</v>
+      </c>
+      <c r="B630" s="8" t="s">
+        <v>1530</v>
+      </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -20803,9 +20827,11 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B631" s="2"/>
+        <v>1531</v>
+      </c>
+      <c r="B631" s="8" t="s">
+        <v>1532</v>
+      </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -20818,10 +20844,14 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
+        <v>1533</v>
+      </c>
+      <c r="B632" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C632" s="8" t="s">
+        <v>1535</v>
+      </c>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
@@ -20833,7 +20863,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20848,7 +20878,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20863,7 +20893,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20878,7 +20908,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20893,7 +20923,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20908,7 +20938,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20923,7 +20953,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20938,7 +20968,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20953,7 +20983,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -2045,6 +2045,255 @@
     <t>Brasilia</t>
   </si>
   <si>
+    <t>trans0001</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>%s太长了</t>
+  </si>
+  <si>
+    <t>%s is too long</t>
+  </si>
+  <si>
+    <t>WEB登录被锁定，请在 %d 秒后再登录</t>
+  </si>
+  <si>
+    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
+  </si>
+  <si>
+    <t>You already login incorrectly for %d time (up to 3 times)</t>
+  </si>
+  <si>
+    <t>trans0015</t>
+  </si>
+  <si>
+    <t>我的 Wi-fi</t>
+  </si>
+  <si>
+    <t>My Wi-fi</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>确定要退出登录吗?</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>%s 优选</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
+  </si>
+  <si>
+    <t>trans0026</t>
+  </si>
+  <si>
+    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>Wi-Fi 名称</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>Wi-Fi 密码</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
+  </si>
+  <si>
+    <t>trans0033</t>
+  </si>
+  <si>
+    <t>不加密</t>
+  </si>
+  <si>
+    <t>trans0034</t>
+  </si>
+  <si>
+    <t>WPA2 PSK 模式</t>
+  </si>
+  <si>
+    <t>trans0035</t>
+  </si>
+  <si>
+    <t>WPA/WPA2 PSK 混合模式</t>
+  </si>
+  <si>
+    <t>trans0036</t>
+  </si>
+  <si>
+    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
+  </si>
+  <si>
+    <t>trans0037</t>
+  </si>
+  <si>
+    <t>trans0038</t>
+  </si>
+  <si>
+    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
+  </si>
+  <si>
+    <t>trans0039</t>
+  </si>
+  <si>
+    <t>将 Wi-Fi 密码作为路由器登录密码</t>
+  </si>
+  <si>
+    <t>trans0040</t>
+  </si>
+  <si>
+    <t>Wi-Fi 5 备用网络</t>
+  </si>
+  <si>
+    <t>trans0041</t>
+  </si>
+  <si>
+    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
+  </si>
+  <si>
+    <t>trans0042</t>
+  </si>
+  <si>
+    <t>%s 名称</t>
+  </si>
+  <si>
+    <t>trans0043</t>
+  </si>
+  <si>
+    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
+  </si>
+  <si>
+    <t>trans0044</t>
+  </si>
+  <si>
+    <t>Wi-Fi 功率模式</t>
+  </si>
+  <si>
+    <t>trans0045</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>trans0046</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>trans0047</t>
+  </si>
+  <si>
+    <t>穿墙</t>
+  </si>
+  <si>
+    <t>trans0048</t>
+  </si>
+  <si>
+    <t>trans0049</t>
+  </si>
+  <si>
+    <t>2.4G</t>
+  </si>
+  <si>
+    <t>trans0050</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>trans0051</t>
+  </si>
+  <si>
+    <t>trans0052</t>
+  </si>
+  <si>
+    <t>trans0053</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>IP 过滤</t>
+  </si>
+  <si>
+    <t>IP Filter</t>
+  </si>
+  <si>
+    <t>Mac 过滤</t>
+  </si>
+  <si>
+    <t>Mac Filter</t>
+  </si>
+  <si>
+    <t>URL 过滤</t>
+  </si>
+  <si>
+    <t>URL Filter</t>
+  </si>
+  <si>
+    <t>Acl</t>
+  </si>
+  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -2738,10 +2987,10 @@
     <t>trans0380</t>
   </si>
   <si>
-    <t>范围：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range: </t>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
   <si>
     <t>trans0381</t>
@@ -3710,10 +3959,10 @@
     <t>trans0498</t>
   </si>
   <si>
-    <t>单位：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit: </t>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
   <si>
     <t>trans0499</t>
@@ -4628,10 +4877,10 @@
     <t>trans0632</t>
   </si>
   <si>
-    <t>默认值：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default: </t>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si>
     <t>trans0633</t>
@@ -4659,255 +4908,6 @@
   </si>
   <si>
     <t>trans0641</t>
-  </si>
-  <si>
-    <t>trans0001</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>密码只能为%d-%d位数字、字母、符号，或者它们的组合</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>必填</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>%s太长了</t>
-  </si>
-  <si>
-    <t>%s is too long</t>
-  </si>
-  <si>
-    <t>WEB登录被锁定，请在 %d 秒后再登录</t>
-  </si>
-  <si>
-    <t>您已经 %d 次用户名或密码输入错误（最多：三次）</t>
-  </si>
-  <si>
-    <t>You already login incorrectly for %d time (up to 3 times)</t>
-  </si>
-  <si>
-    <t>trans0015</t>
-  </si>
-  <si>
-    <t>我的 Wi-fi</t>
-  </si>
-  <si>
-    <t>My Wi-fi</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>确定要退出登录吗?</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称将合并为：%s，Wi-Fi 若断开，请重新连接。</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>%s 优选</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>%s 和 %s 信号合并显示，同等信号强度下优选更快的 %s，关闭此开关，即可单独设置</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>若关闭此开关，连接到此 Wi-Fi 的设备将断开。请您确定是否关闭此开关？</t>
-  </si>
-  <si>
-    <t>trans0026</t>
-  </si>
-  <si>
-    <t>建议使用 Wi-Fi 穿墙模式，上网体验更流畅</t>
-  </si>
-  <si>
-    <t>trans0027</t>
-  </si>
-  <si>
-    <t>trans0028</t>
-  </si>
-  <si>
-    <t>路由器重启后，%s Wi-Fi 将自动开启</t>
-  </si>
-  <si>
-    <t>trans0029</t>
-  </si>
-  <si>
-    <t>Wi-Fi 名称</t>
-  </si>
-  <si>
-    <t>trans0030</t>
-  </si>
-  <si>
-    <t>Wi-Fi 密码</t>
-  </si>
-  <si>
-    <t>trans0031</t>
-  </si>
-  <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>trans0032</t>
-  </si>
-  <si>
-    <t>Wi-Fi 不加密，有被他人盗用的风险，请及时设置 Wi-Fi 密码。</t>
-  </si>
-  <si>
-    <t>trans0033</t>
-  </si>
-  <si>
-    <t>不加密</t>
-  </si>
-  <si>
-    <t>trans0034</t>
-  </si>
-  <si>
-    <t>WPA2 PSK 模式</t>
-  </si>
-  <si>
-    <t>trans0035</t>
-  </si>
-  <si>
-    <t>WPA/WPA2 PSK 混合模式</t>
-  </si>
-  <si>
-    <t>trans0036</t>
-  </si>
-  <si>
-    <t>WPA2 PSK/WPA3 SAE 混合模式</t>
-  </si>
-  <si>
-    <t>trans0037</t>
-  </si>
-  <si>
-    <t>trans0038</t>
-  </si>
-  <si>
-    <t>请确认接入终端支持 WPA2-PSK/WPA3-SAE 模式。使用中如遇到设备连接问题，建议切回 WPA2-PSK</t>
-  </si>
-  <si>
-    <t>trans0039</t>
-  </si>
-  <si>
-    <t>将 Wi-Fi 密码作为路由器登录密码</t>
-  </si>
-  <si>
-    <t>trans0040</t>
-  </si>
-  <si>
-    <t>Wi-Fi 5 备用网络</t>
-  </si>
-  <si>
-    <t>trans0041</t>
-  </si>
-  <si>
-    <t>部分 Wi-Fi 5 设备（如部分使用 Intel 网卡的笔记本）因网卡驱动较旧，无法扫描到 Wi-Fi 6 信号时，可以连接此 Wi-Fi 信号</t>
-  </si>
-  <si>
-    <t>trans0042</t>
-  </si>
-  <si>
-    <t>%s 名称</t>
-  </si>
-  <si>
-    <t>trans0043</t>
-  </si>
-  <si>
-    <t>密码保持与对应频段的 Wi-Fi 密码一致</t>
-  </si>
-  <si>
-    <t>trans0044</t>
-  </si>
-  <si>
-    <t>Wi-Fi 功率模式</t>
-  </si>
-  <si>
-    <t>trans0045</t>
-  </si>
-  <si>
-    <t>睡眠</t>
-  </si>
-  <si>
-    <t>trans0046</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>trans0047</t>
-  </si>
-  <si>
-    <t>穿墙</t>
-  </si>
-  <si>
-    <t>trans0048</t>
-  </si>
-  <si>
-    <t>trans0049</t>
-  </si>
-  <si>
-    <t>2.4G</t>
-  </si>
-  <si>
-    <t>trans0050</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>trans0051</t>
-  </si>
-  <si>
-    <t>trans0052</t>
-  </si>
-  <si>
-    <t>trans0053</t>
-  </si>
-  <si>
-    <t>Dos</t>
-  </si>
-  <si>
-    <t>IP 过滤</t>
-  </si>
-  <si>
-    <t>IP Filter</t>
-  </si>
-  <si>
-    <t>Mac 过滤</t>
-  </si>
-  <si>
-    <t>Mac Filter</t>
-  </si>
-  <si>
-    <t>URL 过滤</t>
-  </si>
-  <si>
-    <t>URL Filter</t>
-  </si>
-  <si>
-    <t>Acl</t>
   </si>
   <si>
     <r>
@@ -6042,7 +6042,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1545</v>
+        <v>675</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -6365,7 +6365,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1546</v>
+        <v>676</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>159</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1547</v>
+        <v>677</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1548</v>
+        <v>678</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -6400,10 +6400,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1549</v>
+        <v>679</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1550</v>
+        <v>680</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6419,13 +6419,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1551</v>
+        <v>681</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1552</v>
+        <v>682</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1553</v>
+        <v>683</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6517,7 +6517,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1554</v>
+        <v>684</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -6536,10 +6536,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1555</v>
+        <v>685</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1556</v>
+        <v>686</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1557</v>
+        <v>687</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -6650,10 +6650,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1558</v>
+        <v>688</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1559</v>
+        <v>689</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6723,10 +6723,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1560</v>
+        <v>690</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1561</v>
+        <v>691</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
@@ -6742,10 +6742,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1562</v>
+        <v>692</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1563</v>
+        <v>693</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -6759,10 +6759,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1564</v>
+        <v>694</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1565</v>
+        <v>695</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1566</v>
+        <v>696</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1567</v>
+        <v>697</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1568</v>
+        <v>698</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1569</v>
+        <v>699</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1570</v>
+        <v>700</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1571</v>
+        <v>701</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1572</v>
+        <v>702</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>48</v>
@@ -6844,10 +6844,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1573</v>
+        <v>703</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1574</v>
+        <v>704</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -6861,10 +6861,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1575</v>
+        <v>705</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1576</v>
+        <v>706</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1577</v>
+        <v>707</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1578</v>
+        <v>708</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1579</v>
+        <v>709</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1580</v>
+        <v>710</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
@@ -6912,10 +6912,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1581</v>
+        <v>711</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1582</v>
+        <v>712</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -6929,10 +6929,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1583</v>
+        <v>713</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1584</v>
+        <v>714</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -6946,10 +6946,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>1585</v>
+        <v>715</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1586</v>
+        <v>716</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -6963,10 +6963,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>1587</v>
+        <v>717</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1588</v>
+        <v>718</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>1589</v>
+        <v>719</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1590</v>
+        <v>720</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>1591</v>
+        <v>721</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1578</v>
+        <v>708</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
@@ -7014,10 +7014,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>1592</v>
+        <v>722</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1593</v>
+        <v>723</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>1594</v>
+        <v>724</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1595</v>
+        <v>725</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -7048,10 +7048,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>1596</v>
+        <v>726</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1597</v>
+        <v>727</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -7065,10 +7065,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1598</v>
+        <v>728</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1599</v>
+        <v>729</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>1600</v>
+        <v>730</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1601</v>
+        <v>731</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -7099,10 +7099,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>1602</v>
+        <v>732</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1603</v>
+        <v>733</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>1604</v>
+        <v>734</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1605</v>
+        <v>735</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -7133,10 +7133,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>1606</v>
+        <v>736</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1607</v>
+        <v>737</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>1608</v>
+        <v>738</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1609</v>
+        <v>739</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -7167,10 +7167,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>1610</v>
+        <v>740</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1611</v>
+        <v>741</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>1612</v>
+        <v>742</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1563</v>
+        <v>693</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -7201,13 +7201,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>1613</v>
+        <v>743</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1614</v>
+        <v>744</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1614</v>
+        <v>744</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -7220,13 +7220,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>1615</v>
+        <v>745</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1616</v>
+        <v>746</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1616</v>
+        <v>746</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1617</v>
+        <v>747</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>53</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1618</v>
+        <v>748</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>54</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1619</v>
+        <v>749</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>55</v>
@@ -7293,7 +7293,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1580</v>
+        <v>710</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>51</v>
@@ -7312,10 +7312,10 @@
         <v>60</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7331,10 +7331,10 @@
         <v>62</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1621</v>
+        <v>751</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1622</v>
+        <v>752</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -7350,10 +7350,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1623</v>
+        <v>753</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1624</v>
+        <v>754</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7369,10 +7369,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1625</v>
+        <v>755</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1626</v>
+        <v>756</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7388,10 +7388,10 @@
         <v>68</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1627</v>
+        <v>757</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1627</v>
+        <v>757</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -14757,13 +14757,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -14776,13 +14776,13 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -14795,13 +14795,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -14814,13 +14814,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -14833,13 +14833,13 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -14852,13 +14852,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -14871,13 +14871,13 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -14890,13 +14890,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -14909,13 +14909,13 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>701</v>
+        <v>784</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -14928,13 +14928,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>702</v>
+        <v>785</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -14947,13 +14947,13 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -14966,13 +14966,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -14985,13 +14985,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -15004,13 +15004,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -15023,13 +15023,13 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>717</v>
+        <v>800</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>718</v>
+        <v>801</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>719</v>
+        <v>802</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -15042,13 +15042,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>720</v>
+        <v>803</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -15061,13 +15061,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>723</v>
+        <v>806</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>724</v>
+        <v>807</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -15080,13 +15080,13 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>726</v>
+        <v>809</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>727</v>
+        <v>810</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>728</v>
+        <v>811</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -15099,13 +15099,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>729</v>
+        <v>812</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>731</v>
+        <v>814</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -15118,13 +15118,13 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>732</v>
+        <v>815</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>733</v>
+        <v>816</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>734</v>
+        <v>817</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -15137,13 +15137,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>735</v>
+        <v>818</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -15156,13 +15156,13 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>738</v>
+        <v>821</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>739</v>
+        <v>822</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>740</v>
+        <v>823</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -15175,13 +15175,13 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>741</v>
+        <v>824</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>742</v>
+        <v>825</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>743</v>
+        <v>826</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -15194,13 +15194,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>744</v>
+        <v>827</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>745</v>
+        <v>828</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>746</v>
+        <v>829</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -15213,13 +15213,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>747</v>
+        <v>830</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>748</v>
+        <v>831</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>749</v>
+        <v>832</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -15232,13 +15232,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>751</v>
+        <v>834</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>752</v>
+        <v>835</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -15251,13 +15251,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>753</v>
+        <v>836</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>754</v>
+        <v>837</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>755</v>
+        <v>838</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -15270,13 +15270,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>756</v>
+        <v>839</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>757</v>
+        <v>840</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>758</v>
+        <v>841</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -15289,13 +15289,13 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>759</v>
+        <v>842</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>760</v>
+        <v>843</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>761</v>
+        <v>844</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -15308,13 +15308,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>762</v>
+        <v>845</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>763</v>
+        <v>846</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>764</v>
+        <v>847</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -15327,13 +15327,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>765</v>
+        <v>848</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>766</v>
+        <v>849</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>767</v>
+        <v>850</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -15346,13 +15346,13 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>768</v>
+        <v>851</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>769</v>
+        <v>852</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>770</v>
+        <v>853</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -15365,13 +15365,13 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>771</v>
+        <v>854</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>772</v>
+        <v>855</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>773</v>
+        <v>856</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -15384,13 +15384,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>774</v>
+        <v>857</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>776</v>
+        <v>859</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -15403,13 +15403,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>777</v>
+        <v>860</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>779</v>
+        <v>862</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -15422,13 +15422,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>781</v>
+        <v>864</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>782</v>
+        <v>865</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -15441,13 +15441,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>783</v>
+        <v>866</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>784</v>
+        <v>867</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>785</v>
+        <v>868</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -15460,13 +15460,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>786</v>
+        <v>869</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>787</v>
+        <v>870</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>788</v>
+        <v>871</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -15479,13 +15479,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>789</v>
+        <v>872</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>790</v>
+        <v>873</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>791</v>
+        <v>874</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -15498,13 +15498,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>792</v>
+        <v>875</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>793</v>
+        <v>876</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>794</v>
+        <v>877</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -15517,13 +15517,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>795</v>
+        <v>878</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>796</v>
+        <v>879</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>797</v>
+        <v>880</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -15536,13 +15536,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>798</v>
+        <v>881</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>799</v>
+        <v>882</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>800</v>
+        <v>883</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -15555,13 +15555,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>801</v>
+        <v>884</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>802</v>
+        <v>885</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>803</v>
+        <v>886</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -15574,13 +15574,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>804</v>
+        <v>887</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>805</v>
+        <v>888</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -15593,13 +15593,13 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>807</v>
+        <v>890</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>808</v>
+        <v>891</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>809</v>
+        <v>892</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -15612,13 +15612,13 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>810</v>
+        <v>893</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>811</v>
+        <v>894</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>812</v>
+        <v>895</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -15631,13 +15631,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>813</v>
+        <v>896</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>814</v>
+        <v>897</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>815</v>
+        <v>898</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -15650,13 +15650,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>816</v>
+        <v>899</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>817</v>
+        <v>900</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>818</v>
+        <v>901</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -15669,13 +15669,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>819</v>
+        <v>902</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>820</v>
+        <v>903</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>821</v>
+        <v>904</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -15688,13 +15688,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>822</v>
+        <v>905</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>823</v>
+        <v>906</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>824</v>
+        <v>907</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -15707,13 +15707,13 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>825</v>
+        <v>908</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>826</v>
+        <v>909</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>827</v>
+        <v>910</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -15726,13 +15726,13 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>828</v>
+        <v>911</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>829</v>
+        <v>912</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>830</v>
+        <v>913</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -15745,13 +15745,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>831</v>
+        <v>914</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>832</v>
+        <v>915</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>833</v>
+        <v>916</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -15764,13 +15764,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>834</v>
+        <v>917</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>835</v>
+        <v>918</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>836</v>
+        <v>919</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -15783,13 +15783,13 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>837</v>
+        <v>920</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>838</v>
+        <v>921</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -15802,13 +15802,13 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>840</v>
+        <v>923</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>841</v>
+        <v>924</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>842</v>
+        <v>925</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -15821,10 +15821,10 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>843</v>
+        <v>926</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>844</v>
+        <v>927</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -15838,13 +15838,13 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>845</v>
+        <v>928</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>846</v>
+        <v>929</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>847</v>
+        <v>930</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -15857,13 +15857,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>848</v>
+        <v>931</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>849</v>
+        <v>932</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>850</v>
+        <v>933</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -15876,13 +15876,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>851</v>
+        <v>934</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>852</v>
+        <v>935</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>853</v>
+        <v>936</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -15895,13 +15895,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>854</v>
+        <v>937</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>855</v>
+        <v>938</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>856</v>
+        <v>939</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -15914,13 +15914,13 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>857</v>
+        <v>940</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>858</v>
+        <v>941</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>859</v>
+        <v>942</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -15933,13 +15933,13 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>861</v>
+        <v>944</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>862</v>
+        <v>945</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -15952,13 +15952,13 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>863</v>
+        <v>946</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>864</v>
+        <v>947</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>865</v>
+        <v>948</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -15971,13 +15971,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>866</v>
+        <v>949</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>867</v>
+        <v>950</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>868</v>
+        <v>951</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -15990,13 +15990,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>869</v>
+        <v>952</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>870</v>
+        <v>953</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>871</v>
+        <v>954</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -16009,13 +16009,13 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>872</v>
+        <v>955</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>873</v>
+        <v>956</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>874</v>
+        <v>957</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -16028,13 +16028,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>875</v>
+        <v>958</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>876</v>
+        <v>959</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>877</v>
+        <v>960</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -16047,13 +16047,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>878</v>
+        <v>961</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>879</v>
+        <v>962</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>880</v>
+        <v>963</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -16066,13 +16066,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>881</v>
+        <v>964</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>882</v>
+        <v>965</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>883</v>
+        <v>966</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -16085,13 +16085,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>884</v>
+        <v>967</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>885</v>
+        <v>968</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>886</v>
+        <v>969</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -16104,13 +16104,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>887</v>
+        <v>970</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>888</v>
+        <v>971</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>888</v>
+        <v>971</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -16123,13 +16123,13 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>890</v>
+        <v>973</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>890</v>
+        <v>973</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -16142,10 +16142,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>891</v>
+        <v>974</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>892</v>
+        <v>975</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -16159,10 +16159,10 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>893</v>
+        <v>976</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>894</v>
+        <v>977</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -16176,13 +16176,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>895</v>
+        <v>978</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>896</v>
+        <v>979</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>896</v>
+        <v>979</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -16195,13 +16195,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>897</v>
+        <v>980</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>898</v>
+        <v>981</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>898</v>
+        <v>981</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -16214,7 +16214,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>899</v>
+        <v>982</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>524</v>
@@ -16233,10 +16233,10 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>900</v>
+        <v>983</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>901</v>
+        <v>984</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -16250,13 +16250,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>902</v>
+        <v>985</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>903</v>
+        <v>986</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>904</v>
+        <v>987</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -16269,13 +16269,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>905</v>
+        <v>988</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>906</v>
+        <v>989</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>907</v>
+        <v>990</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -16288,13 +16288,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>908</v>
+        <v>991</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>909</v>
+        <v>992</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>910</v>
+        <v>993</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -16307,13 +16307,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>911</v>
+        <v>994</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>912</v>
+        <v>995</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>913</v>
+        <v>996</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -16326,13 +16326,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>914</v>
+        <v>997</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>915</v>
+        <v>998</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>916</v>
+        <v>999</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -16345,13 +16345,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>918</v>
+        <v>1001</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>919</v>
+        <v>1002</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -16364,13 +16364,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>920</v>
+        <v>1003</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>921</v>
+        <v>1004</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>922</v>
+        <v>1005</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -16383,13 +16383,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>923</v>
+        <v>1006</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>924</v>
+        <v>1007</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>924</v>
+        <v>1007</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -16402,13 +16402,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>925</v>
+        <v>1008</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>926</v>
+        <v>1009</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>926</v>
+        <v>1009</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -16421,13 +16421,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>927</v>
+        <v>1010</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>928</v>
+        <v>1011</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>929</v>
+        <v>1012</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -16440,13 +16440,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>930</v>
+        <v>1013</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>931</v>
+        <v>1014</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>932</v>
+        <v>1015</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -16459,13 +16459,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>933</v>
+        <v>1016</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>934</v>
+        <v>1017</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>935</v>
+        <v>1018</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -16478,7 +16478,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>936</v>
+        <v>1019</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>148</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>937</v>
+        <v>1020</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>63</v>
@@ -16516,7 +16516,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>938</v>
+        <v>1021</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>65</v>
@@ -16535,13 +16535,13 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>939</v>
+        <v>1022</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>940</v>
+        <v>1023</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>941</v>
+        <v>1024</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -16554,13 +16554,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>942</v>
+        <v>1025</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>943</v>
+        <v>1026</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>943</v>
+        <v>1026</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -16573,13 +16573,13 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>944</v>
+        <v>1027</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>945</v>
+        <v>1028</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>946</v>
+        <v>1029</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -16592,13 +16592,13 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>947</v>
+        <v>1030</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>948</v>
+        <v>1031</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>949</v>
+        <v>1032</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -16611,13 +16611,13 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>950</v>
+        <v>1033</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>951</v>
+        <v>1034</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>952</v>
+        <v>1035</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -16630,13 +16630,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>953</v>
+        <v>1036</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>954</v>
+        <v>1037</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>955</v>
+        <v>1038</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -16649,10 +16649,10 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>956</v>
+        <v>1039</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>957</v>
+        <v>1040</v>
       </c>
       <c r="C401" s="8"/>
       <c r="D401" s="2"/>
@@ -16666,13 +16666,13 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>958</v>
+        <v>1041</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>959</v>
+        <v>1042</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>960</v>
+        <v>1043</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -16685,13 +16685,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>961</v>
+        <v>1044</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>962</v>
+        <v>1045</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>963</v>
+        <v>1046</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -16704,10 +16704,10 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>964</v>
+        <v>1047</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>965</v>
+        <v>1048</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -16721,10 +16721,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>966</v>
+        <v>1049</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>967</v>
+        <v>1050</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -16738,13 +16738,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>968</v>
+        <v>1051</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -16757,10 +16757,10 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>970</v>
+        <v>1053</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>971</v>
+        <v>1054</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -16774,10 +16774,10 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>972</v>
+        <v>1055</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>973</v>
+        <v>1056</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -16791,10 +16791,10 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>974</v>
+        <v>1057</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>975</v>
+        <v>1058</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -16808,13 +16808,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>977</v>
+        <v>1060</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>978</v>
+        <v>1061</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -16827,10 +16827,10 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>979</v>
+        <v>1062</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>980</v>
+        <v>1063</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -16844,13 +16844,13 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>981</v>
+        <v>1064</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>982</v>
+        <v>1065</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>983</v>
+        <v>1066</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -16863,10 +16863,10 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>984</v>
+        <v>1067</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>985</v>
+        <v>1068</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -16880,13 +16880,13 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>986</v>
+        <v>1069</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>987</v>
+        <v>1070</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>988</v>
+        <v>1071</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -16899,13 +16899,13 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>989</v>
+        <v>1072</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>990</v>
+        <v>1073</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>991</v>
+        <v>1074</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -16918,13 +16918,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>992</v>
+        <v>1075</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>993</v>
+        <v>1076</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>994</v>
+        <v>1077</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -16937,13 +16937,13 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>995</v>
+        <v>1078</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>996</v>
+        <v>1079</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>997</v>
+        <v>1080</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -16956,13 +16956,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>998</v>
+        <v>1081</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>999</v>
+        <v>1082</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -16975,13 +16975,13 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1001</v>
+        <v>1084</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>1002</v>
+        <v>1085</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>1003</v>
+        <v>1086</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -16994,13 +16994,13 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1004</v>
+        <v>1087</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>1005</v>
+        <v>1088</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>1006</v>
+        <v>1089</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -17013,10 +17013,10 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>1007</v>
+        <v>1090</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1008</v>
+        <v>1091</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -17030,13 +17030,13 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>1009</v>
+        <v>1092</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>1010</v>
+        <v>1093</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -17049,13 +17049,13 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>1011</v>
+        <v>1094</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>1012</v>
+        <v>1095</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -17068,13 +17068,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>1013</v>
+        <v>1096</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>1014</v>
+        <v>1097</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>1015</v>
+        <v>1098</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -17087,13 +17087,13 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>1016</v>
+        <v>1099</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>1017</v>
+        <v>1100</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>1018</v>
+        <v>1101</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -17106,13 +17106,13 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1019</v>
+        <v>1102</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>1020</v>
+        <v>1103</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>1021</v>
+        <v>1104</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -17125,13 +17125,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>1022</v>
+        <v>1105</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>1023</v>
+        <v>1106</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>1024</v>
+        <v>1107</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -17144,13 +17144,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>1025</v>
+        <v>1108</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>1026</v>
+        <v>1109</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1027</v>
+        <v>1110</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -17163,13 +17163,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1028</v>
+        <v>1111</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>1029</v>
+        <v>1112</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>1030</v>
+        <v>1113</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -17182,13 +17182,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1031</v>
+        <v>1114</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>1032</v>
+        <v>1115</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>1033</v>
+        <v>1116</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -17201,13 +17201,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>1034</v>
+        <v>1117</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>1035</v>
+        <v>1118</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1036</v>
+        <v>1119</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -17220,13 +17220,13 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>1037</v>
+        <v>1120</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>1038</v>
+        <v>1121</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>1039</v>
+        <v>1122</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -17239,13 +17239,13 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>1040</v>
+        <v>1123</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1041</v>
+        <v>1124</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>1042</v>
+        <v>1125</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -17258,13 +17258,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1043</v>
+        <v>1126</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>1045</v>
+        <v>1128</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -17277,13 +17277,13 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>1046</v>
+        <v>1129</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>1047</v>
+        <v>1130</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1048</v>
+        <v>1131</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -17296,13 +17296,13 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>1049</v>
+        <v>1132</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>1050</v>
+        <v>1133</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1051</v>
+        <v>1134</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -17315,13 +17315,13 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>1052</v>
+        <v>1135</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>1053</v>
+        <v>1136</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>1054</v>
+        <v>1137</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -17334,13 +17334,13 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>1055</v>
+        <v>1138</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1056</v>
+        <v>1139</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>1057</v>
+        <v>1140</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -17353,13 +17353,13 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>1058</v>
+        <v>1141</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1059</v>
+        <v>1142</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1060</v>
+        <v>1143</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -17372,13 +17372,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>1061</v>
+        <v>1144</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>1062</v>
+        <v>1145</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>1063</v>
+        <v>1146</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -17391,13 +17391,13 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>1064</v>
+        <v>1147</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1065</v>
+        <v>1148</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>1066</v>
+        <v>1149</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -17410,13 +17410,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>1067</v>
+        <v>1150</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1068</v>
+        <v>1151</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>1069</v>
+        <v>1152</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -17429,13 +17429,13 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>1070</v>
+        <v>1153</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>1071</v>
+        <v>1154</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>1072</v>
+        <v>1155</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -17448,13 +17448,13 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>1073</v>
+        <v>1156</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>1074</v>
+        <v>1157</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>1075</v>
+        <v>1158</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -17467,13 +17467,13 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>1076</v>
+        <v>1159</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>1077</v>
+        <v>1160</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>1078</v>
+        <v>1161</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -17486,13 +17486,13 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>1079</v>
+        <v>1162</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1080</v>
+        <v>1163</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1081</v>
+        <v>1164</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -17505,13 +17505,13 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>1082</v>
+        <v>1165</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>1083</v>
+        <v>1166</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>1084</v>
+        <v>1167</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -17524,13 +17524,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>1085</v>
+        <v>1168</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>1086</v>
+        <v>1169</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>1087</v>
+        <v>1170</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -17543,13 +17543,13 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>1088</v>
+        <v>1171</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>1089</v>
+        <v>1172</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>1090</v>
+        <v>1173</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -17562,13 +17562,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>1091</v>
+        <v>1174</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>1092</v>
+        <v>1175</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>1093</v>
+        <v>1176</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -17581,13 +17581,13 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>1094</v>
+        <v>1177</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>1095</v>
+        <v>1178</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>1096</v>
+        <v>1179</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -17600,13 +17600,13 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>1097</v>
+        <v>1180</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>1098</v>
+        <v>1181</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>1099</v>
+        <v>1182</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -17619,13 +17619,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>1100</v>
+        <v>1183</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>1101</v>
+        <v>1184</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>1102</v>
+        <v>1185</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -17638,13 +17638,13 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>1103</v>
+        <v>1186</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>1104</v>
+        <v>1187</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>1105</v>
+        <v>1188</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -17657,13 +17657,13 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>1106</v>
+        <v>1189</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>1107</v>
+        <v>1190</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>1108</v>
+        <v>1191</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -17676,13 +17676,13 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>1109</v>
+        <v>1192</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1110</v>
+        <v>1193</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>1110</v>
+        <v>1193</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -17695,13 +17695,13 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>1111</v>
+        <v>1194</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>1112</v>
+        <v>1195</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>1112</v>
+        <v>1195</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -17714,13 +17714,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>1113</v>
+        <v>1196</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>1114</v>
+        <v>1197</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>1115</v>
+        <v>1198</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -17733,13 +17733,13 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>1116</v>
+        <v>1199</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>1117</v>
+        <v>1200</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>1118</v>
+        <v>1201</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -17752,13 +17752,13 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>1119</v>
+        <v>1202</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>1120</v>
+        <v>1203</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>1121</v>
+        <v>1204</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -17771,13 +17771,13 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>1122</v>
+        <v>1205</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>1123</v>
+        <v>1206</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>1124</v>
+        <v>1207</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -17790,13 +17790,13 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>1125</v>
+        <v>1208</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>1126</v>
+        <v>1209</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>1127</v>
+        <v>1210</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -17809,13 +17809,13 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>1128</v>
+        <v>1211</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>1129</v>
+        <v>1212</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>1130</v>
+        <v>1213</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -17828,13 +17828,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>1131</v>
+        <v>1214</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>1132</v>
+        <v>1215</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>1133</v>
+        <v>1216</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -17847,13 +17847,13 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1134</v>
+        <v>1217</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>1135</v>
+        <v>1218</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>1136</v>
+        <v>1219</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -17866,13 +17866,13 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>1137</v>
+        <v>1220</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1138</v>
+        <v>1221</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>1139</v>
+        <v>1222</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -17885,13 +17885,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>1140</v>
+        <v>1223</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1141</v>
+        <v>1224</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>1142</v>
+        <v>1225</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -17904,13 +17904,13 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>1143</v>
+        <v>1226</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>1144</v>
+        <v>1227</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>1145</v>
+        <v>1228</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -17923,13 +17923,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>1146</v>
+        <v>1229</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>1147</v>
+        <v>1230</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>1148</v>
+        <v>1231</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -17942,13 +17942,13 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>1149</v>
+        <v>1232</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>1150</v>
+        <v>1233</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>1151</v>
+        <v>1234</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -17961,13 +17961,13 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>1152</v>
+        <v>1235</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>1153</v>
+        <v>1236</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>1153</v>
+        <v>1236</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -17980,13 +17980,13 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1154</v>
+        <v>1237</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>973</v>
+        <v>1056</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>973</v>
+        <v>1056</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -17999,13 +17999,13 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>1155</v>
+        <v>1238</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>1156</v>
+        <v>1239</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>1156</v>
+        <v>1239</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -18018,13 +18018,13 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>1157</v>
+        <v>1240</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>1158</v>
+        <v>1241</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>1159</v>
+        <v>1242</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -18037,13 +18037,13 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>1160</v>
+        <v>1243</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>1161</v>
+        <v>1244</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>1162</v>
+        <v>1245</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -18056,13 +18056,13 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>1163</v>
+        <v>1246</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>1164</v>
+        <v>1247</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>1165</v>
+        <v>1248</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -18075,13 +18075,13 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>1166</v>
+        <v>1249</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>1167</v>
+        <v>1250</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>1168</v>
+        <v>1251</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -18094,13 +18094,13 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>1169</v>
+        <v>1252</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1170</v>
+        <v>1253</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>1171</v>
+        <v>1254</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -18113,13 +18113,13 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>1172</v>
+        <v>1255</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>1173</v>
+        <v>1256</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>1174</v>
+        <v>1257</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -18132,13 +18132,13 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>1175</v>
+        <v>1258</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>1176</v>
+        <v>1259</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>1177</v>
+        <v>1260</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -18151,13 +18151,13 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>1178</v>
+        <v>1261</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>1179</v>
+        <v>1262</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>1180</v>
+        <v>1263</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -18170,13 +18170,13 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>1181</v>
+        <v>1264</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>1182</v>
+        <v>1265</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>1182</v>
+        <v>1265</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -18189,13 +18189,13 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>1183</v>
+        <v>1266</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>1184</v>
+        <v>1267</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>1185</v>
+        <v>1268</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -18208,13 +18208,13 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>1186</v>
+        <v>1269</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>1187</v>
+        <v>1270</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>1188</v>
+        <v>1271</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -18227,13 +18227,13 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>1189</v>
+        <v>1272</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>1190</v>
+        <v>1273</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>1191</v>
+        <v>1274</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -18246,13 +18246,13 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>1192</v>
+        <v>1275</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>1193</v>
+        <v>1276</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>1194</v>
+        <v>1277</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -18265,13 +18265,13 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>1195</v>
+        <v>1278</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>1196</v>
+        <v>1279</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>1197</v>
+        <v>1280</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -18284,13 +18284,13 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>1198</v>
+        <v>1281</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>1199</v>
+        <v>1282</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>1200</v>
+        <v>1283</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -18303,13 +18303,13 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>1201</v>
+        <v>1284</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>1202</v>
+        <v>1285</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>1203</v>
+        <v>1286</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -18322,13 +18322,13 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>1204</v>
+        <v>1287</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>1205</v>
+        <v>1288</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>1206</v>
+        <v>1289</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -18341,13 +18341,13 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>1207</v>
+        <v>1290</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>1208</v>
+        <v>1291</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>1209</v>
+        <v>1292</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -18360,13 +18360,13 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>1210</v>
+        <v>1293</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>1211</v>
+        <v>1294</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>1212</v>
+        <v>1295</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -18379,13 +18379,13 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1213</v>
+        <v>1296</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>1214</v>
+        <v>1297</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>1215</v>
+        <v>1298</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -18398,13 +18398,13 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1216</v>
+        <v>1299</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>1217</v>
+        <v>1300</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>1217</v>
+        <v>1300</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -18417,13 +18417,13 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1218</v>
+        <v>1301</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>1219</v>
+        <v>1302</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>1220</v>
+        <v>1303</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -18436,13 +18436,13 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>1221</v>
+        <v>1304</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>1222</v>
+        <v>1305</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>1223</v>
+        <v>1306</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -18455,13 +18455,13 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>1224</v>
+        <v>1307</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>1225</v>
+        <v>1308</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>1226</v>
+        <v>1309</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -18474,13 +18474,13 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>1227</v>
+        <v>1310</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>1228</v>
+        <v>1311</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>1229</v>
+        <v>1312</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -18493,10 +18493,10 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>1230</v>
+        <v>1313</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>1231</v>
+        <v>1314</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -18510,10 +18510,10 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>1232</v>
+        <v>1315</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>1233</v>
+        <v>1316</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -18527,10 +18527,10 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>1234</v>
+        <v>1317</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>1235</v>
+        <v>1318</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -18544,10 +18544,10 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>1236</v>
+        <v>1319</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>1237</v>
+        <v>1320</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -18561,10 +18561,10 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>1238</v>
+        <v>1321</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1239</v>
+        <v>1322</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -18578,10 +18578,10 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>1240</v>
+        <v>1323</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1241</v>
+        <v>1324</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -18595,10 +18595,10 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1242</v>
+        <v>1325</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>1243</v>
+        <v>1326</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -18612,10 +18612,10 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1244</v>
+        <v>1327</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>1245</v>
+        <v>1328</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -18629,10 +18629,10 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1246</v>
+        <v>1329</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>1247</v>
+        <v>1330</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -18646,10 +18646,10 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1248</v>
+        <v>1331</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1249</v>
+        <v>1332</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -18663,10 +18663,10 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1251</v>
+        <v>1334</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -18680,10 +18680,10 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1252</v>
+        <v>1335</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>1253</v>
+        <v>1336</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -18697,10 +18697,10 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1254</v>
+        <v>1337</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>1255</v>
+        <v>1338</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -18714,10 +18714,10 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1256</v>
+        <v>1339</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>1257</v>
+        <v>1340</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -18731,10 +18731,10 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1258</v>
+        <v>1341</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>1259</v>
+        <v>1342</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -18748,10 +18748,10 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1260</v>
+        <v>1343</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>1261</v>
+        <v>1344</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -18765,10 +18765,10 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1262</v>
+        <v>1345</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>1263</v>
+        <v>1346</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -18782,10 +18782,10 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1264</v>
+        <v>1347</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>1265</v>
+        <v>1348</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -18799,10 +18799,10 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1266</v>
+        <v>1349</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1267</v>
+        <v>1350</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -18816,10 +18816,10 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1268</v>
+        <v>1351</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>1269</v>
+        <v>1352</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -18833,10 +18833,10 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1270</v>
+        <v>1353</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>1271</v>
+        <v>1354</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -18850,10 +18850,10 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1272</v>
+        <v>1355</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>1273</v>
+        <v>1356</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -18867,10 +18867,10 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1274</v>
+        <v>1357</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>1253</v>
+        <v>1336</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -18884,10 +18884,10 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1275</v>
+        <v>1358</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>1276</v>
+        <v>1359</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -18901,10 +18901,10 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1277</v>
+        <v>1360</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>1278</v>
+        <v>1361</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -18918,10 +18918,10 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1279</v>
+        <v>1362</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>1280</v>
+        <v>1363</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -18935,10 +18935,10 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1281</v>
+        <v>1364</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>1282</v>
+        <v>1365</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -18952,10 +18952,10 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1283</v>
+        <v>1366</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1284</v>
+        <v>1367</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -18969,10 +18969,10 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1285</v>
+        <v>1368</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>1286</v>
+        <v>1369</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -18986,13 +18986,13 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1287</v>
+        <v>1370</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>1288</v>
+        <v>1371</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>1289</v>
+        <v>1372</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1290</v>
+        <v>1373</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>1291</v>
+        <v>1374</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -19022,10 +19022,10 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1292</v>
+        <v>1375</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1293</v>
+        <v>1376</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -19039,10 +19039,10 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1294</v>
+        <v>1377</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>1295</v>
+        <v>1378</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -19056,10 +19056,10 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1296</v>
+        <v>1379</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>1297</v>
+        <v>1380</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -19073,10 +19073,10 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1298</v>
+        <v>1381</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>1299</v>
+        <v>1382</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -19090,10 +19090,10 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1300</v>
+        <v>1383</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>1301</v>
+        <v>1384</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -19107,10 +19107,10 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1302</v>
+        <v>1385</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>1303</v>
+        <v>1386</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -19124,10 +19124,10 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1304</v>
+        <v>1387</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>1305</v>
+        <v>1388</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -19141,13 +19141,13 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1306</v>
+        <v>1389</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>1307</v>
+        <v>1390</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>1308</v>
+        <v>1391</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -19160,13 +19160,13 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1309</v>
+        <v>1392</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>1310</v>
+        <v>1393</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>1311</v>
+        <v>1394</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -19179,13 +19179,13 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1312</v>
+        <v>1395</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>1313</v>
+        <v>1396</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>1314</v>
+        <v>1397</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -19198,13 +19198,13 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1315</v>
+        <v>1398</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>1316</v>
+        <v>1399</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>1317</v>
+        <v>1400</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -19217,13 +19217,13 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1318</v>
+        <v>1401</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>1319</v>
+        <v>1402</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>1320</v>
+        <v>1403</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -19236,13 +19236,13 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1321</v>
+        <v>1404</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>1322</v>
+        <v>1405</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>1323</v>
+        <v>1406</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -19255,13 +19255,13 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1324</v>
+        <v>1407</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>1325</v>
+        <v>1408</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>1326</v>
+        <v>1409</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -19274,13 +19274,13 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1327</v>
+        <v>1410</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>1328</v>
+        <v>1411</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>1329</v>
+        <v>1412</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -19293,13 +19293,13 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>1330</v>
+        <v>1413</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>1331</v>
+        <v>1414</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>1332</v>
+        <v>1415</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -19312,7 +19312,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>1333</v>
+        <v>1416</v>
       </c>
       <c r="B546" s="8" t="s">
         <v>148</v>
@@ -19331,13 +19331,13 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>1334</v>
+        <v>1417</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>1335</v>
+        <v>1418</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>1336</v>
+        <v>1419</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -19350,13 +19350,13 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>1337</v>
+        <v>1420</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>1338</v>
+        <v>1421</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>1339</v>
+        <v>1422</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -19369,13 +19369,13 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>1340</v>
+        <v>1423</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>1341</v>
+        <v>1424</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>1342</v>
+        <v>1425</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -19388,13 +19388,13 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>1343</v>
+        <v>1426</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1344</v>
+        <v>1427</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>1345</v>
+        <v>1428</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -19407,13 +19407,13 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>1346</v>
+        <v>1429</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>1347</v>
+        <v>1430</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>1348</v>
+        <v>1431</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -19426,13 +19426,13 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>1349</v>
+        <v>1432</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>1350</v>
+        <v>1433</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>1351</v>
+        <v>1434</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -19445,13 +19445,13 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>1352</v>
+        <v>1435</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>1353</v>
+        <v>1436</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>1354</v>
+        <v>1437</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -19464,13 +19464,13 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>1355</v>
+        <v>1438</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>1356</v>
+        <v>1439</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>1357</v>
+        <v>1440</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -19483,13 +19483,13 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>1358</v>
+        <v>1441</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>1359</v>
+        <v>1442</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>1360</v>
+        <v>1443</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -19502,10 +19502,10 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>1361</v>
+        <v>1444</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1362</v>
+        <v>1445</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>257</v>
@@ -19521,13 +19521,13 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>1363</v>
+        <v>1446</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>882</v>
+        <v>965</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>1364</v>
+        <v>1447</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -19540,13 +19540,13 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>1365</v>
+        <v>1448</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>1366</v>
+        <v>1449</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>1367</v>
+        <v>1450</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -19559,13 +19559,13 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>1368</v>
+        <v>1451</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>1369</v>
+        <v>1452</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>1370</v>
+        <v>1453</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -19578,13 +19578,13 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>1371</v>
+        <v>1454</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>1372</v>
+        <v>1455</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>1373</v>
+        <v>1456</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -19597,13 +19597,13 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>1374</v>
+        <v>1457</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>1375</v>
+        <v>1458</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>1376</v>
+        <v>1459</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -19616,13 +19616,13 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>1377</v>
+        <v>1460</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>1378</v>
+        <v>1461</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>1379</v>
+        <v>1462</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -19635,13 +19635,13 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>1380</v>
+        <v>1463</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>1381</v>
+        <v>1464</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>1382</v>
+        <v>1465</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -19654,10 +19654,10 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>1383</v>
+        <v>1466</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>1384</v>
+        <v>1467</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -19671,10 +19671,10 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>1385</v>
+        <v>1468</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>1386</v>
+        <v>1469</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -19688,10 +19688,10 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1387</v>
+        <v>1470</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>1388</v>
+        <v>1471</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -19705,10 +19705,10 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1389</v>
+        <v>1472</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>1390</v>
+        <v>1473</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -19722,13 +19722,13 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1391</v>
+        <v>1474</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1392</v>
+        <v>1475</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>1393</v>
+        <v>1476</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -19741,13 +19741,13 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1394</v>
+        <v>1477</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>1395</v>
+        <v>1478</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>1396</v>
+        <v>1479</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -19760,13 +19760,13 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1397</v>
+        <v>1480</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1398</v>
+        <v>1481</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>1399</v>
+        <v>1482</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -19779,13 +19779,13 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1400</v>
+        <v>1483</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>1401</v>
+        <v>1484</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>1402</v>
+        <v>1485</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -19798,13 +19798,13 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1403</v>
+        <v>1486</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>1404</v>
+        <v>1487</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>1405</v>
+        <v>1488</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -19817,13 +19817,13 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1406</v>
+        <v>1489</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>1407</v>
+        <v>1490</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>1408</v>
+        <v>1491</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -19836,13 +19836,13 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1409</v>
+        <v>1492</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>1410</v>
+        <v>1493</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>1411</v>
+        <v>1494</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -19855,13 +19855,13 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1412</v>
+        <v>1495</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>1413</v>
+        <v>1496</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>1414</v>
+        <v>1497</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -19874,13 +19874,13 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1415</v>
+        <v>1498</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>1416</v>
+        <v>1499</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -19893,10 +19893,10 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1418</v>
+        <v>1501</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>1419</v>
+        <v>1502</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -19910,10 +19910,10 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1420</v>
+        <v>1503</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>1421</v>
+        <v>1504</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -19927,10 +19927,10 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1422</v>
+        <v>1505</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>1423</v>
+        <v>1506</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -19944,10 +19944,10 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1424</v>
+        <v>1507</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>1425</v>
+        <v>1508</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -19961,10 +19961,10 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1426</v>
+        <v>1509</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>1427</v>
+        <v>1510</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -19978,10 +19978,10 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1428</v>
+        <v>1511</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>1429</v>
+        <v>1512</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -19995,10 +19995,10 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1430</v>
+        <v>1513</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>1431</v>
+        <v>1514</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -20012,10 +20012,10 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1432</v>
+        <v>1515</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>1433</v>
+        <v>1516</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -20029,10 +20029,10 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1434</v>
+        <v>1517</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>1435</v>
+        <v>1518</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -20046,10 +20046,10 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1436</v>
+        <v>1519</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>1437</v>
+        <v>1520</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -20063,10 +20063,10 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1438</v>
+        <v>1521</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>1439</v>
+        <v>1522</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -20080,10 +20080,10 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1440</v>
+        <v>1523</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>1441</v>
+        <v>1524</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -20097,10 +20097,10 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1442</v>
+        <v>1525</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>1443</v>
+        <v>1526</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -20114,10 +20114,10 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1444</v>
+        <v>1527</v>
       </c>
       <c r="B590" s="8" t="s">
-        <v>1445</v>
+        <v>1528</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -20131,10 +20131,10 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1446</v>
+        <v>1529</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>1447</v>
+        <v>1530</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1448</v>
+        <v>1531</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>1449</v>
+        <v>1532</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -20165,10 +20165,10 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1450</v>
+        <v>1533</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>1451</v>
+        <v>1534</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -20182,10 +20182,10 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1452</v>
+        <v>1535</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1453</v>
+        <v>1536</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -20199,10 +20199,10 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>1454</v>
+        <v>1537</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>1455</v>
+        <v>1538</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -20216,10 +20216,10 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="s">
-        <v>1456</v>
+        <v>1539</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>1457</v>
+        <v>1540</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -20233,10 +20233,10 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>1458</v>
+        <v>1541</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>1459</v>
+        <v>1542</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -20250,10 +20250,10 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>1460</v>
+        <v>1543</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1461</v>
+        <v>1544</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -20267,10 +20267,10 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>1462</v>
+        <v>1545</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>1463</v>
+        <v>1546</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -20284,10 +20284,10 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="s">
-        <v>1464</v>
+        <v>1547</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1465</v>
+        <v>1548</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -20301,10 +20301,10 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="s">
-        <v>1466</v>
+        <v>1549</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>1467</v>
+        <v>1550</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -20318,10 +20318,10 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="s">
-        <v>1468</v>
+        <v>1551</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>1469</v>
+        <v>1552</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -20335,10 +20335,10 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="s">
-        <v>1470</v>
+        <v>1553</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>1220</v>
+        <v>1303</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -20352,10 +20352,10 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="s">
-        <v>1471</v>
+        <v>1554</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1472</v>
+        <v>1555</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -20369,10 +20369,10 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="s">
-        <v>1473</v>
+        <v>1556</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>1474</v>
+        <v>1557</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -20386,10 +20386,10 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
-        <v>1475</v>
+        <v>1558</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>1476</v>
+        <v>1559</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -20403,10 +20403,10 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
-        <v>1477</v>
+        <v>1560</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>1478</v>
+        <v>1561</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -20420,10 +20420,10 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
-        <v>1479</v>
+        <v>1562</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>1480</v>
+        <v>1563</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -20437,13 +20437,13 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
-        <v>1481</v>
+        <v>1564</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>1482</v>
+        <v>1565</v>
       </c>
       <c r="C609" s="8" t="s">
-        <v>1483</v>
+        <v>1566</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -20456,13 +20456,13 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
-        <v>1484</v>
+        <v>1567</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>1485</v>
+        <v>1568</v>
       </c>
       <c r="C610" s="8" t="s">
-        <v>1486</v>
+        <v>1569</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -20475,10 +20475,10 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
-        <v>1487</v>
+        <v>1570</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>1488</v>
+        <v>1571</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -20492,10 +20492,10 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
-        <v>1489</v>
+        <v>1572</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>1490</v>
+        <v>1573</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -20509,10 +20509,10 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>1491</v>
+        <v>1574</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>1492</v>
+        <v>1575</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -20526,10 +20526,10 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>1493</v>
+        <v>1576</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1494</v>
+        <v>1577</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -20543,10 +20543,10 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>1495</v>
+        <v>1578</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>1496</v>
+        <v>1579</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -20560,13 +20560,13 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
-        <v>1497</v>
+        <v>1580</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>1498</v>
+        <v>1581</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>1499</v>
+        <v>1582</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -20579,10 +20579,10 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="s">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>1501</v>
+        <v>1584</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -20596,10 +20596,10 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
-        <v>1502</v>
+        <v>1585</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>1503</v>
+        <v>1586</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -20613,10 +20613,10 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1504</v>
+        <v>1587</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>1505</v>
+        <v>1588</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -20630,10 +20630,10 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>1506</v>
+        <v>1589</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>1507</v>
+        <v>1590</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -20647,10 +20647,10 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1508</v>
+        <v>1591</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>1509</v>
+        <v>1592</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -20664,10 +20664,10 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>1510</v>
+        <v>1593</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>1511</v>
+        <v>1594</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -20681,13 +20681,13 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>1512</v>
+        <v>1595</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>1513</v>
+        <v>1596</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>1514</v>
+        <v>1597</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -20700,10 +20700,10 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>1515</v>
+        <v>1598</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>1516</v>
+        <v>1599</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -20717,10 +20717,10 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>1517</v>
+        <v>1600</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>1518</v>
+        <v>1601</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -20734,10 +20734,10 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>1519</v>
+        <v>1602</v>
       </c>
       <c r="B626" s="8" t="s">
-        <v>1520</v>
+        <v>1603</v>
       </c>
       <c r="C626" s="8" t="s">
         <v>214</v>
@@ -20753,13 +20753,13 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>1521</v>
+        <v>1604</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>1522</v>
+        <v>1605</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>1522</v>
+        <v>1605</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -20772,13 +20772,13 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>1523</v>
+        <v>1606</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>1524</v>
+        <v>1607</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>1525</v>
+        <v>1608</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -20791,13 +20791,13 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>1526</v>
+        <v>1609</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>1527</v>
+        <v>1610</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>1528</v>
+        <v>1611</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -20810,10 +20810,10 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>1529</v>
+        <v>1612</v>
       </c>
       <c r="B630" s="8" t="s">
-        <v>1530</v>
+        <v>1613</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -20827,10 +20827,10 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>1531</v>
+        <v>1614</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>1532</v>
+        <v>1615</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -20844,13 +20844,13 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>1533</v>
+        <v>1616</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>1534</v>
+        <v>1617</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>1535</v>
+        <v>1618</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -20863,7 +20863,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>1536</v>
+        <v>1619</v>
       </c>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20878,7 +20878,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>1537</v>
+        <v>1620</v>
       </c>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20893,7 +20893,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>1538</v>
+        <v>1621</v>
       </c>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20908,7 +20908,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>1539</v>
+        <v>1622</v>
       </c>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20923,7 +20923,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>1540</v>
+        <v>1623</v>
       </c>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20938,7 +20938,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>1541</v>
+        <v>1624</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20953,7 +20953,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>1542</v>
+        <v>1625</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20968,7 +20968,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>1543</v>
+        <v>1626</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20983,7 +20983,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>1544</v>
+        <v>1627</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>

--- a/lang.xlsx
+++ b/lang.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1718" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1717" uniqueCount="1717">
   <si>
     <t>key</t>
   </si>
@@ -2945,7 +2945,7 @@
     <t>trans0373</t>
   </si>
   <si>
-    <t>$s 在 [%d-%d]范围内</t>
+    <t>%s 在 [%d-%d]范围内</t>
   </si>
   <si>
     <t>trans0374</t>
@@ -3104,10 +3104,10 @@
     <t>trans0397</t>
   </si>
   <si>
-    <t>%s地址无效</t>
-  </si>
-  <si>
-    <t>%s address is invalid</t>
+    <t>地址无效</t>
+  </si>
+  <si>
+    <t>address is invalid</t>
   </si>
   <si>
     <t>trans0398</t>
@@ -3687,9 +3687,6 @@
   </si>
   <si>
     <t>trans0466</t>
-  </si>
-  <si>
-    <t>地址无效</t>
   </si>
   <si>
     <t>invalid address</t>
@@ -6042,7 +6039,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9290,7 +9287,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -9312,10 +9309,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1629</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1630</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -9328,10 +9325,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1631</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1632</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -9347,10 +9344,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1633</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1634</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -9366,13 +9363,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1635</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1636</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1637</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9464,7 +9461,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -9483,10 +9480,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1639</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1640</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9556,7 +9553,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -9597,10 +9594,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1642</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1643</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -9670,10 +9667,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>1644</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1645</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
@@ -9689,10 +9686,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1646</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1647</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
@@ -9706,10 +9703,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>1648</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1649</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
@@ -9723,10 +9720,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>1650</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1651</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -9740,10 +9737,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>1652</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>1653</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -9757,10 +9754,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>1654</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>1655</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -9774,10 +9771,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>1656</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>1657</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>48</v>
@@ -9793,10 +9790,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>1658</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>1659</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -9810,10 +9807,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>1660</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>1661</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>49</v>
@@ -9829,10 +9826,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>1662</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>1663</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>50</v>
@@ -9848,10 +9845,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>1664</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>1665</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>51</v>
@@ -9867,10 +9864,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>1666</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1667</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
@@ -9884,10 +9881,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>1668</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>1669</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -9901,10 +9898,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>1670</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1671</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -9918,10 +9915,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>1672</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1673</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
@@ -9935,10 +9932,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>1674</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>1675</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -9952,10 +9949,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>1676</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>1677</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>52</v>
@@ -9971,10 +9968,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>1678</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>1679</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
@@ -9988,10 +9985,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>1680</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>1681</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
@@ -10005,10 +10002,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>1682</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>1683</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -10022,10 +10019,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>1684</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>1685</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -10039,10 +10036,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>1686</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>1687</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -10056,10 +10053,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>1688</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>1689</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -10073,10 +10070,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>1690</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>1691</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
@@ -10090,10 +10087,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>1692</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>1693</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -10107,10 +10104,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>1694</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>1695</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
@@ -10124,10 +10121,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>1696</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>1697</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -10141,10 +10138,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>1698</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>1699</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -10158,10 +10155,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>1700</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>1701</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -10175,10 +10172,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>1702</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>1703</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -10192,7 +10189,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>53</v>
@@ -10209,7 +10206,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>54</v>
@@ -10226,7 +10223,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>55</v>
@@ -10527,10 +10524,10 @@
         <v>94</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>1707</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>1708</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10546,10 +10543,10 @@
         <v>95</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>1709</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>1710</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -10565,10 +10562,10 @@
         <v>96</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>1711</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>1712</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -10584,7 +10581,7 @@
         <v>97</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>98</v>
@@ -10622,7 +10619,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>103</v>
@@ -10641,10 +10638,10 @@
         <v>104</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>1715</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>1716</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11387,7 +11384,7 @@
         <v>199</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>200</v>
@@ -17869,10 +17866,10 @@
         <v>1220</v>
       </c>
       <c r="B466" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C466" s="8" t="s">
         <v>1221</v>
-      </c>
-      <c r="C466" s="8" t="s">
-        <v>1222</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -17885,13 +17882,13 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B467" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="C467" s="8" t="s">
         <v>1224</v>
-      </c>
-      <c r="C467" s="8" t="s">
-        <v>1225</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -17904,13 +17901,13 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B468" s="8" t="s">
         <v>1226</v>
       </c>
-      <c r="B468" s="8" t="s">
+      <c r="C468" s="8" t="s">
         <v>1227</v>
-      </c>
-      <c r="C468" s="8" t="s">
-        <v>1228</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -17923,13 +17920,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B469" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="B469" s="8" t="s">
+      <c r="C469" s="8" t="s">
         <v>1230</v>
-      </c>
-      <c r="C469" s="8" t="s">
-        <v>1231</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -17942,13 +17939,13 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B470" s="8" t="s">
         <v>1232</v>
       </c>
-      <c r="B470" s="8" t="s">
+      <c r="C470" s="8" t="s">
         <v>1233</v>
-      </c>
-      <c r="C470" s="8" t="s">
-        <v>1234</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -17961,13 +17958,13 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B471" s="8" t="s">
         <v>1235</v>
       </c>
-      <c r="B471" s="8" t="s">
-        <v>1236</v>
-      </c>
       <c r="C471" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -17980,7 +17977,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B472" s="8" t="s">
         <v>1056</v>
@@ -17999,13 +17996,13 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B473" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="B473" s="8" t="s">
-        <v>1239</v>
-      </c>
       <c r="C473" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -18018,13 +18015,13 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B474" s="8" t="s">
         <v>1240</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <